--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,91 +7,91 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_329BF4A0_AFF2_4F02_BB2F_855874B60D96_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E44EE6F3_ECE4_40A8_BFE1_C4E382E403B2_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BFEFDBB6_B6E6_441B_88AE_AFF74363FED5_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8918F541_399B_4BA4_A46C_D9B4311837F2_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E85DF74A_D9B6_4C6E_BE79_0BD6C20248FB_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B752C1D6_4FB1_4ACD_B021_0AB1239F710D_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_900660F1_BBD3_49B7_B70A_EEC0FBF4D145_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_92F01370_0A3A_4997_9892_E25BC49592F7_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_83B058A5_D679_4F12_AFA2_A6DD9B1C92C1_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_82800F28_0DCE_4683_80DD_0C77774B865D_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5552827F_261C_4A35_B5A7_8AE3BE8EEA31_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1AEA59CE_0DEB_44A4_B46C_DA85CA47046D_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_55D6512E_4090_4E5A_BE50_4E056F5F8970_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2263F33B_9CAE_47DB_9E4B_A092E9E06D55_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C53CEAF9_E3D4_4C5D_9C00_45D86399C75F_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1FAAEB12_77B7_458E_BDB9_9816B664A56D_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F85DE9BE_CD00_449A_BA2D_CAE88AA646D1_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_070CF646_E1B3_4680_BDFA_4043EDDEA174_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_767EBD76_AAFE_45FC_B301_EDAC2E2942AC_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7D2CF687_82AC_45DB_8B87_A53B783F7EE4_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1FCD9AA8_7932_4410_B166_159E503AD5D8_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_05E4D649_E8FB_496A_9F65_663031F6496E_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_924D18C7_95A0_4D9C_9241_A64EBCCD01E1_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9D5C8D26_D8BF_40D2_9F0C_659D481D85A7_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3F0ABF1F_1130_4AC7_B112_03FDDF6B5E36_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0413B4D9_F6D9_41DA_8AFB_EC7736255B87_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_ACBF2523_5123_4BE2_86D8_B63BC0C926EF_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_02CE0D82_7659_4CAD_A702_0104468834A7_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D456FBE9_0564_4F09_9768_B42D478DCC62_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_10A33F5E_9F59_4517_911E_DC3CF1A78ECF_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_89BB783D_E09A_4DFF_9768_756CB954A336_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_39D2DCD0_FE5C_4BC6_89D8_24DD539ED93D_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DC33E18F_FACB_4704_9A5C_36C3CE3158AE_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_259BFCC8_9185_4A0C_A875_656BC3217226_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B47A0A1F_E11C_4247_90A0_3CCB235E46A1_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7541E1BD_1278_4915_B28D_DA9E3A93D16E_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5AD31624_1110_4A80_9724_1E9DA392B654_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B967A6AC_A374_4FAB_9499_C1D8595AA017_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_49E7F3CE_F40C_4FED_BEF8_26F090EE4EAB_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_724DC91F_FF1E_468C_B992_B1D0F51CCC52_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8232B643_36E7_487B_B1D6_FD3DA06BF1E9_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8BD75489_4874_47F0_8DF3_393379AB259B_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A856CC1B_B362_4556_ACE2_C976256EBF5B_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DBDF39FA_7899_4557_B3BC_352C416503A3_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9E47DD61_E6DE_488B_80BA_967A50C8AB36_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BE442BB6_3A31_442F_B924_D13D0F598ECC_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DE900718_0161_4792_8EAB_C58F78F69250_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_030204D7_095F_4354_969B_56C1AA7143AE_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D8E7AD2B_1D6A_4A53_BADF_5738E01F788C_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7B44AC12_E6B4_4313_993B_10F7132B892F_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AF68C2CF_34E8_443E_B4ED_BB66CB150D6B_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CA698D16_9134_4DB4_984A_29693DB788A8_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_743AD89C_320C_4C4C_BC5F_7EC0A02EECDE_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A7B4F8D0_C2B2_4D23_888B_901C02EDA207_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_43C9EAE1_EEE7_465A_B2FE_FCC5D6144576_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D6318188_C0E0_4364_A149_FD9E8D671A1B_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2039A978_ADAF_4711_8B07_046A7AD53BA6_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C6F25ED8_01F5_4EC6_BA59_11F1B290E9F7_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3D296FF4_2091_4F77_BB20_5342594B263E_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_560CED10_97E3_4B8F_9E2D_42501DEDD37A_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FAE9710F_D2BA_4EBD_88A7_23B01C8DBCFC_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C330DD12_F7AD_4A16_8E93_F60E7DD26815_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EF393267_77E9_4937_B374_A059A55A3DDA_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3A76F548_2F88_4245_B104_5C766A91C956_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9DF68346_E0CA_4FA3_B5D1_1AD86B191463_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1A8878F0_0412_4D55_9C2F_095CAD9E6CFA_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0ECEE141_0B77_44E5_A6DE_68B5A15450B4_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AABB1EE6_8061_4BBE_83FC_087E9C58414A_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EBA9F249_1672_448E_8531_16FD1942FCAD_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B7D1E82B_A5E5_4C14_9C86_B61A78ED8084_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_48CE27A7_5499_4811_A41E_787093C14E7E_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E460850B_B72B_48C4_B246_11D0D04F03F5_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_92BEF0B2_FF4A_4089_8EE6_8E4DADA938AF_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9E4183D2_CC5A_4D20_BB9A_2F013C0CE815_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0909C5DC_ED19_4D4A_9DB0_5392CF96C4D4_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F436789B_C5EA_41CB_8359_78C305F1E83A_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8918F541-399B-4BA4-A46C-D9B4311837F2}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{89BB783D-E09A-4DFF-9768-756CB954A336}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1AEA59CE-0DEB-44A4-B46C-DA85CA47046D}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2263F33B-9CAE-47DB-9E4B-A092E9E06D55}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{924D18C7-95A0-4D9C-9241-A64EBCCD01E1}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5AD31624-1110-4A80-9724-1E9DA392B654}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{83B058A5-D679-4F12-AFA2-A6DD9B1C92C1}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{329BF4A0-AFF2-4F02-BB2F-855874B60D96}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{02CE0D82-7659-4CAD-A702-0104468834A7}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3F0ABF1F-1130-4AC7-B112-03FDDF6B5E36}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5552827F-261C-4A35-B5A7-8AE3BE8EEA31}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C53CEAF9-E3D4-4C5D-9C00-45D86399C75F}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D456FBE9-0564-4F09-9768-B42D478DCC62}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B967A6AC-A374-4FAB-9499-C1D8595AA017}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0413B4D9-F6D9-41DA-8AFB-EC7736255B87}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F85DE9BE-CD00-449A-BA2D-CAE88AA646D1}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{900660F1-BBD3-49B7-B70A-EEC0FBF4D145}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7541E1BD-1278-4915-B28D-DA9E3A93D16E}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DC33E18F-FACB-4704-9A5C-36C3CE3158AE}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{82800F28-0DCE-4683-80DD-0C77774B865D}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1FAAEB12-77B7-458E-BDB9-9816B664A56D}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{92F01370-0A3A-4997-9892-E25BC49592F7}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{10A33F5E-9F59-4517-911E-DC3CF1A78ECF}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BFEFDBB6-B6E6-441B-88AE-AFF74363FED5}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{05E4D649-E8FB-496A-9F65-663031F6496E}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E44EE6F3-ECE4-40A8-BFE1-C4E382E403B2}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B47A0A1F-E11C-4247-90A0-3CCB235E46A1}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{55D6512E-4090-4E5A-BE50-4E056F5F8970}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7D2CF687-82AC-45DB-8B87-A53B783F7EE4}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{39D2DCD0-FE5C-4BC6-89D8-24DD539ED93D}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ACBF2523-5123-4BE2-86D8-B63BC0C926EF}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1FCD9AA8-7932-4410-B166-159E503AD5D8}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B752C1D6-4FB1-4ACD-B021-0AB1239F710D}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E85DF74A-D9B6-4C6E-BE79-0BD6C20248FB}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{767EBD76-AAFE-45FC-B301-EDAC2E2942AC}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9D5C8D26-D8BF-40D2-9F0C-659D481D85A7}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{070CF646-E1B3-4680-BDFA-4043EDDEA174}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{259BFCC8-9185-4A0C-A875-656BC3217226}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3A76F548-2F88-4245-B104-5C766A91C956}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DE900718-0161-4792-8EAB-C58F78F69250}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{030204D7-095F-4354-969B-56C1AA7143AE}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14781" uniqueCount="3209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14782" uniqueCount="3209">
   <si>
     <t>Perkataan</t>
   </si>
@@ -67551,23 +67551,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7541E1BD-1278-4915-B28D-DA9E3A93D16E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$L$572"/>
     </customSheetView>
-    <customSheetView guid="{900660F1-BBD3-49B7-B70A-EEC0FBF4D145}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$L$462">
         <sortState ref="A429:L462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9D5C8D26-D8BF-40D2-9F0C-659D481D85A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$L$565"/>
     </customSheetView>
-    <customSheetView guid="{767EBD76-AAFE-45FC-B301-EDAC2E2942AC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$L$531"/>
     </customSheetView>
-    <customSheetView guid="{39D2DCD0-FE5C-4BC6-89D8-24DD539ED93D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$L$565">
         <filterColumn colId="6">
           <filters>
@@ -67579,14 +67579,14 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2263F33B-9CAE-47DB-9E4B-A092E9E06D55}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$L$149">
         <sortState ref="A119:L149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{7D2CF687-82AC-45DB-8B87-A53B783F7EE4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$1125">
         <filterColumn colId="13">
           <filters>
@@ -67595,20 +67595,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B47A0A1F-E11C-4247-90A0-3CCB235E46A1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$L$1023"/>
     </customSheetView>
-    <customSheetView guid="{10A33F5E-9F59-4517-911E-DC3CF1A78ECF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$L$69"/>
     </customSheetView>
-    <customSheetView guid="{F85DE9BE-CD00-449A-BA2D-CAE88AA646D1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$L$157">
         <sortState ref="A75:L157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{05E4D649-E8FB-496A-9F65-663031F6496E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$L$36">
         <filterColumn colId="6">
           <filters>
@@ -67617,13 +67617,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{82800F28-0DCE-4683-80DD-0C77774B865D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$L$993"/>
     </customSheetView>
-    <customSheetView guid="{C53CEAF9-E3D4-4C5D-9C00-45D86399C75F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$L$346"/>
     </customSheetView>
-    <customSheetView guid="{1FAAEB12-77B7-458E-BDB9-9816B664A56D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$L$769">
         <filterColumn colId="4">
           <filters>
@@ -67636,35 +67636,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{89BB783D-E09A-4DFF-9768-756CB954A336}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$L$793"/>
     </customSheetView>
-    <customSheetView guid="{D456FBE9-0564-4F09-9768-B42D478DCC62}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DE900718-0161-4792-8EAB-C58F78F69250}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$L$1031"/>
     </customSheetView>
-    <customSheetView guid="{92F01370-0A3A-4997-9892-E25BC49592F7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$L$724"/>
     </customSheetView>
-    <customSheetView guid="{BFEFDBB6-B6E6-441B-88AE-AFF74363FED5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{030204D7-095F-4354-969B-56C1AA7143AE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$L$1074"/>
     </customSheetView>
-    <customSheetView guid="{1FCD9AA8-7932-4410-B166-159E503AD5D8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$L$863"/>
     </customSheetView>
-    <customSheetView guid="{B752C1D6-4FB1-4ACD-B021-0AB1239F710D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$L$811">
         <sortState ref="A775:L811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{329BF4A0-AFF2-4F02-BB2F-855874B60D96}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3A76F548-2F88-4245-B104-5C766A91C956}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$L$874"/>
     </customSheetView>
-    <customSheetView guid="{E44EE6F3-ECE4-40A8-BFE1-C4E382E403B2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$584"/>
     </customSheetView>
-    <customSheetView guid="{8918F541-399B-4BA4-A46C-D9B4311837F2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$L$774">
         <filterColumn colId="6">
           <filters>
@@ -67676,24 +67676,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3F0ABF1F-1130-4AC7-B112-03FDDF6B5E36}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0413B4D9-F6D9-41DA-8AFB-EC7736255B87}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$L$574">
         <sortState ref="A565:L574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{924D18C7-95A0-4D9C-9241-A64EBCCD01E1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$L$890"/>
     </customSheetView>
-    <customSheetView guid="{070CF646-E1B3-4680-BDFA-4043EDDEA174}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$L$266">
         <filterColumn colId="11">
           <filters>
@@ -67705,10 +67705,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5552827F-261C-4A35-B5A7-8AE3BE8EEA31}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$L$802"/>
     </customSheetView>
-    <customSheetView guid="{55D6512E-4090-4E5A-BE50-4E056F5F8970}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="2">
           <filters>
@@ -67726,7 +67726,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{ACBF2523-5123-4BE2-86D8-B63BC0C926EF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="13">
           <filters>
@@ -67735,36 +67735,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E85DF74A-D9B6-4C6E-BE79-0BD6C20248FB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125"/>
     </customSheetView>
-    <customSheetView guid="{B967A6AC-A374-4FAB-9499-C1D8595AA017}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$L$128"/>
     </customSheetView>
-    <customSheetView guid="{5AD31624-1110-4A80-9724-1E9DA392B654}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$L$334">
         <sortState ref="A315:L334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{02CE0D82-7659-4CAD-A702-0104468834A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$591"/>
     </customSheetView>
-    <customSheetView guid="{1AEA59CE-0DEB-44A4-B46C-DA85CA47046D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$L$658"/>
     </customSheetView>
-    <customSheetView guid="{DC33E18F-FACB-4704-9A5C-36C3CE3158AE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$L$960">
         <sortState ref="A923:L960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{83B058A5-D679-4F12-AFA2-A6DD9B1C92C1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$L$1005"/>
     </customSheetView>
-    <customSheetView guid="{259BFCC8-9185-4A0C-A875-656BC3217226}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$L$314"/>
     </customSheetView>
   </customSheetViews>
@@ -68674,7 +68674,9 @@
       <c r="B2" s="92" t="s">
         <v>3200</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="92" t="s">
+        <v>3201</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="93" t="s">

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,91 +7,91 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_49E7F3CE_F40C_4FED_BEF8_26F090EE4EAB_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_724DC91F_FF1E_468C_B992_B1D0F51CCC52_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8232B643_36E7_487B_B1D6_FD3DA06BF1E9_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8BD75489_4874_47F0_8DF3_393379AB259B_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A856CC1B_B362_4556_ACE2_C976256EBF5B_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DBDF39FA_7899_4557_B3BC_352C416503A3_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9E47DD61_E6DE_488B_80BA_967A50C8AB36_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BE442BB6_3A31_442F_B924_D13D0F598ECC_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DE900718_0161_4792_8EAB_C58F78F69250_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_030204D7_095F_4354_969B_56C1AA7143AE_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D8E7AD2B_1D6A_4A53_BADF_5738E01F788C_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7B44AC12_E6B4_4313_993B_10F7132B892F_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF68C2CF_34E8_443E_B4ED_BB66CB150D6B_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_CA698D16_9134_4DB4_984A_29693DB788A8_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_743AD89C_320C_4C4C_BC5F_7EC0A02EECDE_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A7B4F8D0_C2B2_4D23_888B_901C02EDA207_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_43C9EAE1_EEE7_465A_B2FE_FCC5D6144576_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D6318188_C0E0_4364_A149_FD9E8D671A1B_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2039A978_ADAF_4711_8B07_046A7AD53BA6_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C6F25ED8_01F5_4EC6_BA59_11F1B290E9F7_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3D296FF4_2091_4F77_BB20_5342594B263E_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_560CED10_97E3_4B8F_9E2D_42501DEDD37A_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FAE9710F_D2BA_4EBD_88A7_23B01C8DBCFC_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C330DD12_F7AD_4A16_8E93_F60E7DD26815_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EF393267_77E9_4937_B374_A059A55A3DDA_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3A76F548_2F88_4245_B104_5C766A91C956_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9DF68346_E0CA_4FA3_B5D1_1AD86B191463_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1A8878F0_0412_4D55_9C2F_095CAD9E6CFA_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0ECEE141_0B77_44E5_A6DE_68B5A15450B4_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AABB1EE6_8061_4BBE_83FC_087E9C58414A_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EBA9F249_1672_448E_8531_16FD1942FCAD_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B7D1E82B_A5E5_4C14_9C86_B61A78ED8084_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_48CE27A7_5499_4811_A41E_787093C14E7E_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E460850B_B72B_48C4_B246_11D0D04F03F5_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_92BEF0B2_FF4A_4089_8EE6_8E4DADA938AF_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9E4183D2_CC5A_4D20_BB9A_2F013C0CE815_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0909C5DC_ED19_4D4A_9DB0_5392CF96C4D4_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F436789B_C5EA_41CB_8359_78C305F1E83A_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E033F24B_222D_4C10_9E81_2CD13F2D27CA_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DC196AA5_A4AE_4C93_995D_C8FA5331B2E2_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_76526F03_6BB6_47C6_A22D_8CED733D2C92_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4CF85566_B44C_4CE0_B041_FF442715F5FB_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C3F86223_1CE5_44C1_87CE_40666E8A308F_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A984F94B_0BB4_4433_89DB_AFDFBD6AE7F9_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E41D096E_0ABB_48D0_A4ED_16352B60F84D_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_52071FA0_C79C_4E2C_9B82_5FC05209D4E7_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_98404195_76EE_4140_9039_AD3068CC13E6_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C56FDD5D_C848_4EA9_8EC0_B3E8FFB57F91_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D8E019AC_D677_4A71_A7A7_F65745991DC9_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_05E28A09_23CF_4F91_95FB_5F959B17C232_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DE8783DB_61C2_4EA7_A572_E71C0795FEA1_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_361013E5_E895_48D0_B579_FC88480C5F47_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D560E911_BF63_4572_BF1B_4AF1C36BB0F6_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2CC30FC2_C6C4_4FBA_8A83_09C3EDAFCB1A_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_33596B96_C2AA_4CF3_93FF_CB3D5E438131_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EB148AC7_BEAD_4132_98AC_E5E0C12786AC_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_578123A8_10D5_4CF4_BC99_156B0063D202_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_88CF1269_A498_4F96_8096_DF9A248D182F_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0525DDEC_C925_45B1_9847_6B10EECC72E1_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4366E692_EA63_470F_AD6B_F16D89BA7A13_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_29953007_05A1_4AA5_AF83_C71F0162324C_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4B29C85D_8F4B_41C5_98E1_179F34C547AD_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_30753236_7AA4_4693_B24C_742CAA8C26E5_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D1D0E9F4_CDA8_4E5B_93DD_F2C29EAD6080_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_85A2FC98_A2B5_4E0D_AA36_AF69AE3B83B5_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4484A6DE_93A6_4A06_9698_3E212A1F4069_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_941CA0B9_8F0E_40BD_8E17_11D8E91E25A7_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_191CE3A5_E0F7_4A5A_A27B_B2DCD098BF72_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1C914825_B774_497B_9951_7424A275C6C8_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4900EDE6_BCBD_49E0_843B_3969248BB0EF_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FB5A0C69_03A9_4211_8A02_EDD5A66544AD_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_986591FF_6F24_4023_8AC1_D53F01184713_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6FC2398D_0036_45FB_A79D_B7AEBC0EB69B_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_440974C0_07E2_4054_AD03_D6D4230CA7A2_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_18217A88_0981_418C_ABFA_AC931682F80F_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0B8CAF0B_9853_4166_868E_F5DFCF10FF93_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3A76F548-2F88-4245-B104-5C766A91C956}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DE900718-0161-4792-8EAB-C58F78F69250}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{030204D7-095F-4354-969B-56C1AA7143AE}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{05E28A09-23CF-4F91-95FB-5F959B17C232}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{52071FA0-C79C-4E2C-9B82-5FC05209D4E7}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4CF85566-B44C-4CE0-B041-FF442715F5FB}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4366E692-EA63-470F-AD6B-F16D89BA7A13}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C56FDD5D-C848-4EA9-8EC0-B3E8FFB57F91}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A984F94B-0BB4-4433-89DB-AFDFBD6AE7F9}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DE8783DB-61C2-4EA7-A572-E71C0795FEA1}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{578123A8-10D5-4CF4-BC99-156B0063D202}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{440974C0-07E2-4054-AD03-D6D4230CA7A2}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{85A2FC98-A2B5-4E0D-AA36-AF69AE3B83B5}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{361013E5-E895-48D0-B579-FC88480C5F47}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4900EDE6-BCBD-49E0-843B-3969248BB0EF}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{98404195-76EE-4140-9039-AD3068CC13E6}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{986591FF-6F24-4023-8AC1-D53F01184713}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6FC2398D-0036-45FB-A79D-B7AEBC0EB69B}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2CC30FC2-C6C4-4FBA-8A83-09C3EDAFCB1A}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{76526F03-6BB6-47C6-A22D-8CED733D2C92}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EB148AC7-BEAD-4132-98AC-E5E0C12786AC}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{941CA0B9-8F0E-40BD-8E17-11D8E91E25A7}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D1D0E9F4-CDA8-4E5B-93DD-F2C29EAD6080}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{29953007-05A1-4AA5-AF83-C71F0162324C}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C3F86223-1CE5-44C1-87CE-40666E8A308F}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8E019AC-D677-4A71-A7A7-F65745991DC9}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0525DDEC-C925-45B1-9847-6B10EECC72E1}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{30753236-7AA4-4693-B24C-742CAA8C26E5}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB5A0C69-03A9-4211-8A02-EDD5A66544AD}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D560E911-BF63-4572-BF1B-4AF1C36BB0F6}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B8CAF0B-9853-4166-868E-F5DFCF10FF93}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E41D096E-0ABB-48D0-A4ED-16352B60F84D}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{33596B96-C2AA-4CF3-93FF-CB3D5E438131}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4484A6DE-93A6-4A06-9698-3E212A1F4069}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4B29C85D-8F4B-41C5-98E1-179F34C547AD}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E033F24B-222D-4C10-9E81-2CD13F2D27CA}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1C914825-B774-497B-9951-7424A275C6C8}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DC196AA5-A4AE-4C93-995D-C8FA5331B2E2}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88CF1269-A498-4F96-8096-DF9A248D182F}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{191CE3A5-E0F7-4A5A-A27B-B2DCD098BF72}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{18217A88-0981-418C-ABFA-AC931682F80F}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14782" uniqueCount="3209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14781" uniqueCount="3209">
   <si>
     <t>Perkataan</t>
   </si>
@@ -10496,41 +10496,41 @@
     <t>Toliet</t>
   </si>
   <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Things/Communication</t>
+  </si>
+  <si>
+    <t>Tempat/Pendidikan</t>
+  </si>
+  <si>
+    <t>Places/Education</t>
+  </si>
+  <si>
+    <t>Tempat/Pertubuhan</t>
+  </si>
+  <si>
+    <t>Places/Organisations</t>
+  </si>
+  <si>
+    <t>Tempat/Pengangkutan</t>
+  </si>
+  <si>
+    <t>Places/Transportation</t>
+  </si>
+  <si>
     <t>Isyarat Baru/Isyarat Baru</t>
   </si>
   <si>
     <t>New Signs/New Signs</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>Things/Communication</t>
-  </si>
-  <si>
-    <t>Tempat/Pendidikan</t>
-  </si>
-  <si>
-    <t>Places/Education</t>
-  </si>
-  <si>
-    <t>Tempat/Pertubuhan</t>
-  </si>
-  <si>
-    <t>Places/Organisations</t>
-  </si>
-  <si>
-    <t>Tempat/Pengangkutan</t>
-  </si>
-  <si>
-    <t>Places/Transportation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -10706,10 +10706,6 @@
       <color theme="5"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10755,7 +10751,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -11031,9 +11027,6 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -67551,23 +67544,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EB148AC7-BEAD-4132-98AC-E5E0C12786AC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$L$572"/>
     </customSheetView>
-    <customSheetView guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{76526F03-6BB6-47C6-A22D-8CED733D2C92}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$L$462">
         <sortState ref="A429:L462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{88CF1269-A498-4F96-8096-DF9A248D182F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$L$565"/>
     </customSheetView>
-    <customSheetView guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DC196AA5-A4AE-4C93-995D-C8FA5331B2E2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$L$531"/>
     </customSheetView>
-    <customSheetView guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{33596B96-C2AA-4CF3-93FF-CB3D5E438131}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$L$565">
         <filterColumn colId="6">
           <filters>
@@ -67579,14 +67572,14 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4366E692-EA63-470F-AD6B-F16D89BA7A13}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$L$149">
         <sortState ref="A119:L149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E41D096E-0ABB-48D0-A4ED-16352B60F84D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$1125">
         <filterColumn colId="13">
           <filters>
@@ -67595,20 +67588,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D560E911-BF63-4572-BF1B-4AF1C36BB0F6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$L$1023"/>
     </customSheetView>
-    <customSheetView guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D8E019AC-D677-4A71-A7A7-F65745991DC9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$L$69"/>
     </customSheetView>
-    <customSheetView guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2CC30FC2-C6C4-4FBA-8A83-09C3EDAFCB1A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$L$157">
         <sortState ref="A75:L157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{30753236-7AA4-4693-B24C-742CAA8C26E5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$L$36">
         <filterColumn colId="6">
           <filters>
@@ -67617,13 +67610,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D1D0E9F4-CDA8-4E5B-93DD-F2C29EAD6080}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$L$993"/>
     </customSheetView>
-    <customSheetView guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4900EDE6-BCBD-49E0-843B-3969248BB0EF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$L$346"/>
     </customSheetView>
-    <customSheetView guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{29953007-05A1-4AA5-AF83-C71F0162324C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$L$769">
         <filterColumn colId="4">
           <filters>
@@ -67636,35 +67629,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{52071FA0-C79C-4E2C-9B82-5FC05209D4E7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$L$793"/>
     </customSheetView>
-    <customSheetView guid="{DE900718-0161-4792-8EAB-C58F78F69250}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{98404195-76EE-4140-9039-AD3068CC13E6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$L$1031"/>
     </customSheetView>
-    <customSheetView guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C3F86223-1CE5-44C1-87CE-40666E8A308F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$L$724"/>
     </customSheetView>
-    <customSheetView guid="{030204D7-095F-4354-969B-56C1AA7143AE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0525DDEC-C925-45B1-9847-6B10EECC72E1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$L$1074"/>
     </customSheetView>
-    <customSheetView guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4B29C85D-8F4B-41C5-98E1-179F34C547AD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$L$863"/>
     </customSheetView>
-    <customSheetView guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E033F24B-222D-4C10-9E81-2CD13F2D27CA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$L$811">
         <sortState ref="A775:L811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3A76F548-2F88-4245-B104-5C766A91C956}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{578123A8-10D5-4CF4-BC99-156B0063D202}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$L$874"/>
     </customSheetView>
-    <customSheetView guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FB5A0C69-03A9-4211-8A02-EDD5A66544AD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$584"/>
     </customSheetView>
-    <customSheetView guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{05E28A09-23CF-4F91-95FB-5F959B17C232}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$L$774">
         <filterColumn colId="6">
           <filters>
@@ -67676,24 +67669,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{85A2FC98-A2B5-4E0D-AA36-AF69AE3B83B5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6FC2398D-0036-45FB-A79D-B7AEBC0EB69B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$L$574">
         <sortState ref="A565:L574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C56FDD5D-C848-4EA9-8EC0-B3E8FFB57F91}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$L$890"/>
     </customSheetView>
-    <customSheetView guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{191CE3A5-E0F7-4A5A-A27B-B2DCD098BF72}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$L$266">
         <filterColumn colId="11">
           <filters>
@@ -67705,10 +67698,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{361013E5-E895-48D0-B579-FC88480C5F47}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$L$802"/>
     </customSheetView>
-    <customSheetView guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0B8CAF0B-9853-4166-868E-F5DFCF10FF93}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="2">
           <filters>
@@ -67726,7 +67719,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4484A6DE-93A6-4A06-9698-3E212A1F4069}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="13">
           <filters>
@@ -67735,36 +67728,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1C914825-B774-497B-9951-7424A275C6C8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125"/>
     </customSheetView>
-    <customSheetView guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{986591FF-6F24-4023-8AC1-D53F01184713}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$L$128"/>
     </customSheetView>
-    <customSheetView guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A984F94B-0BB4-4433-89DB-AFDFBD6AE7F9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$L$334">
         <sortState ref="A315:L334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{440974C0-07E2-4054-AD03-D6D4230CA7A2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$591"/>
     </customSheetView>
-    <customSheetView guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4CF85566-B44C-4CE0-B041-FF442715F5FB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$L$658"/>
     </customSheetView>
-    <customSheetView guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{941CA0B9-8F0E-40BD-8E17-11D8E91E25A7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$L$960">
         <sortState ref="A923:L960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DE8783DB-61C2-4EA7-A572-E71C0795FEA1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$L$1005"/>
     </customSheetView>
-    <customSheetView guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{18217A88-0981-418C-ABFA-AC931682F80F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$L$314"/>
     </customSheetView>
   </customSheetViews>
@@ -67779,11 +67772,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1580">
+      <formula1>Group!$B$2:$B1580</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C1580">
-      <formula1>Group!$A$3:$A1580</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1580">
-      <formula1>Group!$B$3:$B1580</formula1>
+      <formula1>Group!$A$2:$A1580</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J1580">
       <formula1>"Yes,No"</formula1>
@@ -68669,428 +68662,426 @@
     </row>
     <row r="2">
       <c r="A2" s="92" t="s">
-        <v>3199</v>
+        <v>1321</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>3200</v>
-      </c>
-      <c r="C2" s="92" t="s">
-        <v>3201</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="C2" s="92"/>
     </row>
     <row r="3">
       <c r="A3" s="93" t="s">
-        <v>1321</v>
+        <v>1418</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>1322</v>
+        <v>1419</v>
       </c>
       <c r="C3" s="93"/>
     </row>
     <row r="4">
-      <c r="A4" s="94" t="s">
-        <v>1418</v>
+      <c r="A4" s="92" t="s">
+        <v>16</v>
       </c>
       <c r="B4" s="94" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C4" s="94"/>
+        <v>17</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>3199</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="93" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B5" s="95" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="96" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="94" t="s">
-        <v>3201</v>
+      <c r="A6" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="93" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>3201</v>
-      </c>
+        <v>1616</v>
+      </c>
+      <c r="B7" s="93" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C7" s="93"/>
     </row>
     <row r="8">
-      <c r="A8" s="94" t="s">
-        <v>1616</v>
+      <c r="A8" s="92" t="s">
+        <v>1769</v>
       </c>
       <c r="B8" s="94" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C8" s="94"/>
+        <v>3200</v>
+      </c>
+      <c r="C8" s="92"/>
     </row>
     <row r="9">
       <c r="A9" s="93" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B9" s="95" t="s">
-        <v>3202</v>
+        <v>1804</v>
+      </c>
+      <c r="B9" s="93" t="s">
+        <v>1805</v>
       </c>
       <c r="C9" s="93"/>
     </row>
     <row r="10">
-      <c r="A10" s="94" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>1805</v>
-      </c>
-      <c r="C10" s="94"/>
+      <c r="A10" s="92" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B10" s="92" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C10" s="92"/>
     </row>
     <row r="11">
       <c r="A11" s="93" t="s">
-        <v>1901</v>
+        <v>1953</v>
       </c>
       <c r="B11" s="93" t="s">
-        <v>1902</v>
+        <v>1954</v>
       </c>
       <c r="C11" s="93"/>
     </row>
     <row r="12">
-      <c r="A12" s="94" t="s">
-        <v>1953</v>
-      </c>
-      <c r="B12" s="94" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C12" s="94"/>
+      <c r="A12" s="92" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C12" s="92"/>
     </row>
     <row r="13">
       <c r="A13" s="93" t="s">
-        <v>2060</v>
+        <v>2100</v>
       </c>
       <c r="B13" s="93" t="s">
-        <v>2061</v>
+        <v>2101</v>
       </c>
       <c r="C13" s="93"/>
     </row>
     <row r="14">
-      <c r="A14" s="94" t="s">
-        <v>2100</v>
-      </c>
-      <c r="B14" s="94" t="s">
-        <v>2101</v>
-      </c>
-      <c r="C14" s="94"/>
+      <c r="A14" s="92" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B14" s="92" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C14" s="92" t="s">
+        <v>3199</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="93" t="s">
-        <v>2172</v>
+        <v>2323</v>
       </c>
       <c r="B15" s="93" t="s">
-        <v>2173</v>
+        <v>2324</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="94" t="s">
-        <v>2323</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>2324</v>
-      </c>
-      <c r="C16" s="94" t="s">
-        <v>3201</v>
+      <c r="A16" s="92" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C16" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="93" t="s">
-        <v>2721</v>
+        <v>206</v>
       </c>
       <c r="B17" s="93" t="s">
-        <v>2722</v>
+        <v>207</v>
       </c>
       <c r="C17" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="94" t="s">
-        <v>206</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="C18" s="94" t="s">
-        <v>3201</v>
+      <c r="A18" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="93" t="s">
-        <v>238</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>239</v>
+        <v>308</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>309</v>
       </c>
       <c r="C19" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="94" t="s">
-        <v>308</v>
-      </c>
-      <c r="B20" s="96" t="s">
-        <v>309</v>
-      </c>
-      <c r="C20" s="94" t="s">
-        <v>3201</v>
+      <c r="A20" s="92" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C20" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="93" t="s">
-        <v>2770</v>
+        <v>407</v>
       </c>
       <c r="B21" s="93" t="s">
-        <v>2771</v>
-      </c>
-      <c r="C21" s="93" t="s">
-        <v>3201</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C21" s="93"/>
     </row>
     <row r="22">
-      <c r="A22" s="94" t="s">
-        <v>407</v>
-      </c>
-      <c r="B22" s="94" t="s">
-        <v>408</v>
-      </c>
-      <c r="C22" s="94"/>
+      <c r="A22" s="92" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C22" s="92"/>
     </row>
     <row r="23">
       <c r="A23" s="93" t="s">
-        <v>2826</v>
+        <v>2927</v>
       </c>
       <c r="B23" s="93" t="s">
-        <v>2827</v>
+        <v>2928</v>
       </c>
       <c r="C23" s="93"/>
     </row>
     <row r="24">
-      <c r="A24" s="94" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B24" s="94" t="s">
-        <v>2928</v>
-      </c>
-      <c r="C24" s="94"/>
+      <c r="A24" s="92" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" s="92" t="s">
+        <v>464</v>
+      </c>
+      <c r="C24" s="92"/>
     </row>
     <row r="25">
       <c r="A25" s="93" t="s">
-        <v>463</v>
+        <v>587</v>
       </c>
       <c r="B25" s="93" t="s">
-        <v>464</v>
+        <v>588</v>
       </c>
       <c r="C25" s="93"/>
     </row>
     <row r="26">
-      <c r="A26" s="94" t="s">
-        <v>587</v>
-      </c>
-      <c r="B26" s="94" t="s">
-        <v>588</v>
-      </c>
-      <c r="C26" s="94"/>
+      <c r="A26" s="92" t="s">
+        <v>563</v>
+      </c>
+      <c r="B26" s="92" t="s">
+        <v>564</v>
+      </c>
+      <c r="C26" s="92"/>
     </row>
     <row r="27">
       <c r="A27" s="93" t="s">
-        <v>563</v>
+        <v>641</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>564</v>
+        <v>642</v>
       </c>
       <c r="C27" s="93"/>
     </row>
     <row r="28">
       <c r="A28" s="94" t="s">
-        <v>641</v>
+        <v>726</v>
       </c>
       <c r="B28" s="94" t="s">
-        <v>642</v>
-      </c>
-      <c r="C28" s="94"/>
+        <v>727</v>
+      </c>
+      <c r="C28" s="92"/>
     </row>
     <row r="29">
-      <c r="A29" s="95" t="s">
-        <v>726</v>
-      </c>
-      <c r="B29" s="95" t="s">
-        <v>727</v>
+      <c r="A29" s="93" t="s">
+        <v>603</v>
+      </c>
+      <c r="B29" s="93" t="s">
+        <v>604</v>
       </c>
       <c r="C29" s="93"/>
     </row>
     <row r="30">
-      <c r="A30" s="94" t="s">
-        <v>603</v>
-      </c>
-      <c r="B30" s="94" t="s">
-        <v>604</v>
-      </c>
-      <c r="C30" s="94"/>
+      <c r="A30" s="92" t="s">
+        <v>749</v>
+      </c>
+      <c r="B30" s="92" t="s">
+        <v>750</v>
+      </c>
+      <c r="C30" s="92" t="s">
+        <v>3199</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="93" t="s">
-        <v>749</v>
+        <v>814</v>
       </c>
       <c r="B31" s="93" t="s">
-        <v>750</v>
+        <v>815</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="94" t="s">
-        <v>814</v>
-      </c>
-      <c r="B32" s="94" t="s">
-        <v>815</v>
-      </c>
-      <c r="C32" s="94" t="s">
-        <v>3201</v>
+      <c r="A32" s="92" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B32" s="92" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C32" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="93" t="s">
-        <v>2989</v>
+        <v>869</v>
       </c>
       <c r="B33" s="93" t="s">
-        <v>2990</v>
+        <v>870</v>
       </c>
       <c r="C33" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="94" t="s">
-        <v>869</v>
-      </c>
-      <c r="B34" s="94" t="s">
-        <v>870</v>
-      </c>
-      <c r="C34" s="94" t="s">
-        <v>3201</v>
+      <c r="A34" s="92" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B34" s="92" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="93" t="s">
-        <v>3010</v>
+        <v>981</v>
       </c>
       <c r="B35" s="93" t="s">
-        <v>3011</v>
+        <v>982</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="94" t="s">
-        <v>981</v>
-      </c>
-      <c r="B36" s="94" t="s">
-        <v>982</v>
-      </c>
-      <c r="C36" s="94" t="s">
-        <v>3201</v>
+      <c r="A36" s="92" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C36" s="92" t="s">
+        <v>3199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="93" t="s">
-        <v>1081</v>
+        <v>3054</v>
       </c>
       <c r="B37" s="93" t="s">
-        <v>1082</v>
+        <v>3055</v>
       </c>
       <c r="C37" s="93" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="94" t="s">
-        <v>3054</v>
-      </c>
-      <c r="B38" s="94" t="s">
-        <v>3055</v>
-      </c>
-      <c r="C38" s="94" t="s">
-        <v>3201</v>
-      </c>
+      <c r="A38" s="92" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B38" s="92" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C38" s="92"/>
     </row>
     <row r="39">
       <c r="A39" s="93" t="s">
-        <v>1102</v>
+        <v>3074</v>
       </c>
       <c r="B39" s="93" t="s">
-        <v>1103</v>
+        <v>3075</v>
       </c>
       <c r="C39" s="93"/>
     </row>
     <row r="40">
-      <c r="A40" s="94" t="s">
-        <v>3074</v>
-      </c>
-      <c r="B40" s="94" t="s">
-        <v>3075</v>
-      </c>
-      <c r="C40" s="94"/>
+      <c r="A40" s="92" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B40" s="92" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C40" s="92"/>
     </row>
     <row r="41">
       <c r="A41" s="93" t="s">
-        <v>1133</v>
+        <v>1172</v>
       </c>
       <c r="B41" s="93" t="s">
-        <v>1134</v>
+        <v>1173</v>
       </c>
       <c r="C41" s="93"/>
     </row>
     <row r="42">
-      <c r="A42" s="94" t="s">
-        <v>1172</v>
-      </c>
-      <c r="B42" s="94" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C42" s="94"/>
+      <c r="A42" s="92" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B42" s="92" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C42" s="92"/>
     </row>
     <row r="43">
       <c r="A43" s="93" t="s">
-        <v>1244</v>
+        <v>3109</v>
       </c>
       <c r="B43" s="93" t="s">
-        <v>1245</v>
+        <v>3110</v>
       </c>
       <c r="C43" s="93"/>
     </row>
     <row r="44">
-      <c r="A44" s="94" t="s">
-        <v>3109</v>
-      </c>
-      <c r="B44" s="94" t="s">
-        <v>3110</v>
-      </c>
-      <c r="C44" s="94"/>
+      <c r="A44" s="92" t="s">
+        <v>3201</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C44" s="92"/>
     </row>
     <row r="45">
       <c r="A45" s="93" t="s">
@@ -69102,31 +69093,31 @@
       <c r="C45" s="93"/>
     </row>
     <row r="46">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="92" t="s">
         <v>3205</v>
       </c>
-      <c r="B46" s="94" t="s">
+      <c r="B46" s="92" t="s">
         <v>3206</v>
       </c>
-      <c r="C46" s="94"/>
+      <c r="C46" s="92"/>
     </row>
     <row r="47">
       <c r="A47" s="93" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>3144</v>
+      </c>
+      <c r="C47" s="93"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="95" t="s">
         <v>3207</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B48" s="95" t="s">
         <v>3208</v>
       </c>
-      <c r="C47" s="93"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="94" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B48" s="94" t="s">
-        <v>3144</v>
-      </c>
-      <c r="C48" s="94"/>
+      <c r="C48" s="95"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,91 +7,91 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_E033F24B_222D_4C10_9E81_2CD13F2D27CA_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DC196AA5_A4AE_4C93_995D_C8FA5331B2E2_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_76526F03_6BB6_47C6_A22D_8CED733D2C92_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4CF85566_B44C_4CE0_B041_FF442715F5FB_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C3F86223_1CE5_44C1_87CE_40666E8A308F_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A984F94B_0BB4_4433_89DB_AFDFBD6AE7F9_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E41D096E_0ABB_48D0_A4ED_16352B60F84D_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_52071FA0_C79C_4E2C_9B82_5FC05209D4E7_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_98404195_76EE_4140_9039_AD3068CC13E6_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C56FDD5D_C848_4EA9_8EC0_B3E8FFB57F91_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D8E019AC_D677_4A71_A7A7_F65745991DC9_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_05E28A09_23CF_4F91_95FB_5F959B17C232_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DE8783DB_61C2_4EA7_A572_E71C0795FEA1_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_361013E5_E895_48D0_B579_FC88480C5F47_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D560E911_BF63_4572_BF1B_4AF1C36BB0F6_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2CC30FC2_C6C4_4FBA_8A83_09C3EDAFCB1A_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_33596B96_C2AA_4CF3_93FF_CB3D5E438131_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EB148AC7_BEAD_4132_98AC_E5E0C12786AC_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_578123A8_10D5_4CF4_BC99_156B0063D202_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_88CF1269_A498_4F96_8096_DF9A248D182F_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0525DDEC_C925_45B1_9847_6B10EECC72E1_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4366E692_EA63_470F_AD6B_F16D89BA7A13_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_29953007_05A1_4AA5_AF83_C71F0162324C_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4B29C85D_8F4B_41C5_98E1_179F34C547AD_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_30753236_7AA4_4693_B24C_742CAA8C26E5_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D1D0E9F4_CDA8_4E5B_93DD_F2C29EAD6080_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_85A2FC98_A2B5_4E0D_AA36_AF69AE3B83B5_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4484A6DE_93A6_4A06_9698_3E212A1F4069_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_941CA0B9_8F0E_40BD_8E17_11D8E91E25A7_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_191CE3A5_E0F7_4A5A_A27B_B2DCD098BF72_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1C914825_B774_497B_9951_7424A275C6C8_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4900EDE6_BCBD_49E0_843B_3969248BB0EF_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FB5A0C69_03A9_4211_8A02_EDD5A66544AD_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_986591FF_6F24_4023_8AC1_D53F01184713_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6FC2398D_0036_45FB_A79D_B7AEBC0EB69B_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_440974C0_07E2_4054_AD03_D6D4230CA7A2_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_18217A88_0981_418C_ABFA_AC931682F80F_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0B8CAF0B_9853_4166_868E_F5DFCF10FF93_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_49E7F3CE_F40C_4FED_BEF8_26F090EE4EAB_.wvu.FilterData">BIM!$A$562:$L$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_724DC91F_FF1E_468C_B992_B1D0F51CCC52_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8232B643_36E7_487B_B1D6_FD3DA06BF1E9_.wvu.FilterData">BIM!$A$775:$L$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8BD75489_4874_47F0_8DF3_393379AB259B_.wvu.FilterData">BIM!$A$891:$L$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A856CC1B_B362_4556_ACE2_C976256EBF5B_.wvu.FilterData">BIM!$A$573:$L$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DBDF39FA_7899_4557_B3BC_352C416503A3_.wvu.FilterData">BIM!$A$994:$L$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9E47DD61_E6DE_488B_80BA_967A50C8AB36_.wvu.FilterData">BIM!$A$565:$L$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BE442BB6_3A31_442F_B924_D13D0F598ECC_.wvu.FilterData">BIM!$A$875:$L$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DE900718_0161_4792_8EAB_C58F78F69250_.wvu.FilterData">BIM!$A$1009:$L$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_030204D7_095F_4354_969B_56C1AA7143AE_.wvu.FilterData">BIM!$A$1039:$L$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D8E7AD2B_1D6A_4A53_BADF_5738E01F788C_.wvu.FilterData">BIM!$A$267:$L$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7B44AC12_E6B4_4313_993B_10F7132B892F_.wvu.FilterData">BIM!$A$315:$L$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AF68C2CF_34E8_443E_B4ED_BB66CB150D6B_.wvu.FilterData">BIM!$A$37:$L$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CA698D16_9134_4DB4_984A_29693DB788A8_.wvu.FilterData">BIM!$A$1:$N$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_743AD89C_320C_4C4C_BC5F_7EC0A02EECDE_.wvu.FilterData">BIM!$A$521:$L$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A7B4F8D0_C2B2_4D23_888B_901C02EDA207_.wvu.FilterData">BIM!$A$533:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_43C9EAE1_EEE7_465A_B2FE_FCC5D6144576_.wvu.FilterData">BIM!$A$718:$L$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D6318188_C0E0_4364_A149_FD9E8D671A1B_.wvu.FilterData">BIM!$A$770:$L$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2039A978_ADAF_4711_8B07_046A7AD53BA6_.wvu.FilterData">BIM!$A$625:$L$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C6F25ED8_01F5_4EC6_BA59_11F1B290E9F7_.wvu.FilterData">BIM!$A$923:$L$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3D296FF4_2091_4F77_BB20_5342594B263E_.wvu.FilterData">BIM!$A$2:$L$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_560CED10_97E3_4B8F_9E2D_42501DEDD37A_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FAE9710F_D2BA_4EBD_88A7_23B01C8DBCFC_.wvu.FilterData">BIM!$A$710:$L$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C330DD12_F7AD_4A16_8E93_F60E7DD26815_.wvu.FilterData">BIM!$A$144:$L$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EF393267_77E9_4937_B374_A059A55A3DDA_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3A76F548_2F88_4245_B104_5C766A91C956_.wvu.FilterData">BIM!$A$803:$L$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9DF68346_E0CA_4FA3_B5D1_1AD86B191463_.wvu.FilterData">BIM!$A$573:$L$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1A8878F0_0412_4D55_9C2F_095CAD9E6CFA_.wvu.FilterData">BIM!$A$970:$L$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0ECEE141_0B77_44E5_A6DE_68B5A15450B4_.wvu.FilterData">BIM!$A$429:$L$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AABB1EE6_8061_4BBE_83FC_087E9C58414A_.wvu.FilterData">BIM!$A$335:$L$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EBA9F249_1672_448E_8531_16FD1942FCAD_.wvu.FilterData">BIM!$A$832:$L$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B7D1E82B_A5E5_4C14_9C86_B61A78ED8084_.wvu.FilterData">BIM!$A$728:$L$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_48CE27A7_5499_4811_A41E_787093C14E7E_.wvu.FilterData">BIM!$A$794:$L$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E460850B_B72B_48C4_B246_11D0D04F03F5_.wvu.FilterData">BIM!$A$1:$O$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_92BEF0B2_FF4A_4089_8EE6_8E4DADA938AF_.wvu.FilterData">BIM!$A$75:$L$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9E4183D2_CC5A_4D20_BB9A_2F013C0CE815_.wvu.FilterData">BIM!$A$77:$L$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0909C5DC_ED19_4D4A_9DB0_5392CF96C4D4_.wvu.FilterData">BIM!$A$551:$L$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F436789B_C5EA_41CB_8359_78C305F1E83A_.wvu.FilterData">BIM!$A$119:$L$149</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{05E28A09-23CF-4F91-95FB-5F959B17C232}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{52071FA0-C79C-4E2C-9B82-5FC05209D4E7}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4CF85566-B44C-4CE0-B041-FF442715F5FB}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4366E692-EA63-470F-AD6B-F16D89BA7A13}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C56FDD5D-C848-4EA9-8EC0-B3E8FFB57F91}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A984F94B-0BB4-4433-89DB-AFDFBD6AE7F9}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DE8783DB-61C2-4EA7-A572-E71C0795FEA1}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{578123A8-10D5-4CF4-BC99-156B0063D202}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{440974C0-07E2-4054-AD03-D6D4230CA7A2}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{85A2FC98-A2B5-4E0D-AA36-AF69AE3B83B5}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{361013E5-E895-48D0-B579-FC88480C5F47}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4900EDE6-BCBD-49E0-843B-3969248BB0EF}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{98404195-76EE-4140-9039-AD3068CC13E6}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{986591FF-6F24-4023-8AC1-D53F01184713}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6FC2398D-0036-45FB-A79D-B7AEBC0EB69B}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2CC30FC2-C6C4-4FBA-8A83-09C3EDAFCB1A}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{76526F03-6BB6-47C6-A22D-8CED733D2C92}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EB148AC7-BEAD-4132-98AC-E5E0C12786AC}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{941CA0B9-8F0E-40BD-8E17-11D8E91E25A7}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D1D0E9F4-CDA8-4E5B-93DD-F2C29EAD6080}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{29953007-05A1-4AA5-AF83-C71F0162324C}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C3F86223-1CE5-44C1-87CE-40666E8A308F}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8E019AC-D677-4A71-A7A7-F65745991DC9}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0525DDEC-C925-45B1-9847-6B10EECC72E1}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{30753236-7AA4-4693-B24C-742CAA8C26E5}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB5A0C69-03A9-4211-8A02-EDD5A66544AD}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D560E911-BF63-4572-BF1B-4AF1C36BB0F6}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B8CAF0B-9853-4166-868E-F5DFCF10FF93}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E41D096E-0ABB-48D0-A4ED-16352B60F84D}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{33596B96-C2AA-4CF3-93FF-CB3D5E438131}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4484A6DE-93A6-4A06-9698-3E212A1F4069}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4B29C85D-8F4B-41C5-98E1-179F34C547AD}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E033F24B-222D-4C10-9E81-2CD13F2D27CA}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1C914825-B774-497B-9951-7424A275C6C8}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DC196AA5-A4AE-4C93-995D-C8FA5331B2E2}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{88CF1269-A498-4F96-8096-DF9A248D182F}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{191CE3A5-E0F7-4A5A-A27B-B2DCD098BF72}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{18217A88-0981-418C-ABFA-AC931682F80F}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3A76F548-2F88-4245-B104-5C766A91C956}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DE900718-0161-4792-8EAB-C58F78F69250}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{030204D7-095F-4354-969B-56C1AA7143AE}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14781" uniqueCount="3209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14782" uniqueCount="3209">
   <si>
     <t>Perkataan</t>
   </si>
@@ -10496,6 +10496,12 @@
     <t>Toliet</t>
   </si>
   <si>
+    <t>Isyarat Baru/Isyarat Baru</t>
+  </si>
+  <si>
+    <t>New Signs/New Signs</t>
+  </si>
+  <si>
     <t>Home</t>
   </si>
   <si>
@@ -10518,19 +10524,13 @@
   </si>
   <si>
     <t>Places/Transportation</t>
-  </si>
-  <si>
-    <t>Isyarat Baru/Isyarat Baru</t>
-  </si>
-  <si>
-    <t>New Signs/New Signs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -10706,6 +10706,10 @@
       <color theme="5"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -10751,7 +10755,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -11027,6 +11031,9 @@
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -67544,23 +67551,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{EB148AC7-BEAD-4132-98AC-E5E0C12786AC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{49E7F3CE-F40C-4FED-BEF8-26F090EE4EAB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$L$572"/>
     </customSheetView>
-    <customSheetView guid="{76526F03-6BB6-47C6-A22D-8CED733D2C92}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0ECEE141-0B77-44E5-A6DE-68B5A15450B4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$L$462">
         <sortState ref="A429:L462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{88CF1269-A498-4F96-8096-DF9A248D182F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A7B4F8D0-C2B2-4D23-888B-901C02EDA207}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$L$565"/>
     </customSheetView>
-    <customSheetView guid="{DC196AA5-A4AE-4C93-995D-C8FA5331B2E2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{743AD89C-320C-4C4C-BC5F-7EC0A02EECDE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$L$531"/>
     </customSheetView>
-    <customSheetView guid="{33596B96-C2AA-4CF3-93FF-CB3D5E438131}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0909C5DC-ED19-4D4A-9DB0-5392CF96C4D4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$L$565">
         <filterColumn colId="6">
           <filters>
@@ -67572,14 +67579,14 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4366E692-EA63-470F-AD6B-F16D89BA7A13}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F436789B-C5EA-41CB-8359-78C305F1E83A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$L$149">
         <sortState ref="A119:L149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E41D096E-0ABB-48D0-A4ED-16352B60F84D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CA698D16-9134-4DB4-984A-29693DB788A8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$N$1125">
         <filterColumn colId="13">
           <filters>
@@ -67588,20 +67595,20 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D560E911-BF63-4572-BF1B-4AF1C36BB0F6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8BD75489-4874-47F0-8DF3-393379AB259B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$L$1023"/>
     </customSheetView>
-    <customSheetView guid="{D8E019AC-D677-4A71-A7A7-F65745991DC9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AF68C2CF-34E8-443E-B4ED-BB66CB150D6B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$L$69"/>
     </customSheetView>
-    <customSheetView guid="{2CC30FC2-C6C4-4FBA-8A83-09C3EDAFCB1A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{92BEF0B2-FF4A-4089-8EE6-8E4DADA938AF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$L$157">
         <sortState ref="A75:L157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{30753236-7AA4-4693-B24C-742CAA8C26E5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3D296FF4-2091-4F77-BB20-5342594B263E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$L$36">
         <filterColumn colId="6">
           <filters>
@@ -67610,13 +67617,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D1D0E9F4-CDA8-4E5B-93DD-F2C29EAD6080}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1A8878F0-0412-4D55-9C2F-095CAD9E6CFA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$L$993"/>
     </customSheetView>
-    <customSheetView guid="{4900EDE6-BCBD-49E0-843B-3969248BB0EF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AABB1EE6-8061-4BBE-83FC-087E9C58414A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$L$346"/>
     </customSheetView>
-    <customSheetView guid="{29953007-05A1-4AA5-AF83-C71F0162324C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{43C9EAE1-EEE7-465A-B2FE-FCC5D6144576}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$L$769">
         <filterColumn colId="4">
           <filters>
@@ -67629,35 +67636,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{52071FA0-C79C-4E2C-9B82-5FC05209D4E7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D6318188-C0E0-4364-A149-FD9E8D671A1B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$L$793"/>
     </customSheetView>
-    <customSheetView guid="{98404195-76EE-4140-9039-AD3068CC13E6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DE900718-0161-4792-8EAB-C58F78F69250}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$L$1031"/>
     </customSheetView>
-    <customSheetView guid="{C3F86223-1CE5-44C1-87CE-40666E8A308F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FAE9710F-D2BA-4EBD-88A7-23B01C8DBCFC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$L$724"/>
     </customSheetView>
-    <customSheetView guid="{0525DDEC-C925-45B1-9847-6B10EECC72E1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{030204D7-095F-4354-969B-56C1AA7143AE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$L$1074"/>
     </customSheetView>
-    <customSheetView guid="{4B29C85D-8F4B-41C5-98E1-179F34C547AD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EBA9F249-1672-448E-8531-16FD1942FCAD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$L$863"/>
     </customSheetView>
-    <customSheetView guid="{E033F24B-222D-4C10-9E81-2CD13F2D27CA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8232B643-36E7-487B-B1D6-FD3DA06BF1E9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$L$811">
         <sortState ref="A775:L811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{578123A8-10D5-4CF4-BC99-156B0063D202}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3A76F548-2F88-4245-B104-5C766A91C956}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$L$874"/>
     </customSheetView>
-    <customSheetView guid="{FB5A0C69-03A9-4211-8A02-EDD5A66544AD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A856CC1B-B362-4556-ACE2-C976256EBF5B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$584"/>
     </customSheetView>
-    <customSheetView guid="{05E28A09-23CF-4F91-95FB-5F959B17C232}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B7D1E82B-A5E5-4C14-9C86-B61A78ED8084}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$L$774">
         <filterColumn colId="6">
           <filters>
@@ -67669,24 +67676,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{85A2FC98-A2B5-4E0D-AA36-AF69AE3B83B5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{560CED10-97E3-4B8F-9E2D-42501DEDD37A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6FC2398D-0036-45FB-A79D-B7AEBC0EB69B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9E47DD61-E6DE-488B-80BA-967A50C8AB36}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$L$574">
         <sortState ref="A565:L574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C56FDD5D-C848-4EA9-8EC0-B3E8FFB57F91}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BE442BB6-3A31-442F-B924-D13D0F598ECC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$L$890"/>
     </customSheetView>
-    <customSheetView guid="{191CE3A5-E0F7-4A5A-A27B-B2DCD098BF72}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C330DD12-F7AD-4A16-8E93-F60E7DD26815}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$L$266">
         <filterColumn colId="11">
           <filters>
@@ -67698,10 +67705,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{361013E5-E895-48D0-B579-FC88480C5F47}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{48CE27A7-5499-4811-A41E-787093C14E7E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$L$802"/>
     </customSheetView>
-    <customSheetView guid="{0B8CAF0B-9853-4166-868E-F5DFCF10FF93}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{724DC91F-FF1E-468C-B992-B1D0F51CCC52}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="2">
           <filters>
@@ -67719,7 +67726,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4484A6DE-93A6-4A06-9698-3E212A1F4069}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EF393267-77E9-4937-B374-A059A55A3DDA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125">
         <filterColumn colId="13">
           <filters>
@@ -67728,36 +67735,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{1C914825-B774-497B-9951-7424A275C6C8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E460850B-B72B-48C4-B246-11D0D04F03F5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$O$1125"/>
     </customSheetView>
-    <customSheetView guid="{986591FF-6F24-4023-8AC1-D53F01184713}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9E4183D2-CC5A-4D20-BB9A-2F013C0CE815}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$L$128"/>
     </customSheetView>
-    <customSheetView guid="{A984F94B-0BB4-4433-89DB-AFDFBD6AE7F9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7B44AC12-E6B4-4313-993B-10F7132B892F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$L$334">
         <sortState ref="A315:L334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{440974C0-07E2-4054-AD03-D6D4230CA7A2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9DF68346-E0CA-4FA3-B5D1-1AD86B191463}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$L$591"/>
     </customSheetView>
-    <customSheetView guid="{4CF85566-B44C-4CE0-B041-FF442715F5FB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2039A978-ADAF-4711-8B07-046A7AD53BA6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$L$658"/>
     </customSheetView>
-    <customSheetView guid="{941CA0B9-8F0E-40BD-8E17-11D8E91E25A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C6F25ED8-01F5-4EC6-BA59-11F1B290E9F7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$L$960">
         <sortState ref="A923:L960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DE8783DB-61C2-4EA7-A572-E71C0795FEA1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DBDF39FA-7899-4557-B3BC-352C416503A3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$L$1005"/>
     </customSheetView>
-    <customSheetView guid="{18217A88-0981-418C-ABFA-AC931682F80F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D8E7AD2B-1D6A-4A53-BADF-5738E01F788C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$L$314"/>
     </customSheetView>
   </customSheetViews>
@@ -67772,11 +67779,11 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1580">
+      <formula1>Group!$A$3:$A1580</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D2:D1580">
-      <formula1>Group!$B$2:$B1580</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1580">
-      <formula1>Group!$A$2:$A1580</formula1>
+      <formula1>Group!$B$3:$B1580</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J2:J1580">
       <formula1>"Yes,No"</formula1>
@@ -68662,426 +68669,428 @@
     </row>
     <row r="2">
       <c r="A2" s="92" t="s">
-        <v>1321</v>
+        <v>3199</v>
       </c>
       <c r="B2" s="92" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C2" s="92"/>
+        <v>3200</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>3201</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="93" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B3" s="93" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C3" s="93"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="94" t="s">
         <v>1418</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B4" s="94" t="s">
         <v>1419</v>
       </c>
-      <c r="C3" s="93"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="92" t="s">
-        <v>3199</v>
-      </c>
+      <c r="C4" s="94"/>
     </row>
     <row r="5">
       <c r="A5" s="93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B6" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="92" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="92" t="s">
-        <v>3199</v>
+      <c r="C6" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="93" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="95" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="94" t="s">
         <v>1616</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B8" s="94" t="s">
         <v>1617</v>
       </c>
-      <c r="C7" s="93"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="92" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>3200</v>
-      </c>
-      <c r="C8" s="92"/>
+      <c r="C8" s="94"/>
     </row>
     <row r="9">
       <c r="A9" s="93" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C9" s="93"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="94" t="s">
         <v>1804</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B10" s="94" t="s">
         <v>1805</v>
       </c>
-      <c r="C9" s="93"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="92" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B10" s="92" t="s">
-        <v>1902</v>
-      </c>
-      <c r="C10" s="92"/>
+      <c r="C10" s="94"/>
     </row>
     <row r="11">
       <c r="A11" s="93" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B11" s="93" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C11" s="93"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="94" t="s">
         <v>1953</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B12" s="94" t="s">
         <v>1954</v>
       </c>
-      <c r="C11" s="93"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="92" t="s">
-        <v>2060</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>2061</v>
-      </c>
-      <c r="C12" s="92"/>
+      <c r="C12" s="94"/>
     </row>
     <row r="13">
       <c r="A13" s="93" t="s">
+        <v>2060</v>
+      </c>
+      <c r="B13" s="93" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C13" s="93"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="94" t="s">
         <v>2100</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B14" s="94" t="s">
         <v>2101</v>
       </c>
-      <c r="C13" s="93"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="92" t="s">
-        <v>2172</v>
-      </c>
-      <c r="B14" s="92" t="s">
-        <v>2173</v>
-      </c>
-      <c r="C14" s="92" t="s">
-        <v>3199</v>
-      </c>
+      <c r="C14" s="94"/>
     </row>
     <row r="15">
       <c r="A15" s="93" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B15" s="93" t="s">
+        <v>2173</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="94" t="s">
         <v>2323</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B16" s="94" t="s">
         <v>2324</v>
       </c>
-      <c r="C15" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="92" t="s">
-        <v>2721</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>2722</v>
-      </c>
-      <c r="C16" s="92" t="s">
-        <v>3199</v>
+      <c r="C16" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="93" t="s">
+        <v>2721</v>
+      </c>
+      <c r="B17" s="93" t="s">
+        <v>2722</v>
+      </c>
+      <c r="C17" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="94" t="s">
         <v>206</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B18" s="94" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="92" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="92" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="92" t="s">
-        <v>3199</v>
+      <c r="C18" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="93" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="93" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="94" t="s">
         <v>308</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B20" s="96" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="92" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>2771</v>
-      </c>
-      <c r="C20" s="92" t="s">
-        <v>3199</v>
+      <c r="C20" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="93" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B22" s="94" t="s">
         <v>408</v>
       </c>
-      <c r="C21" s="93"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="92" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>2827</v>
-      </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="94"/>
     </row>
     <row r="23">
       <c r="A23" s="93" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B23" s="93" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C23" s="93"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="94" t="s">
         <v>2927</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B24" s="94" t="s">
         <v>2928</v>
       </c>
-      <c r="C23" s="93"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="92" t="s">
-        <v>463</v>
-      </c>
-      <c r="B24" s="92" t="s">
-        <v>464</v>
-      </c>
-      <c r="C24" s="92"/>
+      <c r="C24" s="94"/>
     </row>
     <row r="25">
       <c r="A25" s="93" t="s">
+        <v>463</v>
+      </c>
+      <c r="B25" s="93" t="s">
+        <v>464</v>
+      </c>
+      <c r="C25" s="93"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="94" t="s">
         <v>587</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B26" s="94" t="s">
         <v>588</v>
       </c>
-      <c r="C25" s="93"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="92" t="s">
-        <v>563</v>
-      </c>
-      <c r="B26" s="92" t="s">
-        <v>564</v>
-      </c>
-      <c r="C26" s="92"/>
+      <c r="C26" s="94"/>
     </row>
     <row r="27">
       <c r="A27" s="93" t="s">
-        <v>641</v>
+        <v>563</v>
       </c>
       <c r="B27" s="93" t="s">
-        <v>642</v>
+        <v>564</v>
       </c>
       <c r="C27" s="93"/>
     </row>
     <row r="28">
       <c r="A28" s="94" t="s">
+        <v>641</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>642</v>
+      </c>
+      <c r="C28" s="94"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="95" t="s">
         <v>726</v>
       </c>
-      <c r="B28" s="94" t="s">
+      <c r="B29" s="95" t="s">
         <v>727</v>
       </c>
-      <c r="C28" s="92"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="93" t="s">
+      <c r="C29" s="93"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="94" t="s">
         <v>603</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B30" s="94" t="s">
         <v>604</v>
       </c>
-      <c r="C29" s="93"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="92" t="s">
-        <v>749</v>
-      </c>
-      <c r="B30" s="92" t="s">
-        <v>750</v>
-      </c>
-      <c r="C30" s="92" t="s">
-        <v>3199</v>
-      </c>
+      <c r="C30" s="94"/>
     </row>
     <row r="31">
       <c r="A31" s="93" t="s">
+        <v>749</v>
+      </c>
+      <c r="B31" s="93" t="s">
+        <v>750</v>
+      </c>
+      <c r="C31" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="94" t="s">
         <v>814</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B32" s="94" t="s">
         <v>815</v>
       </c>
-      <c r="C31" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="92" t="s">
-        <v>2989</v>
-      </c>
-      <c r="B32" s="92" t="s">
-        <v>2990</v>
-      </c>
-      <c r="C32" s="92" t="s">
-        <v>3199</v>
+      <c r="C32" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="93" t="s">
+        <v>2989</v>
+      </c>
+      <c r="B33" s="93" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C33" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="94" t="s">
         <v>869</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B34" s="94" t="s">
         <v>870</v>
       </c>
-      <c r="C33" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="92" t="s">
-        <v>3010</v>
-      </c>
-      <c r="B34" s="92" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C34" s="92" t="s">
-        <v>3199</v>
+      <c r="C34" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="93" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B35" s="93" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C35" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="94" t="s">
         <v>981</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B36" s="94" t="s">
         <v>982</v>
       </c>
-      <c r="C35" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="92" t="s">
-        <v>1081</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C36" s="92" t="s">
-        <v>3199</v>
+      <c r="C36" s="94" t="s">
+        <v>3201</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="93" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B37" s="93" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C37" s="93" t="s">
+        <v>3201</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="94" t="s">
         <v>3054</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B38" s="94" t="s">
         <v>3055</v>
       </c>
-      <c r="C37" s="93" t="s">
-        <v>3199</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="92" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B38" s="92" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C38" s="92"/>
+      <c r="C38" s="94" t="s">
+        <v>3201</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="93" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B39" s="93" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C39" s="93"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="94" t="s">
         <v>3074</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B40" s="94" t="s">
         <v>3075</v>
       </c>
-      <c r="C39" s="93"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="92" t="s">
-        <v>1133</v>
-      </c>
-      <c r="B40" s="92" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C40" s="92"/>
+      <c r="C40" s="94"/>
     </row>
     <row r="41">
       <c r="A41" s="93" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B41" s="93" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C41" s="93"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="94" t="s">
         <v>1172</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B42" s="94" t="s">
         <v>1173</v>
       </c>
-      <c r="C41" s="93"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="92" t="s">
-        <v>1244</v>
-      </c>
-      <c r="B42" s="92" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C42" s="92"/>
+      <c r="C42" s="94"/>
     </row>
     <row r="43">
       <c r="A43" s="93" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B43" s="93" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C43" s="93"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="94" t="s">
         <v>3109</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B44" s="94" t="s">
         <v>3110</v>
       </c>
-      <c r="C43" s="93"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="92" t="s">
-        <v>3201</v>
-      </c>
-      <c r="B44" s="92" t="s">
-        <v>3202</v>
-      </c>
-      <c r="C44" s="92"/>
+      <c r="C44" s="94"/>
     </row>
     <row r="45">
       <c r="A45" s="93" t="s">
@@ -69093,31 +69102,31 @@
       <c r="C45" s="93"/>
     </row>
     <row r="46">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="94" t="s">
         <v>3205</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="94" t="s">
         <v>3206</v>
       </c>
-      <c r="C46" s="92"/>
+      <c r="C46" s="94"/>
     </row>
     <row r="47">
       <c r="A47" s="93" t="s">
+        <v>3207</v>
+      </c>
+      <c r="B47" s="93" t="s">
+        <v>3208</v>
+      </c>
+      <c r="C47" s="93"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="94" t="s">
         <v>3143</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B48" s="94" t="s">
         <v>3144</v>
       </c>
-      <c r="C47" s="93"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="95" t="s">
-        <v>3207</v>
-      </c>
-      <c r="B48" s="95" t="s">
-        <v>3208</v>
-      </c>
-      <c r="C48" s="95"/>
+      <c r="C48" s="94"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,85 +7,85 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_236DD4C9_D9F3_41D0_9701_BC3F9A53BFA7_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A958B133_443D_4241_A147_7A8A0E9DECD8_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_994FF865_87E9_42AC_8615_2DD52960EFDC_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3DCA697E_7539_46EA_90B7_B3A93033C3A4_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_CA0FBE55_26F0_43B8_91A3_F6A184DED9FA_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D811CD4A_F1AE_4FA7_87E7_45F58C265595_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_940C8CB4_D96B_4119_8689_E0E79684B5B9_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4AF5E334_F594_4E3A_AE4B_9D4DDF870ABF_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7E84ABB7_2BE1_41C0_A896_A056FD114CFF_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_824B2697_8B28_466D_92DD_2DDBC78EE7B0_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_765FB4EC_27EF_4D94_8052_A9DC903A1FE7_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0853C2DD_B796_4929_9AC9_EFC324FEC1CD_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B78377D6_82D7_41A1_82DD_F0951E479C7A_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_17BCB272_3A44_45B8_ABDF_FF69155463F7_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4DE4AB49_56FF_4771_9D22_3CA062012918_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_899CEFC9_D907_4D5A_9342_1DC51C120137_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A585B8EE_884F_4CAF_A199_60E1E8558B8D_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8DE2AC4F_B228_41A0_A956_6AAC370C8032_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A363C361_1774_43D2_A8F1_7FF649679E1B_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0B286691_5CF6_4C71_B408_448BB92E469C_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4560127D_8698_4DF7_9A77_0086DF2EE917_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_63227528_6E64_4801_9C90_FBAD8EDEE8C1_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A1539680_EF5D_4C2E_8416_2BD0E4F63540_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4E79CE63_C7AD_4596_99C2_A2191602DA5D_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A37BA99A_134C_4E2C_9E1D_3BC27CCA2992_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A2AEBD77_747F_48C4_8857_9B87B1086062_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EBE7DD6F_DA0E_4853_BE01_A5C76320B65B_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6C02D99C_A855_480D_9AE7_D966D3D2594E_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8791134F_5753_42CE_9D23_521608927F50_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F2E4BEF5_271E_429E_B63D_4F8E7BD90F1C_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_44EF30F9_E316_4E14_BF66_B70E9F37373F_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E7EA019A_8405_4CAD_8A0E_DC2B2F28BD77_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3C593D4E_FB90_4B84_AD30_C25F5EBC2AD2_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_05FF7C97_19AF_4F5A_A3A4_312B46008599_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FF29848C_D68C_454B_9E73_3F48A3F4BB94_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_27061091_75B0_4F33_9BEA_097F709316A1_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E7061027_832B_4D00_B26A_FA1C7E3BE0AD_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_828CDABC_40E0_418F_A489_AD7D442FC725_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7B2F4F6B_5FD4_4D50_97A1_72A5C5CB4961_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4402B9EC_463C_46D6_A02F_72F618A1C9FA_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_759CE620_5251_42AA_B327_661810B42EAF_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F32EAF0A_D65D_423C_B682_9E319DF6B636_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DD19DA19_C4E3_43DA_B028_5D2289A749D0_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F12CA822_E93F_4EB3_B792_5B4B8B6C9FC8_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_75708893_0387_40B6_8C05_563584E325D9_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E5E9847E_5ACB_4AA9_93AF_AD586B55092B_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BA9C6164_6F72_4A57_B0FC_9EDE305835E0_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D63FE455_BB1F_4759_86E4_5CD6E137AF32_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_67BBE9AC_29AD_4EC4_AEE5_14AF9E6605C0_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C6422DD4_BE41_49A0_84F5_49EE6F815604_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_ED5D7221_723F_4B28_8B06_6652CB49E412_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_674EA4DB_B691_4959_ACE6_8481BFE94A7C_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7D16E364_AF49_42BB_BAB6_7C26F03789B5_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F6A198C8_B697_4368_99F6_F676AAB69CC8_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8582D737_B422_4FA3_AE7E_92EE554F0B29_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7369FAA9_0C99_4E74_A76F_9E9582F4E232_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7D64AE0B_9AD7_433F_8638_F768AC052561_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0DF3F5DE_907E_4F29_80B2_EE00DBA8B5EF_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FEE8FA47_738F_4F44_97CB_18B6EEFC38E5_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E5AC50AC_8024_435A_B271_FAC21622461A_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A07A3EAE_80D4_4CFB_8C83_19E7B6532AD5_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_20BAC402_75BA_47E2_8ADB_9FB0B346B5C9_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CF5640D0_434E_44A8_A3EB_7ED6AEA6FEC7_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B278F597_F9A7_4CC9_80F8_A714D3DB6A79_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_81A7021D_74D0_48C2_8FE3_190127421B98_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8F682DC6_94A3_487E_9236_62C6EE2FC85C_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7D8E64AA_CEF5_4A18_9C68_C01F0621301D_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F0457CDC_BF39_436A_AF92_7EDF8F1863F8_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_459666DA_0031_4831_B5FE_77FA039E52B4_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C09BF581_5B2D_460E_9DCE_7057EE2D5ED2_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CE78B2CF_64C6_4A9F_9552_D84924DF4356_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EAEB8BE5_815C_4BE2_85C0_E31CD4A00C4C_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_330D6DE6_98B4_48DA_9AFC_AC58DEF63254_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C41FCE93_D0E7_4A30_BEF0_17F280A6E848_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_17353C1A_E309_481C_AB62_39EF822ACB38_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_541E152F_A4BA_452C_AC7C_8763E5AB2A49_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4AF5E334-F594-4E3A-AE4B-9D4DDF870ABF}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B78377D6-82D7-41A1-82DD-F0951E479C7A}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4560127D-8698-4DF7-9A77-0086DF2EE917}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{63227528-6E64-4801-9C90-FBAD8EDEE8C1}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E7061027-832B-4D00-B26A-FA1C7E3BE0AD}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{824B2697-8B28-466D-92DD-2DDBC78EE7B0}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CA0FBE55-26F0-43B8-91A3-F6A184DED9FA}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3DCA697E-7539-46EA-90B7-B3A93033C3A4}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A37BA99A-134C-4E2C-9E1D-3BC27CCA2992}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{940C8CB4-D96B-4119-8689-E0E79684B5B9}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7E84ABB7-2BE1-41C0-A896-A056FD114CFF}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E7EA019A-8405-4CAD-8A0E-DC2B2F28BD77}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0853C2DD-B796-4929-9AC9-EFC324FEC1CD}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{899CEFC9-D907-4D5A-9342-1DC51C120137}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A363C361-1774-43D2-A8F1-7FF649679E1B}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6C02D99C-A855-480D-9AE7-D966D3D2594E}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{765FB4EC-27EF-4D94-8052-A9DC903A1FE7}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A585B8EE-884F-4CAF-A199-60E1E8558B8D}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4E79CE63-C7AD-4596-99C2-A2191602DA5D}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8791134F-5753-42CE-9D23-521608927F50}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8DE2AC4F-B228-41A0-A956-6AAC370C8032}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{828CDABC-40E0-418F-A489-AD7D442FC725}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{17BCB272-3A44-45B8-ABDF-FF69155463F7}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3C593D4E-FB90-4B84-AD30-C25F5EBC2AD2}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D811CD4A-F1AE-4FA7-87E7-45F58C265595}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FF29848C-D68C-454B-9E73-3F48A3F4BB94}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{27061091-75B0-4F33-9BEA-097F709316A1}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{05FF7C97-19AF-4F5A-A3A4-312B46008599}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A1539680-EF5D-4C2E-8416-2BD0E4F63540}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B286691-5CF6-4C71-B408-448BB92E469C}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{44EF30F9-E316-4E14-BF66-B70E9F37373F}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{236DD4C9-D9F3-41D0-9701-BC3F9A53BFA7}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F2E4BEF5-271E-429E-B63D-4F8E7BD90F1C}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A958B133-443D-4241-A147-7A8A0E9DECD8}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EBE7DD6F-DA0E-4853-BE01-A5C76320B65B}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{994FF865-87E9-42AC-8615-2DD52960EFDC}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4DE4AB49-56FF-4771-9D22-3CA062012918}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A2AEBD77-747F-48C4-8857-9B87B1086062}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C09BF581-5B2D-460E-9DCE-7057EE2D5ED2}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E5E9847E-5ACB-4AA9-93AF-AD586B55092B}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{20BAC402-75BA-47E2-8ADB-9FB0B346B5C9}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{541E152F-A4BA-452C-AC7C-8763E5AB2A49}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A07A3EAE-80D4-4CFB-8C83-19E7B6532AD5}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7D16E364-AF49-42BB-BAB6-7C26F03789B5}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4402B9EC-463C-46D6-A02F-72F618A1C9FA}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F0457CDC-BF39-436A-AF92-7EDF8F1863F8}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B278F597-F9A7-4CC9-80F8-A714D3DB6A79}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8F682DC6-94A3-487E-9236-62C6EE2FC85C}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F12CA822-E93F-4EB3-B792-5B4B8B6C9FC8}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{81A7021D-74D0-48C2-8FE3-190127421B98}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{674EA4DB-B691-4959-ACE6-8481BFE94A7C}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7369FAA9-0C99-4E74-A76F-9E9582F4E232}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{330D6DE6-98B4-48DA-9AFC-AC58DEF63254}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C41FCE93-D0E7-4A30-BEF0-17F280A6E848}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CE78B2CF-64C6-4A9F-9552-D84924DF4356}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{67BBE9AC-29AD-4EC4-AEE5-14AF9E6605C0}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D63FE455-BB1F-4759-86E4-5CD6E137AF32}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FEE8FA47-738F-4F44-97CB-18B6EEFC38E5}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7D8E64AA-CEF5-4A18-9C68-C01F0621301D}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7B2F4F6B-5FD4-4D50-97A1-72A5C5CB4961}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED5D7221-723F-4B28-8B06-6652CB49E412}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{75708893-0387-40B6-8C05-563584E325D9}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CF5640D0-434E-44A8-A3EB-7ED6AEA6FEC7}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DD19DA19-C4E3-43DA-B028-5D2289A749D0}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8582D737-B422-4FA3-AE7E-92EE554F0B29}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7D64AE0B-9AD7-433F-8638-F768AC052561}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{17353C1A-E309-481C-AB62-39EF822ACB38}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EAEB8BE5-815C-4BE2-85C0-E31CD4A00C4C}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0DF3F5DE-907E-4F29-80B2-EE00DBA8B5EF}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{759CE620-5251-42AA-B327-661810B42EAF}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E5AC50AC-8024-435A-B271-FAC21622461A}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA9C6164-6F72-4A57-B0FC-9EDE305835E0}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F32EAF0A-D65D-423C-B682-9E319DF6B636}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F6A198C8-B697-4368-99F6-F676AAB69CC8}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{459666DA-0031-4831-B5FE-77FA039E52B4}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C6422DD4-BE41-49A0-84F5-49EE6F815604}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -2469,124 +2469,124 @@
     <t>Thursday</t>
   </si>
   <si>
+    <t>https://youtu.be/aT2vx220OEc</t>
+  </si>
+  <si>
+    <t>Rabu</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rycl7AXxBzE</t>
+  </si>
+  <si>
+    <t>Sabtu</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>2021-07-17</t>
+  </si>
+  <si>
+    <t>https://youtu.be/My8spplM4uw</t>
+  </si>
+  <si>
+    <t>Selasa</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>https://youtu.be/V6fotXa8NYY</t>
+  </si>
+  <si>
+    <t>Badan</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>Orang/Anggota Badan</t>
+  </si>
+  <si>
+    <t>People/Body Parts</t>
+  </si>
+  <si>
+    <t>Orang</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>Anggota Badan</t>
+  </si>
+  <si>
+    <t>Body Parts</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RcOJ0dSC9n8</t>
+  </si>
+  <si>
+    <t>Bibir</t>
+  </si>
+  <si>
+    <t>Lip</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NtlAjzloUU4</t>
+  </si>
+  <si>
+    <t>Dada</t>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>https://youtu.be/5LK9VqurvRk</t>
+  </si>
+  <si>
+    <t>Dagu</t>
+  </si>
+  <si>
+    <t>Chin</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bHuK7kt8MZM</t>
+  </si>
+  <si>
+    <t>Dahi</t>
+  </si>
+  <si>
+    <t>Forehead</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6PayAjcmV3Y</t>
+  </si>
+  <si>
+    <t>Gigi</t>
+  </si>
+  <si>
+    <t>Teeth</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>https://youtu.be/EwU8wcv-G0Y</t>
+  </si>
+  <si>
+    <t>Hidung</t>
+  </si>
+  <si>
+    <t>Nose</t>
+  </si>
+  <si>
     <t>2021-07-15</t>
-  </si>
-  <si>
-    <t>https://youtu.be/aT2vx220OEc</t>
-  </si>
-  <si>
-    <t>Rabu</t>
-  </si>
-  <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
-    <t>https://youtu.be/rycl7AXxBzE</t>
-  </si>
-  <si>
-    <t>Sabtu</t>
-  </si>
-  <si>
-    <t>Saturday</t>
-  </si>
-  <si>
-    <t>2021-07-17</t>
-  </si>
-  <si>
-    <t>https://youtu.be/My8spplM4uw</t>
-  </si>
-  <si>
-    <t>Selasa</t>
-  </si>
-  <si>
-    <t>Tuesday</t>
-  </si>
-  <si>
-    <t>2021-07-13</t>
-  </si>
-  <si>
-    <t>https://youtu.be/V6fotXa8NYY</t>
-  </si>
-  <si>
-    <t>Badan</t>
-  </si>
-  <si>
-    <t>Body</t>
-  </si>
-  <si>
-    <t>Orang/Anggota Badan</t>
-  </si>
-  <si>
-    <t>People/Body Parts</t>
-  </si>
-  <si>
-    <t>Orang</t>
-  </si>
-  <si>
-    <t>People</t>
-  </si>
-  <si>
-    <t>Anggota Badan</t>
-  </si>
-  <si>
-    <t>Body Parts</t>
-  </si>
-  <si>
-    <t>https://youtu.be/RcOJ0dSC9n8</t>
-  </si>
-  <si>
-    <t>Bibir</t>
-  </si>
-  <si>
-    <t>Lip</t>
-  </si>
-  <si>
-    <t>https://youtu.be/NtlAjzloUU4</t>
-  </si>
-  <si>
-    <t>Dada</t>
-  </si>
-  <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>https://youtu.be/5LK9VqurvRk</t>
-  </si>
-  <si>
-    <t>Dagu</t>
-  </si>
-  <si>
-    <t>Chin</t>
-  </si>
-  <si>
-    <t>https://youtu.be/bHuK7kt8MZM</t>
-  </si>
-  <si>
-    <t>Dahi</t>
-  </si>
-  <si>
-    <t>Forehead</t>
-  </si>
-  <si>
-    <t>https://youtu.be/6PayAjcmV3Y</t>
-  </si>
-  <si>
-    <t>Gigi</t>
-  </si>
-  <si>
-    <t>Teeth</t>
-  </si>
-  <si>
-    <t>2021-07-14</t>
-  </si>
-  <si>
-    <t>https://youtu.be/EwU8wcv-G0Y</t>
-  </si>
-  <si>
-    <t>Hidung</t>
-  </si>
-  <si>
-    <t>Nose</t>
   </si>
   <si>
     <t>https://youtu.be/Ortwp6itkpM</t>
@@ -23755,12 +23755,10 @@
       <c r="K238" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L238" s="12" t="s">
-        <v>786</v>
-      </c>
+      <c r="L238" s="12"/>
       <c r="M238" s="12"/>
       <c r="N238" s="20" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="O238" s="15" t="s">
         <v>26</v>
@@ -23777,10 +23775,10 @@
     </row>
     <row r="239">
       <c r="A239" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="B239" s="18" t="s">
         <v>788</v>
-      </c>
-      <c r="B239" s="18" t="s">
-        <v>789</v>
       </c>
       <c r="C239" s="10" t="s">
         <v>773</v>
@@ -23810,7 +23808,7 @@
       <c r="L239" s="12"/>
       <c r="M239" s="12"/>
       <c r="N239" s="20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="O239" s="15" t="s">
         <v>26</v>
@@ -23827,10 +23825,10 @@
     </row>
     <row r="240">
       <c r="A240" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="B240" s="18" t="s">
         <v>791</v>
-      </c>
-      <c r="B240" s="18" t="s">
-        <v>792</v>
       </c>
       <c r="C240" s="10" t="s">
         <v>773</v>
@@ -23858,11 +23856,11 @@
         <v>24</v>
       </c>
       <c r="L240" s="12" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M240" s="12"/>
       <c r="N240" s="20" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O240" s="15" t="s">
         <v>26</v>
@@ -23879,10 +23877,10 @@
     </row>
     <row r="241">
       <c r="A241" s="26" t="s">
+        <v>794</v>
+      </c>
+      <c r="B241" s="18" t="s">
         <v>795</v>
-      </c>
-      <c r="B241" s="18" t="s">
-        <v>796</v>
       </c>
       <c r="C241" s="10" t="s">
         <v>773</v>
@@ -23910,11 +23908,11 @@
         <v>24</v>
       </c>
       <c r="L241" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="M241" s="12"/>
       <c r="N241" s="20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="O241" s="15" t="s">
         <v>26</v>
@@ -23931,28 +23929,28 @@
     </row>
     <row r="242">
       <c r="A242" s="65" t="s">
+        <v>798</v>
+      </c>
+      <c r="B242" s="12" t="s">
         <v>799</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="C242" s="10" t="s">
         <v>800</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="D242" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D242" s="10" t="s">
+      <c r="E242" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E242" s="11" t="s">
+      <c r="F242" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F242" s="11" t="s">
+      <c r="G242" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G242" s="12" t="s">
+      <c r="H242" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H242" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I242" s="19"/>
       <c r="J242" s="19"/>
@@ -23962,7 +23960,7 @@
       <c r="L242" s="66"/>
       <c r="M242" s="66"/>
       <c r="N242" s="20" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="O242" s="15" t="s">
         <v>26</v>
@@ -23977,28 +23975,28 @@
     </row>
     <row r="243">
       <c r="A243" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>808</v>
       </c>
-      <c r="B243" s="9" t="s">
-        <v>809</v>
-      </c>
       <c r="C243" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D243" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="E243" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E243" s="11" t="s">
+      <c r="F243" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F243" s="11" t="s">
+      <c r="G243" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G243" s="12" t="s">
+      <c r="H243" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H243" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I243" s="19"/>
       <c r="J243" s="19"/>
@@ -24008,7 +24006,7 @@
       <c r="L243" s="12"/>
       <c r="M243" s="12"/>
       <c r="N243" s="20" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="O243" s="15" t="s">
         <v>26</v>
@@ -24023,28 +24021,28 @@
     </row>
     <row r="244">
       <c r="A244" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>811</v>
       </c>
-      <c r="B244" s="9" t="s">
-        <v>812</v>
-      </c>
       <c r="C244" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D244" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="E244" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E244" s="11" t="s">
+      <c r="F244" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F244" s="11" t="s">
+      <c r="G244" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G244" s="12" t="s">
+      <c r="H244" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H244" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I244" s="19"/>
       <c r="J244" s="19"/>
@@ -24054,7 +24052,7 @@
       <c r="L244" s="12"/>
       <c r="M244" s="12"/>
       <c r="N244" s="20" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O244" s="15" t="s">
         <v>26</v>
@@ -24069,28 +24067,28 @@
     </row>
     <row r="245">
       <c r="A245" s="8" t="s">
+        <v>813</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>814</v>
       </c>
-      <c r="B245" s="9" t="s">
-        <v>815</v>
-      </c>
       <c r="C245" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D245" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D245" s="10" t="s">
+      <c r="E245" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="F245" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F245" s="11" t="s">
+      <c r="G245" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G245" s="12" t="s">
+      <c r="H245" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H245" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I245" s="19"/>
       <c r="J245" s="19"/>
@@ -24100,7 +24098,7 @@
       <c r="L245" s="12"/>
       <c r="M245" s="12"/>
       <c r="N245" s="20" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="O245" s="15" t="s">
         <v>26</v>
@@ -24115,28 +24113,28 @@
     </row>
     <row r="246">
       <c r="A246" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>817</v>
       </c>
-      <c r="B246" s="9" t="s">
-        <v>818</v>
-      </c>
       <c r="C246" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D246" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D246" s="10" t="s">
+      <c r="E246" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E246" s="11" t="s">
+      <c r="F246" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F246" s="11" t="s">
+      <c r="G246" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G246" s="12" t="s">
+      <c r="H246" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H246" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I246" s="19"/>
       <c r="J246" s="19"/>
@@ -24146,7 +24144,7 @@
       <c r="L246" s="12"/>
       <c r="M246" s="12"/>
       <c r="N246" s="20" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="O246" s="15" t="s">
         <v>26</v>
@@ -24161,28 +24159,28 @@
     </row>
     <row r="247">
       <c r="A247" s="8" t="s">
+        <v>819</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B247" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="C247" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D247" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D247" s="10" t="s">
+      <c r="E247" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E247" s="11" t="s">
+      <c r="F247" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F247" s="11" t="s">
+      <c r="G247" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G247" s="12" t="s">
+      <c r="H247" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H247" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I247" s="19"/>
       <c r="J247" s="19"/>
@@ -24190,11 +24188,11 @@
         <v>24</v>
       </c>
       <c r="L247" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M247" s="12"/>
       <c r="N247" s="20" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="O247" s="15" t="s">
         <v>26</v>
@@ -24209,35 +24207,37 @@
     </row>
     <row r="248">
       <c r="A248" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>824</v>
       </c>
-      <c r="B248" s="9" t="s">
-        <v>825</v>
-      </c>
       <c r="C248" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D248" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D248" s="10" t="s">
+      <c r="E248" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E248" s="11" t="s">
+      <c r="F248" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F248" s="11" t="s">
+      <c r="G248" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G248" s="12" t="s">
+      <c r="H248" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H248" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I248" s="19"/>
       <c r="J248" s="19"/>
       <c r="K248" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L248" s="12"/>
+      <c r="L248" s="12" t="s">
+        <v>825</v>
+      </c>
       <c r="M248" s="12"/>
       <c r="N248" s="20" t="s">
         <v>826</v>
@@ -24261,22 +24261,22 @@
         <v>828</v>
       </c>
       <c r="C249" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D249" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D249" s="10" t="s">
+      <c r="E249" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E249" s="11" t="s">
+      <c r="F249" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F249" s="11" t="s">
+      <c r="G249" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G249" s="12" t="s">
+      <c r="H249" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H249" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I249" s="19"/>
       <c r="J249" s="19"/>
@@ -24307,22 +24307,22 @@
         <v>831</v>
       </c>
       <c r="C250" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D250" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D250" s="10" t="s">
+      <c r="E250" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E250" s="11" t="s">
+      <c r="F250" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F250" s="11" t="s">
+      <c r="G250" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G250" s="12" t="s">
+      <c r="H250" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H250" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I250" s="19"/>
       <c r="J250" s="19"/>
@@ -24353,22 +24353,22 @@
         <v>834</v>
       </c>
       <c r="C251" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D251" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D251" s="10" t="s">
+      <c r="E251" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E251" s="11" t="s">
+      <c r="F251" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F251" s="11" t="s">
+      <c r="G251" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G251" s="12" t="s">
+      <c r="H251" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H251" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I251" s="19"/>
       <c r="J251" s="19"/>
@@ -24399,22 +24399,22 @@
         <v>837</v>
       </c>
       <c r="C252" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D252" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D252" s="10" t="s">
+      <c r="E252" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E252" s="11" t="s">
+      <c r="F252" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F252" s="11" t="s">
+      <c r="G252" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G252" s="12" t="s">
+      <c r="H252" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H252" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I252" s="19"/>
       <c r="J252" s="19"/>
@@ -24445,22 +24445,22 @@
         <v>840</v>
       </c>
       <c r="C253" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D253" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D253" s="10" t="s">
+      <c r="E253" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E253" s="11" t="s">
+      <c r="F253" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F253" s="11" t="s">
+      <c r="G253" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G253" s="12" t="s">
+      <c r="H253" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H253" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I253" s="19"/>
       <c r="J253" s="19"/>
@@ -24491,22 +24491,22 @@
         <v>843</v>
       </c>
       <c r="C254" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D254" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D254" s="10" t="s">
+      <c r="E254" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E254" s="11" t="s">
+      <c r="F254" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F254" s="11" t="s">
+      <c r="G254" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G254" s="12" t="s">
+      <c r="H254" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H254" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I254" s="19"/>
       <c r="J254" s="19"/>
@@ -24537,22 +24537,22 @@
         <v>846</v>
       </c>
       <c r="C255" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D255" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D255" s="10" t="s">
+      <c r="E255" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E255" s="11" t="s">
+      <c r="F255" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F255" s="11" t="s">
+      <c r="G255" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G255" s="12" t="s">
+      <c r="H255" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H255" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I255" s="19"/>
       <c r="J255" s="19"/>
@@ -24583,22 +24583,22 @@
         <v>849</v>
       </c>
       <c r="C256" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D256" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D256" s="10" t="s">
+      <c r="E256" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E256" s="11" t="s">
+      <c r="F256" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F256" s="11" t="s">
+      <c r="G256" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G256" s="12" t="s">
+      <c r="H256" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H256" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I256" s="19"/>
       <c r="J256" s="19"/>
@@ -24629,22 +24629,22 @@
         <v>852</v>
       </c>
       <c r="C257" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D257" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D257" s="10" t="s">
+      <c r="E257" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E257" s="11" t="s">
+      <c r="F257" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F257" s="11" t="s">
+      <c r="G257" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G257" s="12" t="s">
+      <c r="H257" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H257" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I257" s="19"/>
       <c r="J257" s="19"/>
@@ -24675,22 +24675,22 @@
         <v>855</v>
       </c>
       <c r="C258" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D258" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D258" s="10" t="s">
+      <c r="E258" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E258" s="11" t="s">
+      <c r="F258" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F258" s="11" t="s">
+      <c r="G258" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G258" s="12" t="s">
+      <c r="H258" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H258" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I258" s="19"/>
       <c r="J258" s="19"/>
@@ -24721,22 +24721,22 @@
         <v>858</v>
       </c>
       <c r="C259" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D259" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D259" s="10" t="s">
+      <c r="E259" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E259" s="11" t="s">
+      <c r="F259" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F259" s="11" t="s">
+      <c r="G259" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G259" s="12" t="s">
+      <c r="H259" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H259" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I259" s="19"/>
       <c r="J259" s="19"/>
@@ -24767,22 +24767,22 @@
         <v>861</v>
       </c>
       <c r="C260" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D260" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D260" s="10" t="s">
+      <c r="E260" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E260" s="11" t="s">
+      <c r="F260" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F260" s="11" t="s">
+      <c r="G260" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G260" s="12" t="s">
+      <c r="H260" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H260" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I260" s="19"/>
       <c r="J260" s="19"/>
@@ -24813,22 +24813,22 @@
         <v>864</v>
       </c>
       <c r="C261" s="10" t="s">
+        <v>800</v>
+      </c>
+      <c r="D261" s="10" t="s">
         <v>801</v>
       </c>
-      <c r="D261" s="10" t="s">
+      <c r="E261" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="E261" s="11" t="s">
+      <c r="F261" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="F261" s="11" t="s">
+      <c r="G261" s="12" t="s">
         <v>804</v>
       </c>
-      <c r="G261" s="12" t="s">
+      <c r="H261" s="12" t="s">
         <v>805</v>
-      </c>
-      <c r="H261" s="12" t="s">
-        <v>806</v>
       </c>
       <c r="I261" s="19"/>
       <c r="J261" s="19"/>
@@ -24865,10 +24865,10 @@
         <v>869</v>
       </c>
       <c r="E262" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F262" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G262" s="69" t="s">
         <v>870</v>
@@ -24911,10 +24911,10 @@
         <v>869</v>
       </c>
       <c r="E263" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F263" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F263" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G263" s="69" t="s">
         <v>870</v>
@@ -24957,10 +24957,10 @@
         <v>869</v>
       </c>
       <c r="E264" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F264" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G264" s="69" t="s">
         <v>870</v>
@@ -25003,10 +25003,10 @@
         <v>869</v>
       </c>
       <c r="E265" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F265" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G265" s="69" t="s">
         <v>870</v>
@@ -25049,10 +25049,10 @@
         <v>869</v>
       </c>
       <c r="E266" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F266" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G266" s="69" t="s">
         <v>870</v>
@@ -25095,10 +25095,10 @@
         <v>869</v>
       </c>
       <c r="E267" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F267" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G267" s="69" t="s">
         <v>870</v>
@@ -25143,10 +25143,10 @@
         <v>869</v>
       </c>
       <c r="E268" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F268" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G268" s="69" t="s">
         <v>870</v>
@@ -25189,10 +25189,10 @@
         <v>869</v>
       </c>
       <c r="E269" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F269" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F269" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G269" s="69" t="s">
         <v>870</v>
@@ -25235,10 +25235,10 @@
         <v>869</v>
       </c>
       <c r="E270" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F270" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F270" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G270" s="69" t="s">
         <v>870</v>
@@ -25281,10 +25281,10 @@
         <v>869</v>
       </c>
       <c r="E271" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F271" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F271" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G271" s="69" t="s">
         <v>870</v>
@@ -25327,10 +25327,10 @@
         <v>869</v>
       </c>
       <c r="E272" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F272" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F272" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G272" s="69" t="s">
         <v>870</v>
@@ -25373,10 +25373,10 @@
         <v>869</v>
       </c>
       <c r="E273" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F273" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F273" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G273" s="69" t="s">
         <v>870</v>
@@ -25419,10 +25419,10 @@
         <v>869</v>
       </c>
       <c r="E274" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F274" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G274" s="69" t="s">
         <v>870</v>
@@ -25465,10 +25465,10 @@
         <v>869</v>
       </c>
       <c r="E275" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F275" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F275" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G275" s="69" t="s">
         <v>870</v>
@@ -25511,10 +25511,10 @@
         <v>869</v>
       </c>
       <c r="E276" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F276" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F276" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G276" s="69" t="s">
         <v>870</v>
@@ -25557,10 +25557,10 @@
         <v>869</v>
       </c>
       <c r="E277" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F277" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F277" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G277" s="69" t="s">
         <v>870</v>
@@ -25603,10 +25603,10 @@
         <v>869</v>
       </c>
       <c r="E278" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F278" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G278" s="69" t="s">
         <v>870</v>
@@ -25649,10 +25649,10 @@
         <v>869</v>
       </c>
       <c r="E279" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F279" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G279" s="69" t="s">
         <v>870</v>
@@ -25695,10 +25695,10 @@
         <v>869</v>
       </c>
       <c r="E280" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F280" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G280" s="69" t="s">
         <v>870</v>
@@ -25741,10 +25741,10 @@
         <v>929</v>
       </c>
       <c r="E281" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F281" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>930</v>
@@ -25787,10 +25787,10 @@
         <v>929</v>
       </c>
       <c r="E282" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F282" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>930</v>
@@ -25833,10 +25833,10 @@
         <v>929</v>
       </c>
       <c r="E283" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F283" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>930</v>
@@ -25879,10 +25879,10 @@
         <v>929</v>
       </c>
       <c r="E284" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F284" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>930</v>
@@ -25925,10 +25925,10 @@
         <v>929</v>
       </c>
       <c r="E285" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F285" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F285" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>930</v>
@@ -25971,10 +25971,10 @@
         <v>929</v>
       </c>
       <c r="E286" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F286" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F286" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>930</v>
@@ -26017,10 +26017,10 @@
         <v>929</v>
       </c>
       <c r="E287" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F287" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F287" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>930</v>
@@ -26063,10 +26063,10 @@
         <v>929</v>
       </c>
       <c r="E288" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F288" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F288" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>930</v>
@@ -26109,10 +26109,10 @@
         <v>929</v>
       </c>
       <c r="E289" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F289" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F289" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>930</v>
@@ -26155,10 +26155,10 @@
         <v>929</v>
       </c>
       <c r="E290" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F290" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F290" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>930</v>
@@ -26201,10 +26201,10 @@
         <v>929</v>
       </c>
       <c r="E291" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F291" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F291" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G291" s="36" t="s">
         <v>930</v>
@@ -26247,10 +26247,10 @@
         <v>929</v>
       </c>
       <c r="E292" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F292" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F292" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G292" s="36" t="s">
         <v>930</v>
@@ -26293,10 +26293,10 @@
         <v>929</v>
       </c>
       <c r="E293" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F293" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F293" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G293" s="36" t="s">
         <v>930</v>
@@ -26339,10 +26339,10 @@
         <v>929</v>
       </c>
       <c r="E294" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F294" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F294" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G294" s="36" t="s">
         <v>930</v>
@@ -26385,10 +26385,10 @@
         <v>929</v>
       </c>
       <c r="E295" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F295" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F295" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G295" s="36" t="s">
         <v>930</v>
@@ -26431,10 +26431,10 @@
         <v>929</v>
       </c>
       <c r="E296" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F296" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F296" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G296" s="12" t="s">
         <v>930</v>
@@ -26477,10 +26477,10 @@
         <v>929</v>
       </c>
       <c r="E297" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F297" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G297" s="12" t="s">
         <v>930</v>
@@ -26523,10 +26523,10 @@
         <v>929</v>
       </c>
       <c r="E298" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F298" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G298" s="12" t="s">
         <v>930</v>
@@ -26569,10 +26569,10 @@
         <v>929</v>
       </c>
       <c r="E299" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F299" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F299" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G299" s="12" t="s">
         <v>930</v>
@@ -26615,10 +26615,10 @@
         <v>929</v>
       </c>
       <c r="E300" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F300" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F300" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G300" s="12" t="s">
         <v>930</v>
@@ -26661,10 +26661,10 @@
         <v>929</v>
       </c>
       <c r="E301" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F301" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F301" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G301" s="12" t="s">
         <v>930</v>
@@ -26707,10 +26707,10 @@
         <v>929</v>
       </c>
       <c r="E302" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F302" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F302" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G302" s="36" t="s">
         <v>930</v>
@@ -26753,10 +26753,10 @@
         <v>929</v>
       </c>
       <c r="E303" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F303" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F303" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G303" s="12" t="s">
         <v>930</v>
@@ -26799,10 +26799,10 @@
         <v>929</v>
       </c>
       <c r="E304" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F304" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G304" s="12" t="s">
         <v>930</v>
@@ -26845,10 +26845,10 @@
         <v>929</v>
       </c>
       <c r="E305" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F305" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G305" s="12" t="s">
         <v>930</v>
@@ -26891,10 +26891,10 @@
         <v>929</v>
       </c>
       <c r="E306" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F306" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G306" s="12" t="s">
         <v>930</v>
@@ -26937,10 +26937,10 @@
         <v>929</v>
       </c>
       <c r="E307" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F307" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F307" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G307" s="12" t="s">
         <v>930</v>
@@ -26983,10 +26983,10 @@
         <v>929</v>
       </c>
       <c r="E308" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F308" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F308" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G308" s="12" t="s">
         <v>930</v>
@@ -27029,10 +27029,10 @@
         <v>929</v>
       </c>
       <c r="E309" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F309" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G309" s="12" t="s">
         <v>930</v>
@@ -27075,10 +27075,10 @@
         <v>929</v>
       </c>
       <c r="E310" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F310" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G310" s="12" t="s">
         <v>930</v>
@@ -27121,10 +27121,10 @@
         <v>929</v>
       </c>
       <c r="E311" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F311" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F311" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G311" s="12" t="s">
         <v>930</v>
@@ -27155,7 +27155,7 @@
     </row>
     <row r="312">
       <c r="A312" s="45" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>1021</v>
@@ -27167,10 +27167,10 @@
         <v>929</v>
       </c>
       <c r="E312" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F312" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G312" s="12" t="s">
         <v>930</v>
@@ -27213,10 +27213,10 @@
         <v>929</v>
       </c>
       <c r="E313" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F313" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F313" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>930</v>
@@ -27259,10 +27259,10 @@
         <v>929</v>
       </c>
       <c r="E314" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F314" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F314" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G314" s="12" t="s">
         <v>930</v>
@@ -27305,10 +27305,10 @@
         <v>929</v>
       </c>
       <c r="E315" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F315" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F315" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G315" s="12" t="s">
         <v>930</v>
@@ -27351,10 +27351,10 @@
         <v>929</v>
       </c>
       <c r="E316" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F316" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F316" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G316" s="12" t="s">
         <v>930</v>
@@ -27397,10 +27397,10 @@
         <v>929</v>
       </c>
       <c r="E317" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F317" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F317" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G317" s="12" t="s">
         <v>930</v>
@@ -27443,10 +27443,10 @@
         <v>1041</v>
       </c>
       <c r="E318" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F318" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F318" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G318" s="12" t="s">
         <v>240</v>
@@ -27489,10 +27489,10 @@
         <v>1041</v>
       </c>
       <c r="E319" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F319" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F319" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G319" s="12" t="s">
         <v>240</v>
@@ -27535,10 +27535,10 @@
         <v>1041</v>
       </c>
       <c r="E320" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F320" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F320" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G320" s="12" t="s">
         <v>240</v>
@@ -27581,10 +27581,10 @@
         <v>1041</v>
       </c>
       <c r="E321" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F321" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F321" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G321" s="12" t="s">
         <v>240</v>
@@ -27627,10 +27627,10 @@
         <v>1041</v>
       </c>
       <c r="E322" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F322" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F322" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G322" s="12" t="s">
         <v>240</v>
@@ -27673,10 +27673,10 @@
         <v>1041</v>
       </c>
       <c r="E323" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F323" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F323" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G323" s="12" t="s">
         <v>240</v>
@@ -27719,10 +27719,10 @@
         <v>1041</v>
       </c>
       <c r="E324" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F324" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F324" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G324" s="12" t="s">
         <v>240</v>
@@ -27765,10 +27765,10 @@
         <v>1041</v>
       </c>
       <c r="E325" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F325" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F325" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G325" s="12" t="s">
         <v>240</v>
@@ -27811,10 +27811,10 @@
         <v>1041</v>
       </c>
       <c r="E326" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F326" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F326" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G326" s="12" t="s">
         <v>240</v>
@@ -27857,10 +27857,10 @@
         <v>1041</v>
       </c>
       <c r="E327" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F327" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F327" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G327" s="12" t="s">
         <v>240</v>
@@ -27903,10 +27903,10 @@
         <v>1041</v>
       </c>
       <c r="E328" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F328" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F328" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G328" s="12" t="s">
         <v>240</v>
@@ -27949,10 +27949,10 @@
         <v>1041</v>
       </c>
       <c r="E329" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F329" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F329" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G329" s="12" t="s">
         <v>240</v>
@@ -27995,10 +27995,10 @@
         <v>1041</v>
       </c>
       <c r="E330" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F330" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F330" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G330" s="12" t="s">
         <v>240</v>
@@ -28041,10 +28041,10 @@
         <v>1041</v>
       </c>
       <c r="E331" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F331" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F331" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>240</v>
@@ -28087,10 +28087,10 @@
         <v>1041</v>
       </c>
       <c r="E332" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F332" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F332" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>240</v>
@@ -28133,10 +28133,10 @@
         <v>1041</v>
       </c>
       <c r="E333" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F333" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F333" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>240</v>
@@ -28179,10 +28179,10 @@
         <v>1041</v>
       </c>
       <c r="E334" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F334" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F334" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>240</v>
@@ -28225,10 +28225,10 @@
         <v>1041</v>
       </c>
       <c r="E335" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F335" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F335" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G335" s="12" t="s">
         <v>240</v>
@@ -28271,10 +28271,10 @@
         <v>1041</v>
       </c>
       <c r="E336" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F336" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F336" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>240</v>
@@ -28317,10 +28317,10 @@
         <v>1041</v>
       </c>
       <c r="E337" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F337" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F337" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>240</v>
@@ -28363,10 +28363,10 @@
         <v>1041</v>
       </c>
       <c r="E338" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F338" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F338" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G338" s="12" t="s">
         <v>240</v>
@@ -28409,10 +28409,10 @@
         <v>1041</v>
       </c>
       <c r="E339" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F339" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F339" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G339" s="12" t="s">
         <v>240</v>
@@ -28455,10 +28455,10 @@
         <v>1041</v>
       </c>
       <c r="E340" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F340" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F340" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G340" s="12" t="s">
         <v>240</v>
@@ -28501,10 +28501,10 @@
         <v>1041</v>
       </c>
       <c r="E341" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F341" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F341" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G341" s="12" t="s">
         <v>240</v>
@@ -28547,10 +28547,10 @@
         <v>1041</v>
       </c>
       <c r="E342" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F342" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F342" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G342" s="12" t="s">
         <v>240</v>
@@ -28593,10 +28593,10 @@
         <v>1041</v>
       </c>
       <c r="E343" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F343" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F343" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G343" s="12" t="s">
         <v>240</v>
@@ -28639,10 +28639,10 @@
         <v>1041</v>
       </c>
       <c r="E344" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F344" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F344" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G344" s="12" t="s">
         <v>240</v>
@@ -28685,10 +28685,10 @@
         <v>1041</v>
       </c>
       <c r="E345" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F345" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F345" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G345" s="12" t="s">
         <v>240</v>
@@ -28731,10 +28731,10 @@
         <v>1041</v>
       </c>
       <c r="E346" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F346" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F346" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G346" s="12" t="s">
         <v>240</v>
@@ -28777,10 +28777,10 @@
         <v>1041</v>
       </c>
       <c r="E347" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F347" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F347" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G347" s="12" t="s">
         <v>240</v>
@@ -28823,10 +28823,10 @@
         <v>1041</v>
       </c>
       <c r="E348" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F348" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F348" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G348" s="12" t="s">
         <v>240</v>
@@ -28869,10 +28869,10 @@
         <v>1041</v>
       </c>
       <c r="E349" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F349" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F349" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G349" s="12" t="s">
         <v>240</v>
@@ -28915,10 +28915,10 @@
         <v>1041</v>
       </c>
       <c r="E350" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="F350" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F350" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G350" s="12" t="s">
         <v>240</v>
@@ -28961,10 +28961,10 @@
         <v>1142</v>
       </c>
       <c r="E351" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F351" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F351" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G351" s="42" t="s">
         <v>270</v>
@@ -29007,10 +29007,10 @@
         <v>1142</v>
       </c>
       <c r="E352" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F352" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F352" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G352" s="42" t="s">
         <v>270</v>
@@ -29053,10 +29053,10 @@
         <v>1150</v>
       </c>
       <c r="E353" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F353" s="11" t="s">
         <v>803</v>
-      </c>
-      <c r="F353" s="11" t="s">
-        <v>804</v>
       </c>
       <c r="G353" s="42" t="s">
         <v>270</v>
@@ -29099,10 +29099,10 @@
         <v>1150</v>
       </c>
       <c r="E354" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F354" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F354" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G354" s="42" t="s">
         <v>270</v>
@@ -29145,10 +29145,10 @@
         <v>1150</v>
       </c>
       <c r="E355" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F355" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F355" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G355" s="42" t="s">
         <v>270</v>
@@ -29191,10 +29191,10 @@
         <v>1150</v>
       </c>
       <c r="E356" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F356" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F356" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G356" s="42" t="s">
         <v>270</v>
@@ -60689,10 +60689,10 @@
         <v>3286</v>
       </c>
       <c r="E1029" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1029" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1029" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1029" s="56" t="s">
         <v>2203</v>
@@ -60739,10 +60739,10 @@
         <v>3286</v>
       </c>
       <c r="E1030" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1030" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1030" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1030" s="56" t="s">
         <v>2203</v>
@@ -60789,10 +60789,10 @@
         <v>3286</v>
       </c>
       <c r="E1031" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1031" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1031" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1031" s="56" t="s">
         <v>2203</v>
@@ -60839,10 +60839,10 @@
         <v>3286</v>
       </c>
       <c r="E1032" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1032" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1032" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1032" s="56" t="s">
         <v>2203</v>
@@ -60889,10 +60889,10 @@
         <v>3286</v>
       </c>
       <c r="E1033" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1033" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1033" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1033" s="56" t="s">
         <v>2203</v>
@@ -60939,10 +60939,10 @@
         <v>3286</v>
       </c>
       <c r="E1034" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1034" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1034" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1034" s="56" t="s">
         <v>2203</v>
@@ -60989,10 +60989,10 @@
         <v>3286</v>
       </c>
       <c r="E1035" s="77" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1035" s="77" t="s">
         <v>803</v>
-      </c>
-      <c r="F1035" s="77" t="s">
-        <v>804</v>
       </c>
       <c r="G1035" s="56" t="s">
         <v>2203</v>
@@ -61039,10 +61039,10 @@
         <v>3307</v>
       </c>
       <c r="E1036" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1036" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1036" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1036" s="21" t="s">
         <v>2986</v>
@@ -61085,10 +61085,10 @@
         <v>3307</v>
       </c>
       <c r="E1037" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1037" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1037" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1037" s="21" t="s">
         <v>2986</v>
@@ -61131,10 +61131,10 @@
         <v>3307</v>
       </c>
       <c r="E1038" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1038" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1038" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1038" s="21" t="s">
         <v>2986</v>
@@ -61177,10 +61177,10 @@
         <v>3307</v>
       </c>
       <c r="E1039" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1039" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1039" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1039" s="21" t="s">
         <v>2986</v>
@@ -61223,10 +61223,10 @@
         <v>3307</v>
       </c>
       <c r="E1040" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1040" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1040" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1040" s="21" t="s">
         <v>2986</v>
@@ -61269,10 +61269,10 @@
         <v>3307</v>
       </c>
       <c r="E1041" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1041" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1041" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1041" s="21" t="s">
         <v>2986</v>
@@ -61306,7 +61306,7 @@
         <v>3324</v>
       </c>
       <c r="B1042" s="33" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C1042" s="42" t="s">
         <v>3306</v>
@@ -61315,10 +61315,10 @@
         <v>3307</v>
       </c>
       <c r="E1042" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1042" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1042" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1042" s="21" t="s">
         <v>2986</v>
@@ -61361,10 +61361,10 @@
         <v>3307</v>
       </c>
       <c r="E1043" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1043" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1043" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1043" s="21" t="s">
         <v>2986</v>
@@ -61407,10 +61407,10 @@
         <v>3307</v>
       </c>
       <c r="E1044" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1044" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1044" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1044" s="21" t="s">
         <v>2986</v>
@@ -61453,10 +61453,10 @@
         <v>3307</v>
       </c>
       <c r="E1045" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1045" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1045" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1045" s="21" t="s">
         <v>2986</v>
@@ -61499,10 +61499,10 @@
         <v>3307</v>
       </c>
       <c r="E1046" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1046" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1046" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1046" s="21" t="s">
         <v>2986</v>
@@ -61545,10 +61545,10 @@
         <v>3307</v>
       </c>
       <c r="E1047" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1047" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1047" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1047" s="21" t="s">
         <v>2986</v>
@@ -61591,10 +61591,10 @@
         <v>3307</v>
       </c>
       <c r="E1048" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1048" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1048" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1048" s="21" t="s">
         <v>2986</v>
@@ -61637,10 +61637,10 @@
         <v>1041</v>
       </c>
       <c r="E1049" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1049" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1049" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1049" s="21" t="s">
         <v>2986</v>
@@ -61683,10 +61683,10 @@
         <v>1041</v>
       </c>
       <c r="E1050" s="84" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1050" s="84" t="s">
         <v>803</v>
-      </c>
-      <c r="F1050" s="84" t="s">
-        <v>804</v>
       </c>
       <c r="G1050" s="21" t="s">
         <v>2986</v>
@@ -61729,10 +61729,10 @@
         <v>3352</v>
       </c>
       <c r="E1051" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1051" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1051" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1051" s="12" t="s">
         <v>3035</v>
@@ -61775,10 +61775,10 @@
         <v>3352</v>
       </c>
       <c r="E1052" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1052" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1052" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1052" s="12" t="s">
         <v>3035</v>
@@ -61821,10 +61821,10 @@
         <v>3352</v>
       </c>
       <c r="E1053" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1053" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1053" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1053" s="12" t="s">
         <v>3035</v>
@@ -61867,10 +61867,10 @@
         <v>3352</v>
       </c>
       <c r="E1054" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1054" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1054" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1054" s="12" t="s">
         <v>3035</v>
@@ -61913,10 +61913,10 @@
         <v>3352</v>
       </c>
       <c r="E1055" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1055" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1055" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1055" s="12" t="s">
         <v>3035</v>
@@ -61959,10 +61959,10 @@
         <v>3352</v>
       </c>
       <c r="E1056" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1056" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1056" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1056" s="12" t="s">
         <v>3035</v>
@@ -62005,10 +62005,10 @@
         <v>3352</v>
       </c>
       <c r="E1057" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1057" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1057" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1057" s="12" t="s">
         <v>3035</v>
@@ -62051,10 +62051,10 @@
         <v>3352</v>
       </c>
       <c r="E1058" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1058" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1058" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1058" s="12" t="s">
         <v>3035</v>
@@ -62097,10 +62097,10 @@
         <v>3352</v>
       </c>
       <c r="E1059" s="83" t="s">
+        <v>802</v>
+      </c>
+      <c r="F1059" s="83" t="s">
         <v>803</v>
-      </c>
-      <c r="F1059" s="83" t="s">
-        <v>804</v>
       </c>
       <c r="G1059" s="12" t="s">
         <v>3035</v>
@@ -74275,23 +74275,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A585B8EE-884F-4CAF-A199-60E1E8558B8D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{67BBE9AC-29AD-4EC4-AEE5-14AF9E6605C0}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$O$572"/>
     </customSheetView>
-    <customSheetView guid="{765FB4EC-27EF-4D94-8052-A9DC903A1FE7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CE78B2CF-64C6-4A9F-9552-D84924DF4356}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$O$462">
         <sortState ref="A429:O462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{994FF865-87E9-42AC-8615-2DD52960EFDC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F6A198C8-B697-4368-99F6-F676AAB69CC8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$O$565"/>
     </customSheetView>
-    <customSheetView guid="{EBE7DD6F-DA0E-4853-BE01-A5C76320B65B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F32EAF0A-D65D-423C-B682-9E319DF6B636}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$O$531"/>
     </customSheetView>
-    <customSheetView guid="{0B286691-5CF6-4C71-B408-448BB92E469C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EAEB8BE5-815C-4BE2-85C0-E31CD4A00C4C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$O$565">
         <filterColumn colId="6">
           <filters>
@@ -74303,30 +74303,30 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{63227528-6E64-4801-9C90-FBAD8EDEE8C1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{541E152F-A4BA-452C-AC7C-8763E5AB2A49}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$O$149">
         <sortState ref="A119:O149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A1539680-EF5D-4C2E-8416-2BD0E4F63540}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{17353C1A-E309-481C-AB62-39EF822ACB38}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$1125"/>
     </customSheetView>
-    <customSheetView guid="{27061091-75B0-4F33-9BEA-097F709316A1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8582D737-B422-4FA3-AE7E-92EE554F0B29}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$O$1023"/>
     </customSheetView>
-    <customSheetView guid="{17BCB272-3A44-45B8-ABDF-FF69155463F7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ED5D7221-723F-4B28-8B06-6652CB49E412}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$O$69"/>
     </customSheetView>
-    <customSheetView guid="{6C02D99C-A855-480D-9AE7-D966D3D2594E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C41FCE93-D0E7-4A30-BEF0-17F280A6E848}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$O$157">
         <sortState ref="A75:O157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D811CD4A-F1AE-4FA7-87E7-45F58C265595}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CF5640D0-434E-44A8-A3EB-7ED6AEA6FEC7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$O$36">
         <filterColumn colId="6">
           <filters>
@@ -74335,13 +74335,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8791134F-5753-42CE-9D23-521608927F50}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FEE8FA47-738F-4F44-97CB-18B6EEFC38E5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$O$993"/>
     </customSheetView>
-    <customSheetView guid="{E7EA019A-8405-4CAD-8A0E-DC2B2F28BD77}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{81A7021D-74D0-48C2-8FE3-190127421B98}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$O$346"/>
     </customSheetView>
-    <customSheetView guid="{8DE2AC4F-B228-41A0-A956-6AAC370C8032}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7D8E64AA-CEF5-4A18-9C68-C01F0621301D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$O$769">
         <filterColumn colId="4">
           <filters>
@@ -74354,35 +74354,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B78377D6-82D7-41A1-82DD-F0951E479C7A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E5E9847E-5ACB-4AA9-93AF-AD586B55092B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$O$793"/>
     </customSheetView>
-    <customSheetView guid="{0853C2DD-B796-4929-9AC9-EFC324FEC1CD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{674EA4DB-B691-4959-ACE6-8481BFE94A7C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$O$1031"/>
     </customSheetView>
-    <customSheetView guid="{828CDABC-40E0-418F-A489-AD7D442FC725}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7B2F4F6B-5FD4-4D50-97A1-72A5C5CB4961}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$O$724"/>
     </customSheetView>
-    <customSheetView guid="{3C593D4E-FB90-4B84-AD30-C25F5EBC2AD2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{75708893-0387-40B6-8C05-563584E325D9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$O$1074"/>
     </customSheetView>
-    <customSheetView guid="{236DD4C9-D9F3-41D0-9701-BC3F9A53BFA7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{759CE620-5251-42AA-B327-661810B42EAF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$O$863"/>
     </customSheetView>
-    <customSheetView guid="{F2E4BEF5-271E-429E-B63D-4F8E7BD90F1C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E5AC50AC-8024-435A-B271-FAC21622461A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$O$811">
         <sortState ref="A775:O811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3DCA697E-7539-46EA-90B7-B3A93033C3A4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F0457CDC-BF39-436A-AF92-7EDF8F1863F8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$O$874"/>
     </customSheetView>
-    <customSheetView guid="{FF29848C-D68C-454B-9E73-3F48A3F4BB94}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DD19DA19-C4E3-43DA-B028-5D2289A749D0}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$584"/>
     </customSheetView>
-    <customSheetView guid="{4AF5E334-F594-4E3A-AE4B-9D4DDF870ABF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C09BF581-5B2D-460E-9DCE-7057EE2D5ED2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$O$774">
         <filterColumn colId="6">
           <filters>
@@ -74394,24 +74394,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{940C8CB4-D96B-4119-8689-E0E79684B5B9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8F682DC6-94A3-487E-9236-62C6EE2FC85C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A363C361-1774-43D2-A8F1-7FF649679E1B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{330D6DE6-98B4-48DA-9AFC-AC58DEF63254}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$O$574">
         <sortState ref="A565:O574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E7061027-832B-4D00-B26A-FA1C7E3BE0AD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A07A3EAE-80D4-4CFB-8C83-19E7B6532AD5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$O$890"/>
     </customSheetView>
-    <customSheetView guid="{4DE4AB49-56FF-4771-9D22-3CA062012918}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{459666DA-0031-4831-B5FE-77FA039E52B4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$O$266">
         <filterColumn colId="14">
           <filters>
@@ -74423,10 +74423,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{7E84ABB7-2BE1-41C0-A896-A056FD114CFF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F12CA822-E93F-4EB3-B792-5B4B8B6C9FC8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$O$802"/>
     </customSheetView>
-    <customSheetView guid="{05FF7C97-19AF-4F5A-A3A4-312B46008599}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7D64AE0B-9AD7-433F-8638-F768AC052561}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="2">
           <filters>
@@ -74443,7 +74443,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{44EF30F9-E316-4E14-BF66-B70E9F37373F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0DF3F5DE-907E-4F29-80B2-EE00DBA8B5EF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="16">
           <filters>
@@ -74452,36 +74452,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A958B133-443D-4241-A147-7A8A0E9DECD8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA9C6164-6F72-4A57-B0FC-9EDE305835E0}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125"/>
     </customSheetView>
-    <customSheetView guid="{899CEFC9-D907-4D5A-9342-1DC51C120137}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7369FAA9-0C99-4E74-A76F-9E9582F4E232}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$O$128"/>
     </customSheetView>
-    <customSheetView guid="{824B2697-8B28-466D-92DD-2DDBC78EE7B0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7D16E364-AF49-42BB-BAB6-7C26F03789B5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$O$334">
         <sortState ref="A315:O334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A37BA99A-134C-4E2C-9E1D-3BC27CCA2992}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B278F597-F9A7-4CC9-80F8-A714D3DB6A79}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$591"/>
     </customSheetView>
-    <customSheetView guid="{4560127D-8698-4DF7-9A77-0086DF2EE917}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{20BAC402-75BA-47E2-8ADB-9FB0B346B5C9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$O$658"/>
     </customSheetView>
-    <customSheetView guid="{4E79CE63-C7AD-4596-99C2-A2191602DA5D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D63FE455-BB1F-4759-86E4-5CD6E137AF32}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$O$960">
         <sortState ref="A923:O960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{CA0FBE55-26F0-43B8-91A3-F6A184DED9FA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4402B9EC-463C-46D6-A02F-72F618A1C9FA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$O$1005"/>
     </customSheetView>
-    <customSheetView guid="{A2AEBD77-747F-48C4-8857-9B87B1086062}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C6422DD4-BE41-49A0-84F5-49EE6F815604}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$O$314"/>
     </customSheetView>
   </customSheetViews>
@@ -75966,10 +75966,10 @@
     </row>
     <row r="31">
       <c r="A31" s="105" t="s">
+        <v>800</v>
+      </c>
+      <c r="B31" s="105" t="s">
         <v>801</v>
-      </c>
-      <c r="B31" s="105" t="s">
-        <v>802</v>
       </c>
       <c r="C31" s="105" t="s">
         <v>3573</v>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,85 +7,85 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_A0C9EE8D_BD09_4004_A5FC_665584741BB6_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_384389AC_C9E4_4DE2_9703_B101AC26ACF1_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4779D466_5AEC_4D76_BBCD_345025F095A7_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DBADD118_309A_4A59_9AAE_F26621E90E50_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D8CCD88E_BF8D_4B7E_A04C_14C1240298FF_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_16313337_DF1F_4257_859F_33EE1E890BC5_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FA8AE617_C017_4720_968C_EE2F90B7058F_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B4E29A74_202A_4F2D_9A60_0948F1B160D1_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A9967C51_9FD5_4AA9_96AA_B0F467AE642A_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_642D1C11_D1D3_42D2_9862_40D805B9349F_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_715E5796_35A7_46B7_91BD_ABA6AFF38620_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6E57B465_4503_42CD_8BAE_066E530B1C22_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_31473FBA_5F3C_4036_92AE_493CB70D986C_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8CC21E87_B6D2_44EF_853C_EC8D69133BB8_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A127EFC7_09FF_48DD_B3DC_00F2D0B17978_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A16C5809_132E_4217_BB33_C5847A0D4625_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B3C60425_BE53_458A_B0A7_C01761ABBAAE_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0F80D3C6_080C_47DF_B4A4_D0D6F68A40F0_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B90E736B_8529_423E_9072_FA46529AC337_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FC0B5229_CF30_499F_85CD_F52273C9176B_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_39533B49_E89F_4701_A76E_75C86B05C3DF_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A945F0B7_A31A_47CA_87EB_1ABC04880408_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0EDC4E18_9712_4860_9A3F_811FF6695C59_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2E583C82_D7A5_4CD2_9AAE_95EEEF9D0287_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7A78246D_A06F_47FA_BD32_4BC2831D9117_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_751DD2BA_8E9B_4587_869B_C8497FC6E192_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_72AB343E_8F21_4F01_A73E_6FEC74364B24_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_24F8A6EE_A776_4C5B_9DBD_6B564178BEDA_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C3075BBD_62BB_469B_9830_E70B4D9454F7_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF07A00C_CA5F_4DFB_8855_289A19F2CF55_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6457CE87_A8AC_44F0_BE12_0C45FA702D23_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5B6688B0_D758_4AF3_A455_B0E92766DB4D_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9B9B8D5E_59EB_41D6_9F56_B45812C527A5_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4666A115_FF88_4E88_B8AD_19EC85FD9627_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_07F539A2_55E1_4E5C_A718_2A970CC6B506_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0640D78F_2560_4981_80E8_94A7176FE4A6_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DB42D234_010C_4FB6_A713_07214AC2CFBB_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_29B37785_B0E2_4718_AC3C_3632396ECB6D_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_17B61110_1CC1_495A_BD6D_4C99F468B481_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4A1B36AE_E845_430B_AF61_A2464D87DF46_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0736274F_3D7C_4F1D_99D3_F3F3CB87A68F_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AEC3959B_418F_445E_A956_08A37A15752B_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A21E0762_6DDA_492F_8558_E05DEE4AD072_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9B094E6A_34FA_4F33_B397_E886B70ABA27_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_439BBE7F_89F5_4469_82A8_F5F34F09B433_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_16998B31_9F3F_4237_A3F8_49C606178205_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1D5CD6E5_D00A_4FD5_9144_9088118F49D2_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5D99A54D_8CC4_4883_9228_EABBE7AD1D36_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_32BC8BA5_3AA8_4CD8_92E9_115099A76A05_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_096D2376_C2FF_4D3A_8732_BD820990FEA5_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E8506611_FA09_4EB6_A0C6_75529C8491DE_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3AF1DE21_4B7A_4765_98AE_D3FB6A1B43C9_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8663373B_8124_4368_B2D9_DE2011631F4B_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AA29BCC1_2343_4F7F_A33A_8D20E0501557_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_ED0A8F06_05EA_4CC9_9CCC_74F339570204_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AA75B19F_75DD_43C6_9E2A_9311238B2B74_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_880A3947_0930_4C82_9092_E3CDA8BF8EC9_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B49C1A91_491B_44EA_863E_6AFDE7A39BAA_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_11D49EB5_A195_4149_AA88_7FED263CB55C_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_34022468_9FEC_43AA_AAA7_C42513783673_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9289B86B_4A5F_4954_8BC0_542FD44B2B00_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A85C1054_2089_4C81_A8D3_3B17F40BA8D4_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0A5455AB_2A35_4E08_B19D_C3BB585BBB8E_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1A980663_E832_412B_B695_8B1C0539F600_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_557B5BB6_27D9_46C4_8751_928CA3819F40_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_3BDFD746_067D_4E1B_8A94_6B07A894287D_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EC3EAE8F_B920_4E3A_BFDB_B42DE60AE2FF_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_87951A72_0C33_45DA_82DD_EA11AF144671_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_38A35332_96D8_48AE_AA8B_E7EE726912B6_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_614B37F7_65F6_4573_BA16_C0897DC5F7C9_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_160ED594_05B0_4A0C_A112_C1A355B112A7_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0B82DC93_CCB3_4A0A_B6D2_2B9528F27C07_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_68646D31_4BCF_4A2D_9FB9_D072E5630DC8_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D91494FE_6B90_4A47_A0BD_0F89EA266F1C_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_43690A8A_4672_4AB8_A2E4_47BA11AB7DE3_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CDD12FA4_7855_4E22_A5D9_28AE9A150E93_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{715E5796-35A7-46B7-91BD-ABA6AFF38620}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6E57B465-4503-42CD-8BAE-066E530B1C22}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{384389AC-C9E4-4DE2-9703-B101AC26ACF1}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{29B37785-B0E2-4718-AC3C-3632396ECB6D}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0EDC4E18-9712-4860-9A3F-811FF6695C59}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DB42D234-010C-4FB6-A713-07214AC2CFBB}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FA8AE617-C017-4720-968C-EE2F90B7058F}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{07F539A2-55E1-4E5C-A718-2A970CC6B506}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D8CCD88E-BF8D-4B7E-A04C-14C1240298FF}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A16C5809-132E-4217-BB33-C5847A0D4625}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0640D78F-2560-4981-80E8-94A7176FE4A6}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B3C60425-BE53-458A-B0A7-C01761ABBAAE}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8CC21E87-B6D2-44EF-853C-EC8D69133BB8}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{16313337-DF1F-4257-859F-33EE1E890BC5}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B4E29A74-202A-4F2D-9A60-0948F1B160D1}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B90E736B-8529-423E-9072-FA46529AC337}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C3075BBD-62BB-469B-9830-E70B4D9454F7}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF07A00C-CA5F-4DFB-8855-289A19F2CF55}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9B9B8D5E-59EB-41D6-9F56-B45812C527A5}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DBADD118-309A-4A59-9AAE-F26621E90E50}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4666A115-FF88-4E88-B8AD-19EC85FD9627}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{24F8A6EE-A776-4C5B-9DBD-6B564178BEDA}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A0C9EE8D-BD09-4004-A5FC-665584741BB6}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7A78246D-A06F-47FA-BD32-4BC2831D9117}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2E583C82-D7A5-4CD2-9AAE-95EEEF9D0287}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{642D1C11-D1D3-42D2-9862-40D805B9349F}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6457CE87-A8AC-44F0-BE12-0C45FA702D23}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{751DD2BA-8E9B-4587-869B-C8497FC6E192}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4779D466-5AEC-4D76-BBCD-345025F095A7}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A127EFC7-09FF-48DD-B3DC-00F2D0B17978}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5B6688B0-D758-4AF3-A455-B0E92766DB4D}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{72AB343E-8F21-4F01-A73E-6FEC74364B24}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A945F0B7-A31A-47CA-87EB-1ABC04880408}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FC0B5229-CF30-499F-85CD-F52273C9176B}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{39533B49-E89F-4701-A76E-75C86B05C3DF}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{31473FBA-5F3C-4036-92AE-493CB70D986C}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0F80D3C6-080C-47DF-B4A4-D0D6F68A40F0}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A9967C51-9FD5-4AA9-96AA-B0F467AE642A}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1D5CD6E5-D00A-4FD5-9144-9088118F49D2}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9B094E6A-34FA-4F33-B397-E886B70ABA27}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{16998B31-9F3F-4237-A3F8-49C606178205}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AEC3959B-418F-445E-A956-08A37A15752B}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{880A3947-0930-4C82-9092-E3CDA8BF8EC9}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{11D49EB5-A195-4149-AA88-7FED263CB55C}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CDD12FA4-7855-4E22-A5D9-28AE9A150E93}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{17B61110-1CC1-495A-BD6D-4C99F468B481}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{68646D31-4BCF-4A2D-9FB9-D072E5630DC8}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA75B19F-75DD-43C6-9E2A-9311238B2B74}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B82DC93-CCB3-4A0A-B6D2-2B9528F27C07}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B49C1A91-491B-44EA-863E-6AFDE7A39BAA}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D91494FE-6B90-4A47-A0BD-0F89EA266F1C}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{614B37F7-65F6-4573-BA16-C0897DC5F7C9}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{87951A72-0C33-45DA-82DD-EA11AF144671}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3AF1DE21-4B7A-4765-98AE-D3FB6A1B43C9}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{32BC8BA5-3AA8-4CD8-92E9-115099A76A05}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0736274F-3D7C-4F1D-99D3-F3F3CB87A68F}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{38A35332-96D8-48AE-AA8B-E7EE726912B6}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4A1B36AE-E845-430B-AF61-A2464D87DF46}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A21E0762-6DDA-492F-8558-E05DEE4AD072}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3BDFD746-067D-4E1B-8A94-6B07A894287D}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1A980663-E832-412B-B695-8B1C0539F600}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED0A8F06-05EA-4CC9-9CCC-74F339570204}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{160ED594-05B0-4A0C-A112-C1A355B112A7}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43690A8A-4672-4AB8-A2E4-47BA11AB7DE3}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0A5455AB-2A35-4E08-B19D-C3BB585BBB8E}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A85C1054-2089-4C81-A8D3-3B17F40BA8D4}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8663373B-8124-4368-B2D9-DE2011631F4B}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E8506611-FA09-4EB6-A0C6-75529C8491DE}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{557B5BB6-27D9-46C4-8751-928CA3819F40}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{096D2376-C2FF-4D3A-8732-BD820990FEA5}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EC3EAE8F-B920-4E3A-BFDB-B42DE60AE2FF}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5D99A54D-8CC4-4883-9228-EABBE7AD1D36}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA29BCC1-2343-4F7F-A33A-8D20E0501557}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{439BBE7F-89F5-4469-82A8-F5F34F09B433}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9289B86B-4A5F-4954-8BC0-542FD44B2B00}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{34022468-9FEC-43AA-AAA7-C42513783673}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -74283,23 +74283,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AF07A00C-CA5F-4DFB-8855-289A19F2CF55}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0736274F-3D7C-4F1D-99D3-F3F3CB87A68F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$O$572"/>
     </customSheetView>
-    <customSheetView guid="{C3075BBD-62BB-469B-9830-E70B4D9454F7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{32BC8BA5-3AA8-4CD8-92E9-115099A76A05}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$O$462">
         <sortState ref="A429:O462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{31473FBA-5F3C-4036-92AE-493CB70D986C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{439BBE7F-89F5-4469-82A8-F5F34F09B433}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$O$565"/>
     </customSheetView>
-    <customSheetView guid="{39533B49-E89F-4701-A76E-75C86B05C3DF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AA29BCC1-2343-4F7F-A33A-8D20E0501557}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$O$531"/>
     </customSheetView>
-    <customSheetView guid="{A127EFC7-09FF-48DD-B3DC-00F2D0B17978}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E8506611-FA09-4EB6-A0C6-75529C8491DE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$O$565">
         <filterColumn colId="6">
           <filters>
@@ -74311,30 +74311,30 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{29B37785-B0E2-4718-AC3C-3632396ECB6D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AEC3959B-418F-445E-A956-08A37A15752B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$O$149">
         <sortState ref="A119:O149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4779D466-5AEC-4D76-BBCD-345025F095A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8663373B-8124-4368-B2D9-DE2011631F4B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$1125"/>
     </customSheetView>
-    <customSheetView guid="{6457CE87-A8AC-44F0-BE12-0C45FA702D23}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0A5455AB-2A35-4E08-B19D-C3BB585BBB8E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$O$1023"/>
     </customSheetView>
-    <customSheetView guid="{A0C9EE8D-BD09-4004-A5FC-665584741BB6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1A980663-E832-412B-B695-8B1C0539F600}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$O$69"/>
     </customSheetView>
-    <customSheetView guid="{B90E736B-8529-423E-9072-FA46529AC337}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3AF1DE21-4B7A-4765-98AE-D3FB6A1B43C9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$O$157">
         <sortState ref="A75:O157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2E583C82-D7A5-4CD2-9AAE-95EEEF9D0287}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{160ED594-05B0-4A0C-A112-C1A355B112A7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$O$36">
         <filterColumn colId="6">
           <filters>
@@ -74343,13 +74343,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DBADD118-309A-4A59-9AAE-F26621E90E50}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4A1B36AE-E845-430B-AF61-A2464D87DF46}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$O$993"/>
     </customSheetView>
-    <customSheetView guid="{B3C60425-BE53-458A-B0A7-C01761ABBAAE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B49C1A91-491B-44EA-863E-6AFDE7A39BAA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$O$346"/>
     </customSheetView>
-    <customSheetView guid="{4666A115-FF88-4E88-B8AD-19EC85FD9627}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A21E0762-6DDA-492F-8558-E05DEE4AD072}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$O$769">
         <filterColumn colId="4">
           <filters>
@@ -74362,35 +74362,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{6E57B465-4503-42CD-8BAE-066E530B1C22}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9B094E6A-34FA-4F33-B397-E886B70ABA27}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$O$793"/>
     </customSheetView>
-    <customSheetView guid="{8CC21E87-B6D2-44EF-853C-EC8D69133BB8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D91494FE-6B90-4A47-A0BD-0F89EA266F1C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$O$1031"/>
     </customSheetView>
-    <customSheetView guid="{24F8A6EE-A776-4C5B-9DBD-6B564178BEDA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3BDFD746-067D-4E1B-8A94-6B07A894287D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$O$724"/>
     </customSheetView>
-    <customSheetView guid="{7A78246D-A06F-47FA-BD32-4BC2831D9117}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ED0A8F06-05EA-4CC9-9CCC-74F339570204}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$O$1074"/>
     </customSheetView>
-    <customSheetView guid="{72AB343E-8F21-4F01-A73E-6FEC74364B24}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{096D2376-C2FF-4D3A-8732-BD820990FEA5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$O$863"/>
     </customSheetView>
-    <customSheetView guid="{A945F0B7-A31A-47CA-87EB-1ABC04880408}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EC3EAE8F-B920-4E3A-BFDB-B42DE60AE2FF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$O$811">
         <sortState ref="A775:O811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{07F539A2-55E1-4E5C-A718-2A970CC6B506}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{17B61110-1CC1-495A-BD6D-4C99F468B481}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$O$874"/>
     </customSheetView>
-    <customSheetView guid="{642D1C11-D1D3-42D2-9862-40D805B9349F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{43690A8A-4672-4AB8-A2E4-47BA11AB7DE3}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$584"/>
     </customSheetView>
-    <customSheetView guid="{715E5796-35A7-46B7-91BD-ABA6AFF38620}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1D5CD6E5-D00A-4FD5-9144-9088118F49D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$O$774">
         <filterColumn colId="6">
           <filters>
@@ -74402,24 +74402,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A16C5809-132E-4217-BB33-C5847A0D4625}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AA75B19F-75DD-43C6-9E2A-9311238B2B74}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{B4E29A74-202A-4F2D-9A60-0948F1B160D1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{87951A72-0C33-45DA-82DD-EA11AF144671}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$O$574">
         <sortState ref="A565:O574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0EDC4E18-9712-4860-9A3F-811FF6695C59}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{880A3947-0930-4C82-9092-E3CDA8BF8EC9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$O$890"/>
     </customSheetView>
-    <customSheetView guid="{0F80D3C6-080C-47DF-B4A4-D0D6F68A40F0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9289B86B-4A5F-4954-8BC0-542FD44B2B00}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$O$266">
         <filterColumn colId="14">
           <filters>
@@ -74431,10 +74431,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0640D78F-2560-4981-80E8-94A7176FE4A6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0B82DC93-CCB3-4A0A-B6D2-2B9528F27C07}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$O$802"/>
     </customSheetView>
-    <customSheetView guid="{751DD2BA-8E9B-4587-869B-C8497FC6E192}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A85C1054-2089-4C81-A8D3-3B17F40BA8D4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="2">
           <filters>
@@ -74451,7 +74451,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5B6688B0-D758-4AF3-A455-B0E92766DB4D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{557B5BB6-27D9-46C4-8751-928CA3819F40}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="16">
           <filters>
@@ -74460,36 +74460,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{FC0B5229-CF30-499F-85CD-F52273C9176B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5D99A54D-8CC4-4883-9228-EABBE7AD1D36}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125"/>
     </customSheetView>
-    <customSheetView guid="{16313337-DF1F-4257-859F-33EE1E890BC5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{614B37F7-65F6-4573-BA16-C0897DC5F7C9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$O$128"/>
     </customSheetView>
-    <customSheetView guid="{DB42D234-010C-4FB6-A713-07214AC2CFBB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{11D49EB5-A195-4149-AA88-7FED263CB55C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$O$334">
         <sortState ref="A315:O334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D8CCD88E-BF8D-4B7E-A04C-14C1240298FF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{68646D31-4BCF-4A2D-9FB9-D072E5630DC8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$591"/>
     </customSheetView>
-    <customSheetView guid="{384389AC-C9E4-4DE2-9703-B101AC26ACF1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{16998B31-9F3F-4237-A3F8-49C606178205}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$O$658"/>
     </customSheetView>
-    <customSheetView guid="{9B9B8D5E-59EB-41D6-9F56-B45812C527A5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{38A35332-96D8-48AE-AA8B-E7EE726912B6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$O$960">
         <sortState ref="A923:O960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{FA8AE617-C017-4720-968C-EE2F90B7058F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CDD12FA4-7855-4E22-A5D9-28AE9A150E93}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$O$1005"/>
     </customSheetView>
-    <customSheetView guid="{A9967C51-9FD5-4AA9-96AA-B0F467AE642A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{34022468-9FEC-43AA-AAA7-C42513783673}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$O$314"/>
     </customSheetView>
   </customSheetViews>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,85 +7,85 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_17B61110_1CC1_495A_BD6D_4C99F468B481_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_4A1B36AE_E845_430B_AF61_A2464D87DF46_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0736274F_3D7C_4F1D_99D3_F3F3CB87A68F_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AEC3959B_418F_445E_A956_08A37A15752B_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A21E0762_6DDA_492F_8558_E05DEE4AD072_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9B094E6A_34FA_4F33_B397_E886B70ABA27_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_439BBE7F_89F5_4469_82A8_F5F34F09B433_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_16998B31_9F3F_4237_A3F8_49C606178205_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1D5CD6E5_D00A_4FD5_9144_9088118F49D2_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5D99A54D_8CC4_4883_9228_EABBE7AD1D36_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_32BC8BA5_3AA8_4CD8_92E9_115099A76A05_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_096D2376_C2FF_4D3A_8732_BD820990FEA5_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E8506611_FA09_4EB6_A0C6_75529C8491DE_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3AF1DE21_4B7A_4765_98AE_D3FB6A1B43C9_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8663373B_8124_4368_B2D9_DE2011631F4B_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AA29BCC1_2343_4F7F_A33A_8D20E0501557_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_ED0A8F06_05EA_4CC9_9CCC_74F339570204_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AA75B19F_75DD_43C6_9E2A_9311238B2B74_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_880A3947_0930_4C82_9092_E3CDA8BF8EC9_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B49C1A91_491B_44EA_863E_6AFDE7A39BAA_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_11D49EB5_A195_4149_AA88_7FED263CB55C_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_34022468_9FEC_43AA_AAA7_C42513783673_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9289B86B_4A5F_4954_8BC0_542FD44B2B00_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A85C1054_2089_4C81_A8D3_3B17F40BA8D4_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0A5455AB_2A35_4E08_B19D_C3BB585BBB8E_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_1A980663_E832_412B_B695_8B1C0539F600_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_557B5BB6_27D9_46C4_8751_928CA3819F40_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3BDFD746_067D_4E1B_8A94_6B07A894287D_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EC3EAE8F_B920_4E3A_BFDB_B42DE60AE2FF_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_87951A72_0C33_45DA_82DD_EA11AF144671_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_38A35332_96D8_48AE_AA8B_E7EE726912B6_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_614B37F7_65F6_4573_BA16_C0897DC5F7C9_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_160ED594_05B0_4A0C_A112_C1A355B112A7_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0B82DC93_CCB3_4A0A_B6D2_2B9528F27C07_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_68646D31_4BCF_4A2D_9FB9_D072E5630DC8_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D91494FE_6B90_4A47_A0BD_0F89EA266F1C_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_43690A8A_4672_4AB8_A2E4_47BA11AB7DE3_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_CDD12FA4_7855_4E22_A5D9_28AE9A150E93_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BCB236DD_E590_4F0F_8DE2_E2E9E0BBA1F7_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7781E86F_E410_434E_9920_2AF406287341_.wvu.FilterData">BIM!$A$994:$O$1005</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_827DBA13_B2AF_4394_B89F_5E06CA45F152_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5F4BEEB7_2F37_4597_9C21_A28B5968B47A_.wvu.FilterData">BIM!$A$1009:$O$1031</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_19F523AA_A4E5_4C32_9FB2_7F5E51C89C88_.wvu.FilterData">BIM!$A$891:$O$1023</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C7A40299_0E3F_4CB3_9DF8_452FB720B5D9_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E44E3211_E188_4640_B532_7B2B293363B5_.wvu.FilterData">BIM!$A$970:$O$993</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_60C2E2D2_86F1_4534_BADB_DAB92DC0B800_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EC8051B7_4FD5_4899_80FA_1279946DD26C_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6E635F6E_84A1_4ED7_A3E2_268133ED075F_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_987A48CB_056B_42D3_89EA_50354AC3B455_.wvu.FilterData">BIM!$A$923:$O$960</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_13CC4DA8_C476_4763_985C_04E1B809B920_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C594AFB1_CA9B_40BC_B599_9C1791E4CF6D_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_86557C1A_BE3D_42E0_967A_017CC8432957_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EB04B02B_0591_40BE_8A8E_681BC8A8A050_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_98A66ACD_36BB_4F37_B2BD_C3867B61D42A_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_ECC4AFA6_A964_4203_B498_2AFEC43AB9E0_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B262EBB3_6810_42F3_A4D1_19650DFE85B0_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5900EDA3_88E1_4712_9407_39817AC1E735_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F08BD8D7_571D_461D_86D2_6DDA0D453672_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7C1B3563_4A6D_4F85_90C9_D9ECE4ABC059_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_61251823_7B0E_4EE2_BE2C_5A968C8483B6_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CD168AC4_D35D_4E75_98E5_440C6F6AEBEE_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AF742AF3_1B9F_45F0_A2A6_90F656E41512_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_05DB309D_6DCC_4D0B_B129_2B7811E226DE_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8F3DD251_0F6E_45CD_ACEB_E9D786E4353C_.wvu.FilterData">BIM!$A$1039:$O$1074</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5459221A_C4FA_468E_A3AD_D449C108BD1D_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CBCF7D45_04E7_4F58_B7A6_177D2B8CFD03_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B853BF11_8C3A_49F2_B2D1_9A66E4E8A691_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_A0667B6A_0E9F_4B8F_83AA_77835C2F5383_.wvu.FilterData">BIM!$A$1:$Q$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0FD53DE7_B4D0_40A1_9506_168826C15458_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CFC738D1_4FBE_4A10_B0DA_07846B346592_.wvu.FilterData">BIM!$A$1:$R$1125</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_67D52D94_A59C_40F4_B86F_145F2D578B05_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_74B744C3_7C94_499D_BEF3_A05D8A3536B2_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5DC69FCB_E872_450D_BFE4_6DCE22F4C145_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6A7C5325_1A7C_4A53_B10F_8FC887AECFD8_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8820F053_BABE_48CC_90FA_09F8B374D9BE_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F843E071_1376_4852_B04E_569465AC68F5_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1D5CD6E5-D00A-4FD5-9144-9088118F49D2}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9B094E6A-34FA-4F33-B397-E886B70ABA27}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{16998B31-9F3F-4237-A3F8-49C606178205}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AEC3959B-418F-445E-A956-08A37A15752B}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{880A3947-0930-4C82-9092-E3CDA8BF8EC9}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{11D49EB5-A195-4149-AA88-7FED263CB55C}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CDD12FA4-7855-4E22-A5D9-28AE9A150E93}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{17B61110-1CC1-495A-BD6D-4C99F468B481}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{68646D31-4BCF-4A2D-9FB9-D072E5630DC8}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA75B19F-75DD-43C6-9E2A-9311238B2B74}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B82DC93-CCB3-4A0A-B6D2-2B9528F27C07}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B49C1A91-491B-44EA-863E-6AFDE7A39BAA}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D91494FE-6B90-4A47-A0BD-0F89EA266F1C}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{614B37F7-65F6-4573-BA16-C0897DC5F7C9}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{87951A72-0C33-45DA-82DD-EA11AF144671}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3AF1DE21-4B7A-4765-98AE-D3FB6A1B43C9}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{32BC8BA5-3AA8-4CD8-92E9-115099A76A05}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0736274F-3D7C-4F1D-99D3-F3F3CB87A68F}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{38A35332-96D8-48AE-AA8B-E7EE726912B6}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4A1B36AE-E845-430B-AF61-A2464D87DF46}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A21E0762-6DDA-492F-8558-E05DEE4AD072}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3BDFD746-067D-4E1B-8A94-6B07A894287D}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1A980663-E832-412B-B695-8B1C0539F600}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED0A8F06-05EA-4CC9-9CCC-74F339570204}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{160ED594-05B0-4A0C-A112-C1A355B112A7}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{43690A8A-4672-4AB8-A2E4-47BA11AB7DE3}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0A5455AB-2A35-4E08-B19D-C3BB585BBB8E}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A85C1054-2089-4C81-A8D3-3B17F40BA8D4}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8663373B-8124-4368-B2D9-DE2011631F4B}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E8506611-FA09-4EB6-A0C6-75529C8491DE}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{557B5BB6-27D9-46C4-8751-928CA3819F40}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{096D2376-C2FF-4D3A-8732-BD820990FEA5}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EC3EAE8F-B920-4E3A-BFDB-B42DE60AE2FF}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5D99A54D-8CC4-4883-9228-EABBE7AD1D36}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA29BCC1-2343-4F7F-A33A-8D20E0501557}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{439BBE7F-89F5-4469-82A8-F5F34F09B433}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9289B86B-4A5F-4954-8BC0-542FD44B2B00}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{34022468-9FEC-43AA-AAA7-C42513783673}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{05DB309D-6DCC-4D0B-B129-2B7811E226DE}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{61251823-7B0E-4EE2-BE2C-5A968C8483B6}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EC8051B7-4FD5-4899-80FA-1279946DD26C}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CD168AC4-D35D-4E75-98E5-440C6F6AEBEE}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{86557C1A-BE3D-42E0-967A-017CC8432957}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5459221A-C4FA-468E-A3AD-D449C108BD1D}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7781E86F-E410-434E-9920-2AF406287341}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6A7C5325-1A7C-4A53-B10F-8FC887AECFD8}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{827DBA13-B2AF-4394-B89F-5E06CA45F152}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{74B744C3-7C94-499D-BEF3-A05D8A3536B2}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C594AFB1-CA9B-40BC-B599-9C1791E4CF6D}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{98A66ACD-36BB-4F37-B2BD-C3867B61D42A}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5F4BEEB7-2F37-4597-9C21-A28B5968B47A}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F843E071-1376-4852-B04E-569465AC68F5}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8820F053-BABE-48CC-90FA-09F8B374D9BE}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0FD53DE7-B4D0-40A1-9506-168826C15458}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{60C2E2D2-86F1-4534-BADB-DAB92DC0B800}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B262EBB3-6810-42F3-A4D1-19650DFE85B0}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{987A48CB-056B-42D3-89EA-50354AC3B455}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E44E3211-E188-4640-B532-7B2B293363B5}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7C1B3563-4A6D-4F85-90C9-D9ECE4ABC059}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BCB236DD-E590-4F0F-8DE2-E2E9E0BBA1F7}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{67D52D94-A59C-40F4-B86F-145F2D578B05}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8F3DD251-0F6E-45CD-ACEB-E9D786E4353C}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5DC69FCB-E872-450D-BFE4-6DCE22F4C145}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B853BF11-8C3A-49F2-B2D1-9A66E4E8A691}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{19F523AA-A4E5-4C32-9FB2-7F5E51C89C88}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CBCF7D45-04E7-4F58-B7A6-177D2B8CFD03}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A0667B6A-0E9F-4B8F-83AA-77835C2F5383}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C7A40299-0E3F-4CB3-9DF8-452FB720B5D9}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CFC738D1-4FBE-4A10-B0DA-07846B346592}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{13CC4DA8-C476-4763-985C-04E1B809B920}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F08BD8D7-571D-461D-86D2-6DDA0D453672}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ECC4AFA6-A964-4203-B498-2AFEC43AB9E0}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5900EDA3-88E1-4712-9407-39817AC1E735}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EB04B02B-0591-40BE-8A8E-681BC8A8A050}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6E635F6E-84A1-4ED7-A3E2-268133ED075F}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF742AF3-1B9F-45F0-A2A6-90F656E41512}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -74283,23 +74283,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0736274F-3D7C-4F1D-99D3-F3F3CB87A68F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B262EBB3-6810-42F3-A4D1-19650DFE85B0}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$O$572"/>
     </customSheetView>
-    <customSheetView guid="{32BC8BA5-3AA8-4CD8-92E9-115099A76A05}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{60C2E2D2-86F1-4534-BADB-DAB92DC0B800}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$O$462">
         <sortState ref="A429:O462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{439BBE7F-89F5-4469-82A8-F5F34F09B433}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EB04B02B-0591-40BE-8A8E-681BC8A8A050}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$O$565"/>
     </customSheetView>
-    <customSheetView guid="{AA29BCC1-2343-4F7F-A33A-8D20E0501557}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5900EDA3-88E1-4712-9407-39817AC1E735}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$O$531"/>
     </customSheetView>
-    <customSheetView guid="{E8506611-FA09-4EB6-A0C6-75529C8491DE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C7A40299-0E3F-4CB3-9DF8-452FB720B5D9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$O$565">
         <filterColumn colId="6">
           <filters>
@@ -74311,30 +74311,30 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{AEC3959B-418F-445E-A956-08A37A15752B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CD168AC4-D35D-4E75-98E5-440C6F6AEBEE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$O$149">
         <sortState ref="A119:O149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{8663373B-8124-4368-B2D9-DE2011631F4B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{A0667B6A-0E9F-4B8F-83AA-77835C2F5383}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$1125"/>
     </customSheetView>
-    <customSheetView guid="{0A5455AB-2A35-4E08-B19D-C3BB585BBB8E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{19F523AA-A4E5-4C32-9FB2-7F5E51C89C88}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$O$1023"/>
     </customSheetView>
-    <customSheetView guid="{1A980663-E832-412B-B695-8B1C0539F600}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{67D52D94-A59C-40F4-B86F-145F2D578B05}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$O$69"/>
     </customSheetView>
-    <customSheetView guid="{3AF1DE21-4B7A-4765-98AE-D3FB6A1B43C9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0FD53DE7-B4D0-40A1-9506-168826C15458}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$O$157">
         <sortState ref="A75:O157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{160ED594-05B0-4A0C-A112-C1A355B112A7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5DC69FCB-E872-450D-BFE4-6DCE22F4C145}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$O$36">
         <filterColumn colId="6">
           <filters>
@@ -74343,13 +74343,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{4A1B36AE-E845-430B-AF61-A2464D87DF46}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E44E3211-E188-4640-B532-7B2B293363B5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$970:$O$993"/>
     </customSheetView>
-    <customSheetView guid="{B49C1A91-491B-44EA-863E-6AFDE7A39BAA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{98A66ACD-36BB-4F37-B2BD-C3867B61D42A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$O$346"/>
     </customSheetView>
-    <customSheetView guid="{A21E0762-6DDA-492F-8558-E05DEE4AD072}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7C1B3563-4A6D-4F85-90C9-D9ECE4ABC059}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$O$769">
         <filterColumn colId="4">
           <filters>
@@ -74362,35 +74362,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9B094E6A-34FA-4F33-B397-E886B70ABA27}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{61251823-7B0E-4EE2-BE2C-5A968C8483B6}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$O$793"/>
     </customSheetView>
-    <customSheetView guid="{D91494FE-6B90-4A47-A0BD-0F89EA266F1C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5F4BEEB7-2F37-4597-9C21-A28B5968B47A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1009:$O$1031"/>
     </customSheetView>
-    <customSheetView guid="{3BDFD746-067D-4E1B-8A94-6B07A894287D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BCB236DD-E590-4F0F-8DE2-E2E9E0BBA1F7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$O$724"/>
     </customSheetView>
-    <customSheetView guid="{ED0A8F06-05EA-4CC9-9CCC-74F339570204}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8F3DD251-0F6E-45CD-ACEB-E9D786E4353C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1039:$O$1074"/>
     </customSheetView>
-    <customSheetView guid="{096D2376-C2FF-4D3A-8732-BD820990FEA5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{13CC4DA8-C476-4763-985C-04E1B809B920}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$O$863"/>
     </customSheetView>
-    <customSheetView guid="{EC3EAE8F-B920-4E3A-BFDB-B42DE60AE2FF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F08BD8D7-571D-461D-86D2-6DDA0D453672}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$O$811">
         <sortState ref="A775:O811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{17B61110-1CC1-495A-BD6D-4C99F468B481}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6A7C5325-1A7C-4A53-B10F-8FC887AECFD8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$O$874"/>
     </customSheetView>
-    <customSheetView guid="{43690A8A-4672-4AB8-A2E4-47BA11AB7DE3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B853BF11-8C3A-49F2-B2D1-9A66E4E8A691}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$584"/>
     </customSheetView>
-    <customSheetView guid="{1D5CD6E5-D00A-4FD5-9144-9088118F49D2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{05DB309D-6DCC-4D0B-B129-2B7811E226DE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$O$774">
         <filterColumn colId="6">
           <filters>
@@ -74402,24 +74402,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{AA75B19F-75DD-43C6-9E2A-9311238B2B74}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{74B744C3-7C94-499D-BEF3-A05D8A3536B2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{87951A72-0C33-45DA-82DD-EA11AF144671}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8820F053-BABE-48CC-90FA-09F8B374D9BE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$O$574">
         <sortState ref="A565:O574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{880A3947-0930-4C82-9092-E3CDA8BF8EC9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{86557C1A-BE3D-42E0-967A-017CC8432957}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$O$890"/>
     </customSheetView>
-    <customSheetView guid="{9289B86B-4A5F-4954-8BC0-542FD44B2B00}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6E635F6E-84A1-4ED7-A3E2-268133ED075F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$O$266">
         <filterColumn colId="14">
           <filters>
@@ -74431,10 +74431,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0B82DC93-CCB3-4A0A-B6D2-2B9528F27C07}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C594AFB1-CA9B-40BC-B599-9C1791E4CF6D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$O$802"/>
     </customSheetView>
-    <customSheetView guid="{A85C1054-2089-4C81-A8D3-3B17F40BA8D4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CBCF7D45-04E7-4F58-B7A6-177D2B8CFD03}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="2">
           <filters>
@@ -74451,7 +74451,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{557B5BB6-27D9-46C4-8751-928CA3819F40}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CFC738D1-4FBE-4A10-B0DA-07846B346592}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125">
         <filterColumn colId="16">
           <filters>
@@ -74460,36 +74460,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5D99A54D-8CC4-4883-9228-EABBE7AD1D36}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ECC4AFA6-A964-4203-B498-2AFEC43AB9E0}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1125"/>
     </customSheetView>
-    <customSheetView guid="{614B37F7-65F6-4573-BA16-C0897DC5F7C9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F843E071-1376-4852-B04E-569465AC68F5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$O$128"/>
     </customSheetView>
-    <customSheetView guid="{11D49EB5-A195-4149-AA88-7FED263CB55C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5459221A-C4FA-468E-A3AD-D449C108BD1D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$O$334">
         <sortState ref="A315:O334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{68646D31-4BCF-4A2D-9FB9-D072E5630DC8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{827DBA13-B2AF-4394-B89F-5E06CA45F152}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$591"/>
     </customSheetView>
-    <customSheetView guid="{16998B31-9F3F-4237-A3F8-49C606178205}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EC8051B7-4FD5-4899-80FA-1279946DD26C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$O$658"/>
     </customSheetView>
-    <customSheetView guid="{38A35332-96D8-48AE-AA8B-E7EE726912B6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{987A48CB-056B-42D3-89EA-50354AC3B455}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$923:$O$960">
         <sortState ref="A923:O960">
           <sortCondition ref="A923:A960"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{CDD12FA4-7855-4E22-A5D9-28AE9A150E93}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7781E86F-E410-434E-9920-2AF406287341}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$994:$O$1005"/>
     </customSheetView>
-    <customSheetView guid="{34022468-9FEC-43AA-AAA7-C42513783673}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AF742AF3-1B9F-45F0-A2A6-90F656E41512}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$O$314"/>
     </customSheetView>
   </customSheetViews>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,85 +7,85 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_34701B12_3301_4E3A_9A06_3C79238E1BBC_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_369A0EFA_2FA8_4CF1_98D7_DA965184D368_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DD25F294_B557_481C_9D3C_3108C567EB3C_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D53A82E4_C627_4DE1_A4E9_D1E3422982E9_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5BF65A77_6079_4801_A6EF_CEF09169B503_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_15BF90D7_1AAB_49FD_A533_75BA79BC6316_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_2353BA4D_3E7C_40FB_85FF_212A01D5CF8B_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_78523EAE_EF36_453E_B68F_37CE1AAAC8EA_.wvu.FilterData">BIM!$A$971:$O$994</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_240FB6A8_387D_40AE_9FF9_79C4E2DF7B5E_.wvu.FilterData">BIM!$A$1040:$O$1075</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_077830ED_2D11_403C_A452_72C47FC5BCA2_.wvu.FilterData">BIM!$A$1:$Q$1126</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_BC9D5131_C233_4833_963A_5AF9485F38FD_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3A307A16_916D_4E53_B85F_20B3FED87A08_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E883A2B0_B036_40B7_A883_D972D74A093F_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_99833668_2B2F_4385_A6A8_FE0C7F114439_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F3C8A75B_5B53_48CC_8F85_15A157FDCDC8_.wvu.FilterData">BIM!$A$995:$O$1006</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F7F93CE9_C6C9_48EA_B9FF_F22CAA0FE822_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_60F6AD86_6230_48B7_89F9_9E6617149A22_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_EF4CE5D7_9C60_45E1_81CD_CEC474814ECC_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9CD7B2AF_F5C5_4AA9_A2B8_79EC0910F493_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D12AAC5F_328E_4EE7_8FDF_562B928A4481_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_16FB66AC_E19F_472F_8AB8_928875111973_.wvu.FilterData">BIM!$A$1010:$O$1032</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_32831375_F495_4982_8DC4_E102F559932E_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FE6E6AF8_D1AD_43C2_80DE_C4EDEBA814F4_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C2E0D3AD_7D3E_491F_B537_D9FF4769C8E7_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A9BA3192_FAFD_4F99_8190_79CCE2692928_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D510BFD7_3A9D_4582_A5F2_DF00A558418E_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D5538896_5B3F_466F_8F2F_E02BC6903FEE_.wvu.FilterData">BIM!$A$924:$O$961</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_32B29D22_A42D_4C40_9DCA_7D555476EE1F_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D56D830D_F696_4A82_8B24_870F11659318_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AA935302_1046_4CA0_8AD2_6473F7C06AE7_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_B55FB8CA_B9FF_40E2_9BBC_F2A4009275D7_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_29B03EF9_AA5A_4A4A_B271_E458FC5C5D0A_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E3EECED4_128E_4186_BE61_46ADD236376D_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_ED95F5EC_E808_4EE8_94B6_E0E6D6F78F65_.wvu.FilterData">BIM!$A$891:$O$1024</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9CB54CB2_2BAE_48A1_83CB_E734D695BD9D_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FB235AE8_63AA_4728_9E18_ED8466587ED2_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_59C04DFE_8E47_40FC_8FD4_AD80EEDA6707_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_6AB067BC_025E_45B5_A771_6DE8326635CF_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_199F4D83_00EB_425A_9FCB_2F35D56AB40D_.wvu.FilterData">BIM!$A$562:$O$572</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4CE3AF11_0C1A_48EC_9970_97C615C7036F_.wvu.FilterData">BIM!$A$77:$O$128</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1ACEAF09_5833_4A11_9C79_55B4687A26CC_.wvu.FilterData">BIM!$A$718:$O$769</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_281AE35A_A91A_40D0_8E2A_78AC0946BCC2_.wvu.FilterData">BIM!$A$75:$O$157</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_350AC014_188D_4172_ADBB_EBAB1655D5A1_.wvu.FilterData">BIM!$A$573:$O$584</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6C8AA44B_5875_493A_971A_C59556BD5576_.wvu.FilterData">BIM!$A$267:$O$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_55B4DBDC_0A8A_46A0_9467_7669D66615BF_.wvu.FilterData">BIM!$A$794:$O$802</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_067A036A_8E29_43D9_A68E_7D68B39E28FE_.wvu.FilterData">BIM!$A$551:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EBFCD43E_BAC3_4ED2_A196_BBD970861E08_.wvu.FilterData">BIM!$A$335:$O$346</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4F854235_7FBE_4597_9214_B60F316920FB_.wvu.FilterData">BIM!$A$832:$O$863</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_08B6A37A_8C69_4570_977C_1A5C224942D8_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F9D3F2CD_1C7D_419C_AEB1_EB3645E624B7_.wvu.FilterData">BIM!$A$710:$O$724</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4663FA90_090E_4936_AB37_1178EE681115_.wvu.FilterData">BIM!$A$267:$H$314</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8A718BB0_0EE0_47BF_AABF_A3C3DE4C1368_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E7D7AF22_3E28_47EE_BC15_769D5F51E4EE_.wvu.FilterData">BIM!$A$429:$O$462</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6ACD004F_3969_4802_8CE1_169BD7AFA8C9_.wvu.FilterData">BIM!$A$1040:$O$1075</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_78D3B614_EC57_4A20_A6D7_0CE9C96EFA7E_.wvu.FilterData">BIM!$A$315:$O$334</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6CC5FA8C_441B_4B0A_97FB_262295F12EB1_.wvu.FilterData">BIM!$A$775:$O$811</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B1DA375D_DD4D_4335_BF9C_6694542D432B_.wvu.FilterData">BIM!$A$891:$O$1024</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_AEDC12DD_BD9B_4F08_BB97_86239AAB52CD_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_256C9F2A_2374_4F40_980A_57F700D45F9F_.wvu.FilterData">BIM!$A$803:$O$874</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B9667913_A8F8_4456_B270_0FF827FABEF9_.wvu.FilterData">BIM!$A$1:$R$1126</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1FA5D62B_DE0F_43E8_B673_6CE15F4B35C8_.wvu.FilterData">BIM!$A$728:$O$774</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_EE30388F_6776_4F93_B586_2D417B6E8597_.wvu.FilterData">BIM!$A$875:$O$890</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_81300487_295A_4671_9B95_1BF22BA6B247_.wvu.FilterData">BIM!$A$565:$O$574</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4143C991_DD43_470D_86DF_390EF7A9717E_.wvu.FilterData">BIM!$A$533:$O$565</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2823007D_354D_44E8_BD81_2B33D2682D21_.wvu.FilterData">BIM!$A$521:$O$531</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F610191F_0707_4C51_84DB_755FDDF03466_.wvu.FilterData">BIM!$A$971:$O$994</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_249E4230_7F8C_4FD2_823F_17AD3B81C1ED_.wvu.FilterData">BIM!$A$1010:$O$1032</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_420FE7CC_08A1_4DE4_90E8_D9910AE3E891_.wvu.FilterData">BIM!$A$1:$Q$1126</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_071722D3_0201_4B03_A28C_BE452B463F30_.wvu.FilterData">BIM!$A$119:$O$149</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BD17DD43_CA76_49D0_9CF0_CA07122E9B10_.wvu.FilterData">BIM!$A$144:$O$266</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4FA7268B_E8BD_4D1D_B77E_1377F8D45A8F_.wvu.FilterData">BIM!$A$573:$O$591</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_0B09B29D_369A_4EB7_ACEE_DEDFD1EB5403_.wvu.FilterData">BIM!$A$625:$O$658</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_521896BA_1DBC_42E1_91D3_64B8B2893B5C_.wvu.FilterData">BIM!$A$924:$O$961</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_957BDBBF_47EE_4196_ABA1_703719D164B9_.wvu.FilterData">BIM!$A$995:$O$1006</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2EB76FF1_9BA9_4FF3_A097_139B654E6006_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E3A5A191_ACE9_4043_84E7_A301CF0286F1_.wvu.FilterData">BIM!$A$770:$O$793</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B55FB8CA-B9FF-40E2-9BBC-F2A4009275D7}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{369A0EFA-2FA8-4CF1-98D7-DA965184D368}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E883A2B0-B036-40B7-A883-D972D74A093F}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9CB54CB2-2BAE-48A1-83CB-E734D695BD9D}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3A307A16-916D-4E53-B85F-20B3FED87A08}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C2E0D3AD-7D3E-491F-B537-D9FF4769C8E7}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F3C8A75B-5B53-48CC-8F85-15A157FDCDC8}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D12AAC5F-328E-4EE7-8FDF-562B928A4481}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{15BF90D7-1AAB-49FD-A533-75BA79BC6316}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DD25F294-B557-481C-9D3C-3108C567EB3C}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{59C04DFE-8E47-40FC-8FD4-AD80EEDA6707}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{32831375-F495-4982-8DC4-E102F559932E}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{16FB66AC-E19F-472F-8AB8-928875111973}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6AB067BC-025E-45B5-A771-6DE8326635CF}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BC9D5131-C233-4833-963A-5AF9485F38FD}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{34701B12-3301-4E3A-9A06-3C79238E1BBC}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E3EECED4-128E-4186-BE61-46ADD236376D}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{60F6AD86-6230-48B7-89F9-9E6617149A22}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D5538896-5B3F-466F-8F2F-E02BC6903FEE}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{78523EAE-EF36-453E-B68F-37CE1AAAC8EA}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FE6E6AF8-D1AD-43C2-80DE-C4EDEBA814F4}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{29B03EF9-AA5A-4A4A-B271-E458FC5C5D0A}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A9BA3192-FAFD-4F99-8190-79CCE2692928}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{240FB6A8-387D-40AE-9FF9-79C4E2DF7B5E}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D53A82E4-C627-4DE1-A4E9-D1E3422982E9}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9CD7B2AF-F5C5-4AA9-A2B8-79EC0910F493}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED95F5EC-E808-4EE8-94B6-E0E6D6F78F65}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D510BFD7-3A9D-4582-A5F2-DF00A558418E}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{077830ED-2D11-403C-A452-72C47FC5BCA2}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F7F93CE9-C6C9-48EA-B9FF-F22CAA0FE822}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AA935302-1046-4CA0-8AD2-6473F7C06AE7}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{99833668-2B2F-4385-A6A8-FE0C7F114439}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FB235AE8-63AA-4728-9E18-ED8466587ED2}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2353BA4D-3E7C-40FB-85FF-212A01D5CF8B}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EF4CE5D7-9C60-45E1-81CD-CEC474814ECC}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{32B29D22-A42D-4C40-9DCA-7D555476EE1F}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D56D830D-F696-4A82-8B24-870F11659318}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5BF65A77-6079-4801-A6EF-CEF09169B503}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1FA5D62B-DE0F-43E8-B673-6CE15F4B35C8}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E3A5A191-ACE9-4043-84E7-A301CF0286F1}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0B09B29D-369A-4EB7-ACEE-DEDFD1EB5403}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{071722D3-0201-4B03-A28C-BE452B463F30}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EE30388F-6776-4F93-B586-2D417B6E8597}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{78D3B614-EC57-4A20-A6D7-0CE9C96EFA7E}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{957BDBBF-47EE-4196-ABA1-703719D164B9}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{256C9F2A-2374-4F40-980A-57F700D45F9F}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4FA7268B-E8BD-4D1D-B77E-1377F8D45A8F}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4663FA90-090E-4936-AB37-1178EE681115}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{55B4DBDC-0A8A-46A0-9467-7669D66615BF}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{EBFCD43E-BAC3-4ED2-A196-BBD970861E08}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{249E4230-7F8C-4FD2-823F-17AD3B81C1ED}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4CE3AF11-0C1A-48EC-9970-97C615C7036F}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{81300487-295A-4671-9B95-1BF22BA6B247}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{281AE35A-A91A-40D0-8E2A-78AC0946BCC2}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E7D7AF22-3E28-47EE-BC15-769D5F51E4EE}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{199F4D83-00EB-425A-9FCB-2F35D56AB40D}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{521896BA-1DBC-42E1-91D3-64B8B2893B5C}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F610191F-0707-4C51-84DB-755FDDF03466}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1ACEAF09-5833-4A11-9C79-55B4687A26CC}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F9D3F2CD-1C7D-419C-AEB1-EB3645E624B7}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{08B6A37A-8C69-4570-977C-1A5C224942D8}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6ACD004F-3969-4802-8CE1-169BD7AFA8C9}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2EB76FF1-9BA9-4FF3-A097-139B654E6006}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{350AC014-188D-4172-ADBB-EBAB1655D5A1}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B1DA375D-DD4D-4335-BF9C-6694542D432B}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8A718BB0-0EE0-47BF-AABF-A3C3DE4C1368}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{420FE7CC-08A1-4DE4-90E8-D9910AE3E891}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{067A036A-8E29-43D9-A68E-7D68B39E28FE}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AEDC12DD-BD9B-4F08-BB97-86239AAB52CD}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4F854235-7FBE-4597-9214-B60F316920FB}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6CC5FA8C-441B-4B0A-97FB-262295F12EB1}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B9667913-A8F8-4456-B270-0FF827FABEF9}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2823007D-354D-44E8-BD81-2B33D2682D21}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4143C991-DD43-470D-86DF-390EF7A9717E}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BD17DD43-CA76-49D0-9CF0-CA07122E9B10}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6C8AA44B-5875-493A-971A-C59556BD5576}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15161" uniqueCount="3581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15161" uniqueCount="3582">
   <si>
     <t>Perkataan</t>
   </si>
@@ -9532,13 +9532,16 @@
     <t>https://youtu.be/akVqGIxuI9Q</t>
   </si>
   <si>
-    <t>Susah</t>
+    <t>Susah (II)</t>
   </si>
   <si>
     <t>Hard (II)</t>
   </si>
   <si>
     <t>https://youtu.be/78sJxCwOUoY</t>
+  </si>
+  <si>
+    <t>Susah (I)</t>
   </si>
   <si>
     <t>Difficult</t>
@@ -54879,10 +54882,10 @@
     </row>
     <row r="904" ht="14.25" customHeight="1">
       <c r="A904" s="36" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="B904" s="33" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C904" s="34" t="s">
         <v>2580</v>
@@ -54925,10 +54928,10 @@
     </row>
     <row r="905" ht="14.25" customHeight="1">
       <c r="A905" s="32" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="B905" s="33" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="C905" s="34" t="s">
         <v>2580</v>
@@ -54956,7 +54959,7 @@
       <c r="L905" s="21"/>
       <c r="M905" s="21"/>
       <c r="N905" s="22" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
       <c r="O905" s="15" t="s">
         <v>26</v>
@@ -54971,10 +54974,10 @@
     </row>
     <row r="906" ht="14.25" customHeight="1">
       <c r="A906" s="32" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="B906" s="33" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C906" s="34" t="s">
         <v>2580</v>
@@ -55002,7 +55005,7 @@
       <c r="L906" s="21"/>
       <c r="M906" s="21"/>
       <c r="N906" s="22" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="O906" s="15" t="s">
         <v>26</v>
@@ -55017,10 +55020,10 @@
     </row>
     <row r="907" ht="14.25" customHeight="1">
       <c r="A907" s="32" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="B907" s="33" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
       <c r="C907" s="34" t="s">
         <v>2580</v>
@@ -55048,7 +55051,7 @@
       <c r="L907" s="21"/>
       <c r="M907" s="21"/>
       <c r="N907" s="22" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="O907" s="15" t="s">
         <v>26</v>
@@ -55063,10 +55066,10 @@
     </row>
     <row r="908" ht="14.25" customHeight="1">
       <c r="A908" s="32" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="B908" s="33" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="C908" s="34" t="s">
         <v>2580</v>
@@ -55094,7 +55097,7 @@
       <c r="L908" s="21"/>
       <c r="M908" s="21"/>
       <c r="N908" s="22" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="O908" s="15" t="s">
         <v>26</v>
@@ -55109,10 +55112,10 @@
     </row>
     <row r="909" ht="14.25" customHeight="1">
       <c r="A909" s="32" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
       <c r="B909" s="33" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="C909" s="34" t="s">
         <v>2580</v>
@@ -55140,7 +55143,7 @@
       <c r="L909" s="21"/>
       <c r="M909" s="21"/>
       <c r="N909" s="22" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="O909" s="15" t="s">
         <v>26</v>
@@ -55155,10 +55158,10 @@
     </row>
     <row r="910" ht="14.25" customHeight="1">
       <c r="A910" s="32" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="B910" s="33" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="C910" s="34" t="s">
         <v>2580</v>
@@ -55186,7 +55189,7 @@
       <c r="L910" s="21"/>
       <c r="M910" s="21"/>
       <c r="N910" s="22" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
       <c r="O910" s="15" t="s">
         <v>26</v>
@@ -55201,10 +55204,10 @@
     </row>
     <row r="911" ht="14.25" customHeight="1">
       <c r="A911" s="32" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="B911" s="33" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C911" s="34" t="s">
         <v>2580</v>
@@ -55232,7 +55235,7 @@
       <c r="L911" s="21"/>
       <c r="M911" s="21"/>
       <c r="N911" s="22" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="O911" s="15" t="s">
         <v>26</v>
@@ -55247,10 +55250,10 @@
     </row>
     <row r="912" ht="14.25" customHeight="1">
       <c r="A912" s="32" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="B912" s="33" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
       <c r="C912" s="34" t="s">
         <v>2580</v>
@@ -55278,7 +55281,7 @@
       <c r="L912" s="21"/>
       <c r="M912" s="21"/>
       <c r="N912" s="22" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="O912" s="15" t="s">
         <v>26</v>
@@ -55293,10 +55296,10 @@
     </row>
     <row r="913" ht="14.25" customHeight="1">
       <c r="A913" s="32" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="B913" s="33" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="C913" s="34" t="s">
         <v>2580</v>
@@ -55324,7 +55327,7 @@
       <c r="L913" s="21"/>
       <c r="M913" s="21"/>
       <c r="N913" s="22" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="O913" s="48" t="s">
         <v>26</v>
@@ -55339,10 +55342,10 @@
     </row>
     <row r="914" ht="14.25" customHeight="1">
       <c r="A914" s="32" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
       <c r="B914" s="33" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="C914" s="34" t="s">
         <v>2580</v>
@@ -55370,7 +55373,7 @@
       <c r="L914" s="21"/>
       <c r="M914" s="21"/>
       <c r="N914" s="22" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="O914" s="48" t="s">
         <v>26</v>
@@ -55385,10 +55388,10 @@
     </row>
     <row r="915" ht="14.25" customHeight="1">
       <c r="A915" s="32" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="B915" s="33" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="C915" s="34" t="s">
         <v>2580</v>
@@ -55416,7 +55419,7 @@
       <c r="L915" s="21"/>
       <c r="M915" s="21"/>
       <c r="N915" s="22" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
       <c r="O915" s="48" t="s">
         <v>26</v>
@@ -55431,10 +55434,10 @@
     </row>
     <row r="916" ht="14.25" customHeight="1">
       <c r="A916" s="32" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="B916" s="33" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C916" s="34" t="s">
         <v>2580</v>
@@ -55462,7 +55465,7 @@
       <c r="L916" s="21"/>
       <c r="M916" s="21"/>
       <c r="N916" s="22" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="O916" s="48" t="s">
         <v>26</v>
@@ -55477,10 +55480,10 @@
     </row>
     <row r="917" ht="14.25" customHeight="1">
       <c r="A917" s="32" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="B917" s="33" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="C917" s="34" t="s">
         <v>2580</v>
@@ -55508,7 +55511,7 @@
       <c r="L917" s="21"/>
       <c r="M917" s="21"/>
       <c r="N917" s="22" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="O917" s="48" t="s">
         <v>26</v>
@@ -55523,10 +55526,10 @@
     </row>
     <row r="918" ht="14.25" customHeight="1">
       <c r="A918" s="32" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="B918" s="33" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="C918" s="34" t="s">
         <v>2580</v>
@@ -55554,7 +55557,7 @@
       <c r="L918" s="21"/>
       <c r="M918" s="21"/>
       <c r="N918" s="22" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="O918" s="48" t="s">
         <v>26</v>
@@ -55569,10 +55572,10 @@
     </row>
     <row r="919" ht="14.25" customHeight="1">
       <c r="A919" s="32" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
       <c r="B919" s="33" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="C919" s="34" t="s">
         <v>2580</v>
@@ -55600,7 +55603,7 @@
       <c r="L919" s="21"/>
       <c r="M919" s="21"/>
       <c r="N919" s="22" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="O919" s="48" t="s">
         <v>26</v>
@@ -55615,10 +55618,10 @@
     </row>
     <row r="920" ht="14.25" customHeight="1">
       <c r="A920" s="32" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="B920" s="33" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="C920" s="34" t="s">
         <v>2580</v>
@@ -55646,7 +55649,7 @@
       <c r="L920" s="21"/>
       <c r="M920" s="21"/>
       <c r="N920" s="22" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
       <c r="O920" s="48" t="s">
         <v>26</v>
@@ -55661,10 +55664,10 @@
     </row>
     <row r="921" ht="14.25" customHeight="1">
       <c r="A921" s="32" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="B921" s="33" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C921" s="34" t="s">
         <v>2580</v>
@@ -55692,7 +55695,7 @@
       <c r="L921" s="21"/>
       <c r="M921" s="21"/>
       <c r="N921" s="22" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="O921" s="48" t="s">
         <v>26</v>
@@ -55707,10 +55710,10 @@
     </row>
     <row r="922" ht="14.25" customHeight="1">
       <c r="A922" s="32" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="B922" s="33" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
       <c r="C922" s="34" t="s">
         <v>2580</v>
@@ -55738,7 +55741,7 @@
       <c r="L922" s="21"/>
       <c r="M922" s="21"/>
       <c r="N922" s="22" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="O922" s="15" t="s">
         <v>26</v>
@@ -55753,10 +55756,10 @@
     </row>
     <row r="923" ht="14.25" customHeight="1">
       <c r="A923" s="32" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="B923" s="33" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="C923" s="34" t="s">
         <v>2580</v>
@@ -55784,7 +55787,7 @@
       <c r="L923" s="21"/>
       <c r="M923" s="21"/>
       <c r="N923" s="22" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="O923" s="48" t="s">
         <v>26</v>
@@ -55799,10 +55802,10 @@
     </row>
     <row r="924" ht="14.25" customHeight="1">
       <c r="A924" s="32" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
       <c r="B924" s="33" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="C924" s="34" t="s">
         <v>2580</v>
@@ -55830,7 +55833,7 @@
       <c r="L924" s="21"/>
       <c r="M924" s="21"/>
       <c r="N924" s="22" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="O924" s="48" t="s">
         <v>26</v>
@@ -55845,7 +55848,7 @@
     </row>
     <row r="925" ht="14.25" customHeight="1">
       <c r="A925" s="32" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="B925" s="33" t="s">
         <v>2504</v>
@@ -55876,7 +55879,7 @@
       <c r="L925" s="21"/>
       <c r="M925" s="21"/>
       <c r="N925" s="22" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="O925" s="48" t="s">
         <v>26</v>
@@ -55891,10 +55894,10 @@
     </row>
     <row r="926" ht="14.25" customHeight="1">
       <c r="A926" s="32" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
       <c r="B926" s="33" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="C926" s="34" t="s">
         <v>2580</v>
@@ -55922,7 +55925,7 @@
       <c r="L926" s="21"/>
       <c r="M926" s="21"/>
       <c r="N926" s="22" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="O926" s="48" t="s">
         <v>26</v>
@@ -55937,16 +55940,16 @@
     </row>
     <row r="927" ht="14.25" customHeight="1">
       <c r="A927" s="32" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="B927" s="83" t="s">
         <v>10</v>
       </c>
       <c r="C927" s="34" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="D927" s="34" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
       <c r="E927" s="35" t="s">
         <v>238</v>
@@ -55968,7 +55971,7 @@
       <c r="L927" s="21"/>
       <c r="M927" s="21"/>
       <c r="N927" s="22" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="O927" s="48" t="s">
         <v>26</v>
@@ -55983,16 +55986,16 @@
     </row>
     <row r="928" ht="14.25" customHeight="1">
       <c r="A928" s="32" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="B928" s="83" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="C928" s="34" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D928" s="34" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E928" s="35" t="s">
         <v>238</v>
@@ -56007,7 +56010,7 @@
         <v>2583</v>
       </c>
       <c r="I928" s="44" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J928" s="45"/>
       <c r="K928" s="12" t="s">
@@ -56016,7 +56019,7 @@
       <c r="L928" s="39"/>
       <c r="M928" s="39"/>
       <c r="N928" s="22" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="O928" s="48" t="s">
         <v>26</v>
@@ -56031,16 +56034,16 @@
     </row>
     <row r="929" ht="14.25" customHeight="1">
       <c r="A929" s="32" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="B929" s="83" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="C929" s="34" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D929" s="34" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E929" s="35" t="s">
         <v>238</v>
@@ -56055,7 +56058,7 @@
         <v>2583</v>
       </c>
       <c r="I929" s="44" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J929" s="45"/>
       <c r="K929" s="12" t="s">
@@ -56064,7 +56067,7 @@
       <c r="L929" s="21"/>
       <c r="M929" s="21"/>
       <c r="N929" s="22" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
       <c r="O929" s="48" t="s">
         <v>26</v>
@@ -56079,16 +56082,16 @@
     </row>
     <row r="930" ht="14.25" customHeight="1">
       <c r="A930" s="32" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="B930" s="83" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C930" s="34" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D930" s="34" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E930" s="35" t="s">
         <v>238</v>
@@ -56103,7 +56106,7 @@
         <v>2583</v>
       </c>
       <c r="I930" s="44" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J930" s="45"/>
       <c r="K930" s="12" t="s">
@@ -56112,7 +56115,7 @@
       <c r="L930" s="21"/>
       <c r="M930" s="21"/>
       <c r="N930" s="22" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="O930" s="48" t="s">
         <v>26</v>
@@ -56127,16 +56130,16 @@
     </row>
     <row r="931" ht="14.25" customHeight="1">
       <c r="A931" s="32" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="B931" s="33" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="C931" s="34" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D931" s="34" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E931" s="59" t="s">
         <v>238</v>
@@ -56151,7 +56154,7 @@
         <v>2583</v>
       </c>
       <c r="I931" s="44" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J931" s="45"/>
       <c r="K931" s="12" t="s">
@@ -56160,7 +56163,7 @@
       <c r="L931" s="21"/>
       <c r="M931" s="21"/>
       <c r="N931" s="22" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="O931" s="15" t="s">
         <v>26</v>
@@ -56175,16 +56178,16 @@
     </row>
     <row r="932" ht="14.25" customHeight="1">
       <c r="A932" s="32" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="B932" s="33" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="C932" s="34" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="D932" s="34" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="E932" s="35" t="s">
         <v>238</v>
@@ -56199,7 +56202,7 @@
         <v>2583</v>
       </c>
       <c r="I932" s="44" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="J932" s="45"/>
       <c r="K932" s="12" t="s">
@@ -56208,7 +56211,7 @@
       <c r="L932" s="21"/>
       <c r="M932" s="21"/>
       <c r="N932" s="22" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="O932" s="48" t="s">
         <v>26</v>
@@ -56223,16 +56226,16 @@
     </row>
     <row r="933" ht="14.25" customHeight="1">
       <c r="A933" s="32" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
       <c r="B933" s="33" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="C933" s="10" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D933" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E933" s="85" t="s">
         <v>238</v>
@@ -56241,10 +56244,10 @@
         <v>239</v>
       </c>
       <c r="G933" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H933" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I933" s="19"/>
       <c r="J933" s="19"/>
@@ -56254,7 +56257,7 @@
       <c r="L933" s="12"/>
       <c r="M933" s="12"/>
       <c r="N933" s="20" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="O933" s="15" t="s">
         <v>26</v>
@@ -56269,16 +56272,16 @@
     </row>
     <row r="934" ht="14.25" customHeight="1">
       <c r="A934" s="32" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="B934" s="33" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="C934" s="10" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D934" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E934" s="85" t="s">
         <v>238</v>
@@ -56287,10 +56290,10 @@
         <v>239</v>
       </c>
       <c r="G934" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H934" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I934" s="19"/>
       <c r="J934" s="19"/>
@@ -56300,7 +56303,7 @@
       <c r="L934" s="12"/>
       <c r="M934" s="12"/>
       <c r="N934" s="20" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="O934" s="15" t="s">
         <v>26</v>
@@ -56315,16 +56318,16 @@
     </row>
     <row r="935" ht="14.25" customHeight="1">
       <c r="A935" s="32" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
       <c r="B935" s="33" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="C935" s="10" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D935" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E935" s="85" t="s">
         <v>238</v>
@@ -56333,10 +56336,10 @@
         <v>239</v>
       </c>
       <c r="G935" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H935" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I935" s="19"/>
       <c r="J935" s="19"/>
@@ -56346,7 +56349,7 @@
       <c r="L935" s="12"/>
       <c r="M935" s="12"/>
       <c r="N935" s="20" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="O935" s="15" t="s">
         <v>26</v>
@@ -56361,16 +56364,16 @@
     </row>
     <row r="936" ht="14.25" customHeight="1">
       <c r="A936" s="32" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="B936" s="33" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="C936" s="10" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D936" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E936" s="85" t="s">
         <v>238</v>
@@ -56379,10 +56382,10 @@
         <v>239</v>
       </c>
       <c r="G936" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H936" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I936" s="19"/>
       <c r="J936" s="19"/>
@@ -56392,7 +56395,7 @@
       <c r="L936" s="12"/>
       <c r="M936" s="12"/>
       <c r="N936" s="20" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
       <c r="O936" s="15" t="s">
         <v>26</v>
@@ -56407,16 +56410,16 @@
     </row>
     <row r="937" ht="14.25" customHeight="1">
       <c r="A937" s="32" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="B937" s="33" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C937" s="10" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D937" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E937" s="85" t="s">
         <v>238</v>
@@ -56425,10 +56428,10 @@
         <v>239</v>
       </c>
       <c r="G937" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H937" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I937" s="19"/>
       <c r="J937" s="19"/>
@@ -56438,7 +56441,7 @@
       <c r="L937" s="12"/>
       <c r="M937" s="12"/>
       <c r="N937" s="20" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="O937" s="15" t="s">
         <v>26</v>
@@ -56453,16 +56456,16 @@
     </row>
     <row r="938" ht="14.25" customHeight="1">
       <c r="A938" s="32" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B938" s="33" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
       <c r="C938" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D938" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E938" s="85" t="s">
         <v>238</v>
@@ -56471,10 +56474,10 @@
         <v>239</v>
       </c>
       <c r="G938" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H938" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I938" s="19"/>
       <c r="J938" s="19"/>
@@ -56484,7 +56487,7 @@
       <c r="L938" s="12"/>
       <c r="M938" s="12"/>
       <c r="N938" s="20" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="O938" s="15" t="s">
         <v>26</v>
@@ -56499,16 +56502,16 @@
     </row>
     <row r="939" ht="14.25" customHeight="1">
       <c r="A939" s="32" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="B939" s="33" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="C939" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D939" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E939" s="85" t="s">
         <v>238</v>
@@ -56517,10 +56520,10 @@
         <v>239</v>
       </c>
       <c r="G939" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H939" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I939" s="19"/>
       <c r="J939" s="19"/>
@@ -56530,7 +56533,7 @@
       <c r="L939" s="12"/>
       <c r="M939" s="12"/>
       <c r="N939" s="20" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="O939" s="15" t="s">
         <v>26</v>
@@ -56545,16 +56548,16 @@
     </row>
     <row r="940" ht="14.25" customHeight="1">
       <c r="A940" s="32" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="B940" s="33" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="C940" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D940" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E940" s="85" t="s">
         <v>238</v>
@@ -56563,10 +56566,10 @@
         <v>239</v>
       </c>
       <c r="G940" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H940" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I940" s="19"/>
       <c r="J940" s="19"/>
@@ -56576,7 +56579,7 @@
       <c r="L940" s="12"/>
       <c r="M940" s="12"/>
       <c r="N940" s="20" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="O940" s="15" t="s">
         <v>26</v>
@@ -56591,16 +56594,16 @@
     </row>
     <row r="941" ht="14.25" customHeight="1">
       <c r="A941" s="32" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B941" s="33" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C941" s="44" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D941" s="44" t="s">
         <v>2987</v>
-      </c>
-      <c r="B941" s="33" t="s">
-        <v>2988</v>
-      </c>
-      <c r="C941" s="44" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D941" s="44" t="s">
-        <v>2986</v>
       </c>
       <c r="E941" s="85" t="s">
         <v>238</v>
@@ -56609,10 +56612,10 @@
         <v>239</v>
       </c>
       <c r="G941" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H941" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I941" s="19"/>
       <c r="J941" s="19"/>
@@ -56622,7 +56625,7 @@
       <c r="L941" s="12"/>
       <c r="M941" s="12"/>
       <c r="N941" s="20" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="O941" s="15" t="s">
         <v>26</v>
@@ -56637,16 +56640,16 @@
     </row>
     <row r="942" ht="14.25" customHeight="1">
       <c r="A942" s="32" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="B942" s="33" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="C942" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D942" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E942" s="85" t="s">
         <v>238</v>
@@ -56655,10 +56658,10 @@
         <v>239</v>
       </c>
       <c r="G942" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H942" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I942" s="19"/>
       <c r="J942" s="19"/>
@@ -56668,7 +56671,7 @@
       <c r="L942" s="12"/>
       <c r="M942" s="12"/>
       <c r="N942" s="20" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="O942" s="15" t="s">
         <v>26</v>
@@ -56683,16 +56686,16 @@
     </row>
     <row r="943" ht="14.25" customHeight="1">
       <c r="A943" s="32" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="B943" s="33" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="C943" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D943" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E943" s="85" t="s">
         <v>238</v>
@@ -56701,10 +56704,10 @@
         <v>239</v>
       </c>
       <c r="G943" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H943" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I943" s="19"/>
       <c r="J943" s="19"/>
@@ -56714,7 +56717,7 @@
       <c r="L943" s="12"/>
       <c r="M943" s="12"/>
       <c r="N943" s="20" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="O943" s="15" t="s">
         <v>26</v>
@@ -56729,16 +56732,16 @@
     </row>
     <row r="944" ht="14.25" customHeight="1">
       <c r="A944" s="32" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="B944" s="33" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="C944" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D944" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E944" s="85" t="s">
         <v>238</v>
@@ -56747,10 +56750,10 @@
         <v>239</v>
       </c>
       <c r="G944" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H944" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I944" s="19"/>
       <c r="J944" s="19"/>
@@ -56760,7 +56763,7 @@
       <c r="L944" s="12"/>
       <c r="M944" s="12"/>
       <c r="N944" s="20" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="O944" s="15" t="s">
         <v>26</v>
@@ -56775,16 +56778,16 @@
     </row>
     <row r="945" ht="14.25" customHeight="1">
       <c r="A945" s="32" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="B945" s="33" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="C945" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D945" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E945" s="85" t="s">
         <v>238</v>
@@ -56793,10 +56796,10 @@
         <v>239</v>
       </c>
       <c r="G945" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H945" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I945" s="19"/>
       <c r="J945" s="19"/>
@@ -56806,7 +56809,7 @@
       <c r="L945" s="12"/>
       <c r="M945" s="12"/>
       <c r="N945" s="20" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
       <c r="O945" s="15" t="s">
         <v>26</v>
@@ -56821,16 +56824,16 @@
     </row>
     <row r="946" ht="14.25" customHeight="1">
       <c r="A946" s="32" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="B946" s="33" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="C946" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D946" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E946" s="85" t="s">
         <v>238</v>
@@ -56839,10 +56842,10 @@
         <v>239</v>
       </c>
       <c r="G946" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H946" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I946" s="19"/>
       <c r="J946" s="19"/>
@@ -56852,7 +56855,7 @@
       <c r="L946" s="12"/>
       <c r="M946" s="12"/>
       <c r="N946" s="20" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="O946" s="15" t="s">
         <v>26</v>
@@ -56867,16 +56870,16 @@
     </row>
     <row r="947" ht="14.25" customHeight="1">
       <c r="A947" s="32" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="B947" s="33" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
       <c r="C947" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D947" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E947" s="85" t="s">
         <v>238</v>
@@ -56885,10 +56888,10 @@
         <v>239</v>
       </c>
       <c r="G947" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H947" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I947" s="19"/>
       <c r="J947" s="19"/>
@@ -56898,7 +56901,7 @@
       <c r="L947" s="12"/>
       <c r="M947" s="12"/>
       <c r="N947" s="20" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="O947" s="15" t="s">
         <v>26</v>
@@ -56913,16 +56916,16 @@
     </row>
     <row r="948" ht="14.25" customHeight="1">
       <c r="A948" s="32" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="B948" s="33" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="C948" s="44" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="D948" s="44" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="E948" s="85" t="s">
         <v>238</v>
@@ -56931,10 +56934,10 @@
         <v>239</v>
       </c>
       <c r="G948" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H948" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I948" s="19"/>
       <c r="J948" s="19"/>
@@ -56944,7 +56947,7 @@
       <c r="L948" s="12"/>
       <c r="M948" s="12"/>
       <c r="N948" s="20" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="O948" s="15" t="s">
         <v>26</v>
@@ -56959,16 +56962,16 @@
     </row>
     <row r="949" ht="14.25" customHeight="1">
       <c r="A949" s="32" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="B949" s="33" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
       <c r="C949" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D949" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E949" s="11" t="s">
         <v>238</v>
@@ -56977,10 +56980,10 @@
         <v>239</v>
       </c>
       <c r="G949" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H949" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I949" s="19"/>
       <c r="J949" s="19"/>
@@ -56990,7 +56993,7 @@
       <c r="L949" s="12"/>
       <c r="M949" s="12"/>
       <c r="N949" s="20" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
       <c r="O949" s="15" t="s">
         <v>26</v>
@@ -57005,16 +57008,16 @@
     </row>
     <row r="950" ht="14.25" customHeight="1">
       <c r="A950" s="32" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="B950" s="33" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C950" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D950" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E950" s="11" t="s">
         <v>238</v>
@@ -57023,10 +57026,10 @@
         <v>239</v>
       </c>
       <c r="G950" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H950" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I950" s="19"/>
       <c r="J950" s="19"/>
@@ -57036,7 +57039,7 @@
       <c r="L950" s="12"/>
       <c r="M950" s="12"/>
       <c r="N950" s="20" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="O950" s="15" t="s">
         <v>26</v>
@@ -57051,16 +57054,16 @@
     </row>
     <row r="951" ht="14.25" customHeight="1">
       <c r="A951" s="32" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="B951" s="33" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
       <c r="C951" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D951" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E951" s="11" t="s">
         <v>238</v>
@@ -57069,10 +57072,10 @@
         <v>239</v>
       </c>
       <c r="G951" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H951" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I951" s="19"/>
       <c r="J951" s="19"/>
@@ -57082,7 +57085,7 @@
       <c r="L951" s="12"/>
       <c r="M951" s="12"/>
       <c r="N951" s="20" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="O951" s="15" t="s">
         <v>26</v>
@@ -57097,16 +57100,16 @@
     </row>
     <row r="952" ht="14.25" customHeight="1">
       <c r="A952" s="32" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="B952" s="33" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="C952" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D952" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E952" s="11" t="s">
         <v>238</v>
@@ -57115,10 +57118,10 @@
         <v>239</v>
       </c>
       <c r="G952" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H952" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I952" s="19"/>
       <c r="J952" s="19"/>
@@ -57128,7 +57131,7 @@
       <c r="L952" s="12"/>
       <c r="M952" s="12"/>
       <c r="N952" s="20" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="O952" s="15" t="s">
         <v>26</v>
@@ -57143,16 +57146,16 @@
     </row>
     <row r="953" ht="14.25" customHeight="1">
       <c r="A953" s="32" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
       <c r="B953" s="33" t="s">
-        <v>3049</v>
+        <v>3050</v>
       </c>
       <c r="C953" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D953" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E953" s="11" t="s">
         <v>238</v>
@@ -57161,10 +57164,10 @@
         <v>239</v>
       </c>
       <c r="G953" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H953" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I953" s="19"/>
       <c r="J953" s="19"/>
@@ -57174,7 +57177,7 @@
       <c r="L953" s="12"/>
       <c r="M953" s="12"/>
       <c r="N953" s="20" t="s">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="O953" s="15" t="s">
         <v>26</v>
@@ -57189,16 +57192,16 @@
     </row>
     <row r="954" ht="14.25" customHeight="1">
       <c r="A954" s="32" t="s">
-        <v>3051</v>
+        <v>3052</v>
       </c>
       <c r="B954" s="33" t="s">
-        <v>3052</v>
+        <v>3053</v>
       </c>
       <c r="C954" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D954" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E954" s="11" t="s">
         <v>238</v>
@@ -57207,10 +57210,10 @@
         <v>239</v>
       </c>
       <c r="G954" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H954" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I954" s="19"/>
       <c r="J954" s="19"/>
@@ -57220,7 +57223,7 @@
       <c r="L954" s="12"/>
       <c r="M954" s="12"/>
       <c r="N954" s="20" t="s">
-        <v>3053</v>
+        <v>3054</v>
       </c>
       <c r="O954" s="15" t="s">
         <v>26</v>
@@ -57235,16 +57238,16 @@
     </row>
     <row r="955" ht="14.25" customHeight="1">
       <c r="A955" s="32" t="s">
-        <v>3054</v>
+        <v>3055</v>
       </c>
       <c r="B955" s="33" t="s">
-        <v>3055</v>
+        <v>3056</v>
       </c>
       <c r="C955" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D955" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E955" s="11" t="s">
         <v>238</v>
@@ -57253,10 +57256,10 @@
         <v>239</v>
       </c>
       <c r="G955" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H955" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I955" s="19"/>
       <c r="J955" s="19"/>
@@ -57266,7 +57269,7 @@
       <c r="L955" s="12"/>
       <c r="M955" s="12"/>
       <c r="N955" s="20" t="s">
-        <v>3056</v>
+        <v>3057</v>
       </c>
       <c r="O955" s="15" t="s">
         <v>26</v>
@@ -57281,16 +57284,16 @@
     </row>
     <row r="956" ht="14.25" customHeight="1">
       <c r="A956" s="32" t="s">
-        <v>3057</v>
+        <v>3058</v>
       </c>
       <c r="B956" s="33" t="s">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="C956" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D956" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E956" s="11" t="s">
         <v>238</v>
@@ -57299,10 +57302,10 @@
         <v>239</v>
       </c>
       <c r="G956" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H956" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I956" s="19"/>
       <c r="J956" s="19"/>
@@ -57312,7 +57315,7 @@
       <c r="L956" s="12"/>
       <c r="M956" s="12"/>
       <c r="N956" s="20" t="s">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="O956" s="15" t="s">
         <v>26</v>
@@ -57327,16 +57330,16 @@
     </row>
     <row r="957" ht="14.25" customHeight="1">
       <c r="A957" s="32" t="s">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="B957" s="33" t="s">
-        <v>3061</v>
+        <v>3062</v>
       </c>
       <c r="C957" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D957" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E957" s="11" t="s">
         <v>238</v>
@@ -57345,10 +57348,10 @@
         <v>239</v>
       </c>
       <c r="G957" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H957" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I957" s="19"/>
       <c r="J957" s="19"/>
@@ -57358,7 +57361,7 @@
       <c r="L957" s="12"/>
       <c r="M957" s="12"/>
       <c r="N957" s="20" t="s">
-        <v>3062</v>
+        <v>3063</v>
       </c>
       <c r="O957" s="15" t="s">
         <v>26</v>
@@ -57373,16 +57376,16 @@
     </row>
     <row r="958" ht="14.25" customHeight="1">
       <c r="A958" s="32" t="s">
-        <v>3063</v>
+        <v>3064</v>
       </c>
       <c r="B958" s="33" t="s">
-        <v>3064</v>
+        <v>3065</v>
       </c>
       <c r="C958" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D958" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E958" s="11" t="s">
         <v>238</v>
@@ -57391,10 +57394,10 @@
         <v>239</v>
       </c>
       <c r="G958" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H958" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I958" s="19"/>
       <c r="J958" s="19"/>
@@ -57404,7 +57407,7 @@
       <c r="L958" s="12"/>
       <c r="M958" s="12"/>
       <c r="N958" s="20" t="s">
-        <v>3065</v>
+        <v>3066</v>
       </c>
       <c r="O958" s="15" t="s">
         <v>26</v>
@@ -57419,16 +57422,16 @@
     </row>
     <row r="959" ht="14.25" customHeight="1">
       <c r="A959" s="32" t="s">
-        <v>3066</v>
+        <v>3067</v>
       </c>
       <c r="B959" s="33" t="s">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="C959" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D959" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E959" s="11" t="s">
         <v>238</v>
@@ -57437,10 +57440,10 @@
         <v>239</v>
       </c>
       <c r="G959" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H959" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I959" s="19"/>
       <c r="J959" s="19"/>
@@ -57450,7 +57453,7 @@
       <c r="L959" s="12"/>
       <c r="M959" s="12"/>
       <c r="N959" s="20" t="s">
-        <v>3068</v>
+        <v>3069</v>
       </c>
       <c r="O959" s="15" t="s">
         <v>26</v>
@@ -57465,16 +57468,16 @@
     </row>
     <row r="960" ht="14.25" customHeight="1">
       <c r="A960" s="32" t="s">
-        <v>3069</v>
+        <v>3070</v>
       </c>
       <c r="B960" s="33" t="s">
-        <v>3070</v>
+        <v>3071</v>
       </c>
       <c r="C960" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D960" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E960" s="11" t="s">
         <v>238</v>
@@ -57483,10 +57486,10 @@
         <v>239</v>
       </c>
       <c r="G960" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H960" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I960" s="19"/>
       <c r="J960" s="19"/>
@@ -57496,7 +57499,7 @@
       <c r="L960" s="12"/>
       <c r="M960" s="12"/>
       <c r="N960" s="20" t="s">
-        <v>3071</v>
+        <v>3072</v>
       </c>
       <c r="O960" s="15" t="s">
         <v>26</v>
@@ -57511,16 +57514,16 @@
     </row>
     <row r="961" ht="14.25" customHeight="1">
       <c r="A961" s="32" t="s">
-        <v>3072</v>
+        <v>3073</v>
       </c>
       <c r="B961" s="33" t="s">
-        <v>3073</v>
+        <v>3074</v>
       </c>
       <c r="C961" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D961" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E961" s="11" t="s">
         <v>238</v>
@@ -57529,10 +57532,10 @@
         <v>239</v>
       </c>
       <c r="G961" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H961" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I961" s="19"/>
       <c r="J961" s="19"/>
@@ -57542,7 +57545,7 @@
       <c r="L961" s="12"/>
       <c r="M961" s="12"/>
       <c r="N961" s="20" t="s">
-        <v>3074</v>
+        <v>3075</v>
       </c>
       <c r="O961" s="15" t="s">
         <v>26</v>
@@ -57557,16 +57560,16 @@
     </row>
     <row r="962" ht="14.25" customHeight="1">
       <c r="A962" s="32" t="s">
-        <v>3075</v>
+        <v>3076</v>
       </c>
       <c r="B962" s="33" t="s">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="C962" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D962" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E962" s="11" t="s">
         <v>238</v>
@@ -57575,10 +57578,10 @@
         <v>239</v>
       </c>
       <c r="G962" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H962" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I962" s="19"/>
       <c r="J962" s="19"/>
@@ -57588,7 +57591,7 @@
       <c r="L962" s="12"/>
       <c r="M962" s="12"/>
       <c r="N962" s="20" t="s">
-        <v>3077</v>
+        <v>3078</v>
       </c>
       <c r="O962" s="15" t="s">
         <v>26</v>
@@ -57603,16 +57606,16 @@
     </row>
     <row r="963" ht="14.25" customHeight="1">
       <c r="A963" s="32" t="s">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="B963" s="33" t="s">
-        <v>3079</v>
+        <v>3080</v>
       </c>
       <c r="C963" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D963" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E963" s="11" t="s">
         <v>238</v>
@@ -57621,10 +57624,10 @@
         <v>239</v>
       </c>
       <c r="G963" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H963" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I963" s="19"/>
       <c r="J963" s="19"/>
@@ -57634,7 +57637,7 @@
       <c r="L963" s="12"/>
       <c r="M963" s="12"/>
       <c r="N963" s="20" t="s">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="O963" s="15" t="s">
         <v>26</v>
@@ -57649,16 +57652,16 @@
     </row>
     <row r="964" ht="14.25" customHeight="1">
       <c r="A964" s="32" t="s">
-        <v>3081</v>
+        <v>3082</v>
       </c>
       <c r="B964" s="33" t="s">
-        <v>3082</v>
+        <v>3083</v>
       </c>
       <c r="C964" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D964" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E964" s="11" t="s">
         <v>238</v>
@@ -57667,10 +57670,10 @@
         <v>239</v>
       </c>
       <c r="G964" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H964" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I964" s="19"/>
       <c r="J964" s="19"/>
@@ -57680,7 +57683,7 @@
       <c r="L964" s="12"/>
       <c r="M964" s="12"/>
       <c r="N964" s="20" t="s">
-        <v>3083</v>
+        <v>3084</v>
       </c>
       <c r="O964" s="15" t="s">
         <v>26</v>
@@ -57695,16 +57698,16 @@
     </row>
     <row r="965" ht="14.25" customHeight="1">
       <c r="A965" s="32" t="s">
-        <v>3084</v>
+        <v>3085</v>
       </c>
       <c r="B965" s="33" t="s">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="C965" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D965" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E965" s="11" t="s">
         <v>238</v>
@@ -57713,10 +57716,10 @@
         <v>239</v>
       </c>
       <c r="G965" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H965" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I965" s="19"/>
       <c r="J965" s="19"/>
@@ -57726,7 +57729,7 @@
       <c r="L965" s="12"/>
       <c r="M965" s="12"/>
       <c r="N965" s="20" t="s">
-        <v>3086</v>
+        <v>3087</v>
       </c>
       <c r="O965" s="15" t="s">
         <v>26</v>
@@ -57741,16 +57744,16 @@
     </row>
     <row r="966" ht="14.25" customHeight="1">
       <c r="A966" s="32" t="s">
-        <v>3087</v>
+        <v>3088</v>
       </c>
       <c r="B966" s="33" t="s">
-        <v>3088</v>
+        <v>3089</v>
       </c>
       <c r="C966" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D966" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E966" s="11" t="s">
         <v>238</v>
@@ -57759,10 +57762,10 @@
         <v>239</v>
       </c>
       <c r="G966" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H966" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I966" s="19"/>
       <c r="J966" s="19"/>
@@ -57772,7 +57775,7 @@
       <c r="L966" s="12"/>
       <c r="M966" s="12"/>
       <c r="N966" s="20" t="s">
-        <v>3089</v>
+        <v>3090</v>
       </c>
       <c r="O966" s="15" t="s">
         <v>26</v>
@@ -57787,16 +57790,16 @@
     </row>
     <row r="967" ht="14.25" customHeight="1">
       <c r="A967" s="32" t="s">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="B967" s="33" t="s">
-        <v>3091</v>
+        <v>3092</v>
       </c>
       <c r="C967" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D967" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E967" s="11" t="s">
         <v>238</v>
@@ -57805,10 +57808,10 @@
         <v>239</v>
       </c>
       <c r="G967" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H967" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I967" s="19"/>
       <c r="J967" s="19"/>
@@ -57818,7 +57821,7 @@
       <c r="L967" s="12"/>
       <c r="M967" s="12"/>
       <c r="N967" s="20" t="s">
-        <v>3092</v>
+        <v>3093</v>
       </c>
       <c r="O967" s="15" t="s">
         <v>26</v>
@@ -57833,16 +57836,16 @@
     </row>
     <row r="968" ht="14.25" customHeight="1">
       <c r="A968" s="32" t="s">
-        <v>3093</v>
+        <v>3094</v>
       </c>
       <c r="B968" s="33" t="s">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="C968" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D968" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E968" s="11" t="s">
         <v>238</v>
@@ -57851,10 +57854,10 @@
         <v>239</v>
       </c>
       <c r="G968" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H968" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I968" s="19"/>
       <c r="J968" s="19"/>
@@ -57864,7 +57867,7 @@
       <c r="L968" s="12"/>
       <c r="M968" s="12"/>
       <c r="N968" s="20" t="s">
-        <v>3095</v>
+        <v>3096</v>
       </c>
       <c r="O968" s="15" t="s">
         <v>26</v>
@@ -57879,16 +57882,16 @@
     </row>
     <row r="969" ht="14.25" customHeight="1">
       <c r="A969" s="32" t="s">
-        <v>3096</v>
+        <v>3097</v>
       </c>
       <c r="B969" s="33" t="s">
-        <v>3097</v>
+        <v>3098</v>
       </c>
       <c r="C969" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D969" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E969" s="11" t="s">
         <v>238</v>
@@ -57897,10 +57900,10 @@
         <v>239</v>
       </c>
       <c r="G969" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H969" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I969" s="19"/>
       <c r="J969" s="19"/>
@@ -57910,7 +57913,7 @@
       <c r="L969" s="12"/>
       <c r="M969" s="12"/>
       <c r="N969" s="20" t="s">
-        <v>3098</v>
+        <v>3099</v>
       </c>
       <c r="O969" s="15" t="s">
         <v>26</v>
@@ -57925,16 +57928,16 @@
     </row>
     <row r="970" ht="14.25" customHeight="1">
       <c r="A970" s="32" t="s">
-        <v>3099</v>
+        <v>3100</v>
       </c>
       <c r="B970" s="33" t="s">
-        <v>3100</v>
+        <v>3101</v>
       </c>
       <c r="C970" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D970" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E970" s="11" t="s">
         <v>238</v>
@@ -57943,10 +57946,10 @@
         <v>239</v>
       </c>
       <c r="G970" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H970" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I970" s="19"/>
       <c r="J970" s="19"/>
@@ -57956,7 +57959,7 @@
       <c r="L970" s="12"/>
       <c r="M970" s="12"/>
       <c r="N970" s="20" t="s">
-        <v>3101</v>
+        <v>3102</v>
       </c>
       <c r="O970" s="15" t="s">
         <v>26</v>
@@ -57971,16 +57974,16 @@
     </row>
     <row r="971" ht="14.25" customHeight="1">
       <c r="A971" s="32" t="s">
-        <v>3102</v>
+        <v>3103</v>
       </c>
       <c r="B971" s="33" t="s">
-        <v>3103</v>
+        <v>3104</v>
       </c>
       <c r="C971" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D971" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E971" s="11" t="s">
         <v>238</v>
@@ -57989,10 +57992,10 @@
         <v>239</v>
       </c>
       <c r="G971" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H971" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I971" s="19"/>
       <c r="J971" s="19"/>
@@ -58002,10 +58005,10 @@
       <c r="L971" s="12"/>
       <c r="M971" s="12"/>
       <c r="N971" s="20" t="s">
-        <v>3104</v>
+        <v>3105</v>
       </c>
       <c r="O971" s="15" t="s">
-        <v>3105</v>
+        <v>3106</v>
       </c>
       <c r="P971" s="16" t="s">
         <v>27</v>
@@ -58017,16 +58020,16 @@
     </row>
     <row r="972" ht="14.25" customHeight="1">
       <c r="A972" s="32" t="s">
-        <v>3106</v>
+        <v>3107</v>
       </c>
       <c r="B972" s="33" t="s">
-        <v>3107</v>
+        <v>3108</v>
       </c>
       <c r="C972" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D972" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E972" s="11" t="s">
         <v>238</v>
@@ -58035,10 +58038,10 @@
         <v>239</v>
       </c>
       <c r="G972" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H972" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I972" s="19"/>
       <c r="J972" s="19"/>
@@ -58048,7 +58051,7 @@
       <c r="L972" s="12"/>
       <c r="M972" s="12"/>
       <c r="N972" s="20" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="O972" s="15" t="s">
         <v>26</v>
@@ -58063,16 +58066,16 @@
     </row>
     <row r="973" ht="14.25" customHeight="1">
       <c r="A973" s="32" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="B973" s="33" t="s">
-        <v>3110</v>
+        <v>3111</v>
       </c>
       <c r="C973" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D973" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E973" s="11" t="s">
         <v>238</v>
@@ -58081,10 +58084,10 @@
         <v>239</v>
       </c>
       <c r="G973" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H973" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I973" s="19"/>
       <c r="J973" s="19"/>
@@ -58094,7 +58097,7 @@
       <c r="L973" s="12"/>
       <c r="M973" s="12"/>
       <c r="N973" s="20" t="s">
-        <v>3111</v>
+        <v>3112</v>
       </c>
       <c r="O973" s="15" t="s">
         <v>26</v>
@@ -58109,16 +58112,16 @@
     </row>
     <row r="974" ht="14.25" customHeight="1">
       <c r="A974" s="32" t="s">
-        <v>3112</v>
+        <v>3113</v>
       </c>
       <c r="B974" s="33" t="s">
-        <v>3113</v>
+        <v>3114</v>
       </c>
       <c r="C974" s="10" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="D974" s="10" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="E974" s="11" t="s">
         <v>238</v>
@@ -58127,10 +58130,10 @@
         <v>239</v>
       </c>
       <c r="G974" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H974" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I974" s="19"/>
       <c r="J974" s="19"/>
@@ -58140,7 +58143,7 @@
       <c r="L974" s="12"/>
       <c r="M974" s="12"/>
       <c r="N974" s="20" t="s">
-        <v>3114</v>
+        <v>3115</v>
       </c>
       <c r="O974" s="15" t="s">
         <v>26</v>
@@ -58155,16 +58158,16 @@
     </row>
     <row r="975" ht="14.25" customHeight="1">
       <c r="A975" s="95" t="s">
-        <v>3115</v>
+        <v>3116</v>
       </c>
       <c r="B975" s="21" t="s">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="C975" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D975" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E975" s="11" t="s">
         <v>439</v>
@@ -58173,13 +58176,13 @@
         <v>440</v>
       </c>
       <c r="G975" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H975" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I975" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J975" s="45"/>
       <c r="K975" s="12" t="s">
@@ -58188,7 +58191,7 @@
       <c r="L975" s="12"/>
       <c r="M975" s="12"/>
       <c r="N975" s="20" t="s">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="O975" s="15" t="s">
         <v>26</v>
@@ -58203,16 +58206,16 @@
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="26" t="s">
-        <v>3123</v>
+        <v>3124</v>
       </c>
       <c r="B976" s="18" t="s">
-        <v>3124</v>
+        <v>3125</v>
       </c>
       <c r="C976" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D976" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E976" s="11" t="s">
         <v>439</v>
@@ -58221,13 +58224,13 @@
         <v>440</v>
       </c>
       <c r="G976" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H976" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I976" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J976" s="45"/>
       <c r="K976" s="12" t="s">
@@ -58236,7 +58239,7 @@
       <c r="L976" s="12"/>
       <c r="M976" s="12"/>
       <c r="N976" s="20" t="s">
-        <v>3125</v>
+        <v>3126</v>
       </c>
       <c r="O976" s="15" t="s">
         <v>26</v>
@@ -58251,16 +58254,16 @@
     </row>
     <row r="977" ht="14.25" customHeight="1">
       <c r="A977" s="95" t="s">
-        <v>3126</v>
+        <v>3127</v>
       </c>
       <c r="B977" s="21" t="s">
-        <v>3127</v>
+        <v>3128</v>
       </c>
       <c r="C977" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D977" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E977" s="11" t="s">
         <v>439</v>
@@ -58269,13 +58272,13 @@
         <v>440</v>
       </c>
       <c r="G977" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H977" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I977" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J977" s="45"/>
       <c r="K977" s="12" t="s">
@@ -58284,7 +58287,7 @@
       <c r="L977" s="12"/>
       <c r="M977" s="12"/>
       <c r="N977" s="20" t="s">
-        <v>3128</v>
+        <v>3129</v>
       </c>
       <c r="O977" s="15" t="s">
         <v>26</v>
@@ -58299,16 +58302,16 @@
     </row>
     <row r="978" ht="14.25" customHeight="1">
       <c r="A978" s="26" t="s">
-        <v>3129</v>
+        <v>3130</v>
       </c>
       <c r="B978" s="18" t="s">
-        <v>3130</v>
+        <v>3131</v>
       </c>
       <c r="C978" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D978" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E978" s="11" t="s">
         <v>439</v>
@@ -58317,10 +58320,10 @@
         <v>440</v>
       </c>
       <c r="G978" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H978" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I978" s="10"/>
       <c r="J978" s="10"/>
@@ -58330,7 +58333,7 @@
       <c r="L978" s="12"/>
       <c r="M978" s="12"/>
       <c r="N978" s="20" t="s">
-        <v>3131</v>
+        <v>3132</v>
       </c>
       <c r="O978" s="15" t="s">
         <v>26</v>
@@ -58345,16 +58348,16 @@
     </row>
     <row r="979" ht="14.25" customHeight="1">
       <c r="A979" s="8" t="s">
-        <v>3132</v>
+        <v>3133</v>
       </c>
       <c r="B979" s="18" t="s">
-        <v>3133</v>
+        <v>3134</v>
       </c>
       <c r="C979" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D979" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E979" s="11" t="s">
         <v>439</v>
@@ -58363,13 +58366,13 @@
         <v>440</v>
       </c>
       <c r="G979" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H979" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I979" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J979" s="45"/>
       <c r="K979" s="12" t="s">
@@ -58378,7 +58381,7 @@
       <c r="L979" s="12"/>
       <c r="M979" s="12"/>
       <c r="N979" s="20" t="s">
-        <v>3134</v>
+        <v>3135</v>
       </c>
       <c r="O979" s="15" t="s">
         <v>26</v>
@@ -58393,16 +58396,16 @@
     </row>
     <row r="980" ht="14.25" customHeight="1">
       <c r="A980" s="95" t="s">
-        <v>3135</v>
+        <v>3136</v>
       </c>
       <c r="B980" s="21" t="s">
-        <v>3136</v>
+        <v>3137</v>
       </c>
       <c r="C980" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D980" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E980" s="11" t="s">
         <v>439</v>
@@ -58411,13 +58414,13 @@
         <v>440</v>
       </c>
       <c r="G980" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H980" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I980" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J980" s="45"/>
       <c r="K980" s="12" t="s">
@@ -58426,7 +58429,7 @@
       <c r="L980" s="12"/>
       <c r="M980" s="12"/>
       <c r="N980" s="20" t="s">
-        <v>3137</v>
+        <v>3138</v>
       </c>
       <c r="O980" s="15" t="s">
         <v>26</v>
@@ -58441,16 +58444,16 @@
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="95" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B981" s="21" t="s">
-        <v>3139</v>
+        <v>3140</v>
       </c>
       <c r="C981" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D981" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E981" s="11" t="s">
         <v>439</v>
@@ -58459,13 +58462,13 @@
         <v>440</v>
       </c>
       <c r="G981" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H981" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I981" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J981" s="45"/>
       <c r="K981" s="12" t="s">
@@ -58474,7 +58477,7 @@
       <c r="L981" s="12"/>
       <c r="M981" s="12"/>
       <c r="N981" s="20" t="s">
-        <v>3140</v>
+        <v>3141</v>
       </c>
       <c r="O981" s="15" t="s">
         <v>26</v>
@@ -58489,16 +58492,16 @@
     </row>
     <row r="982" ht="14.25" customHeight="1">
       <c r="A982" s="95" t="s">
-        <v>3141</v>
+        <v>3142</v>
       </c>
       <c r="B982" s="21" t="s">
-        <v>3142</v>
+        <v>3143</v>
       </c>
       <c r="C982" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D982" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E982" s="11" t="s">
         <v>439</v>
@@ -58507,10 +58510,10 @@
         <v>440</v>
       </c>
       <c r="G982" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H982" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I982" s="43"/>
       <c r="J982" s="43"/>
@@ -58520,7 +58523,7 @@
       <c r="L982" s="12"/>
       <c r="M982" s="12"/>
       <c r="N982" s="20" t="s">
-        <v>3143</v>
+        <v>3144</v>
       </c>
       <c r="O982" s="15" t="s">
         <v>26</v>
@@ -58535,16 +58538,16 @@
     </row>
     <row r="983" ht="14.25" customHeight="1">
       <c r="A983" s="95" t="s">
-        <v>3144</v>
+        <v>3145</v>
       </c>
       <c r="B983" s="21" t="s">
-        <v>3145</v>
+        <v>3146</v>
       </c>
       <c r="C983" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D983" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E983" s="11" t="s">
         <v>439</v>
@@ -58553,13 +58556,13 @@
         <v>440</v>
       </c>
       <c r="G983" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H983" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I983" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J983" s="45"/>
       <c r="K983" s="12" t="s">
@@ -58568,7 +58571,7 @@
       <c r="L983" s="12"/>
       <c r="M983" s="12"/>
       <c r="N983" s="20" t="s">
-        <v>3146</v>
+        <v>3147</v>
       </c>
       <c r="O983" s="15" t="s">
         <v>26</v>
@@ -58583,16 +58586,16 @@
     </row>
     <row r="984" ht="14.25" customHeight="1">
       <c r="A984" s="26" t="s">
-        <v>3147</v>
+        <v>3148</v>
       </c>
       <c r="B984" s="18" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="C984" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D984" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E984" s="11" t="s">
         <v>439</v>
@@ -58601,13 +58604,13 @@
         <v>440</v>
       </c>
       <c r="G984" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H984" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I984" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J984" s="45"/>
       <c r="K984" s="12" t="s">
@@ -58616,7 +58619,7 @@
       <c r="L984" s="12"/>
       <c r="M984" s="12"/>
       <c r="N984" s="20" t="s">
-        <v>3149</v>
+        <v>3150</v>
       </c>
       <c r="O984" s="15" t="s">
         <v>26</v>
@@ -58631,16 +58634,16 @@
     </row>
     <row r="985" ht="14.25" customHeight="1">
       <c r="A985" s="95" t="s">
-        <v>3150</v>
+        <v>3151</v>
       </c>
       <c r="B985" s="21" t="s">
-        <v>3151</v>
+        <v>3152</v>
       </c>
       <c r="C985" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D985" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E985" s="11" t="s">
         <v>439</v>
@@ -58649,10 +58652,10 @@
         <v>440</v>
       </c>
       <c r="G985" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H985" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I985" s="43"/>
       <c r="J985" s="43"/>
@@ -58662,7 +58665,7 @@
       <c r="L985" s="12"/>
       <c r="M985" s="12"/>
       <c r="N985" s="20" t="s">
-        <v>3152</v>
+        <v>3153</v>
       </c>
       <c r="O985" s="15" t="s">
         <v>26</v>
@@ -58677,16 +58680,16 @@
     </row>
     <row r="986" ht="14.25" customHeight="1">
       <c r="A986" s="95" t="s">
-        <v>3153</v>
+        <v>3154</v>
       </c>
       <c r="B986" s="21" t="s">
-        <v>3154</v>
+        <v>3155</v>
       </c>
       <c r="C986" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D986" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E986" s="11" t="s">
         <v>439</v>
@@ -58695,13 +58698,13 @@
         <v>440</v>
       </c>
       <c r="G986" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H986" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I986" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J986" s="45"/>
       <c r="K986" s="12" t="s">
@@ -58710,7 +58713,7 @@
       <c r="L986" s="12"/>
       <c r="M986" s="12"/>
       <c r="N986" s="20" t="s">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="O986" s="15" t="s">
         <v>26</v>
@@ -58725,16 +58728,16 @@
     </row>
     <row r="987" ht="14.25" customHeight="1">
       <c r="A987" s="26" t="s">
-        <v>3156</v>
+        <v>3157</v>
       </c>
       <c r="B987" s="18" t="s">
-        <v>3157</v>
+        <v>3158</v>
       </c>
       <c r="C987" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D987" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E987" s="11" t="s">
         <v>439</v>
@@ -58743,10 +58746,10 @@
         <v>440</v>
       </c>
       <c r="G987" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H987" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I987" s="10"/>
       <c r="J987" s="10"/>
@@ -58756,7 +58759,7 @@
       <c r="L987" s="12"/>
       <c r="M987" s="12"/>
       <c r="N987" s="20" t="s">
-        <v>3158</v>
+        <v>3159</v>
       </c>
       <c r="O987" s="15" t="s">
         <v>26</v>
@@ -58771,16 +58774,16 @@
     </row>
     <row r="988" ht="14.25" customHeight="1">
       <c r="A988" s="26" t="s">
-        <v>3159</v>
+        <v>3160</v>
       </c>
       <c r="B988" s="18" t="s">
-        <v>3160</v>
+        <v>3161</v>
       </c>
       <c r="C988" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D988" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E988" s="11" t="s">
         <v>439</v>
@@ -58789,13 +58792,13 @@
         <v>440</v>
       </c>
       <c r="G988" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H988" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I988" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J988" s="45"/>
       <c r="K988" s="12" t="s">
@@ -58804,7 +58807,7 @@
       <c r="L988" s="12"/>
       <c r="M988" s="12"/>
       <c r="N988" s="20" t="s">
-        <v>3161</v>
+        <v>3162</v>
       </c>
       <c r="O988" s="15" t="s">
         <v>26</v>
@@ -58819,16 +58822,16 @@
     </row>
     <row r="989" ht="14.25" customHeight="1">
       <c r="A989" s="95" t="s">
-        <v>3162</v>
+        <v>3163</v>
       </c>
       <c r="B989" s="21" t="s">
-        <v>3163</v>
+        <v>3164</v>
       </c>
       <c r="C989" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D989" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E989" s="78" t="s">
         <v>439</v>
@@ -58837,10 +58840,10 @@
         <v>440</v>
       </c>
       <c r="G989" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H989" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I989" s="44"/>
       <c r="J989" s="44"/>
@@ -58850,7 +58853,7 @@
       <c r="L989" s="37"/>
       <c r="M989" s="37"/>
       <c r="N989" s="58" t="s">
-        <v>3164</v>
+        <v>3165</v>
       </c>
       <c r="O989" s="41" t="s">
         <v>26</v>
@@ -58865,16 +58868,16 @@
     </row>
     <row r="990" ht="14.25" customHeight="1">
       <c r="A990" s="95" t="s">
-        <v>3165</v>
+        <v>3166</v>
       </c>
       <c r="B990" s="21" t="s">
-        <v>3166</v>
+        <v>3167</v>
       </c>
       <c r="C990" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D990" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E990" s="11" t="s">
         <v>439</v>
@@ -58883,13 +58886,13 @@
         <v>440</v>
       </c>
       <c r="G990" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H990" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I990" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J990" s="45"/>
       <c r="K990" s="12" t="s">
@@ -58898,7 +58901,7 @@
       <c r="L990" s="12"/>
       <c r="M990" s="12"/>
       <c r="N990" s="20" t="s">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="O990" s="15" t="s">
         <v>26</v>
@@ -58913,16 +58916,16 @@
     </row>
     <row r="991" ht="14.25" customHeight="1">
       <c r="A991" s="95" t="s">
-        <v>3168</v>
+        <v>3169</v>
       </c>
       <c r="B991" s="21" t="s">
-        <v>3169</v>
+        <v>3170</v>
       </c>
       <c r="C991" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D991" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E991" s="11" t="s">
         <v>439</v>
@@ -58931,13 +58934,13 @@
         <v>440</v>
       </c>
       <c r="G991" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H991" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I991" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J991" s="45"/>
       <c r="K991" s="12" t="s">
@@ -58946,7 +58949,7 @@
       <c r="L991" s="12"/>
       <c r="M991" s="12"/>
       <c r="N991" s="20" t="s">
-        <v>3170</v>
+        <v>3171</v>
       </c>
       <c r="O991" s="15" t="s">
         <v>26</v>
@@ -58961,16 +58964,16 @@
     </row>
     <row r="992" ht="14.25" customHeight="1">
       <c r="A992" s="26" t="s">
-        <v>3171</v>
+        <v>3172</v>
       </c>
       <c r="B992" s="18" t="s">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="C992" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D992" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E992" s="11" t="s">
         <v>439</v>
@@ -58979,13 +58982,13 @@
         <v>440</v>
       </c>
       <c r="G992" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H992" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I992" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J992" s="45"/>
       <c r="K992" s="12" t="s">
@@ -58994,7 +58997,7 @@
       <c r="L992" s="12"/>
       <c r="M992" s="12"/>
       <c r="N992" s="20" t="s">
-        <v>3173</v>
+        <v>3174</v>
       </c>
       <c r="O992" s="15" t="s">
         <v>26</v>
@@ -59009,16 +59012,16 @@
     </row>
     <row r="993" ht="14.25" customHeight="1">
       <c r="A993" s="95" t="s">
-        <v>3174</v>
+        <v>3175</v>
       </c>
       <c r="B993" s="21" t="s">
-        <v>3175</v>
+        <v>3176</v>
       </c>
       <c r="C993" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D993" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E993" s="11" t="s">
         <v>439</v>
@@ -59027,13 +59030,13 @@
         <v>440</v>
       </c>
       <c r="G993" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H993" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I993" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J993" s="45"/>
       <c r="K993" s="12" t="s">
@@ -59042,7 +59045,7 @@
       <c r="L993" s="12"/>
       <c r="M993" s="12"/>
       <c r="N993" s="20" t="s">
-        <v>3176</v>
+        <v>3177</v>
       </c>
       <c r="O993" s="15" t="s">
         <v>26</v>
@@ -59057,16 +59060,16 @@
     </row>
     <row r="994" ht="14.25" customHeight="1">
       <c r="A994" s="95" t="s">
-        <v>3177</v>
+        <v>3178</v>
       </c>
       <c r="B994" s="21" t="s">
-        <v>3178</v>
+        <v>3179</v>
       </c>
       <c r="C994" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D994" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E994" s="11" t="s">
         <v>439</v>
@@ -59075,13 +59078,13 @@
         <v>440</v>
       </c>
       <c r="G994" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H994" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I994" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J994" s="45"/>
       <c r="K994" s="12" t="s">
@@ -59090,7 +59093,7 @@
       <c r="L994" s="12"/>
       <c r="M994" s="12"/>
       <c r="N994" s="20" t="s">
-        <v>3179</v>
+        <v>3180</v>
       </c>
       <c r="O994" s="15" t="s">
         <v>26</v>
@@ -59105,16 +59108,16 @@
     </row>
     <row r="995" ht="14.25" customHeight="1">
       <c r="A995" s="95" t="s">
-        <v>3180</v>
+        <v>3181</v>
       </c>
       <c r="B995" s="21" t="s">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="C995" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D995" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E995" s="11" t="s">
         <v>439</v>
@@ -59123,13 +59126,13 @@
         <v>440</v>
       </c>
       <c r="G995" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H995" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I995" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J995" s="45"/>
       <c r="K995" s="12" t="s">
@@ -59138,7 +59141,7 @@
       <c r="L995" s="12"/>
       <c r="M995" s="12"/>
       <c r="N995" s="20" t="s">
-        <v>3182</v>
+        <v>3183</v>
       </c>
       <c r="O995" s="15" t="s">
         <v>26</v>
@@ -59153,16 +59156,16 @@
     </row>
     <row r="996" ht="14.25" customHeight="1">
       <c r="A996" s="95" t="s">
-        <v>3183</v>
+        <v>3184</v>
       </c>
       <c r="B996" s="21" t="s">
-        <v>3184</v>
+        <v>3185</v>
       </c>
       <c r="C996" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D996" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E996" s="11" t="s">
         <v>439</v>
@@ -59171,13 +59174,13 @@
         <v>440</v>
       </c>
       <c r="G996" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H996" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I996" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J996" s="45"/>
       <c r="K996" s="12" t="s">
@@ -59186,7 +59189,7 @@
       <c r="L996" s="12"/>
       <c r="M996" s="12"/>
       <c r="N996" s="20" t="s">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="O996" s="15" t="s">
         <v>26</v>
@@ -59201,16 +59204,16 @@
     </row>
     <row r="997" ht="14.25" customHeight="1">
       <c r="A997" s="26" t="s">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="B997" s="18" t="s">
-        <v>3187</v>
+        <v>3188</v>
       </c>
       <c r="C997" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D997" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E997" s="11" t="s">
         <v>439</v>
@@ -59219,13 +59222,13 @@
         <v>440</v>
       </c>
       <c r="G997" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H997" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I997" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J997" s="45"/>
       <c r="K997" s="12" t="s">
@@ -59234,7 +59237,7 @@
       <c r="L997" s="12"/>
       <c r="M997" s="12"/>
       <c r="N997" s="20" t="s">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="O997" s="15" t="s">
         <v>26</v>
@@ -59249,16 +59252,16 @@
     </row>
     <row r="998" ht="14.25" customHeight="1">
       <c r="A998" s="26" t="s">
-        <v>3189</v>
+        <v>3190</v>
       </c>
       <c r="B998" s="18" t="s">
-        <v>3190</v>
+        <v>3191</v>
       </c>
       <c r="C998" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D998" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E998" s="11" t="s">
         <v>439</v>
@@ -59267,10 +59270,10 @@
         <v>440</v>
       </c>
       <c r="G998" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H998" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I998" s="44"/>
       <c r="J998" s="44"/>
@@ -59280,7 +59283,7 @@
       <c r="L998" s="12"/>
       <c r="M998" s="12"/>
       <c r="N998" s="20" t="s">
-        <v>3191</v>
+        <v>3192</v>
       </c>
       <c r="O998" s="15" t="s">
         <v>26</v>
@@ -59295,16 +59298,16 @@
     </row>
     <row r="999" ht="14.25" customHeight="1">
       <c r="A999" s="26" t="s">
-        <v>3192</v>
+        <v>3193</v>
       </c>
       <c r="B999" s="18" t="s">
-        <v>3193</v>
+        <v>3194</v>
       </c>
       <c r="C999" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D999" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E999" s="11" t="s">
         <v>439</v>
@@ -59313,10 +59316,10 @@
         <v>440</v>
       </c>
       <c r="G999" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H999" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I999" s="10"/>
       <c r="J999" s="10"/>
@@ -59326,7 +59329,7 @@
       <c r="L999" s="12"/>
       <c r="M999" s="12"/>
       <c r="N999" s="20" t="s">
-        <v>3194</v>
+        <v>3195</v>
       </c>
       <c r="O999" s="15" t="s">
         <v>26</v>
@@ -59341,16 +59344,16 @@
     </row>
     <row r="1000" ht="14.25" customHeight="1">
       <c r="A1000" s="95" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="B1000" s="21" t="s">
-        <v>3195</v>
+        <v>3196</v>
       </c>
       <c r="C1000" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D1000" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E1000" s="11" t="s">
         <v>439</v>
@@ -59359,13 +59362,13 @@
         <v>440</v>
       </c>
       <c r="G1000" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1000" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1000" s="44" t="s">
-        <v>3121</v>
+        <v>3122</v>
       </c>
       <c r="J1000" s="45"/>
       <c r="K1000" s="12" t="s">
@@ -59374,7 +59377,7 @@
       <c r="L1000" s="12"/>
       <c r="M1000" s="12"/>
       <c r="N1000" s="20" t="s">
-        <v>3196</v>
+        <v>3197</v>
       </c>
       <c r="O1000" s="15" t="s">
         <v>26</v>
@@ -59389,16 +59392,16 @@
     </row>
     <row r="1001" ht="14.25" customHeight="1">
       <c r="A1001" s="95" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="B1001" s="21" t="s">
-        <v>3197</v>
+        <v>3198</v>
       </c>
       <c r="C1001" s="10" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="D1001" s="10" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="E1001" s="11" t="s">
         <v>439</v>
@@ -59407,10 +59410,10 @@
         <v>440</v>
       </c>
       <c r="G1001" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1001" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1001" s="44"/>
       <c r="J1001" s="45"/>
@@ -59420,7 +59423,7 @@
       <c r="L1001" s="12"/>
       <c r="M1001" s="12"/>
       <c r="N1001" s="20" t="s">
-        <v>3198</v>
+        <v>3199</v>
       </c>
       <c r="O1001" s="15" t="s">
         <v>26</v>
@@ -59435,16 +59438,16 @@
     </row>
     <row r="1002" ht="14.25" customHeight="1">
       <c r="A1002" s="95" t="s">
-        <v>3199</v>
+        <v>3200</v>
       </c>
       <c r="B1002" s="21" t="s">
-        <v>3200</v>
+        <v>3201</v>
       </c>
       <c r="C1002" s="10" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1002" s="10" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E1002" s="11" t="s">
         <v>439</v>
@@ -59453,13 +59456,13 @@
         <v>440</v>
       </c>
       <c r="G1002" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1002" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1002" s="44" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="J1002" s="45"/>
       <c r="K1002" s="12" t="s">
@@ -59468,7 +59471,7 @@
       <c r="L1002" s="12"/>
       <c r="M1002" s="12"/>
       <c r="N1002" s="20" t="s">
-        <v>3204</v>
+        <v>3205</v>
       </c>
       <c r="O1002" s="15" t="s">
         <v>26</v>
@@ -59483,16 +59486,16 @@
     </row>
     <row r="1003" ht="14.25" customHeight="1">
       <c r="A1003" s="95" t="s">
-        <v>3205</v>
+        <v>3206</v>
       </c>
       <c r="B1003" s="21" t="s">
-        <v>3206</v>
+        <v>3207</v>
       </c>
       <c r="C1003" s="10" t="s">
-        <v>3201</v>
+        <v>3202</v>
       </c>
       <c r="D1003" s="10" t="s">
-        <v>3202</v>
+        <v>3203</v>
       </c>
       <c r="E1003" s="11" t="s">
         <v>439</v>
@@ -59501,13 +59504,13 @@
         <v>440</v>
       </c>
       <c r="G1003" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1003" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1003" s="44" t="s">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="J1003" s="45"/>
       <c r="K1003" s="12" t="s">
@@ -59516,7 +59519,7 @@
       <c r="L1003" s="12"/>
       <c r="M1003" s="12"/>
       <c r="N1003" s="20" t="s">
-        <v>3207</v>
+        <v>3208</v>
       </c>
       <c r="O1003" s="15" t="s">
         <v>26</v>
@@ -59531,16 +59534,16 @@
     </row>
     <row r="1004" ht="14.25" customHeight="1">
       <c r="A1004" s="95" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="B1004" s="21" t="s">
-        <v>3208</v>
+        <v>3209</v>
       </c>
       <c r="C1004" s="10" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1004" s="10" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E1004" s="11" t="s">
         <v>439</v>
@@ -59549,13 +59552,13 @@
         <v>440</v>
       </c>
       <c r="G1004" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1004" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1004" s="44" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="J1004" s="45"/>
       <c r="K1004" s="12" t="s">
@@ -59564,7 +59567,7 @@
       <c r="L1004" s="12"/>
       <c r="M1004" s="12"/>
       <c r="N1004" s="20" t="s">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="O1004" s="15" t="s">
         <v>26</v>
@@ -59579,16 +59582,16 @@
     </row>
     <row r="1005" ht="14.25" customHeight="1">
       <c r="A1005" s="95" t="s">
-        <v>3213</v>
+        <v>3214</v>
       </c>
       <c r="B1005" s="21" t="s">
-        <v>3214</v>
+        <v>3215</v>
       </c>
       <c r="C1005" s="10" t="s">
-        <v>3209</v>
+        <v>3210</v>
       </c>
       <c r="D1005" s="10" t="s">
-        <v>3210</v>
+        <v>3211</v>
       </c>
       <c r="E1005" s="11" t="s">
         <v>439</v>
@@ -59597,13 +59600,13 @@
         <v>440</v>
       </c>
       <c r="G1005" s="12" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="H1005" s="12" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="I1005" s="44" t="s">
-        <v>3211</v>
+        <v>3212</v>
       </c>
       <c r="J1005" s="45"/>
       <c r="K1005" s="12" t="s">
@@ -59612,7 +59615,7 @@
       <c r="L1005" s="12"/>
       <c r="M1005" s="12"/>
       <c r="N1005" s="20" t="s">
-        <v>3215</v>
+        <v>3216</v>
       </c>
       <c r="O1005" s="15" t="s">
         <v>26</v>
@@ -59627,16 +59630,16 @@
     </row>
     <row r="1006" ht="14.25" customHeight="1">
       <c r="A1006" s="32" t="s">
-        <v>3216</v>
+        <v>3217</v>
       </c>
       <c r="B1006" s="33" t="s">
-        <v>3217</v>
+        <v>3218</v>
       </c>
       <c r="C1006" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1006" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1006" s="11" t="s">
         <v>496</v>
@@ -59645,10 +59648,10 @@
         <v>497</v>
       </c>
       <c r="G1006" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1006" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1006" s="19"/>
       <c r="J1006" s="19"/>
@@ -59658,7 +59661,7 @@
       <c r="L1006" s="12"/>
       <c r="M1006" s="12"/>
       <c r="N1006" s="20" t="s">
-        <v>3222</v>
+        <v>3223</v>
       </c>
       <c r="O1006" s="15" t="s">
         <v>26</v>
@@ -59673,16 +59676,16 @@
     </row>
     <row r="1007" ht="14.25" customHeight="1">
       <c r="A1007" s="32" t="s">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="B1007" s="33" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1007" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1007" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1007" s="11" t="s">
         <v>496</v>
@@ -59691,10 +59694,10 @@
         <v>497</v>
       </c>
       <c r="G1007" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1007" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1007" s="19"/>
       <c r="J1007" s="19"/>
@@ -59704,7 +59707,7 @@
       <c r="L1007" s="12"/>
       <c r="M1007" s="12"/>
       <c r="N1007" s="20" t="s">
-        <v>3225</v>
+        <v>3226</v>
       </c>
       <c r="O1007" s="15" t="s">
         <v>26</v>
@@ -59719,16 +59722,16 @@
     </row>
     <row r="1008" ht="14.25" customHeight="1">
       <c r="A1008" s="32" t="s">
-        <v>3226</v>
+        <v>3227</v>
       </c>
       <c r="B1008" s="33" t="s">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="C1008" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1008" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1008" s="11" t="s">
         <v>496</v>
@@ -59737,10 +59740,10 @@
         <v>497</v>
       </c>
       <c r="G1008" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1008" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1008" s="19"/>
       <c r="J1008" s="19"/>
@@ -59750,7 +59753,7 @@
       <c r="L1008" s="12"/>
       <c r="M1008" s="12"/>
       <c r="N1008" s="20" t="s">
-        <v>3228</v>
+        <v>3229</v>
       </c>
       <c r="O1008" s="15" t="s">
         <v>26</v>
@@ -59765,16 +59768,16 @@
     </row>
     <row r="1009" ht="14.25" customHeight="1">
       <c r="A1009" s="32" t="s">
+        <v>3221</v>
+      </c>
+      <c r="B1009" s="33" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C1009" s="10" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D1009" s="10" t="s">
         <v>3220</v>
-      </c>
-      <c r="B1009" s="33" t="s">
-        <v>3229</v>
-      </c>
-      <c r="C1009" s="10" t="s">
-        <v>3218</v>
-      </c>
-      <c r="D1009" s="10" t="s">
-        <v>3219</v>
       </c>
       <c r="E1009" s="11" t="s">
         <v>496</v>
@@ -59783,10 +59786,10 @@
         <v>497</v>
       </c>
       <c r="G1009" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1009" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1009" s="19"/>
       <c r="J1009" s="19"/>
@@ -59796,7 +59799,7 @@
       <c r="L1009" s="12"/>
       <c r="M1009" s="12"/>
       <c r="N1009" s="20" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="O1009" s="15" t="s">
         <v>26</v>
@@ -59811,16 +59814,16 @@
     </row>
     <row r="1010" ht="14.25" customHeight="1">
       <c r="A1010" s="32" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="B1010" s="33" t="s">
-        <v>3231</v>
+        <v>3232</v>
       </c>
       <c r="C1010" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1010" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1010" s="11" t="s">
         <v>496</v>
@@ -59829,10 +59832,10 @@
         <v>497</v>
       </c>
       <c r="G1010" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1010" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1010" s="19"/>
       <c r="J1010" s="19"/>
@@ -59842,7 +59845,7 @@
       <c r="L1010" s="12"/>
       <c r="M1010" s="12"/>
       <c r="N1010" s="20" t="s">
-        <v>3232</v>
+        <v>3233</v>
       </c>
       <c r="O1010" s="15" t="s">
         <v>26</v>
@@ -59857,16 +59860,16 @@
     </row>
     <row r="1011" ht="14.25" customHeight="1">
       <c r="A1011" s="32" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="B1011" s="33" t="s">
-        <v>3233</v>
+        <v>3234</v>
       </c>
       <c r="C1011" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1011" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1011" s="11" t="s">
         <v>496</v>
@@ -59875,10 +59878,10 @@
         <v>497</v>
       </c>
       <c r="G1011" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1011" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1011" s="19"/>
       <c r="J1011" s="19"/>
@@ -59888,7 +59891,7 @@
       <c r="L1011" s="12"/>
       <c r="M1011" s="12"/>
       <c r="N1011" s="20" t="s">
-        <v>3234</v>
+        <v>3235</v>
       </c>
       <c r="O1011" s="15" t="s">
         <v>26</v>
@@ -59903,16 +59906,16 @@
     </row>
     <row r="1012" ht="14.25" customHeight="1">
       <c r="A1012" s="32" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="B1012" s="33" t="s">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="C1012" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1012" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1012" s="11" t="s">
         <v>496</v>
@@ -59921,10 +59924,10 @@
         <v>497</v>
       </c>
       <c r="G1012" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1012" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1012" s="19"/>
       <c r="J1012" s="19"/>
@@ -59934,7 +59937,7 @@
       <c r="L1012" s="12"/>
       <c r="M1012" s="12"/>
       <c r="N1012" s="20" t="s">
-        <v>3236</v>
+        <v>3237</v>
       </c>
       <c r="O1012" s="15" t="s">
         <v>26</v>
@@ -59949,16 +59952,16 @@
     </row>
     <row r="1013" ht="14.25" customHeight="1">
       <c r="A1013" s="32" t="s">
-        <v>3237</v>
+        <v>3238</v>
       </c>
       <c r="B1013" s="33" t="s">
-        <v>3238</v>
+        <v>3239</v>
       </c>
       <c r="C1013" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1013" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1013" s="11" t="s">
         <v>496</v>
@@ -59967,10 +59970,10 @@
         <v>497</v>
       </c>
       <c r="G1013" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1013" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1013" s="19"/>
       <c r="J1013" s="19"/>
@@ -59980,7 +59983,7 @@
       <c r="L1013" s="12"/>
       <c r="M1013" s="12"/>
       <c r="N1013" s="20" t="s">
-        <v>3239</v>
+        <v>3240</v>
       </c>
       <c r="O1013" s="15" t="s">
         <v>26</v>
@@ -59995,16 +59998,16 @@
     </row>
     <row r="1014" ht="14.25" customHeight="1">
       <c r="A1014" s="32" t="s">
-        <v>3240</v>
+        <v>3241</v>
       </c>
       <c r="B1014" s="33" t="s">
-        <v>3241</v>
+        <v>3242</v>
       </c>
       <c r="C1014" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1014" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1014" s="11" t="s">
         <v>496</v>
@@ -60013,10 +60016,10 @@
         <v>497</v>
       </c>
       <c r="G1014" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1014" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1014" s="19"/>
       <c r="J1014" s="19"/>
@@ -60026,7 +60029,7 @@
       <c r="L1014" s="12"/>
       <c r="M1014" s="12"/>
       <c r="N1014" s="20" t="s">
-        <v>3242</v>
+        <v>3243</v>
       </c>
       <c r="O1014" s="15" t="s">
         <v>26</v>
@@ -60041,16 +60044,16 @@
     </row>
     <row r="1015" ht="14.25" customHeight="1">
       <c r="A1015" s="32" t="s">
-        <v>3243</v>
+        <v>3244</v>
       </c>
       <c r="B1015" s="33" t="s">
-        <v>3244</v>
+        <v>3245</v>
       </c>
       <c r="C1015" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1015" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1015" s="11" t="s">
         <v>496</v>
@@ -60059,10 +60062,10 @@
         <v>497</v>
       </c>
       <c r="G1015" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1015" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1015" s="19"/>
       <c r="J1015" s="19"/>
@@ -60072,7 +60075,7 @@
       <c r="L1015" s="12"/>
       <c r="M1015" s="12"/>
       <c r="N1015" s="20" t="s">
-        <v>3245</v>
+        <v>3246</v>
       </c>
       <c r="O1015" s="15" t="s">
         <v>26</v>
@@ -60087,16 +60090,16 @@
     </row>
     <row r="1016" ht="14.25" customHeight="1">
       <c r="A1016" s="32" t="s">
-        <v>3246</v>
+        <v>3247</v>
       </c>
       <c r="B1016" s="33" t="s">
-        <v>3247</v>
+        <v>3248</v>
       </c>
       <c r="C1016" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1016" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1016" s="11" t="s">
         <v>496</v>
@@ -60105,10 +60108,10 @@
         <v>497</v>
       </c>
       <c r="G1016" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1016" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1016" s="19"/>
       <c r="J1016" s="19"/>
@@ -60118,7 +60121,7 @@
       <c r="L1016" s="12"/>
       <c r="M1016" s="12"/>
       <c r="N1016" s="20" t="s">
-        <v>3248</v>
+        <v>3249</v>
       </c>
       <c r="O1016" s="15" t="s">
         <v>26</v>
@@ -60133,16 +60136,16 @@
     </row>
     <row r="1017" ht="14.25" customHeight="1">
       <c r="A1017" s="32" t="s">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="B1017" s="33" t="s">
-        <v>3250</v>
+        <v>3251</v>
       </c>
       <c r="C1017" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1017" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1017" s="11" t="s">
         <v>496</v>
@@ -60151,10 +60154,10 @@
         <v>497</v>
       </c>
       <c r="G1017" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1017" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1017" s="19"/>
       <c r="J1017" s="19"/>
@@ -60164,7 +60167,7 @@
       <c r="L1017" s="12"/>
       <c r="M1017" s="12"/>
       <c r="N1017" s="20" t="s">
-        <v>3251</v>
+        <v>3252</v>
       </c>
       <c r="O1017" s="15" t="s">
         <v>26</v>
@@ -60179,16 +60182,16 @@
     </row>
     <row r="1018" ht="14.25" customHeight="1">
       <c r="A1018" s="32" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="B1018" s="33" t="s">
-        <v>3252</v>
+        <v>3253</v>
       </c>
       <c r="C1018" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1018" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1018" s="11" t="s">
         <v>496</v>
@@ -60197,10 +60200,10 @@
         <v>497</v>
       </c>
       <c r="G1018" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1018" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1018" s="19"/>
       <c r="J1018" s="19"/>
@@ -60210,7 +60213,7 @@
       <c r="L1018" s="12"/>
       <c r="M1018" s="12"/>
       <c r="N1018" s="20" t="s">
-        <v>3253</v>
+        <v>3254</v>
       </c>
       <c r="O1018" s="15" t="s">
         <v>26</v>
@@ -60225,16 +60228,16 @@
     </row>
     <row r="1019" ht="14.25" customHeight="1">
       <c r="A1019" s="32" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="B1019" s="33" t="s">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="C1019" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1019" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1019" s="11" t="s">
         <v>496</v>
@@ -60243,10 +60246,10 @@
         <v>497</v>
       </c>
       <c r="G1019" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1019" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1019" s="19"/>
       <c r="J1019" s="19"/>
@@ -60256,7 +60259,7 @@
       <c r="L1019" s="12"/>
       <c r="M1019" s="12"/>
       <c r="N1019" s="20" t="s">
-        <v>3255</v>
+        <v>3256</v>
       </c>
       <c r="O1019" s="15" t="s">
         <v>26</v>
@@ -60271,16 +60274,16 @@
     </row>
     <row r="1020" ht="14.25" customHeight="1">
       <c r="A1020" s="32" t="s">
-        <v>3256</v>
+        <v>3257</v>
       </c>
       <c r="B1020" s="33" t="s">
-        <v>3257</v>
+        <v>3258</v>
       </c>
       <c r="C1020" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1020" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1020" s="11" t="s">
         <v>496</v>
@@ -60289,10 +60292,10 @@
         <v>497</v>
       </c>
       <c r="G1020" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1020" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1020" s="19"/>
       <c r="J1020" s="19"/>
@@ -60302,7 +60305,7 @@
       <c r="L1020" s="12"/>
       <c r="M1020" s="12"/>
       <c r="N1020" s="20" t="s">
-        <v>3258</v>
+        <v>3259</v>
       </c>
       <c r="O1020" s="15" t="s">
         <v>26</v>
@@ -60317,16 +60320,16 @@
     </row>
     <row r="1021" ht="14.25" customHeight="1">
       <c r="A1021" s="32" t="s">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="B1021" s="33" t="s">
-        <v>3260</v>
+        <v>3261</v>
       </c>
       <c r="C1021" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1021" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1021" s="11" t="s">
         <v>496</v>
@@ -60335,10 +60338,10 @@
         <v>497</v>
       </c>
       <c r="G1021" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1021" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1021" s="19"/>
       <c r="J1021" s="19"/>
@@ -60348,7 +60351,7 @@
       <c r="L1021" s="12"/>
       <c r="M1021" s="12"/>
       <c r="N1021" s="20" t="s">
-        <v>3261</v>
+        <v>3262</v>
       </c>
       <c r="O1021" s="15" t="s">
         <v>26</v>
@@ -60363,16 +60366,16 @@
     </row>
     <row r="1022" ht="14.25" customHeight="1">
       <c r="A1022" s="32" t="s">
-        <v>3262</v>
+        <v>3263</v>
       </c>
       <c r="B1022" s="33" t="s">
-        <v>3263</v>
+        <v>3264</v>
       </c>
       <c r="C1022" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1022" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1022" s="11" t="s">
         <v>496</v>
@@ -60381,10 +60384,10 @@
         <v>497</v>
       </c>
       <c r="G1022" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1022" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1022" s="19"/>
       <c r="J1022" s="19"/>
@@ -60394,7 +60397,7 @@
       <c r="L1022" s="12"/>
       <c r="M1022" s="12"/>
       <c r="N1022" s="20" t="s">
-        <v>3264</v>
+        <v>3265</v>
       </c>
       <c r="O1022" s="15" t="s">
         <v>26</v>
@@ -60409,16 +60412,16 @@
     </row>
     <row r="1023" ht="14.25" customHeight="1">
       <c r="A1023" s="32" t="s">
-        <v>3265</v>
+        <v>3266</v>
       </c>
       <c r="B1023" s="33" t="s">
-        <v>3266</v>
+        <v>3267</v>
       </c>
       <c r="C1023" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1023" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1023" s="11" t="s">
         <v>496</v>
@@ -60427,10 +60430,10 @@
         <v>497</v>
       </c>
       <c r="G1023" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1023" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1023" s="19"/>
       <c r="J1023" s="19"/>
@@ -60440,7 +60443,7 @@
       <c r="L1023" s="12"/>
       <c r="M1023" s="12"/>
       <c r="N1023" s="20" t="s">
-        <v>3267</v>
+        <v>3268</v>
       </c>
       <c r="O1023" s="15" t="s">
         <v>26</v>
@@ -60455,16 +60458,16 @@
     </row>
     <row r="1024" ht="14.25" customHeight="1">
       <c r="A1024" s="32" t="s">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="B1024" s="33" t="s">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="C1024" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1024" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1024" s="11" t="s">
         <v>496</v>
@@ -60473,10 +60476,10 @@
         <v>497</v>
       </c>
       <c r="G1024" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1024" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1024" s="19"/>
       <c r="J1024" s="19"/>
@@ -60486,7 +60489,7 @@
       <c r="L1024" s="12"/>
       <c r="M1024" s="12"/>
       <c r="N1024" s="20" t="s">
-        <v>3270</v>
+        <v>3271</v>
       </c>
       <c r="O1024" s="15" t="s">
         <v>26</v>
@@ -60501,16 +60504,16 @@
     </row>
     <row r="1025" ht="14.25" customHeight="1">
       <c r="A1025" s="32" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="B1025" s="33" t="s">
-        <v>3271</v>
+        <v>3272</v>
       </c>
       <c r="C1025" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1025" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1025" s="11" t="s">
         <v>496</v>
@@ -60519,10 +60522,10 @@
         <v>497</v>
       </c>
       <c r="G1025" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1025" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1025" s="19"/>
       <c r="J1025" s="19"/>
@@ -60532,7 +60535,7 @@
       <c r="L1025" s="12"/>
       <c r="M1025" s="12"/>
       <c r="N1025" s="20" t="s">
-        <v>3272</v>
+        <v>3273</v>
       </c>
       <c r="O1025" s="15" t="s">
         <v>26</v>
@@ -60547,16 +60550,16 @@
     </row>
     <row r="1026" ht="14.25" customHeight="1">
       <c r="A1026" s="32" t="s">
-        <v>3273</v>
+        <v>3274</v>
       </c>
       <c r="B1026" s="33" t="s">
-        <v>3274</v>
+        <v>3275</v>
       </c>
       <c r="C1026" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1026" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1026" s="11" t="s">
         <v>496</v>
@@ -60565,10 +60568,10 @@
         <v>497</v>
       </c>
       <c r="G1026" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1026" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1026" s="19"/>
       <c r="J1026" s="19"/>
@@ -60578,7 +60581,7 @@
       <c r="L1026" s="12"/>
       <c r="M1026" s="12"/>
       <c r="N1026" s="20" t="s">
-        <v>3275</v>
+        <v>3276</v>
       </c>
       <c r="O1026" s="15" t="s">
         <v>26</v>
@@ -60593,16 +60596,16 @@
     </row>
     <row r="1027" ht="14.25" customHeight="1">
       <c r="A1027" s="32" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="B1027" s="33" t="s">
-        <v>3276</v>
+        <v>3277</v>
       </c>
       <c r="C1027" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1027" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1027" s="11" t="s">
         <v>496</v>
@@ -60611,10 +60614,10 @@
         <v>497</v>
       </c>
       <c r="G1027" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1027" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1027" s="19"/>
       <c r="J1027" s="19"/>
@@ -60624,7 +60627,7 @@
       <c r="L1027" s="12"/>
       <c r="M1027" s="12"/>
       <c r="N1027" s="20" t="s">
-        <v>3277</v>
+        <v>3278</v>
       </c>
       <c r="O1027" s="15" t="s">
         <v>26</v>
@@ -60639,16 +60642,16 @@
     </row>
     <row r="1028" ht="14.25" customHeight="1">
       <c r="A1028" s="32" t="s">
-        <v>3278</v>
+        <v>3279</v>
       </c>
       <c r="B1028" s="33" t="s">
-        <v>3279</v>
+        <v>3280</v>
       </c>
       <c r="C1028" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1028" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1028" s="11" t="s">
         <v>496</v>
@@ -60657,10 +60660,10 @@
         <v>497</v>
       </c>
       <c r="G1028" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1028" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1028" s="19"/>
       <c r="J1028" s="19"/>
@@ -60670,7 +60673,7 @@
       <c r="L1028" s="12"/>
       <c r="M1028" s="12"/>
       <c r="N1028" s="20" t="s">
-        <v>3280</v>
+        <v>3281</v>
       </c>
       <c r="O1028" s="15" t="s">
         <v>26</v>
@@ -60685,16 +60688,16 @@
     </row>
     <row r="1029" ht="14.25" customHeight="1">
       <c r="A1029" s="32" t="s">
-        <v>3281</v>
+        <v>3282</v>
       </c>
       <c r="B1029" s="33" t="s">
-        <v>3282</v>
+        <v>3283</v>
       </c>
       <c r="C1029" s="10" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="D1029" s="10" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="E1029" s="11" t="s">
         <v>496</v>
@@ -60703,10 +60706,10 @@
         <v>497</v>
       </c>
       <c r="G1029" s="12" t="s">
-        <v>3220</v>
+        <v>3221</v>
       </c>
       <c r="H1029" s="12" t="s">
-        <v>3221</v>
+        <v>3222</v>
       </c>
       <c r="I1029" s="19"/>
       <c r="J1029" s="19"/>
@@ -60716,7 +60719,7 @@
       <c r="L1029" s="12"/>
       <c r="M1029" s="12"/>
       <c r="N1029" s="20" t="s">
-        <v>3283</v>
+        <v>3284</v>
       </c>
       <c r="O1029" s="15" t="s">
         <v>26</v>
@@ -60731,16 +60734,16 @@
     </row>
     <row r="1030" ht="14.25" customHeight="1">
       <c r="A1030" s="32" t="s">
-        <v>3284</v>
+        <v>3285</v>
       </c>
       <c r="B1030" s="33" t="s">
-        <v>3285</v>
+        <v>3286</v>
       </c>
       <c r="C1030" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1030" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1030" s="78" t="s">
         <v>803</v>
@@ -60755,7 +60758,7 @@
         <v>2204</v>
       </c>
       <c r="I1030" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1030" s="45"/>
       <c r="K1030" s="37" t="s">
@@ -60764,7 +60767,7 @@
       <c r="L1030" s="37"/>
       <c r="M1030" s="37"/>
       <c r="N1030" s="58" t="s">
-        <v>3289</v>
+        <v>3290</v>
       </c>
       <c r="O1030" s="41" t="s">
         <v>26</v>
@@ -60781,16 +60784,16 @@
     </row>
     <row r="1031" ht="14.25" customHeight="1">
       <c r="A1031" s="32" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="B1031" s="33" t="s">
-        <v>3290</v>
+        <v>3291</v>
       </c>
       <c r="C1031" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1031" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1031" s="78" t="s">
         <v>803</v>
@@ -60805,7 +60808,7 @@
         <v>2204</v>
       </c>
       <c r="I1031" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1031" s="45"/>
       <c r="K1031" s="37" t="s">
@@ -60814,7 +60817,7 @@
       <c r="L1031" s="37"/>
       <c r="M1031" s="37"/>
       <c r="N1031" s="58" t="s">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="O1031" s="41" t="s">
         <v>26</v>
@@ -60831,16 +60834,16 @@
     </row>
     <row r="1032" ht="14.25" customHeight="1">
       <c r="A1032" s="32" t="s">
-        <v>3292</v>
+        <v>3293</v>
       </c>
       <c r="B1032" s="33" t="s">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="C1032" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1032" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1032" s="78" t="s">
         <v>803</v>
@@ -60855,7 +60858,7 @@
         <v>2204</v>
       </c>
       <c r="I1032" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1032" s="45"/>
       <c r="K1032" s="37" t="s">
@@ -60864,7 +60867,7 @@
       <c r="L1032" s="37"/>
       <c r="M1032" s="37"/>
       <c r="N1032" s="58" t="s">
-        <v>3294</v>
+        <v>3295</v>
       </c>
       <c r="O1032" s="41" t="s">
         <v>26</v>
@@ -60881,16 +60884,16 @@
     </row>
     <row r="1033" ht="14.25" customHeight="1">
       <c r="A1033" s="32" t="s">
-        <v>3295</v>
+        <v>3296</v>
       </c>
       <c r="B1033" s="33" t="s">
-        <v>3296</v>
+        <v>3297</v>
       </c>
       <c r="C1033" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1033" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1033" s="78" t="s">
         <v>803</v>
@@ -60905,7 +60908,7 @@
         <v>2204</v>
       </c>
       <c r="I1033" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1033" s="45"/>
       <c r="K1033" s="37" t="s">
@@ -60914,7 +60917,7 @@
       <c r="L1033" s="37"/>
       <c r="M1033" s="37"/>
       <c r="N1033" s="58" t="s">
-        <v>3297</v>
+        <v>3298</v>
       </c>
       <c r="O1033" s="41" t="s">
         <v>26</v>
@@ -60931,16 +60934,16 @@
     </row>
     <row r="1034" ht="14.25" customHeight="1">
       <c r="A1034" s="32" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="B1034" s="33" t="s">
-        <v>3298</v>
+        <v>3299</v>
       </c>
       <c r="C1034" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1034" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1034" s="78" t="s">
         <v>803</v>
@@ -60955,7 +60958,7 @@
         <v>2204</v>
       </c>
       <c r="I1034" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1034" s="45"/>
       <c r="K1034" s="37" t="s">
@@ -60964,7 +60967,7 @@
       <c r="L1034" s="37"/>
       <c r="M1034" s="37"/>
       <c r="N1034" s="58" t="s">
-        <v>3299</v>
+        <v>3300</v>
       </c>
       <c r="O1034" s="41" t="s">
         <v>26</v>
@@ -60981,16 +60984,16 @@
     </row>
     <row r="1035" ht="14.25" customHeight="1">
       <c r="A1035" s="32" t="s">
-        <v>3300</v>
+        <v>3301</v>
       </c>
       <c r="B1035" s="33" t="s">
-        <v>3301</v>
+        <v>3302</v>
       </c>
       <c r="C1035" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1035" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1035" s="78" t="s">
         <v>803</v>
@@ -61005,7 +61008,7 @@
         <v>2204</v>
       </c>
       <c r="I1035" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1035" s="45"/>
       <c r="K1035" s="37" t="s">
@@ -61014,7 +61017,7 @@
       <c r="L1035" s="37"/>
       <c r="M1035" s="37"/>
       <c r="N1035" s="58" t="s">
-        <v>3302</v>
+        <v>3303</v>
       </c>
       <c r="O1035" s="41" t="s">
         <v>26</v>
@@ -61031,16 +61034,16 @@
     </row>
     <row r="1036" ht="14.25" customHeight="1">
       <c r="A1036" s="32" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="B1036" s="33" t="s">
-        <v>3303</v>
+        <v>3304</v>
       </c>
       <c r="C1036" s="57" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="D1036" s="57" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="E1036" s="78" t="s">
         <v>803</v>
@@ -61055,7 +61058,7 @@
         <v>2204</v>
       </c>
       <c r="I1036" s="44" t="s">
-        <v>3288</v>
+        <v>3289</v>
       </c>
       <c r="J1036" s="45"/>
       <c r="K1036" s="37" t="s">
@@ -61064,7 +61067,7 @@
       <c r="L1036" s="37"/>
       <c r="M1036" s="37"/>
       <c r="N1036" s="58" t="s">
-        <v>3304</v>
+        <v>3305</v>
       </c>
       <c r="O1036" s="41" t="s">
         <v>26</v>
@@ -61081,16 +61084,16 @@
     </row>
     <row r="1037" ht="14.25" customHeight="1">
       <c r="A1037" s="32" t="s">
-        <v>3305</v>
+        <v>3306</v>
       </c>
       <c r="B1037" s="33" t="s">
-        <v>3306</v>
+        <v>3307</v>
       </c>
       <c r="C1037" s="10" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1037" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1037" s="85" t="s">
         <v>803</v>
@@ -61099,10 +61102,10 @@
         <v>804</v>
       </c>
       <c r="G1037" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1037" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1037" s="19"/>
       <c r="J1037" s="19"/>
@@ -61112,7 +61115,7 @@
       <c r="L1037" s="12"/>
       <c r="M1037" s="12"/>
       <c r="N1037" s="20" t="s">
-        <v>3309</v>
+        <v>3310</v>
       </c>
       <c r="O1037" s="15" t="s">
         <v>26</v>
@@ -61127,16 +61130,16 @@
     </row>
     <row r="1038" ht="14.25" customHeight="1">
       <c r="A1038" s="32" t="s">
-        <v>3310</v>
+        <v>3311</v>
       </c>
       <c r="B1038" s="33" t="s">
-        <v>3311</v>
+        <v>3312</v>
       </c>
       <c r="C1038" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1038" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1038" s="85" t="s">
         <v>803</v>
@@ -61145,10 +61148,10 @@
         <v>804</v>
       </c>
       <c r="G1038" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1038" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1038" s="19"/>
       <c r="J1038" s="19"/>
@@ -61158,7 +61161,7 @@
       <c r="L1038" s="12"/>
       <c r="M1038" s="12"/>
       <c r="N1038" s="20" t="s">
-        <v>3312</v>
+        <v>3313</v>
       </c>
       <c r="O1038" s="15" t="s">
         <v>26</v>
@@ -61173,16 +61176,16 @@
     </row>
     <row r="1039" ht="14.25" customHeight="1">
       <c r="A1039" s="32" t="s">
-        <v>3313</v>
+        <v>3314</v>
       </c>
       <c r="B1039" s="33" t="s">
-        <v>3314</v>
+        <v>3315</v>
       </c>
       <c r="C1039" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1039" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1039" s="85" t="s">
         <v>803</v>
@@ -61191,10 +61194,10 @@
         <v>804</v>
       </c>
       <c r="G1039" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1039" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1039" s="19"/>
       <c r="J1039" s="19"/>
@@ -61204,7 +61207,7 @@
       <c r="L1039" s="12"/>
       <c r="M1039" s="12"/>
       <c r="N1039" s="20" t="s">
-        <v>3315</v>
+        <v>3316</v>
       </c>
       <c r="O1039" s="15" t="s">
         <v>26</v>
@@ -61219,16 +61222,16 @@
     </row>
     <row r="1040" ht="14.25" customHeight="1">
       <c r="A1040" s="32" t="s">
-        <v>3316</v>
+        <v>3317</v>
       </c>
       <c r="B1040" s="33" t="s">
-        <v>3317</v>
+        <v>3318</v>
       </c>
       <c r="C1040" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1040" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1040" s="85" t="s">
         <v>803</v>
@@ -61237,10 +61240,10 @@
         <v>804</v>
       </c>
       <c r="G1040" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1040" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1040" s="19"/>
       <c r="J1040" s="19"/>
@@ -61250,7 +61253,7 @@
       <c r="L1040" s="12"/>
       <c r="M1040" s="12"/>
       <c r="N1040" s="20" t="s">
-        <v>3318</v>
+        <v>3319</v>
       </c>
       <c r="O1040" s="15" t="s">
         <v>26</v>
@@ -61265,16 +61268,16 @@
     </row>
     <row r="1041" ht="14.25" customHeight="1">
       <c r="A1041" s="32" t="s">
-        <v>3319</v>
+        <v>3320</v>
       </c>
       <c r="B1041" s="33" t="s">
-        <v>3320</v>
+        <v>3321</v>
       </c>
       <c r="C1041" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1041" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1041" s="85" t="s">
         <v>803</v>
@@ -61283,10 +61286,10 @@
         <v>804</v>
       </c>
       <c r="G1041" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1041" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1041" s="19"/>
       <c r="J1041" s="19"/>
@@ -61296,7 +61299,7 @@
       <c r="L1041" s="12"/>
       <c r="M1041" s="12"/>
       <c r="N1041" s="20" t="s">
-        <v>3321</v>
+        <v>3322</v>
       </c>
       <c r="O1041" s="15" t="s">
         <v>26</v>
@@ -61311,16 +61314,16 @@
     </row>
     <row r="1042" ht="14.25" customHeight="1">
       <c r="A1042" s="32" t="s">
-        <v>3322</v>
+        <v>3323</v>
       </c>
       <c r="B1042" s="33" t="s">
-        <v>3323</v>
+        <v>3324</v>
       </c>
       <c r="C1042" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1042" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1042" s="85" t="s">
         <v>803</v>
@@ -61329,10 +61332,10 @@
         <v>804</v>
       </c>
       <c r="G1042" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1042" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1042" s="19"/>
       <c r="J1042" s="19"/>
@@ -61342,7 +61345,7 @@
       <c r="L1042" s="12"/>
       <c r="M1042" s="12"/>
       <c r="N1042" s="99" t="s">
-        <v>3324</v>
+        <v>3325</v>
       </c>
       <c r="O1042" s="15" t="s">
         <v>26</v>
@@ -61357,16 +61360,16 @@
     </row>
     <row r="1043" ht="14.25" customHeight="1">
       <c r="A1043" s="32" t="s">
-        <v>3325</v>
+        <v>3326</v>
       </c>
       <c r="B1043" s="33" t="s">
         <v>804</v>
       </c>
       <c r="C1043" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1043" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1043" s="85" t="s">
         <v>803</v>
@@ -61375,10 +61378,10 @@
         <v>804</v>
       </c>
       <c r="G1043" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1043" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1043" s="19"/>
       <c r="J1043" s="19"/>
@@ -61388,7 +61391,7 @@
       <c r="L1043" s="12"/>
       <c r="M1043" s="12"/>
       <c r="N1043" s="20" t="s">
-        <v>3326</v>
+        <v>3327</v>
       </c>
       <c r="O1043" s="15" t="s">
         <v>26</v>
@@ -61403,16 +61406,16 @@
     </row>
     <row r="1044" ht="14.25" customHeight="1">
       <c r="A1044" s="32" t="s">
-        <v>3327</v>
+        <v>3328</v>
       </c>
       <c r="B1044" s="33" t="s">
-        <v>3328</v>
+        <v>3329</v>
       </c>
       <c r="C1044" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1044" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1044" s="85" t="s">
         <v>803</v>
@@ -61421,10 +61424,10 @@
         <v>804</v>
       </c>
       <c r="G1044" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1044" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1044" s="19"/>
       <c r="J1044" s="19"/>
@@ -61434,7 +61437,7 @@
       <c r="L1044" s="12"/>
       <c r="M1044" s="12"/>
       <c r="N1044" s="20" t="s">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="O1044" s="15" t="s">
         <v>26</v>
@@ -61449,16 +61452,16 @@
     </row>
     <row r="1045" ht="14.25" customHeight="1">
       <c r="A1045" s="32" t="s">
-        <v>3330</v>
+        <v>3331</v>
       </c>
       <c r="B1045" s="33" t="s">
-        <v>3331</v>
+        <v>3332</v>
       </c>
       <c r="C1045" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1045" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1045" s="85" t="s">
         <v>803</v>
@@ -61467,10 +61470,10 @@
         <v>804</v>
       </c>
       <c r="G1045" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1045" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1045" s="19"/>
       <c r="J1045" s="19"/>
@@ -61480,7 +61483,7 @@
       <c r="L1045" s="12"/>
       <c r="M1045" s="12"/>
       <c r="N1045" s="20" t="s">
-        <v>3332</v>
+        <v>3333</v>
       </c>
       <c r="O1045" s="15" t="s">
         <v>26</v>
@@ -61495,16 +61498,16 @@
     </row>
     <row r="1046" ht="14.25" customHeight="1">
       <c r="A1046" s="32" t="s">
-        <v>3333</v>
+        <v>3334</v>
       </c>
       <c r="B1046" s="33" t="s">
-        <v>3334</v>
+        <v>3335</v>
       </c>
       <c r="C1046" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1046" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1046" s="85" t="s">
         <v>803</v>
@@ -61513,10 +61516,10 @@
         <v>804</v>
       </c>
       <c r="G1046" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1046" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1046" s="19"/>
       <c r="J1046" s="19"/>
@@ -61526,7 +61529,7 @@
       <c r="L1046" s="12"/>
       <c r="M1046" s="12"/>
       <c r="N1046" s="20" t="s">
-        <v>3335</v>
+        <v>3336</v>
       </c>
       <c r="O1046" s="15" t="s">
         <v>26</v>
@@ -61541,16 +61544,16 @@
     </row>
     <row r="1047" ht="14.25" customHeight="1">
       <c r="A1047" s="32" t="s">
-        <v>3336</v>
+        <v>3337</v>
       </c>
       <c r="B1047" s="33" t="s">
-        <v>3337</v>
+        <v>3338</v>
       </c>
       <c r="C1047" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1047" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1047" s="85" t="s">
         <v>803</v>
@@ -61559,10 +61562,10 @@
         <v>804</v>
       </c>
       <c r="G1047" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1047" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1047" s="19"/>
       <c r="J1047" s="19"/>
@@ -61572,7 +61575,7 @@
       <c r="L1047" s="12"/>
       <c r="M1047" s="12"/>
       <c r="N1047" s="20" t="s">
-        <v>3338</v>
+        <v>3339</v>
       </c>
       <c r="O1047" s="15" t="s">
         <v>26</v>
@@ -61587,16 +61590,16 @@
     </row>
     <row r="1048" ht="14.25" customHeight="1">
       <c r="A1048" s="32" t="s">
-        <v>3339</v>
+        <v>3340</v>
       </c>
       <c r="B1048" s="33" t="s">
-        <v>3340</v>
+        <v>3341</v>
       </c>
       <c r="C1048" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1048" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1048" s="85" t="s">
         <v>803</v>
@@ -61605,10 +61608,10 @@
         <v>804</v>
       </c>
       <c r="G1048" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1048" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1048" s="19"/>
       <c r="J1048" s="19"/>
@@ -61618,7 +61621,7 @@
       <c r="L1048" s="12"/>
       <c r="M1048" s="12"/>
       <c r="N1048" s="20" t="s">
-        <v>3341</v>
+        <v>3342</v>
       </c>
       <c r="O1048" s="15" t="s">
         <v>26</v>
@@ -61633,16 +61636,16 @@
     </row>
     <row r="1049" ht="14.25" customHeight="1">
       <c r="A1049" s="32" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="B1049" s="33" t="s">
-        <v>3342</v>
+        <v>3343</v>
       </c>
       <c r="C1049" s="44" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="D1049" s="44" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="E1049" s="85" t="s">
         <v>803</v>
@@ -61651,10 +61654,10 @@
         <v>804</v>
       </c>
       <c r="G1049" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1049" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1049" s="19"/>
       <c r="J1049" s="19"/>
@@ -61664,7 +61667,7 @@
       <c r="L1049" s="12"/>
       <c r="M1049" s="12"/>
       <c r="N1049" s="20" t="s">
-        <v>3343</v>
+        <v>3344</v>
       </c>
       <c r="O1049" s="15" t="s">
         <v>26</v>
@@ -61679,10 +61682,10 @@
     </row>
     <row r="1050" ht="14.25" customHeight="1">
       <c r="A1050" s="32" t="s">
-        <v>3344</v>
+        <v>3345</v>
       </c>
       <c r="B1050" s="33" t="s">
-        <v>3345</v>
+        <v>3346</v>
       </c>
       <c r="C1050" s="44" t="s">
         <v>1040</v>
@@ -61697,10 +61700,10 @@
         <v>804</v>
       </c>
       <c r="G1050" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1050" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1050" s="19"/>
       <c r="J1050" s="19"/>
@@ -61710,7 +61713,7 @@
       <c r="L1050" s="12"/>
       <c r="M1050" s="12"/>
       <c r="N1050" s="20" t="s">
-        <v>3346</v>
+        <v>3347</v>
       </c>
       <c r="O1050" s="15" t="s">
         <v>26</v>
@@ -61725,10 +61728,10 @@
     </row>
     <row r="1051" ht="14.25" customHeight="1">
       <c r="A1051" s="32" t="s">
-        <v>3347</v>
+        <v>3348</v>
       </c>
       <c r="B1051" s="33" t="s">
-        <v>3348</v>
+        <v>3349</v>
       </c>
       <c r="C1051" s="44" t="s">
         <v>1040</v>
@@ -61743,10 +61746,10 @@
         <v>804</v>
       </c>
       <c r="G1051" s="21" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="H1051" s="21" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
       <c r="I1051" s="19"/>
       <c r="J1051" s="19"/>
@@ -61756,7 +61759,7 @@
       <c r="L1051" s="12"/>
       <c r="M1051" s="12"/>
       <c r="N1051" s="20" t="s">
-        <v>3349</v>
+        <v>3350</v>
       </c>
       <c r="O1051" s="15" t="s">
         <v>26</v>
@@ -61771,16 +61774,16 @@
     </row>
     <row r="1052" ht="14.25" customHeight="1">
       <c r="A1052" s="32" t="s">
-        <v>3350</v>
+        <v>3351</v>
       </c>
       <c r="B1052" s="33" t="s">
-        <v>3351</v>
+        <v>3352</v>
       </c>
       <c r="C1052" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1052" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1052" s="84" t="s">
         <v>803</v>
@@ -61789,10 +61792,10 @@
         <v>804</v>
       </c>
       <c r="G1052" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1052" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1052" s="19"/>
       <c r="J1052" s="19"/>
@@ -61802,7 +61805,7 @@
       <c r="L1052" s="92"/>
       <c r="M1052" s="92"/>
       <c r="N1052" s="93" t="s">
-        <v>3354</v>
+        <v>3355</v>
       </c>
       <c r="O1052" s="15" t="s">
         <v>26</v>
@@ -61817,16 +61820,16 @@
     </row>
     <row r="1053" ht="14.25" customHeight="1">
       <c r="A1053" s="32" t="s">
-        <v>3355</v>
+        <v>3356</v>
       </c>
       <c r="B1053" s="33" t="s">
-        <v>3356</v>
+        <v>3357</v>
       </c>
       <c r="C1053" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1053" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1053" s="84" t="s">
         <v>803</v>
@@ -61835,10 +61838,10 @@
         <v>804</v>
       </c>
       <c r="G1053" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1053" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1053" s="19"/>
       <c r="J1053" s="19"/>
@@ -61848,7 +61851,7 @@
       <c r="L1053" s="12"/>
       <c r="M1053" s="12"/>
       <c r="N1053" s="20" t="s">
-        <v>3357</v>
+        <v>3358</v>
       </c>
       <c r="O1053" s="15" t="s">
         <v>26</v>
@@ -61863,16 +61866,16 @@
     </row>
     <row r="1054" ht="14.25" customHeight="1">
       <c r="A1054" s="32" t="s">
-        <v>3358</v>
+        <v>3359</v>
       </c>
       <c r="B1054" s="33" t="s">
-        <v>3359</v>
+        <v>3360</v>
       </c>
       <c r="C1054" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1054" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1054" s="84" t="s">
         <v>803</v>
@@ -61881,10 +61884,10 @@
         <v>804</v>
       </c>
       <c r="G1054" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1054" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1054" s="19"/>
       <c r="J1054" s="19"/>
@@ -61894,7 +61897,7 @@
       <c r="L1054" s="12"/>
       <c r="M1054" s="12"/>
       <c r="N1054" s="20" t="s">
-        <v>3360</v>
+        <v>3361</v>
       </c>
       <c r="O1054" s="15" t="s">
         <v>26</v>
@@ -61909,16 +61912,16 @@
     </row>
     <row r="1055" ht="14.25" customHeight="1">
       <c r="A1055" s="32" t="s">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="B1055" s="33" t="s">
-        <v>3362</v>
+        <v>3363</v>
       </c>
       <c r="C1055" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1055" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1055" s="84" t="s">
         <v>803</v>
@@ -61927,10 +61930,10 @@
         <v>804</v>
       </c>
       <c r="G1055" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1055" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1055" s="19"/>
       <c r="J1055" s="19"/>
@@ -61940,7 +61943,7 @@
       <c r="L1055" s="12"/>
       <c r="M1055" s="12"/>
       <c r="N1055" s="20" t="s">
-        <v>3363</v>
+        <v>3364</v>
       </c>
       <c r="O1055" s="15" t="s">
         <v>26</v>
@@ -61955,16 +61958,16 @@
     </row>
     <row r="1056" ht="14.25" customHeight="1">
       <c r="A1056" s="32" t="s">
-        <v>3364</v>
+        <v>3365</v>
       </c>
       <c r="B1056" s="33" t="s">
-        <v>3365</v>
+        <v>3366</v>
       </c>
       <c r="C1056" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1056" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1056" s="84" t="s">
         <v>803</v>
@@ -61973,10 +61976,10 @@
         <v>804</v>
       </c>
       <c r="G1056" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1056" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1056" s="19"/>
       <c r="J1056" s="19"/>
@@ -61986,7 +61989,7 @@
       <c r="L1056" s="12"/>
       <c r="M1056" s="12"/>
       <c r="N1056" s="20" t="s">
-        <v>3366</v>
+        <v>3367</v>
       </c>
       <c r="O1056" s="15" t="s">
         <v>26</v>
@@ -62001,16 +62004,16 @@
     </row>
     <row r="1057" ht="14.25" customHeight="1">
       <c r="A1057" s="32" t="s">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="B1057" s="33" t="s">
-        <v>3368</v>
+        <v>3369</v>
       </c>
       <c r="C1057" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1057" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1057" s="84" t="s">
         <v>803</v>
@@ -62019,10 +62022,10 @@
         <v>804</v>
       </c>
       <c r="G1057" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1057" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1057" s="19"/>
       <c r="J1057" s="19"/>
@@ -62032,7 +62035,7 @@
       <c r="L1057" s="12"/>
       <c r="M1057" s="12"/>
       <c r="N1057" s="20" t="s">
-        <v>3369</v>
+        <v>3370</v>
       </c>
       <c r="O1057" s="15" t="s">
         <v>26</v>
@@ -62047,16 +62050,16 @@
     </row>
     <row r="1058" ht="14.25" customHeight="1">
       <c r="A1058" s="32" t="s">
-        <v>3370</v>
+        <v>3371</v>
       </c>
       <c r="B1058" s="33" t="s">
-        <v>3371</v>
+        <v>3372</v>
       </c>
       <c r="C1058" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1058" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1058" s="84" t="s">
         <v>803</v>
@@ -62065,10 +62068,10 @@
         <v>804</v>
       </c>
       <c r="G1058" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1058" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1058" s="19"/>
       <c r="J1058" s="19"/>
@@ -62078,7 +62081,7 @@
       <c r="L1058" s="12"/>
       <c r="M1058" s="12"/>
       <c r="N1058" s="20" t="s">
-        <v>3372</v>
+        <v>3373</v>
       </c>
       <c r="O1058" s="15" t="s">
         <v>26</v>
@@ -62093,16 +62096,16 @@
     </row>
     <row r="1059" ht="14.25" customHeight="1">
       <c r="A1059" s="32" t="s">
-        <v>3373</v>
+        <v>3374</v>
       </c>
       <c r="B1059" s="33" t="s">
-        <v>3374</v>
+        <v>3375</v>
       </c>
       <c r="C1059" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1059" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1059" s="84" t="s">
         <v>803</v>
@@ -62111,10 +62114,10 @@
         <v>804</v>
       </c>
       <c r="G1059" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1059" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1059" s="19"/>
       <c r="J1059" s="19"/>
@@ -62124,7 +62127,7 @@
       <c r="L1059" s="12"/>
       <c r="M1059" s="12"/>
       <c r="N1059" s="20" t="s">
-        <v>3375</v>
+        <v>3376</v>
       </c>
       <c r="O1059" s="15" t="s">
         <v>26</v>
@@ -62139,16 +62142,16 @@
     </row>
     <row r="1060" ht="14.25" customHeight="1">
       <c r="A1060" s="32" t="s">
-        <v>3376</v>
+        <v>3377</v>
       </c>
       <c r="B1060" s="33" t="s">
-        <v>3377</v>
+        <v>3378</v>
       </c>
       <c r="C1060" s="34" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="D1060" s="34" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="E1060" s="84" t="s">
         <v>803</v>
@@ -62157,10 +62160,10 @@
         <v>804</v>
       </c>
       <c r="G1060" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1060" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1060" s="19"/>
       <c r="J1060" s="19"/>
@@ -62170,7 +62173,7 @@
       <c r="L1060" s="12"/>
       <c r="M1060" s="12"/>
       <c r="N1060" s="20" t="s">
-        <v>3378</v>
+        <v>3379</v>
       </c>
       <c r="O1060" s="15" t="s">
         <v>26</v>
@@ -62185,16 +62188,16 @@
     </row>
     <row r="1061" ht="14.25" customHeight="1">
       <c r="A1061" s="47" t="s">
-        <v>3379</v>
+        <v>3380</v>
       </c>
       <c r="B1061" s="21" t="s">
-        <v>3380</v>
+        <v>3381</v>
       </c>
       <c r="C1061" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1061" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1061" s="85" t="s">
         <v>1164</v>
@@ -62203,10 +62206,10 @@
         <v>1165</v>
       </c>
       <c r="G1061" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1061" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1061" s="43"/>
       <c r="J1061" s="43"/>
@@ -62216,7 +62219,7 @@
       <c r="L1061" s="21"/>
       <c r="M1061" s="21"/>
       <c r="N1061" s="22" t="s">
-        <v>3385</v>
+        <v>3386</v>
       </c>
       <c r="O1061" s="48" t="s">
         <v>26</v>
@@ -62231,16 +62234,16 @@
     </row>
     <row r="1062" ht="14.25" customHeight="1">
       <c r="A1062" s="47" t="s">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="B1062" s="21" t="s">
-        <v>3387</v>
+        <v>3388</v>
       </c>
       <c r="C1062" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1062" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1062" s="85" t="s">
         <v>1164</v>
@@ -62249,10 +62252,10 @@
         <v>1165</v>
       </c>
       <c r="G1062" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1062" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1062" s="43"/>
       <c r="J1062" s="43"/>
@@ -62262,7 +62265,7 @@
       <c r="L1062" s="21"/>
       <c r="M1062" s="21"/>
       <c r="N1062" s="22" t="s">
-        <v>3388</v>
+        <v>3389</v>
       </c>
       <c r="O1062" s="48" t="s">
         <v>26</v>
@@ -62277,16 +62280,16 @@
     </row>
     <row r="1063" ht="14.25" customHeight="1">
       <c r="A1063" s="47" t="s">
-        <v>3389</v>
+        <v>3390</v>
       </c>
       <c r="B1063" s="21" t="s">
-        <v>3390</v>
+        <v>3391</v>
       </c>
       <c r="C1063" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1063" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1063" s="85" t="s">
         <v>1164</v>
@@ -62295,10 +62298,10 @@
         <v>1165</v>
       </c>
       <c r="G1063" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1063" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1063" s="43"/>
       <c r="J1063" s="43"/>
@@ -62308,7 +62311,7 @@
       <c r="L1063" s="21"/>
       <c r="M1063" s="21"/>
       <c r="N1063" s="22" t="s">
-        <v>3391</v>
+        <v>3392</v>
       </c>
       <c r="O1063" s="48" t="s">
         <v>26</v>
@@ -62323,16 +62326,16 @@
     </row>
     <row r="1064" ht="14.25" customHeight="1">
       <c r="A1064" s="47" t="s">
-        <v>3392</v>
+        <v>3393</v>
       </c>
       <c r="B1064" s="21" t="s">
-        <v>3393</v>
+        <v>3394</v>
       </c>
       <c r="C1064" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1064" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1064" s="85" t="s">
         <v>1164</v>
@@ -62341,10 +62344,10 @@
         <v>1165</v>
       </c>
       <c r="G1064" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1064" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1064" s="43"/>
       <c r="J1064" s="43"/>
@@ -62354,7 +62357,7 @@
       <c r="L1064" s="21"/>
       <c r="M1064" s="21"/>
       <c r="N1064" s="22" t="s">
-        <v>3394</v>
+        <v>3395</v>
       </c>
       <c r="O1064" s="48" t="s">
         <v>26</v>
@@ -62369,16 +62372,16 @@
     </row>
     <row r="1065" ht="14.25" customHeight="1">
       <c r="A1065" s="47" t="s">
-        <v>3395</v>
+        <v>3396</v>
       </c>
       <c r="B1065" s="21" t="s">
-        <v>3396</v>
+        <v>3397</v>
       </c>
       <c r="C1065" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1065" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1065" s="85" t="s">
         <v>1164</v>
@@ -62387,10 +62390,10 @@
         <v>1165</v>
       </c>
       <c r="G1065" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1065" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1065" s="43"/>
       <c r="J1065" s="43"/>
@@ -62400,7 +62403,7 @@
       <c r="L1065" s="21"/>
       <c r="M1065" s="21"/>
       <c r="N1065" s="22" t="s">
-        <v>3397</v>
+        <v>3398</v>
       </c>
       <c r="O1065" s="48" t="s">
         <v>26</v>
@@ -62415,16 +62418,16 @@
     </row>
     <row r="1066" ht="14.25" customHeight="1">
       <c r="A1066" s="47" t="s">
-        <v>3398</v>
+        <v>3399</v>
       </c>
       <c r="B1066" s="21" t="s">
-        <v>3399</v>
+        <v>3400</v>
       </c>
       <c r="C1066" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1066" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1066" s="85" t="s">
         <v>1164</v>
@@ -62433,10 +62436,10 @@
         <v>1165</v>
       </c>
       <c r="G1066" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1066" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1066" s="43"/>
       <c r="J1066" s="43"/>
@@ -62446,7 +62449,7 @@
       <c r="L1066" s="21"/>
       <c r="M1066" s="21"/>
       <c r="N1066" s="22" t="s">
-        <v>3400</v>
+        <v>3401</v>
       </c>
       <c r="O1066" s="48" t="s">
         <v>26</v>
@@ -62461,16 +62464,16 @@
     </row>
     <row r="1067" ht="14.25" customHeight="1">
       <c r="A1067" s="47" t="s">
-        <v>3401</v>
+        <v>3402</v>
       </c>
       <c r="B1067" s="21" t="s">
-        <v>3402</v>
+        <v>3403</v>
       </c>
       <c r="C1067" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1067" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1067" s="85" t="s">
         <v>1164</v>
@@ -62479,10 +62482,10 @@
         <v>1165</v>
       </c>
       <c r="G1067" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1067" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1067" s="43"/>
       <c r="J1067" s="43"/>
@@ -62492,7 +62495,7 @@
       <c r="L1067" s="21"/>
       <c r="M1067" s="21"/>
       <c r="N1067" s="22" t="s">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="O1067" s="48" t="s">
         <v>26</v>
@@ -62507,16 +62510,16 @@
     </row>
     <row r="1068" ht="14.25" customHeight="1">
       <c r="A1068" s="47" t="s">
-        <v>3404</v>
+        <v>3405</v>
       </c>
       <c r="B1068" s="21" t="s">
-        <v>3405</v>
+        <v>3406</v>
       </c>
       <c r="C1068" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1068" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1068" s="85" t="s">
         <v>1164</v>
@@ -62525,10 +62528,10 @@
         <v>1165</v>
       </c>
       <c r="G1068" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1068" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1068" s="43"/>
       <c r="J1068" s="43"/>
@@ -62538,7 +62541,7 @@
       <c r="L1068" s="21"/>
       <c r="M1068" s="21"/>
       <c r="N1068" s="22" t="s">
-        <v>3406</v>
+        <v>3407</v>
       </c>
       <c r="O1068" s="48" t="s">
         <v>26</v>
@@ -62553,16 +62556,16 @@
     </row>
     <row r="1069" ht="14.25" customHeight="1">
       <c r="A1069" s="47" t="s">
-        <v>3407</v>
+        <v>3408</v>
       </c>
       <c r="B1069" s="21" t="s">
-        <v>3408</v>
+        <v>3409</v>
       </c>
       <c r="C1069" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1069" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1069" s="85" t="s">
         <v>1164</v>
@@ -62571,10 +62574,10 @@
         <v>1165</v>
       </c>
       <c r="G1069" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1069" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1069" s="43"/>
       <c r="J1069" s="43"/>
@@ -62584,7 +62587,7 @@
       <c r="L1069" s="21"/>
       <c r="M1069" s="21"/>
       <c r="N1069" s="22" t="s">
-        <v>3409</v>
+        <v>3410</v>
       </c>
       <c r="O1069" s="48" t="s">
         <v>26</v>
@@ -62599,16 +62602,16 @@
     </row>
     <row r="1070" ht="14.25" customHeight="1">
       <c r="A1070" s="47" t="s">
-        <v>3410</v>
+        <v>3411</v>
       </c>
       <c r="B1070" s="21" t="s">
-        <v>3411</v>
+        <v>3412</v>
       </c>
       <c r="C1070" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1070" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1070" s="85" t="s">
         <v>1164</v>
@@ -62617,10 +62620,10 @@
         <v>1165</v>
       </c>
       <c r="G1070" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1070" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1070" s="43"/>
       <c r="J1070" s="43"/>
@@ -62630,7 +62633,7 @@
       <c r="L1070" s="21"/>
       <c r="M1070" s="21"/>
       <c r="N1070" s="22" t="s">
-        <v>3412</v>
+        <v>3413</v>
       </c>
       <c r="O1070" s="48" t="s">
         <v>26</v>
@@ -62645,16 +62648,16 @@
     </row>
     <row r="1071" ht="14.25" customHeight="1">
       <c r="A1071" s="47" t="s">
-        <v>3413</v>
+        <v>3414</v>
       </c>
       <c r="B1071" s="21" t="s">
-        <v>3414</v>
+        <v>3415</v>
       </c>
       <c r="C1071" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1071" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1071" s="85" t="s">
         <v>1164</v>
@@ -62663,10 +62666,10 @@
         <v>1165</v>
       </c>
       <c r="G1071" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1071" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1071" s="43"/>
       <c r="J1071" s="43"/>
@@ -62676,7 +62679,7 @@
       <c r="L1071" s="21"/>
       <c r="M1071" s="21"/>
       <c r="N1071" s="22" t="s">
-        <v>3415</v>
+        <v>3416</v>
       </c>
       <c r="O1071" s="48" t="s">
         <v>26</v>
@@ -62691,16 +62694,16 @@
     </row>
     <row r="1072" ht="14.25" customHeight="1">
       <c r="A1072" s="47" t="s">
-        <v>3416</v>
+        <v>3417</v>
       </c>
       <c r="B1072" s="21" t="s">
-        <v>3417</v>
+        <v>3418</v>
       </c>
       <c r="C1072" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1072" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1072" s="85" t="s">
         <v>1164</v>
@@ -62709,10 +62712,10 @@
         <v>1165</v>
       </c>
       <c r="G1072" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1072" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1072" s="43"/>
       <c r="J1072" s="43"/>
@@ -62722,7 +62725,7 @@
       <c r="L1072" s="21"/>
       <c r="M1072" s="21"/>
       <c r="N1072" s="22" t="s">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="O1072" s="48" t="s">
         <v>26</v>
@@ -62737,16 +62740,16 @@
     </row>
     <row r="1073" ht="14.25" customHeight="1">
       <c r="A1073" s="47" t="s">
-        <v>3419</v>
+        <v>3420</v>
       </c>
       <c r="B1073" s="21" t="s">
-        <v>3420</v>
+        <v>3421</v>
       </c>
       <c r="C1073" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1073" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1073" s="85" t="s">
         <v>1164</v>
@@ -62755,10 +62758,10 @@
         <v>1165</v>
       </c>
       <c r="G1073" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1073" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1073" s="43"/>
       <c r="J1073" s="43"/>
@@ -62768,7 +62771,7 @@
       <c r="L1073" s="21"/>
       <c r="M1073" s="21"/>
       <c r="N1073" s="22" t="s">
-        <v>3421</v>
+        <v>3422</v>
       </c>
       <c r="O1073" s="48" t="s">
         <v>26</v>
@@ -62783,16 +62786,16 @@
     </row>
     <row r="1074" ht="14.25" customHeight="1">
       <c r="A1074" s="47" t="s">
-        <v>3422</v>
+        <v>3423</v>
       </c>
       <c r="B1074" s="21" t="s">
-        <v>3423</v>
+        <v>3424</v>
       </c>
       <c r="C1074" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1074" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1074" s="85" t="s">
         <v>1164</v>
@@ -62801,10 +62804,10 @@
         <v>1165</v>
       </c>
       <c r="G1074" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1074" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1074" s="43"/>
       <c r="J1074" s="43"/>
@@ -62814,7 +62817,7 @@
       <c r="L1074" s="21"/>
       <c r="M1074" s="21"/>
       <c r="N1074" s="22" t="s">
-        <v>3424</v>
+        <v>3425</v>
       </c>
       <c r="O1074" s="48" t="s">
         <v>26</v>
@@ -62829,16 +62832,16 @@
     </row>
     <row r="1075" ht="14.25" customHeight="1">
       <c r="A1075" s="47" t="s">
-        <v>3425</v>
+        <v>3426</v>
       </c>
       <c r="B1075" s="21" t="s">
-        <v>3426</v>
+        <v>3427</v>
       </c>
       <c r="C1075" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1075" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1075" s="85" t="s">
         <v>1164</v>
@@ -62847,10 +62850,10 @@
         <v>1165</v>
       </c>
       <c r="G1075" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1075" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1075" s="43"/>
       <c r="J1075" s="43"/>
@@ -62860,7 +62863,7 @@
       <c r="L1075" s="21"/>
       <c r="M1075" s="21"/>
       <c r="N1075" s="22" t="s">
-        <v>3427</v>
+        <v>3428</v>
       </c>
       <c r="O1075" s="48" t="s">
         <v>26</v>
@@ -62875,16 +62878,16 @@
     </row>
     <row r="1076" ht="14.25" customHeight="1">
       <c r="A1076" s="47" t="s">
-        <v>3428</v>
+        <v>3429</v>
       </c>
       <c r="B1076" s="21" t="s">
-        <v>3429</v>
+        <v>3430</v>
       </c>
       <c r="C1076" s="44" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="D1076" s="44" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="E1076" s="85" t="s">
         <v>1164</v>
@@ -62893,10 +62896,10 @@
         <v>1165</v>
       </c>
       <c r="G1076" s="21" t="s">
-        <v>3383</v>
+        <v>3384</v>
       </c>
       <c r="H1076" s="21" t="s">
-        <v>3384</v>
+        <v>3385</v>
       </c>
       <c r="I1076" s="43"/>
       <c r="J1076" s="43"/>
@@ -62906,7 +62909,7 @@
       <c r="L1076" s="21"/>
       <c r="M1076" s="21"/>
       <c r="N1076" s="22" t="s">
-        <v>3430</v>
+        <v>3431</v>
       </c>
       <c r="O1076" s="48" t="s">
         <v>26</v>
@@ -62921,16 +62924,16 @@
     </row>
     <row r="1077" ht="14.25" customHeight="1">
       <c r="A1077" s="26" t="s">
-        <v>3431</v>
+        <v>3432</v>
       </c>
       <c r="B1077" s="18" t="s">
-        <v>3432</v>
+        <v>3433</v>
       </c>
       <c r="C1077" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1077" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1077" s="11" t="s">
         <v>1308</v>
@@ -62939,10 +62942,10 @@
         <v>1309</v>
       </c>
       <c r="G1077" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1077" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1077" s="19"/>
       <c r="J1077" s="19"/>
@@ -62952,7 +62955,7 @@
       <c r="L1077" s="67"/>
       <c r="M1077" s="67"/>
       <c r="N1077" s="20" t="s">
-        <v>3437</v>
+        <v>3438</v>
       </c>
       <c r="O1077" s="15" t="s">
         <v>26</v>
@@ -62967,16 +62970,16 @@
     </row>
     <row r="1078" ht="14.25" customHeight="1">
       <c r="A1078" s="26" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="B1078" s="18" t="s">
-        <v>3438</v>
+        <v>3439</v>
       </c>
       <c r="C1078" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1078" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1078" s="11" t="s">
         <v>1308</v>
@@ -62985,10 +62988,10 @@
         <v>1309</v>
       </c>
       <c r="G1078" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1078" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1078" s="19"/>
       <c r="J1078" s="19"/>
@@ -62998,7 +63001,7 @@
       <c r="L1078" s="12"/>
       <c r="M1078" s="12"/>
       <c r="N1078" s="20" t="s">
-        <v>3439</v>
+        <v>3440</v>
       </c>
       <c r="O1078" s="15" t="s">
         <v>26</v>
@@ -63013,16 +63016,16 @@
     </row>
     <row r="1079" ht="14.25" customHeight="1">
       <c r="A1079" s="26" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="B1079" s="18" t="s">
-        <v>3440</v>
+        <v>3441</v>
       </c>
       <c r="C1079" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1079" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1079" s="11" t="s">
         <v>1308</v>
@@ -63031,10 +63034,10 @@
         <v>1309</v>
       </c>
       <c r="G1079" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1079" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1079" s="19"/>
       <c r="J1079" s="19"/>
@@ -63044,7 +63047,7 @@
       <c r="L1079" s="12"/>
       <c r="M1079" s="12"/>
       <c r="N1079" s="20" t="s">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="O1079" s="15" t="s">
         <v>26</v>
@@ -63059,16 +63062,16 @@
     </row>
     <row r="1080" ht="14.25" customHeight="1">
       <c r="A1080" s="26" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="B1080" s="18" t="s">
-        <v>3442</v>
+        <v>3443</v>
       </c>
       <c r="C1080" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1080" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1080" s="11" t="s">
         <v>1308</v>
@@ -63077,10 +63080,10 @@
         <v>1309</v>
       </c>
       <c r="G1080" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1080" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1080" s="19"/>
       <c r="J1080" s="19"/>
@@ -63090,7 +63093,7 @@
       <c r="L1080" s="12"/>
       <c r="M1080" s="12"/>
       <c r="N1080" s="20" t="s">
-        <v>3443</v>
+        <v>3444</v>
       </c>
       <c r="O1080" s="15" t="s">
         <v>26</v>
@@ -63105,16 +63108,16 @@
     </row>
     <row r="1081" ht="14.25" customHeight="1">
       <c r="A1081" s="26" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="B1081" s="18" t="s">
-        <v>3444</v>
+        <v>3445</v>
       </c>
       <c r="C1081" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1081" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1081" s="11" t="s">
         <v>1308</v>
@@ -63123,10 +63126,10 @@
         <v>1309</v>
       </c>
       <c r="G1081" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1081" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1081" s="19"/>
       <c r="J1081" s="19"/>
@@ -63136,7 +63139,7 @@
       <c r="L1081" s="12"/>
       <c r="M1081" s="12"/>
       <c r="N1081" s="20" t="s">
-        <v>3445</v>
+        <v>3446</v>
       </c>
       <c r="O1081" s="15" t="s">
         <v>26</v>
@@ -63151,16 +63154,16 @@
     </row>
     <row r="1082" ht="14.25" customHeight="1">
       <c r="A1082" s="26" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="B1082" s="18" t="s">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="C1082" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1082" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1082" s="11" t="s">
         <v>1308</v>
@@ -63169,10 +63172,10 @@
         <v>1309</v>
       </c>
       <c r="G1082" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1082" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1082" s="19"/>
       <c r="J1082" s="19"/>
@@ -63182,7 +63185,7 @@
       <c r="L1082" s="12"/>
       <c r="M1082" s="12"/>
       <c r="N1082" s="20" t="s">
-        <v>3447</v>
+        <v>3448</v>
       </c>
       <c r="O1082" s="15" t="s">
         <v>26</v>
@@ -63197,16 +63200,16 @@
     </row>
     <row r="1083" ht="14.25" customHeight="1">
       <c r="A1083" s="26" t="s">
-        <v>3448</v>
+        <v>3449</v>
       </c>
       <c r="B1083" s="18" t="s">
-        <v>3449</v>
+        <v>3450</v>
       </c>
       <c r="C1083" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1083" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1083" s="11" t="s">
         <v>1308</v>
@@ -63215,10 +63218,10 @@
         <v>1309</v>
       </c>
       <c r="G1083" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1083" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1083" s="19"/>
       <c r="J1083" s="19"/>
@@ -63228,7 +63231,7 @@
       <c r="L1083" s="12"/>
       <c r="M1083" s="12"/>
       <c r="N1083" s="20" t="s">
-        <v>3450</v>
+        <v>3451</v>
       </c>
       <c r="O1083" s="15" t="s">
         <v>26</v>
@@ -63243,16 +63246,16 @@
     </row>
     <row r="1084" ht="14.25" customHeight="1">
       <c r="A1084" s="26" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="B1084" s="18" t="s">
-        <v>3451</v>
+        <v>3452</v>
       </c>
       <c r="C1084" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1084" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1084" s="11" t="s">
         <v>1308</v>
@@ -63261,10 +63264,10 @@
         <v>1309</v>
       </c>
       <c r="G1084" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1084" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1084" s="19"/>
       <c r="J1084" s="19"/>
@@ -63274,7 +63277,7 @@
       <c r="L1084" s="12"/>
       <c r="M1084" s="12"/>
       <c r="N1084" s="20" t="s">
-        <v>3452</v>
+        <v>3453</v>
       </c>
       <c r="O1084" s="15" t="s">
         <v>26</v>
@@ -63289,16 +63292,16 @@
     </row>
     <row r="1085" ht="14.25" customHeight="1">
       <c r="A1085" s="26" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="B1085" s="18" t="s">
-        <v>3453</v>
+        <v>3454</v>
       </c>
       <c r="C1085" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1085" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1085" s="11" t="s">
         <v>1308</v>
@@ -63307,10 +63310,10 @@
         <v>1309</v>
       </c>
       <c r="G1085" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1085" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1085" s="19"/>
       <c r="J1085" s="19"/>
@@ -63320,7 +63323,7 @@
       <c r="L1085" s="12"/>
       <c r="M1085" s="12"/>
       <c r="N1085" s="20" t="s">
-        <v>3454</v>
+        <v>3455</v>
       </c>
       <c r="O1085" s="15" t="s">
         <v>26</v>
@@ -63335,16 +63338,16 @@
     </row>
     <row r="1086" ht="14.25" customHeight="1">
       <c r="A1086" s="26" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="B1086" s="18" t="s">
-        <v>3455</v>
+        <v>3456</v>
       </c>
       <c r="C1086" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1086" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1086" s="11" t="s">
         <v>1308</v>
@@ -63353,10 +63356,10 @@
         <v>1309</v>
       </c>
       <c r="G1086" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1086" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1086" s="19"/>
       <c r="J1086" s="19"/>
@@ -63366,7 +63369,7 @@
       <c r="L1086" s="12"/>
       <c r="M1086" s="12"/>
       <c r="N1086" s="20" t="s">
-        <v>3456</v>
+        <v>3457</v>
       </c>
       <c r="O1086" s="15" t="s">
         <v>26</v>
@@ -63381,16 +63384,16 @@
     </row>
     <row r="1087" ht="14.25" customHeight="1">
       <c r="A1087" s="26" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="B1087" s="18" t="s">
-        <v>3457</v>
+        <v>3458</v>
       </c>
       <c r="C1087" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1087" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1087" s="11" t="s">
         <v>1308</v>
@@ -63399,10 +63402,10 @@
         <v>1309</v>
       </c>
       <c r="G1087" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1087" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1087" s="19"/>
       <c r="J1087" s="19"/>
@@ -63412,7 +63415,7 @@
       <c r="L1087" s="12"/>
       <c r="M1087" s="12"/>
       <c r="N1087" s="20" t="s">
-        <v>3458</v>
+        <v>3459</v>
       </c>
       <c r="O1087" s="15" t="s">
         <v>26</v>
@@ -63427,16 +63430,16 @@
     </row>
     <row r="1088" ht="14.25" customHeight="1">
       <c r="A1088" s="26" t="s">
-        <v>3459</v>
+        <v>3460</v>
       </c>
       <c r="B1088" s="18" t="s">
-        <v>3460</v>
+        <v>3461</v>
       </c>
       <c r="C1088" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1088" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1088" s="11" t="s">
         <v>1308</v>
@@ -63445,10 +63448,10 @@
         <v>1309</v>
       </c>
       <c r="G1088" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1088" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1088" s="19"/>
       <c r="J1088" s="19"/>
@@ -63458,7 +63461,7 @@
       <c r="L1088" s="12"/>
       <c r="M1088" s="12"/>
       <c r="N1088" s="20" t="s">
-        <v>3461</v>
+        <v>3462</v>
       </c>
       <c r="O1088" s="15" t="s">
         <v>26</v>
@@ -63473,16 +63476,16 @@
     </row>
     <row r="1089" ht="14.25" customHeight="1">
       <c r="A1089" s="26" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="B1089" s="18" t="s">
-        <v>3462</v>
+        <v>3463</v>
       </c>
       <c r="C1089" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1089" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1089" s="11" t="s">
         <v>1308</v>
@@ -63491,10 +63494,10 @@
         <v>1309</v>
       </c>
       <c r="G1089" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1089" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1089" s="19"/>
       <c r="J1089" s="19"/>
@@ -63504,7 +63507,7 @@
       <c r="L1089" s="12"/>
       <c r="M1089" s="12"/>
       <c r="N1089" s="20" t="s">
-        <v>3463</v>
+        <v>3464</v>
       </c>
       <c r="O1089" s="15" t="s">
         <v>26</v>
@@ -63519,16 +63522,16 @@
     </row>
     <row r="1090" ht="14.25" customHeight="1">
       <c r="A1090" s="26" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="B1090" s="18" t="s">
-        <v>3464</v>
+        <v>3465</v>
       </c>
       <c r="C1090" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1090" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1090" s="11" t="s">
         <v>1308</v>
@@ -63537,10 +63540,10 @@
         <v>1309</v>
       </c>
       <c r="G1090" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1090" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1090" s="19"/>
       <c r="J1090" s="19"/>
@@ -63550,7 +63553,7 @@
       <c r="L1090" s="12"/>
       <c r="M1090" s="12"/>
       <c r="N1090" s="20" t="s">
-        <v>3465</v>
+        <v>3466</v>
       </c>
       <c r="O1090" s="15" t="s">
         <v>26</v>
@@ -63565,16 +63568,16 @@
     </row>
     <row r="1091" ht="14.25" customHeight="1">
       <c r="A1091" s="26" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="B1091" s="18" t="s">
-        <v>3466</v>
+        <v>3467</v>
       </c>
       <c r="C1091" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1091" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1091" s="11" t="s">
         <v>1308</v>
@@ -63583,10 +63586,10 @@
         <v>1309</v>
       </c>
       <c r="G1091" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1091" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1091" s="19"/>
       <c r="J1091" s="19"/>
@@ -63596,7 +63599,7 @@
       <c r="L1091" s="12"/>
       <c r="M1091" s="12"/>
       <c r="N1091" s="20" t="s">
-        <v>3467</v>
+        <v>3468</v>
       </c>
       <c r="O1091" s="15" t="s">
         <v>26</v>
@@ -63611,16 +63614,16 @@
     </row>
     <row r="1092" ht="14.25" customHeight="1">
       <c r="A1092" s="26" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="B1092" s="18" t="s">
-        <v>3468</v>
+        <v>3469</v>
       </c>
       <c r="C1092" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1092" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1092" s="11" t="s">
         <v>1308</v>
@@ -63629,10 +63632,10 @@
         <v>1309</v>
       </c>
       <c r="G1092" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1092" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1092" s="19"/>
       <c r="J1092" s="19"/>
@@ -63642,7 +63645,7 @@
       <c r="L1092" s="12"/>
       <c r="M1092" s="12"/>
       <c r="N1092" s="20" t="s">
-        <v>3469</v>
+        <v>3470</v>
       </c>
       <c r="O1092" s="15" t="s">
         <v>26</v>
@@ -63657,16 +63660,16 @@
     </row>
     <row r="1093" ht="14.25" customHeight="1">
       <c r="A1093" s="26" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="B1093" s="18" t="s">
-        <v>3470</v>
+        <v>3471</v>
       </c>
       <c r="C1093" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1093" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1093" s="11" t="s">
         <v>1308</v>
@@ -63675,10 +63678,10 @@
         <v>1309</v>
       </c>
       <c r="G1093" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1093" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1093" s="19"/>
       <c r="J1093" s="19"/>
@@ -63688,7 +63691,7 @@
       <c r="L1093" s="12"/>
       <c r="M1093" s="12"/>
       <c r="N1093" s="20" t="s">
-        <v>3471</v>
+        <v>3472</v>
       </c>
       <c r="O1093" s="15" t="s">
         <v>26</v>
@@ -63703,16 +63706,16 @@
     </row>
     <row r="1094" ht="14.25" customHeight="1">
       <c r="A1094" s="8" t="s">
-        <v>3472</v>
+        <v>3473</v>
       </c>
       <c r="B1094" s="9" t="s">
-        <v>3473</v>
+        <v>3474</v>
       </c>
       <c r="C1094" s="10" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="D1094" s="10" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="E1094" s="11" t="s">
         <v>1308</v>
@@ -63721,10 +63724,10 @@
         <v>1309</v>
       </c>
       <c r="G1094" s="12" t="s">
-        <v>3435</v>
+        <v>3436</v>
       </c>
       <c r="H1094" s="12" t="s">
-        <v>3436</v>
+        <v>3437</v>
       </c>
       <c r="I1094" s="19"/>
       <c r="J1094" s="19"/>
@@ -63732,11 +63735,11 @@
         <v>244</v>
       </c>
       <c r="L1094" s="12" t="s">
-        <v>3474</v>
+        <v>3475</v>
       </c>
       <c r="M1094" s="67"/>
       <c r="N1094" s="20" t="s">
-        <v>3475</v>
+        <v>3476</v>
       </c>
       <c r="O1094" s="15" t="s">
         <v>26</v>
@@ -63751,16 +63754,16 @@
     </row>
     <row r="1095" ht="14.25" customHeight="1">
       <c r="A1095" s="95" t="s">
-        <v>3476</v>
+        <v>3477</v>
       </c>
       <c r="B1095" s="21" t="s">
-        <v>3477</v>
+        <v>3478</v>
       </c>
       <c r="C1095" s="86" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="D1095" s="86" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E1095" s="100" t="s">
         <v>1308</v>
@@ -63784,7 +63787,7 @@
       <c r="L1095" s="101"/>
       <c r="M1095" s="101"/>
       <c r="N1095" s="102" t="s">
-        <v>3480</v>
+        <v>3481</v>
       </c>
       <c r="O1095" s="15" t="s">
         <v>26</v>
@@ -63801,16 +63804,16 @@
     </row>
     <row r="1096" ht="14.25" customHeight="1">
       <c r="A1096" s="32" t="s">
-        <v>3481</v>
+        <v>3482</v>
       </c>
       <c r="B1096" s="33" t="s">
-        <v>3482</v>
+        <v>3483</v>
       </c>
       <c r="C1096" s="86" t="s">
-        <v>3478</v>
+        <v>3479</v>
       </c>
       <c r="D1096" s="86" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="E1096" s="84" t="s">
         <v>1308</v>
@@ -63819,10 +63822,10 @@
         <v>1309</v>
       </c>
       <c r="G1096" s="12" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="H1096" s="12" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="I1096" s="44" t="s">
         <v>1360</v>
@@ -63834,7 +63837,7 @@
       <c r="L1096" s="12"/>
       <c r="M1096" s="12"/>
       <c r="N1096" s="20" t="s">
-        <v>3483</v>
+        <v>3484</v>
       </c>
       <c r="O1096" s="15" t="s">
         <v>26</v>
@@ -63849,16 +63852,16 @@
     </row>
     <row r="1097" ht="14.25" customHeight="1">
       <c r="A1097" s="32" t="s">
-        <v>3484</v>
+        <v>3485</v>
       </c>
       <c r="B1097" s="33" t="s">
-        <v>3485</v>
+        <v>3486</v>
       </c>
       <c r="C1097" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1097" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1097" s="85" t="s">
         <v>1308</v>
@@ -63870,7 +63873,7 @@
         <v>1360</v>
       </c>
       <c r="H1097" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1097" s="44"/>
       <c r="J1097" s="44"/>
@@ -63880,7 +63883,7 @@
       <c r="L1097" s="21"/>
       <c r="M1097" s="21"/>
       <c r="N1097" s="22" t="s">
-        <v>3489</v>
+        <v>3490</v>
       </c>
       <c r="O1097" s="15" t="s">
         <v>26</v>
@@ -63895,16 +63898,16 @@
     </row>
     <row r="1098" ht="14.25" customHeight="1">
       <c r="A1098" s="32" t="s">
-        <v>3490</v>
+        <v>3491</v>
       </c>
       <c r="B1098" s="33" t="s">
-        <v>3491</v>
+        <v>3492</v>
       </c>
       <c r="C1098" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1098" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1098" s="85" t="s">
         <v>1308</v>
@@ -63916,7 +63919,7 @@
         <v>1360</v>
       </c>
       <c r="H1098" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1098" s="44"/>
       <c r="J1098" s="44"/>
@@ -63926,7 +63929,7 @@
       <c r="L1098" s="21"/>
       <c r="M1098" s="21"/>
       <c r="N1098" s="22" t="s">
-        <v>3492</v>
+        <v>3493</v>
       </c>
       <c r="O1098" s="15" t="s">
         <v>26</v>
@@ -63941,16 +63944,16 @@
     </row>
     <row r="1099" ht="14.25" customHeight="1">
       <c r="A1099" s="32" t="s">
-        <v>3493</v>
+        <v>3494</v>
       </c>
       <c r="B1099" s="33" t="s">
-        <v>3494</v>
+        <v>3495</v>
       </c>
       <c r="C1099" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1099" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1099" s="85" t="s">
         <v>1308</v>
@@ -63962,7 +63965,7 @@
         <v>1360</v>
       </c>
       <c r="H1099" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1099" s="44"/>
       <c r="J1099" s="44"/>
@@ -63972,7 +63975,7 @@
       <c r="L1099" s="21"/>
       <c r="M1099" s="21"/>
       <c r="N1099" s="22" t="s">
-        <v>3495</v>
+        <v>3496</v>
       </c>
       <c r="O1099" s="15" t="s">
         <v>26</v>
@@ -63987,16 +63990,16 @@
     </row>
     <row r="1100" ht="14.25" customHeight="1">
       <c r="A1100" s="32" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="B1100" s="33" t="s">
-        <v>3496</v>
+        <v>3497</v>
       </c>
       <c r="C1100" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1100" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1100" s="85" t="s">
         <v>1308</v>
@@ -64008,7 +64011,7 @@
         <v>1360</v>
       </c>
       <c r="H1100" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1100" s="44"/>
       <c r="J1100" s="44"/>
@@ -64018,7 +64021,7 @@
       <c r="L1100" s="21"/>
       <c r="M1100" s="21"/>
       <c r="N1100" s="22" t="s">
-        <v>3497</v>
+        <v>3498</v>
       </c>
       <c r="O1100" s="15" t="s">
         <v>26</v>
@@ -64033,16 +64036,16 @@
     </row>
     <row r="1101" ht="14.25" customHeight="1">
       <c r="A1101" s="32" t="s">
-        <v>3498</v>
+        <v>3499</v>
       </c>
       <c r="B1101" s="33" t="s">
-        <v>3499</v>
+        <v>3500</v>
       </c>
       <c r="C1101" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1101" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1101" s="85" t="s">
         <v>1308</v>
@@ -64054,7 +64057,7 @@
         <v>1360</v>
       </c>
       <c r="H1101" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1101" s="44"/>
       <c r="J1101" s="44"/>
@@ -64064,7 +64067,7 @@
       <c r="L1101" s="39"/>
       <c r="M1101" s="39"/>
       <c r="N1101" s="22" t="s">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="O1101" s="15" t="s">
         <v>26</v>
@@ -64079,16 +64082,16 @@
     </row>
     <row r="1102" ht="14.25" customHeight="1">
       <c r="A1102" s="32" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="B1102" s="33" t="s">
-        <v>3501</v>
+        <v>3502</v>
       </c>
       <c r="C1102" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1102" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1102" s="85" t="s">
         <v>1308</v>
@@ -64100,7 +64103,7 @@
         <v>1360</v>
       </c>
       <c r="H1102" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1102" s="44"/>
       <c r="J1102" s="44"/>
@@ -64110,7 +64113,7 @@
       <c r="L1102" s="21"/>
       <c r="M1102" s="21"/>
       <c r="N1102" s="22" t="s">
-        <v>3502</v>
+        <v>3503</v>
       </c>
       <c r="O1102" s="15" t="s">
         <v>26</v>
@@ -64125,16 +64128,16 @@
     </row>
     <row r="1103" ht="14.25" customHeight="1">
       <c r="A1103" s="32" t="s">
-        <v>3503</v>
+        <v>3504</v>
       </c>
       <c r="B1103" s="33" t="s">
-        <v>3504</v>
+        <v>3505</v>
       </c>
       <c r="C1103" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1103" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1103" s="85" t="s">
         <v>1308</v>
@@ -64146,7 +64149,7 @@
         <v>1360</v>
       </c>
       <c r="H1103" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1103" s="44"/>
       <c r="J1103" s="44"/>
@@ -64156,7 +64159,7 @@
       <c r="L1103" s="21"/>
       <c r="M1103" s="21"/>
       <c r="N1103" s="22" t="s">
-        <v>3505</v>
+        <v>3506</v>
       </c>
       <c r="O1103" s="15" t="s">
         <v>26</v>
@@ -64171,16 +64174,16 @@
     </row>
     <row r="1104" ht="14.25" customHeight="1">
       <c r="A1104" s="32" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="B1104" s="33" t="s">
-        <v>3506</v>
+        <v>3507</v>
       </c>
       <c r="C1104" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1104" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1104" s="85" t="s">
         <v>1308</v>
@@ -64192,7 +64195,7 @@
         <v>1360</v>
       </c>
       <c r="H1104" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1104" s="44"/>
       <c r="J1104" s="44"/>
@@ -64202,7 +64205,7 @@
       <c r="L1104" s="21"/>
       <c r="M1104" s="21"/>
       <c r="N1104" s="22" t="s">
-        <v>3507</v>
+        <v>3508</v>
       </c>
       <c r="O1104" s="15" t="s">
         <v>26</v>
@@ -64217,16 +64220,16 @@
     </row>
     <row r="1105" ht="14.25" customHeight="1">
       <c r="A1105" s="32" t="s">
-        <v>3508</v>
+        <v>3509</v>
       </c>
       <c r="B1105" s="33" t="s">
-        <v>3509</v>
+        <v>3510</v>
       </c>
       <c r="C1105" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1105" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1105" s="85" t="s">
         <v>1308</v>
@@ -64238,7 +64241,7 @@
         <v>1360</v>
       </c>
       <c r="H1105" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1105" s="44"/>
       <c r="J1105" s="44"/>
@@ -64248,7 +64251,7 @@
       <c r="L1105" s="21"/>
       <c r="M1105" s="21"/>
       <c r="N1105" s="22" t="s">
-        <v>3510</v>
+        <v>3511</v>
       </c>
       <c r="O1105" s="15" t="s">
         <v>26</v>
@@ -64263,16 +64266,16 @@
     </row>
     <row r="1106" ht="14.25" customHeight="1">
       <c r="A1106" s="32" t="s">
-        <v>3511</v>
+        <v>3512</v>
       </c>
       <c r="B1106" s="33" t="s">
-        <v>3512</v>
+        <v>3513</v>
       </c>
       <c r="C1106" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1106" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1106" s="85" t="s">
         <v>1308</v>
@@ -64284,7 +64287,7 @@
         <v>1360</v>
       </c>
       <c r="H1106" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1106" s="44"/>
       <c r="J1106" s="44"/>
@@ -64294,7 +64297,7 @@
       <c r="L1106" s="21"/>
       <c r="M1106" s="21"/>
       <c r="N1106" s="22" t="s">
-        <v>3513</v>
+        <v>3514</v>
       </c>
       <c r="O1106" s="15" t="s">
         <v>26</v>
@@ -64309,16 +64312,16 @@
     </row>
     <row r="1107" ht="14.25" customHeight="1">
       <c r="A1107" s="32" t="s">
-        <v>3514</v>
+        <v>3515</v>
       </c>
       <c r="B1107" s="33" t="s">
-        <v>3515</v>
+        <v>3516</v>
       </c>
       <c r="C1107" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1107" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1107" s="85" t="s">
         <v>1308</v>
@@ -64330,7 +64333,7 @@
         <v>1360</v>
       </c>
       <c r="H1107" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1107" s="44"/>
       <c r="J1107" s="44"/>
@@ -64340,7 +64343,7 @@
       <c r="L1107" s="21"/>
       <c r="M1107" s="21"/>
       <c r="N1107" s="22" t="s">
-        <v>3516</v>
+        <v>3517</v>
       </c>
       <c r="O1107" s="15" t="s">
         <v>26</v>
@@ -64355,16 +64358,16 @@
     </row>
     <row r="1108" ht="14.25" customHeight="1">
       <c r="A1108" s="32" t="s">
-        <v>3517</v>
+        <v>3518</v>
       </c>
       <c r="B1108" s="33" t="s">
-        <v>3518</v>
+        <v>3519</v>
       </c>
       <c r="C1108" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1108" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1108" s="85" t="s">
         <v>1308</v>
@@ -64376,7 +64379,7 @@
         <v>1360</v>
       </c>
       <c r="H1108" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1108" s="44"/>
       <c r="J1108" s="44"/>
@@ -64386,7 +64389,7 @@
       <c r="L1108" s="21"/>
       <c r="M1108" s="21"/>
       <c r="N1108" s="22" t="s">
-        <v>3519</v>
+        <v>3520</v>
       </c>
       <c r="O1108" s="15" t="s">
         <v>26</v>
@@ -64401,16 +64404,16 @@
     </row>
     <row r="1109" ht="14.25" customHeight="1">
       <c r="A1109" s="32" t="s">
-        <v>3520</v>
+        <v>3521</v>
       </c>
       <c r="B1109" s="33" t="s">
-        <v>3521</v>
+        <v>3522</v>
       </c>
       <c r="C1109" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1109" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1109" s="85" t="s">
         <v>1308</v>
@@ -64422,7 +64425,7 @@
         <v>1360</v>
       </c>
       <c r="H1109" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1109" s="44"/>
       <c r="J1109" s="44"/>
@@ -64432,7 +64435,7 @@
       <c r="L1109" s="21"/>
       <c r="M1109" s="21"/>
       <c r="N1109" s="22" t="s">
-        <v>3522</v>
+        <v>3523</v>
       </c>
       <c r="O1109" s="15" t="s">
         <v>26</v>
@@ -64447,16 +64450,16 @@
     </row>
     <row r="1110" ht="14.25" customHeight="1">
       <c r="A1110" s="32" t="s">
-        <v>3523</v>
+        <v>3524</v>
       </c>
       <c r="B1110" s="33" t="s">
-        <v>3524</v>
+        <v>3525</v>
       </c>
       <c r="C1110" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1110" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1110" s="85" t="s">
         <v>1308</v>
@@ -64468,7 +64471,7 @@
         <v>1360</v>
       </c>
       <c r="H1110" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1110" s="44"/>
       <c r="J1110" s="44"/>
@@ -64478,7 +64481,7 @@
       <c r="L1110" s="21"/>
       <c r="M1110" s="21"/>
       <c r="N1110" s="22" t="s">
-        <v>3525</v>
+        <v>3526</v>
       </c>
       <c r="O1110" s="15" t="s">
         <v>26</v>
@@ -64493,16 +64496,16 @@
     </row>
     <row r="1111" ht="14.25" customHeight="1">
       <c r="A1111" s="32" t="s">
-        <v>3526</v>
+        <v>3527</v>
       </c>
       <c r="B1111" s="33" t="s">
-        <v>3527</v>
+        <v>3528</v>
       </c>
       <c r="C1111" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1111" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1111" s="85" t="s">
         <v>1308</v>
@@ -64514,7 +64517,7 @@
         <v>1360</v>
       </c>
       <c r="H1111" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1111" s="44"/>
       <c r="J1111" s="44"/>
@@ -64524,7 +64527,7 @@
       <c r="L1111" s="21"/>
       <c r="M1111" s="21"/>
       <c r="N1111" s="22" t="s">
-        <v>3528</v>
+        <v>3529</v>
       </c>
       <c r="O1111" s="15" t="s">
         <v>26</v>
@@ -64539,16 +64542,16 @@
     </row>
     <row r="1112" ht="14.25" customHeight="1">
       <c r="A1112" s="32" t="s">
-        <v>3529</v>
+        <v>3530</v>
       </c>
       <c r="B1112" s="33" t="s">
-        <v>3530</v>
+        <v>3531</v>
       </c>
       <c r="C1112" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1112" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1112" s="85" t="s">
         <v>1308</v>
@@ -64560,7 +64563,7 @@
         <v>1360</v>
       </c>
       <c r="H1112" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1112" s="44"/>
       <c r="J1112" s="44"/>
@@ -64570,7 +64573,7 @@
       <c r="L1112" s="21"/>
       <c r="M1112" s="21"/>
       <c r="N1112" s="22" t="s">
-        <v>3531</v>
+        <v>3532</v>
       </c>
       <c r="O1112" s="15" t="s">
         <v>26</v>
@@ -64585,16 +64588,16 @@
     </row>
     <row r="1113" ht="14.25" customHeight="1">
       <c r="A1113" s="32" t="s">
-        <v>3532</v>
+        <v>3533</v>
       </c>
       <c r="B1113" s="33" t="s">
-        <v>3533</v>
+        <v>3534</v>
       </c>
       <c r="C1113" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1113" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1113" s="85" t="s">
         <v>1308</v>
@@ -64606,7 +64609,7 @@
         <v>1360</v>
       </c>
       <c r="H1113" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1113" s="44"/>
       <c r="J1113" s="44"/>
@@ -64616,7 +64619,7 @@
       <c r="L1113" s="21"/>
       <c r="M1113" s="21"/>
       <c r="N1113" s="22" t="s">
-        <v>3534</v>
+        <v>3535</v>
       </c>
       <c r="O1113" s="15" t="s">
         <v>26</v>
@@ -64631,16 +64634,16 @@
     </row>
     <row r="1114" ht="14.25" customHeight="1">
       <c r="A1114" s="32" t="s">
-        <v>3535</v>
+        <v>3536</v>
       </c>
       <c r="B1114" s="33" t="s">
-        <v>3536</v>
+        <v>3537</v>
       </c>
       <c r="C1114" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1114" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1114" s="85" t="s">
         <v>1308</v>
@@ -64652,7 +64655,7 @@
         <v>1360</v>
       </c>
       <c r="H1114" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1114" s="44"/>
       <c r="J1114" s="44"/>
@@ -64662,7 +64665,7 @@
       <c r="L1114" s="21"/>
       <c r="M1114" s="21"/>
       <c r="N1114" s="22" t="s">
-        <v>3537</v>
+        <v>3538</v>
       </c>
       <c r="O1114" s="15" t="s">
         <v>26</v>
@@ -64677,16 +64680,16 @@
     </row>
     <row r="1115" ht="14.25" customHeight="1">
       <c r="A1115" s="32" t="s">
-        <v>3538</v>
+        <v>3539</v>
       </c>
       <c r="B1115" s="33" t="s">
-        <v>3539</v>
+        <v>3540</v>
       </c>
       <c r="C1115" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1115" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1115" s="85" t="s">
         <v>1308</v>
@@ -64698,7 +64701,7 @@
         <v>1360</v>
       </c>
       <c r="H1115" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1115" s="44"/>
       <c r="J1115" s="44"/>
@@ -64708,7 +64711,7 @@
       <c r="L1115" s="21"/>
       <c r="M1115" s="21"/>
       <c r="N1115" s="22" t="s">
-        <v>3540</v>
+        <v>3541</v>
       </c>
       <c r="O1115" s="15" t="s">
         <v>26</v>
@@ -64723,16 +64726,16 @@
     </row>
     <row r="1116" ht="14.25" customHeight="1">
       <c r="A1116" s="32" t="s">
-        <v>3541</v>
+        <v>3542</v>
       </c>
       <c r="B1116" s="33" t="s">
-        <v>3542</v>
+        <v>3543</v>
       </c>
       <c r="C1116" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1116" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1116" s="85" t="s">
         <v>1308</v>
@@ -64744,7 +64747,7 @@
         <v>1360</v>
       </c>
       <c r="H1116" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1116" s="44"/>
       <c r="J1116" s="44"/>
@@ -64754,7 +64757,7 @@
       <c r="L1116" s="21"/>
       <c r="M1116" s="21"/>
       <c r="N1116" s="22" t="s">
-        <v>3543</v>
+        <v>3544</v>
       </c>
       <c r="O1116" s="15" t="s">
         <v>26</v>
@@ -64769,16 +64772,16 @@
     </row>
     <row r="1117" ht="14.25" customHeight="1">
       <c r="A1117" s="32" t="s">
-        <v>3544</v>
+        <v>3545</v>
       </c>
       <c r="B1117" s="33" t="s">
-        <v>3545</v>
+        <v>3546</v>
       </c>
       <c r="C1117" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1117" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1117" s="85" t="s">
         <v>1308</v>
@@ -64790,7 +64793,7 @@
         <v>1360</v>
       </c>
       <c r="H1117" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1117" s="44"/>
       <c r="J1117" s="44"/>
@@ -64800,7 +64803,7 @@
       <c r="L1117" s="21"/>
       <c r="M1117" s="21"/>
       <c r="N1117" s="22" t="s">
-        <v>3546</v>
+        <v>3547</v>
       </c>
       <c r="O1117" s="15" t="s">
         <v>26</v>
@@ -64815,16 +64818,16 @@
     </row>
     <row r="1118" ht="14.25" customHeight="1">
       <c r="A1118" s="32" t="s">
-        <v>3547</v>
+        <v>3548</v>
       </c>
       <c r="B1118" s="33" t="s">
-        <v>3548</v>
+        <v>3549</v>
       </c>
       <c r="C1118" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1118" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1118" s="85" t="s">
         <v>1308</v>
@@ -64836,7 +64839,7 @@
         <v>1360</v>
       </c>
       <c r="H1118" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1118" s="44"/>
       <c r="J1118" s="44"/>
@@ -64846,7 +64849,7 @@
       <c r="L1118" s="21"/>
       <c r="M1118" s="21"/>
       <c r="N1118" s="22" t="s">
-        <v>3549</v>
+        <v>3550</v>
       </c>
       <c r="O1118" s="15" t="s">
         <v>26</v>
@@ -64861,16 +64864,16 @@
     </row>
     <row r="1119" ht="14.25" customHeight="1">
       <c r="A1119" s="32" t="s">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="B1119" s="33" t="s">
-        <v>3551</v>
+        <v>3552</v>
       </c>
       <c r="C1119" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1119" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1119" s="85" t="s">
         <v>1308</v>
@@ -64882,7 +64885,7 @@
         <v>1360</v>
       </c>
       <c r="H1119" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1119" s="44"/>
       <c r="J1119" s="44"/>
@@ -64892,7 +64895,7 @@
       <c r="L1119" s="21"/>
       <c r="M1119" s="21"/>
       <c r="N1119" s="22" t="s">
-        <v>3552</v>
+        <v>3553</v>
       </c>
       <c r="O1119" s="15" t="s">
         <v>26</v>
@@ -64907,16 +64910,16 @@
     </row>
     <row r="1120" ht="14.25" customHeight="1">
       <c r="A1120" s="32" t="s">
-        <v>3553</v>
+        <v>3554</v>
       </c>
       <c r="B1120" s="33" t="s">
-        <v>3554</v>
+        <v>3555</v>
       </c>
       <c r="C1120" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1120" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1120" s="85" t="s">
         <v>1308</v>
@@ -64928,7 +64931,7 @@
         <v>1360</v>
       </c>
       <c r="H1120" s="21" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1120" s="44"/>
       <c r="J1120" s="44"/>
@@ -64938,7 +64941,7 @@
       <c r="L1120" s="21"/>
       <c r="M1120" s="21"/>
       <c r="N1120" s="22" t="s">
-        <v>3555</v>
+        <v>3556</v>
       </c>
       <c r="O1120" s="15" t="s">
         <v>26</v>
@@ -64953,16 +64956,16 @@
     </row>
     <row r="1121" ht="14.25" customHeight="1">
       <c r="A1121" s="32" t="s">
-        <v>3556</v>
+        <v>3557</v>
       </c>
       <c r="B1121" s="33" t="s">
-        <v>3557</v>
+        <v>3558</v>
       </c>
       <c r="C1121" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1121" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1121" s="85" t="s">
         <v>1308</v>
@@ -64974,7 +64977,7 @@
         <v>1360</v>
       </c>
       <c r="H1121" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1121" s="44"/>
       <c r="J1121" s="44"/>
@@ -64984,7 +64987,7 @@
       <c r="L1121" s="21"/>
       <c r="M1121" s="21"/>
       <c r="N1121" s="22" t="s">
-        <v>3558</v>
+        <v>3559</v>
       </c>
       <c r="O1121" s="15" t="s">
         <v>26</v>
@@ -64999,16 +65002,16 @@
     </row>
     <row r="1122" ht="14.25" customHeight="1">
       <c r="A1122" s="32" t="s">
-        <v>3559</v>
+        <v>3560</v>
       </c>
       <c r="B1122" s="33" t="s">
-        <v>3560</v>
+        <v>3561</v>
       </c>
       <c r="C1122" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1122" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1122" s="85" t="s">
         <v>1308</v>
@@ -65020,7 +65023,7 @@
         <v>1360</v>
       </c>
       <c r="H1122" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1122" s="44"/>
       <c r="J1122" s="44"/>
@@ -65030,7 +65033,7 @@
       <c r="L1122" s="21"/>
       <c r="M1122" s="21"/>
       <c r="N1122" s="22" t="s">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="O1122" s="15" t="s">
         <v>26</v>
@@ -65045,16 +65048,16 @@
     </row>
     <row r="1123" ht="14.25" customHeight="1">
       <c r="A1123" s="32" t="s">
-        <v>3562</v>
+        <v>3563</v>
       </c>
       <c r="B1123" s="33" t="s">
-        <v>3563</v>
+        <v>3564</v>
       </c>
       <c r="C1123" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1123" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1123" s="85" t="s">
         <v>1308</v>
@@ -65066,7 +65069,7 @@
         <v>1360</v>
       </c>
       <c r="H1123" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1123" s="44"/>
       <c r="J1123" s="44"/>
@@ -65076,7 +65079,7 @@
       <c r="L1123" s="21"/>
       <c r="M1123" s="21"/>
       <c r="N1123" s="22" t="s">
-        <v>3564</v>
+        <v>3565</v>
       </c>
       <c r="O1123" s="15" t="s">
         <v>26</v>
@@ -65091,16 +65094,16 @@
     </row>
     <row r="1124" ht="14.25" customHeight="1">
       <c r="A1124" s="32" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="B1124" s="33" t="s">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="C1124" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1124" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1124" s="85" t="s">
         <v>1308</v>
@@ -65112,7 +65115,7 @@
         <v>1360</v>
       </c>
       <c r="H1124" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1124" s="44"/>
       <c r="J1124" s="44"/>
@@ -65122,7 +65125,7 @@
       <c r="L1124" s="21"/>
       <c r="M1124" s="21"/>
       <c r="N1124" s="22" t="s">
-        <v>3566</v>
+        <v>3567</v>
       </c>
       <c r="O1124" s="15" t="s">
         <v>26</v>
@@ -65137,16 +65140,16 @@
     </row>
     <row r="1125" ht="14.25" customHeight="1">
       <c r="A1125" s="32" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="B1125" s="33" t="s">
-        <v>3567</v>
+        <v>3568</v>
       </c>
       <c r="C1125" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1125" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1125" s="85" t="s">
         <v>1308</v>
@@ -65158,7 +65161,7 @@
         <v>1360</v>
       </c>
       <c r="H1125" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1125" s="44"/>
       <c r="J1125" s="44"/>
@@ -65168,7 +65171,7 @@
       <c r="L1125" s="21"/>
       <c r="M1125" s="21"/>
       <c r="N1125" s="22" t="s">
-        <v>3568</v>
+        <v>3569</v>
       </c>
       <c r="O1125" s="15" t="s">
         <v>26</v>
@@ -65183,16 +65186,16 @@
     </row>
     <row r="1126" ht="14.25" customHeight="1">
       <c r="A1126" s="8" t="s">
-        <v>3569</v>
+        <v>3570</v>
       </c>
       <c r="B1126" s="9" t="s">
-        <v>3570</v>
+        <v>3571</v>
       </c>
       <c r="C1126" s="44" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="D1126" s="44" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="E1126" s="85" t="s">
         <v>1308</v>
@@ -65204,7 +65207,7 @@
         <v>1360</v>
       </c>
       <c r="H1126" s="103" t="s">
-        <v>3488</v>
+        <v>3489</v>
       </c>
       <c r="I1126" s="44"/>
       <c r="J1126" s="44"/>
@@ -65214,7 +65217,7 @@
       <c r="L1126" s="21"/>
       <c r="M1126" s="21"/>
       <c r="N1126" s="22" t="s">
-        <v>3571</v>
+        <v>3572</v>
       </c>
       <c r="O1126" s="15" t="s">
         <v>26</v>
@@ -74329,23 +74332,23 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{60F6AD86-6230-48B7-89F9-9E6617149A22}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{199F4D83-00EB-425A-9FCB-2F35D56AB40D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$562:$O$572"/>
     </customSheetView>
-    <customSheetView guid="{E3EECED4-128E-4186-BE61-46ADD236376D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E7D7AF22-3E28-47EE-BC15-769D5F51E4EE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$429:$O$462">
         <sortState ref="A429:O462">
           <sortCondition ref="A429:A462"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{32B29D22-A42D-4C40-9DCA-7D555476EE1F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4143C991-DD43-470D-86DF-390EF7A9717E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$533:$O$565"/>
     </customSheetView>
-    <customSheetView guid="{EF4CE5D7-9C60-45E1-81CD-CEC474814ECC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2823007D-354D-44E8-BD81-2B33D2682D21}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$521:$O$531"/>
     </customSheetView>
-    <customSheetView guid="{F7F93CE9-C6C9-48EA-B9FF-F22CAA0FE822}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{067A036A-8E29-43D9-A68E-7D68B39E28FE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$551:$O$565">
         <filterColumn colId="6">
           <filters>
@@ -74357,30 +74360,30 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9CB54CB2-2BAE-48A1-83CB-E734D695BD9D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{071722D3-0201-4B03-A28C-BE452B463F30}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$119:$O$149">
         <sortState ref="A119:O149">
           <sortCondition ref="A119:A149"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{077830ED-2D11-403C-A452-72C47FC5BCA2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{420FE7CC-08A1-4DE4-90E8-D9910AE3E891}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$1126"/>
     </customSheetView>
-    <customSheetView guid="{ED95F5EC-E808-4EE8-94B6-E0E6D6F78F65}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B1DA375D-DD4D-4335-BF9C-6694542D432B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$891:$O$1024"/>
     </customSheetView>
-    <customSheetView guid="{A9BA3192-FAFD-4F99-8190-79CCE2692928}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{08B6A37A-8C69-4570-977C-1A5C224942D8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$O$69"/>
     </customSheetView>
-    <customSheetView guid="{34701B12-3301-4E3A-9A06-3C79238E1BBC}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{281AE35A-A91A-40D0-8E2A-78AC0946BCC2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$O$157">
         <sortState ref="A75:O157">
           <sortCondition ref="A75:A157"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D53A82E4-C627-4DE1-A4E9-D1E3422982E9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2EB76FF1-9BA9-4FF3-A097-139B654E6006}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$O$36">
         <filterColumn colId="6">
           <filters>
@@ -74389,13 +74392,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{78523EAE-EF36-453E-B68F-37CE1AAAC8EA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F610191F-0707-4C51-84DB-755FDDF03466}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$971:$O$994"/>
     </customSheetView>
-    <customSheetView guid="{32831375-F495-4982-8DC4-E102F559932E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EBFCD43E-BAC3-4ED2-A196-BBD970861E08}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$335:$O$346"/>
     </customSheetView>
-    <customSheetView guid="{FE6E6AF8-D1AD-43C2-80DE-C4EDEBA814F4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1ACEAF09-5833-4A11-9C79-55B4687A26CC}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$718:$O$769">
         <filterColumn colId="4">
           <filters>
@@ -74408,35 +74411,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{369A0EFA-2FA8-4CF1-98D7-DA965184D368}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E3A5A191-ACE9-4043-84E7-A301CF0286F1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$770:$O$793"/>
     </customSheetView>
-    <customSheetView guid="{16FB66AC-E19F-472F-8AB8-928875111973}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{249E4230-7F8C-4FD2-823F-17AD3B81C1ED}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1010:$O$1032"/>
     </customSheetView>
-    <customSheetView guid="{29B03EF9-AA5A-4A4A-B271-E458FC5C5D0A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F9D3F2CD-1C7D-419C-AEB1-EB3645E624B7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$710:$O$724"/>
     </customSheetView>
-    <customSheetView guid="{240FB6A8-387D-40AE-9FF9-79C4E2DF7B5E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6ACD004F-3969-4802-8CE1-169BD7AFA8C9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1040:$O$1075"/>
     </customSheetView>
-    <customSheetView guid="{99833668-2B2F-4385-A6A8-FE0C7F114439}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4F854235-7FBE-4597-9214-B60F316920FB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$832:$O$863"/>
     </customSheetView>
-    <customSheetView guid="{FB235AE8-63AA-4728-9E18-ED8466587ED2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6CC5FA8C-441B-4B0A-97FB-262295F12EB1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$775:$O$811">
         <sortState ref="A775:O811">
           <sortCondition ref="A775:A811"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D12AAC5F-328E-4EE7-8FDF-562B928A4481}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{256C9F2A-2374-4F40-980A-57F700D45F9F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$803:$O$874"/>
     </customSheetView>
-    <customSheetView guid="{9CD7B2AF-F5C5-4AA9-A2B8-79EC0910F493}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{350AC014-188D-4172-ADBB-EBAB1655D5A1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$584"/>
     </customSheetView>
-    <customSheetView guid="{B55FB8CA-B9FF-40E2-9BBC-F2A4009275D7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1FA5D62B-DE0F-43E8-B673-6CE15F4B35C8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$728:$O$774">
         <filterColumn colId="6">
           <filters>
@@ -74448,24 +74451,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{DD25F294-B557-481C-9D3C-3108C567EB3C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4663FA90-090E-4936-AB37-1178EE681115}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$H$314">
         <sortState ref="A267:H314">
           <sortCondition ref="A267:A314"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{BC9D5131-C233-4833-963A-5AF9485F38FD}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{81300487-295A-4671-9B95-1BF22BA6B247}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$565:$O$574">
         <sortState ref="A565:O574">
           <sortCondition ref="A565:A574"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{3A307A16-916D-4E53-B85F-20B3FED87A08}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{EE30388F-6776-4F93-B586-2D417B6E8597}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$875:$O$890"/>
     </customSheetView>
-    <customSheetView guid="{D56D830D-F696-4A82-8B24-870F11659318}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BD17DD43-CA76-49D0-9CF0-CA07122E9B10}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$144:$O$266">
         <filterColumn colId="14">
           <filters>
@@ -74477,10 +74480,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{59C04DFE-8E47-40FC-8FD4-AD80EEDA6707}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{55B4DBDC-0A8A-46A0-9467-7669D66615BF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$794:$O$802"/>
     </customSheetView>
-    <customSheetView guid="{D510BFD7-3A9D-4582-A5F2-DF00A558418E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8A718BB0-0EE0-47BF-AABF-A3C3DE4C1368}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1126">
         <filterColumn colId="2">
           <filters>
@@ -74497,7 +74500,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{AA935302-1046-4CA0-8AD2-6473F7C06AE7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{AEDC12DD-BD9B-4F08-BB97-86239AAB52CD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1126">
         <filterColumn colId="16">
           <filters>
@@ -74506,36 +74509,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{2353BA4D-3E7C-40FB-85FF-212A01D5CF8B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B9667913-A8F8-4456-B270-0FF827FABEF9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1126"/>
     </customSheetView>
-    <customSheetView guid="{6AB067BC-025E-45B5-A771-6DE8326635CF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4CE3AF11-0C1A-48EC-9970-97C615C7036F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$O$128"/>
     </customSheetView>
-    <customSheetView guid="{C2E0D3AD-7D3E-491F-B537-D9FF4769C8E7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{78D3B614-EC57-4A20-A6D7-0CE9C96EFA7E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$315:$O$334">
         <sortState ref="A315:O334">
           <sortCondition ref="A315:A334"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{15BF90D7-1AAB-49FD-A533-75BA79BC6316}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4FA7268B-E8BD-4D1D-B77E-1377F8D45A8F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$573:$O$591"/>
     </customSheetView>
-    <customSheetView guid="{E883A2B0-B036-40B7-A883-D972D74A093F}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{0B09B29D-369A-4EB7-ACEE-DEDFD1EB5403}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$625:$O$658"/>
     </customSheetView>
-    <customSheetView guid="{D5538896-5B3F-466F-8F2F-E02BC6903FEE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{521896BA-1DBC-42E1-91D3-64B8B2893B5C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$924:$O$961">
         <sortState ref="A924:O961">
           <sortCondition ref="A924:A961"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F3C8A75B-5B53-48CC-8F85-15A157FDCDC8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{957BDBBF-47EE-4196-ABA1-703719D164B9}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$995:$O$1006"/>
     </customSheetView>
-    <customSheetView guid="{5BF65A77-6079-4801-A6EF-CEF09169B503}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6C8AA44B-5875-493A-971A-C59556BD5576}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$267:$O$314"/>
     </customSheetView>
   </customSheetViews>
@@ -75738,13 +75741,13 @@
     </row>
     <row r="2">
       <c r="A2" s="106" t="s">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="B2" s="106" t="s">
-        <v>3573</v>
+        <v>3574</v>
       </c>
       <c r="C2" s="106" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="3">
@@ -75773,7 +75776,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="6">
@@ -75784,7 +75787,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="7">
@@ -75795,7 +75798,7 @@
         <v>198</v>
       </c>
       <c r="C7" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="8">
@@ -75869,7 +75872,7 @@
         <v>2361</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="16">
@@ -75880,18 +75883,18 @@
         <v>2581</v>
       </c>
       <c r="C16" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="107" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="B17" s="107" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="C17" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="18">
@@ -75902,7 +75905,7 @@
         <v>237</v>
       </c>
       <c r="C18" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="19">
@@ -75913,7 +75916,7 @@
         <v>269</v>
       </c>
       <c r="C19" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="20">
@@ -75924,18 +75927,18 @@
         <v>339</v>
       </c>
       <c r="C20" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="107" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B21" s="107" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C21" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="22">
@@ -75949,19 +75952,19 @@
     </row>
     <row r="23">
       <c r="A23" s="107" t="s">
-        <v>3117</v>
+        <v>3118</v>
       </c>
       <c r="B23" s="107" t="s">
-        <v>3118</v>
+        <v>3119</v>
       </c>
       <c r="C23" s="107"/>
     </row>
     <row r="24">
       <c r="A24" s="108" t="s">
-        <v>3218</v>
+        <v>3219</v>
       </c>
       <c r="B24" s="108" t="s">
-        <v>3219</v>
+        <v>3220</v>
       </c>
       <c r="C24" s="108"/>
     </row>
@@ -76027,7 +76030,7 @@
         <v>802</v>
       </c>
       <c r="C31" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="32">
@@ -76038,18 +76041,18 @@
         <v>869</v>
       </c>
       <c r="C32" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="107" t="s">
-        <v>3286</v>
+        <v>3287</v>
       </c>
       <c r="B33" s="107" t="s">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="C33" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="34">
@@ -76060,18 +76063,18 @@
         <v>929</v>
       </c>
       <c r="C34" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="107" t="s">
-        <v>3307</v>
+        <v>3308</v>
       </c>
       <c r="B35" s="107" t="s">
-        <v>3308</v>
+        <v>3309</v>
       </c>
       <c r="C35" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="36">
@@ -76082,7 +76085,7 @@
         <v>1041</v>
       </c>
       <c r="C36" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="37">
@@ -76093,18 +76096,18 @@
         <v>1142</v>
       </c>
       <c r="C37" s="107" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="108" t="s">
-        <v>3352</v>
+        <v>3353</v>
       </c>
       <c r="B38" s="108" t="s">
-        <v>3353</v>
+        <v>3354</v>
       </c>
       <c r="C38" s="108" t="s">
-        <v>3574</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="39">
@@ -76118,10 +76121,10 @@
     </row>
     <row r="40">
       <c r="A40" s="108" t="s">
-        <v>3381</v>
+        <v>3382</v>
       </c>
       <c r="B40" s="108" t="s">
-        <v>3382</v>
+        <v>3383</v>
       </c>
       <c r="C40" s="108"/>
     </row>
@@ -76154,46 +76157,46 @@
     </row>
     <row r="44">
       <c r="A44" s="108" t="s">
-        <v>3433</v>
+        <v>3434</v>
       </c>
       <c r="B44" s="108" t="s">
-        <v>3434</v>
+        <v>3435</v>
       </c>
       <c r="C44" s="108"/>
     </row>
     <row r="45">
       <c r="A45" s="107" t="s">
-        <v>3575</v>
+        <v>3576</v>
       </c>
       <c r="B45" s="107" t="s">
-        <v>3576</v>
+        <v>3577</v>
       </c>
       <c r="C45" s="107"/>
     </row>
     <row r="46">
       <c r="A46" s="108" t="s">
-        <v>3577</v>
+        <v>3578</v>
       </c>
       <c r="B46" s="108" t="s">
-        <v>3578</v>
+        <v>3579</v>
       </c>
       <c r="C46" s="108"/>
     </row>
     <row r="47">
       <c r="A47" s="107" t="s">
-        <v>3579</v>
+        <v>3580</v>
       </c>
       <c r="B47" s="107" t="s">
-        <v>3580</v>
+        <v>3581</v>
       </c>
       <c r="C47" s="107"/>
     </row>
     <row r="48">
       <c r="A48" s="108" t="s">
-        <v>3486</v>
+        <v>3487</v>
       </c>
       <c r="B48" s="108" t="s">
-        <v>3487</v>
+        <v>3488</v>
       </c>
       <c r="C48" s="108"/>
     </row>

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaine Bujal\Desktop\BIM Excel Signbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA947C8-D6D6-4B8A-9B41-D93FEDDCD545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F86715-4AD8-4883-9CAA-362A75B5F9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15159" uniqueCount="3581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15162" uniqueCount="3581">
   <si>
     <t>Perkataan</t>
   </si>
@@ -12612,10 +12612,10 @@
   <dimension ref="A1:R1581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C889" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K895" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S902" sqref="S902"/>
+      <selection pane="bottomRight" activeCell="Q903" sqref="Q903"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -54885,16 +54885,22 @@
       <c r="I903" s="43"/>
       <c r="J903" s="43"/>
       <c r="K903" s="100" t="s">
-        <v>24</v>
+        <v>244</v>
       </c>
       <c r="L903" s="39"/>
       <c r="M903" s="39"/>
       <c r="N903" s="22" t="s">
         <v>2893</v>
       </c>
-      <c r="O903" s="40"/>
-      <c r="P903" s="16"/>
-      <c r="Q903" s="91"/>
+      <c r="O903" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="P903" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q903" s="91" t="s">
+        <v>1392</v>
+      </c>
       <c r="R903" s="39"/>
     </row>
     <row r="904" spans="1:18" ht="14.25" customHeight="1">

--- a/public/assets/BIM.xlsx
+++ b/public/assets/BIM.xlsx
@@ -7,85 +7,85 @@
     <sheet state="visible" name="Group" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_A20E0281_2D07_44E1_A15A_9BF4EEFCC725_.wvu.FilterData">BIM!$A$996:$O$1007</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF3683B5_F8C1_4676_8875_DFF4E49244D8_.wvu.FilterData">BIM!$A$563:$O$573</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E2E7E9F0_6DBB_4EEB_8F7D_E5BC792CAB98_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_F90FC4F1_4D79_4326_B74A_58DDBD1EE00A_.wvu.FilterData">BIM!$A$534:$O$566</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0A7FB29B_A501_4D6C_8725_BFAA01E072CB_.wvu.FilterData">BIM!$A$120:$O$150</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_33F724DB_E55D_4876_9FE3_E3C1F850924E_.wvu.FilterData">BIM!$A$75:$O$158</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5F030F73_D766_4112_9BFB_02822CA1F7A4_.wvu.FilterData">BIM!$A$804:$O$875</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D31D0E54_2CBC_4F21_A305_8D9E3415E377_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_3F74834D_47B7_42BB_8E8D_E3E04AA742D6_.wvu.FilterData">BIM!$A$145:$O$267</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5CD36889_088A_4FE1_ACB1_2703A52116D7_.wvu.FilterData">BIM!$A$1041:$O$1076</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_00D9435B_3777_4E36_BA85_27A2B8C68286_.wvu.FilterData">BIM!$A$719:$O$770</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E0CA2331_884C_43B6_806E_BEFAC10E4243_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_192247FB_FB11_4E2B_AEDF_46B45F1FD1BE_.wvu.FilterData">BIM!$A$336:$O$347</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C38E51BD_4161_4570_BD5F_2D6C4667431A_.wvu.FilterData">BIM!$A$771:$O$794</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_C14F1927_5DD6_4B0C_BA8E_AABB118DC604_.wvu.FilterData">BIM!$A$1011:$O$1033</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_5D6600A5_353F_4D40_96F9_9DA0C97A2BE2_.wvu.FilterData">BIM!$A$77:$O$129</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_904CED82_111B_4606_8FBE_B7AEB36EABF3_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A3A8BB78_F6E4_48B2_8F0E_7FD8E70AE862_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E3DBA228_63AF_49BA_865F_8CAF1CCFF9E0_.wvu.FilterData">BIM!$A$566:$O$575</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_79D53D04_EF3B_4536_BD5B_37AE15F22DD5_.wvu.FilterData">BIM!$A$776:$O$812</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_AF08CE56_10A1_41B5_A629_98660D93CDBF_.wvu.FilterData">BIM!$A$430:$O$463</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_96E144DE_E01E_454E_A486_C5A103E89625_.wvu.FilterData">BIM!$A$1:$Q$1127</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_49D08935_1F15_4F2A_A72A_6176A98D0C5E_.wvu.FilterData">BIM!$A$876:$O$891</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_28079407_71F3_45F7_B851_2505F128DCFA_.wvu.FilterData">BIM!$A$574:$O$592</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_8FB0DD3F_556A_489F_A2E6_4F4B5111C046_.wvu.FilterData">BIM!$A$552:$O$566</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_672F1D54_48F7_447A_BECD_37319A8CB29D_.wvu.FilterData">BIM!$A$522:$O$532</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_56B3161D_69F7_42C8_9680_28BD309D5607_.wvu.FilterData">BIM!$A$925:$O$962</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_FA1E700D_18AE_4335_B47F_A12FCC8E1220_.wvu.FilterData">BIM!$A$316:$O$335</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_7C81A234_BAE7_40C0_8D74_01BB42F0888C_.wvu.FilterData">BIM!$A$268:$O$315</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_51385F8D_4D3A_4003_BDEB_8EE6EEC7191E_.wvu.FilterData">BIM!$A$626:$O$659</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_A55BA79B_10CF_46B6_BB5E_2894ED2CD78A_.wvu.FilterData">BIM!$A$892:$O$1025</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_447FB09E_42A7_473D_9AC9_7E705616FCE1_.wvu.FilterData">BIM!$A$795:$O$803</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9481296E_68BA_4F5C_BCCD_A8DB9D2569B2_.wvu.FilterData">BIM!$A$972:$O$995</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_9AE25EA8_F472_46EB_A224_311B758FC5A9_.wvu.FilterData">BIM!$A$833:$O$864</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_E74FD813_0BAC_4114_8E35_44ECF406C0DF_.wvu.FilterData">BIM!$A$574:$O$585</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_DF32B07E_CB76_49DC_B175_B8FD1457BD77_.wvu.FilterData">BIM!$A$729:$O$775</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_D85920DF_2BDD_403E_9470_73911BB61354_.wvu.FilterData">BIM!$A$268:$H$315</definedName>
-    <definedName hidden="1" localSheetId="0" name="Z_0E393716_F5EF_49F8_8E19_7F465497811A_.wvu.FilterData">BIM!$A$711:$O$725</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_590CB3D5_79B3_42E4_A691_9F9A9F30CF80_.wvu.FilterData">BIM!$A$626:$O$659</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5F726830_2E89_4ECB_80AD_FCE3A819B909_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_B9FAE1A3_84C0_48D4_86F3_27B0290310E8_.wvu.FilterData">BIM!$A$268:$O$315</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CEAF8D89_8901_46A0_9995_E76185D9B051_.wvu.FilterData">BIM!$A$804:$O$875</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_4962F794_37AE_426A_94B7_6EFF4D61DFE7_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E1AD44D7_17A4_40F7_A83B_20751DC62A07_.wvu.FilterData">BIM!$A$552:$O$566</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_52138AF8_20C3_4CF2_8020_DBBA8D311C73_.wvu.FilterData">BIM!$A$729:$O$775</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_9BB733BE_C004_47EB_8B15_6E78A58CE167_.wvu.FilterData">BIM!$A$925:$O$962</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CB1C652D_28EA_40B5_B616_4D40B77EB7DE_.wvu.FilterData">BIM!$A$1:$Q$1127</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_619B0F4D_5F11_4A79_A468_9E9AF70094BE_.wvu.FilterData">BIM!$A$2:$O$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_D40893D5_F37B_4E2A_A296_BF72F3556B2B_.wvu.FilterData">BIM!$A$771:$O$794</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_2C3FA2C0_328A_410B_80F4_CD3A62DB43DB_.wvu.FilterData">BIM!$A$1:$R$1127</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_E172CFE5_C5F6_496D_B060_428F37C5224D_.wvu.FilterData">BIM!$A$1011:$O$1033</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C5B558FD_607F_4593_9DED_5B507F1AE659_.wvu.FilterData">BIM!$A$892:$O$1025</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_F536759E_3603_4093_8C13_33FB294F176E_.wvu.FilterData">BIM!$A$833:$O$864</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_07A01874_D4BF_4C22_9EE3_2332F23E754F_.wvu.FilterData">BIM!$A$145:$O$267</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DC44F18E_FDC7_4BCD_B3D8_D6C1BFD55E04_.wvu.FilterData">BIM!$A$77:$O$129</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_39A8221B_6CD7_4593_B578_77C22C00743F_.wvu.FilterData">BIM!$A$574:$O$592</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_1DC419F2_ABC9_4934_8E9E_868D7746C613_.wvu.FilterData">BIM!$A$972:$O$995</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_32FEF8B7_352B_4EA1_A59C_3288BFC18E2F_.wvu.FilterData">BIM!$A$574:$O$585</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_61F99F44_018C_4D2A_BB19_9C5A3EB91A54_.wvu.FilterData">BIM!$A$522:$O$532</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_185DA54E_E1C2_4C6F_BFE5_A86331F4D0D2_.wvu.FilterData">BIM!$A$316:$O$335</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_69E4B2E3_E948_4470_A9E1_962A05693F06_.wvu.FilterData">BIM!$A$1041:$O$1076</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_CB8023B0_5EB8_40C9_B450_22AE1004262C_.wvu.FilterData">BIM!$A$996:$O$1007</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_DFA6D1E7_3C70_469D_A18F_23C7A2B65A79_.wvu.FilterData">BIM!$A$336:$O$347</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_90FAD1CC_59EC_4DA8_A875_E4C4A8BB1123_.wvu.FilterData">BIM!$A$876:$O$891</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C14B6AC9_DFE9_4C4F_9611_4466C0AB1431_.wvu.FilterData">BIM!$A$120:$O$150</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_40FA5E1B_C5EB_455F_B203_E0F14D7EBB5E_.wvu.FilterData">BIM!$A$563:$O$573</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_527E461C_D126_495D_AAA5_42FBFFD034FA_.wvu.FilterData">BIM!$A$795:$O$803</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_BA6B6059_F5E0_4174_8CF1_FF6A314AB53A_.wvu.FilterData">BIM!$A$430:$O$463</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_FD3EB3DD_34F1_46DD_9ED6_A2BD0B3B4C99_.wvu.FilterData">BIM!$A$711:$O$725</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_09D651C6_6A50_41FA_9A4A_EE9984196BB7_.wvu.FilterData">BIM!$A$566:$O$575</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_5BCEB546_CE14_4403_9E1D_44E4F254BDA1_.wvu.FilterData">BIM!$A$75:$O$158</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_264B2680_D2AA_4DAF_844C_87FBF86A37AD_.wvu.FilterData">BIM!$A$534:$O$566</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_C5098DDC_EE23_4F19_A2FA_DDF95A44691D_.wvu.FilterData">BIM!$A$719:$O$770</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_160880BC_4B37_439A_A0E7_C50A20AF2455_.wvu.FilterData">BIM!$A$776:$O$812</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_24E94623_F15F_41D3_B20D_8043384811F4_.wvu.FilterData">BIM!$A$37:$O$69</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_8A88C6C7_D735_4354_800C_809B03B02925_.wvu.FilterData">BIM!$A$268:$H$315</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DF32B07E-CB76-49DC-B175-B8FD1457BD77}" name="Pekerjaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C38E51BD-4161-4570-BD5F-2D6C4667431A}" name="Buah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{51385F8D-4D3A-4003-BDEB-8EE6EEC7191E}" name="Pakaian"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0A7FB29B-A501-4D6C-8725-BFAA01E072CB}" name="Makanan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{49D08935-1F15-4F2A-A72A-6176A98D0C5E}" name="Kata Penghubung"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FA1E700D-18AE-4335-B47F-A12FCC8E1220}" name="Budaya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A20E0281-2D07-44E1-A15A-9BF4EEFCC725}" name="Warna"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5F030F73-D766-4112-9BFB-02822CA1F7A4}" name="Kata Kerja"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{28079407-71F3-45F7-B851-2505F128DCFA}" name="Kata Ganti Nama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D85920DF-2BDD-403E-9470-73911BB61354}" name="Haiwan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{447FB09E-42A7-473D-9AC9-7E705616FCE1}" name="Kata Bantu"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{192247FB-FB11-4E2B-AEDF-46B45F1FD1BE}" name="Kata Tanya"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C14F1927-5DD6-4B0C-BA8E-AABB118DC604}" name="Kerajaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5D6600A5-353F-4D40-96F9-9DA0C97A2BE2}" name="Angka"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E3DBA228-63AF-49BA-865F-8CAF1CCFF9E0}" name="Pengangkutan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{33F724DB-E55D-4876-9FE3-E3C1F850924E}" name="Tempat - Bangunan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF08CE56-10A1-41B5-A629-98660D93CDBF}" name="Kesihatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{AF3683B5-F8C1-4676-8875-DFF4E49244D8}" name="Badan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{56B3161D-69F7-42C8-9680-28BD309D5607}" name="Sukan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9481296E-68BA-4F5C-BCCD-A8DB9D2569B2}" name="Ucapan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{00D9435B-3777-4E36-BA85-27A2B8C68286}" name="Masa"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0E393716-F5EF-49F8-8E19-7F465497811A}" name="Arah"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D31D0E54-2CBC-4F21-A305-8D9E3415E377}" name="Alam"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5CD36889-088A-4FE1-ACB1-2703A52116D7}" name="Pertubuhan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E2E7E9F0-6DBB-4EEB-8F7D-E5BC792CAB98}" name="Agama"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E74FD813-0BAC-4114-8E35-44ECF406C0DF}" name="Komunikasi"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A55BA79B-10CF-46B6-BB5E-2894ED2CD78A}" name="Kata Sifat"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E0CA2331-884C-43B6-806E-BEFAC10E4243}" name="Filter 4"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{96E144DE-E01E-454E-A486-C5A103E89625}" name="Filter 2"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8FB0DD3F-556A-489F-A2E6-4F4B5111C046}" name="Negeri"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{904CED82-111B-4606-8FBE-B7AEB36EABF3}" name="Filter 3"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9AE25EA8-F472-46EB-A224-311B758FC5A9}" name="Perasaan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{79D53D04-EF3B-4536-BD5B-37AE15F22DD5}" name="Pendidikan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{A3A8BB78-F6E4-48B2-8F0E-7FD8E70AE862}" name="Filter 1"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{672F1D54-48F7-447A-BECD-37319A8CB29D}" name="Kecacatan"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F90FC4F1-4D79-4326-B74A-58DDBD1EE00A}" name="Keluarga"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3F74834D-47B7-42BB-8E8D-E3E04AA742D6}" name="Benda"/>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7C81A234-BAE7-40C0-8D74-01BB42F0888C}" name="Binatang"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{52138AF8-20C3-4CF2-8020-DBBA8D311C73}" name="Pekerjaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{D40893D5-F37B-4E2A-A296-BF72F3556B2B}" name="Buah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{590CB3D5-79B3-42E4-A691-9F9A9F30CF80}" name="Pakaian"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C14B6AC9-DFE9-4C4F-9611-4466C0AB1431}" name="Makanan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{90FAD1CC-59EC-4DA8-A875-E4C4A8BB1123}" name="Kata Penghubung"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{185DA54E-E1C2-4C6F-BFE5-A86331F4D0D2}" name="Budaya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CB8023B0-5EB8-40C9-B450-22AE1004262C}" name="Warna"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CEAF8D89-8901-46A0-9995-E76185D9B051}" name="Kata Kerja"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{39A8221B-6CD7-4593-B578-77C22C00743F}" name="Kata Ganti Nama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8A88C6C7-D735-4354-800C-809B03B02925}" name="Haiwan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{527E461C-D126-495D-AAA5-42FBFFD034FA}" name="Kata Bantu"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DFA6D1E7-3C70-469D-A18F-23C7A2B65A79}" name="Kata Tanya"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E172CFE5-C5F6-496D-B060-428F37C5224D}" name="Kerajaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DC44F18E-FDC7-4BCD-B3D8-D6C1BFD55E04}" name="Angka"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{09D651C6-6A50-41FA-9A4A-EE9984196BB7}" name="Pengangkutan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5BCEB546-CE14-4403-9E1D-44E4F254BDA1}" name="Tempat - Bangunan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{BA6B6059-F5E0-4174-8CF1-FF6A314AB53A}" name="Kesihatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{40FA5E1B-C5EB-455F-B203-E0F14D7EBB5E}" name="Badan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{9BB733BE-C004-47EB-8B15-6E78A58CE167}" name="Sukan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1DC419F2-ABC9-4934-8E9E-868D7746C613}" name="Ucapan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C5098DDC-EE23-4F19-A2FA-DDF95A44691D}" name="Masa"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{FD3EB3DD-34F1-46DD-9ED6-A2BD0B3B4C99}" name="Arah"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{24E94623-F15F-41D3-B20D-8043384811F4}" name="Alam"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{69E4B2E3-E948-4470-A9E1-962A05693F06}" name="Pertubuhan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{619B0F4D-5F11-4A79-A468-9E9AF70094BE}" name="Agama"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{32FEF8B7-352B-4EA1-A59C-3288BFC18E2F}" name="Komunikasi"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{C5B558FD-607F-4593-9DED-5B507F1AE659}" name="Kata Sifat"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{4962F794-37AE-426A-94B7-6EFF4D61DFE7}" name="Filter 4"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{CB1C652D-28EA-40B5-B616-4D40B77EB7DE}" name="Filter 2"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{E1AD44D7-17A4-40F7-A83B-20751DC62A07}" name="Negeri"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2C3FA2C0-328A-410B-80F4-CD3A62DB43DB}" name="Filter 3"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F536759E-3603-4093-8C13-33FB294F176E}" name="Perasaan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{160880BC-4B37-439A-A0E7-C50A20AF2455}" name="Pendidikan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{5F726830-2E89-4ECB-80AD-FCE3A819B909}" name="Filter 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{61F99F44-018C-4D2A-BB19-9C5A3EB91A54}" name="Kecacatan"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{264B2680-D2AA-4DAF-844C-87FBF86A37AD}" name="Keluarga"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{07A01874-D4BF-4C22-9EE3-2332F23E754F}" name="Benda"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{B9FAE1A3-84C0-48D4-86F3-27B0290310E8}" name="Binatang"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -6393,7 +6393,7 @@
     <t>Penyapu</t>
   </si>
   <si>
-    <t>sweeper</t>
+    <t>Broom</t>
   </si>
   <si>
     <t>https://youtu.be/ACLnUG1FqSI</t>
@@ -6672,7 +6672,7 @@
     <t>Televisyen</t>
   </si>
   <si>
-    <t>Televison</t>
+    <t>Television</t>
   </si>
   <si>
     <t>https://youtu.be/mL-qADCqqJc</t>
@@ -11707,7 +11707,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -11916,13 +11916,16 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -11991,7 +11994,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -12275,10 +12278,16 @@
     <xf borderId="0" fillId="0" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="41" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -12290,13 +12299,10 @@
     <xf borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="43" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="44" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="42" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="44" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="45" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="22" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -12305,7 +12311,7 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="45" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="46" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -38775,7 +38781,7 @@
       <c r="A556" s="8" t="s">
         <v>1846</v>
       </c>
-      <c r="B556" s="18" t="s">
+      <c r="B556" s="95" t="s">
         <v>1847</v>
       </c>
       <c r="C556" s="10" t="s">
@@ -39708,7 +39714,7 @@
       <c r="N574" s="20" t="s">
         <v>1901</v>
       </c>
-      <c r="O574" s="95" t="s">
+      <c r="O574" s="96" t="s">
         <v>26</v>
       </c>
       <c r="P574" s="16" t="s">
@@ -40285,7 +40291,7 @@
       <c r="A587" s="32" t="s">
         <v>1939</v>
       </c>
-      <c r="B587" s="33" t="s">
+      <c r="B587" s="97" t="s">
         <v>1940</v>
       </c>
       <c r="C587" s="43" t="s">
@@ -42214,7 +42220,7 @@
       <c r="R628" s="18"/>
     </row>
     <row r="629">
-      <c r="A629" s="96" t="s">
+      <c r="A629" s="98" t="s">
         <v>2063</v>
       </c>
       <c r="B629" s="21" t="s">
@@ -42226,10 +42232,10 @@
       <c r="D629" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="E629" s="97" t="s">
+      <c r="E629" s="99" t="s">
         <v>1685</v>
       </c>
-      <c r="F629" s="97" t="s">
+      <c r="F629" s="99" t="s">
         <v>1686</v>
       </c>
       <c r="G629" s="12" t="s">
@@ -42536,7 +42542,7 @@
       <c r="R635" s="18"/>
     </row>
     <row r="636">
-      <c r="A636" s="96" t="s">
+      <c r="A636" s="98" t="s">
         <v>2045</v>
       </c>
       <c r="B636" s="21" t="s">
@@ -42548,10 +42554,10 @@
       <c r="D636" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="E636" s="97" t="s">
+      <c r="E636" s="99" t="s">
         <v>1685</v>
       </c>
-      <c r="F636" s="97" t="s">
+      <c r="F636" s="99" t="s">
         <v>1686</v>
       </c>
       <c r="G636" s="12" t="s">
@@ -42582,7 +42588,7 @@
       <c r="R636" s="38"/>
     </row>
     <row r="637">
-      <c r="A637" s="96" t="s">
+      <c r="A637" s="98" t="s">
         <v>2084</v>
       </c>
       <c r="B637" s="21" t="s">
@@ -42594,10 +42600,10 @@
       <c r="D637" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="E637" s="97" t="s">
+      <c r="E637" s="99" t="s">
         <v>1685</v>
       </c>
-      <c r="F637" s="97" t="s">
+      <c r="F637" s="99" t="s">
         <v>1686</v>
       </c>
       <c r="G637" s="12" t="s">
@@ -42628,7 +42634,7 @@
       <c r="R637" s="38"/>
     </row>
     <row r="638">
-      <c r="A638" s="96" t="s">
+      <c r="A638" s="98" t="s">
         <v>2087</v>
       </c>
       <c r="B638" s="21" t="s">
@@ -42640,10 +42646,10 @@
       <c r="D638" s="10" t="s">
         <v>2044</v>
       </c>
-      <c r="E638" s="97" t="s">
+      <c r="E638" s="99" t="s">
         <v>1685</v>
       </c>
-      <c r="F638" s="97" t="s">
+      <c r="F638" s="99" t="s">
         <v>1686</v>
       </c>
       <c r="G638" s="12" t="s">
@@ -48983,7 +48989,7 @@
       <c r="A775" s="50" t="s">
         <v>2505</v>
       </c>
-      <c r="B775" s="98" t="s">
+      <c r="B775" s="100" t="s">
         <v>2506</v>
       </c>
       <c r="C775" s="34" t="s">
@@ -51125,7 +51131,7 @@
       <c r="K821" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L821" s="99"/>
+      <c r="L821" s="101"/>
       <c r="M821" s="21"/>
       <c r="N821" s="22" t="s">
         <v>2648</v>
@@ -54937,7 +54943,7 @@
       </c>
       <c r="L904" s="21"/>
       <c r="M904" s="21"/>
-      <c r="N904" s="100" t="s">
+      <c r="N904" s="102" t="s">
         <v>2897</v>
       </c>
       <c r="O904" s="15" t="s">
@@ -55921,7 +55927,7 @@
       <c r="A926" s="32" t="s">
         <v>2960</v>
       </c>
-      <c r="B926" s="101" t="s">
+      <c r="B926" s="97" t="s">
         <v>2961</v>
       </c>
       <c r="C926" s="34" t="s">
@@ -58228,7 +58234,7 @@
       <c r="R975" s="18"/>
     </row>
     <row r="976" ht="14.25" customHeight="1">
-      <c r="A976" s="96" t="s">
+      <c r="A976" s="98" t="s">
         <v>3120</v>
       </c>
       <c r="B976" s="21" t="s">
@@ -58324,7 +58330,7 @@
       <c r="R977" s="18"/>
     </row>
     <row r="978" ht="14.25" customHeight="1">
-      <c r="A978" s="96" t="s">
+      <c r="A978" s="98" t="s">
         <v>3131</v>
       </c>
       <c r="B978" s="21" t="s">
@@ -58466,7 +58472,7 @@
       <c r="R980" s="18"/>
     </row>
     <row r="981" ht="14.25" customHeight="1">
-      <c r="A981" s="96" t="s">
+      <c r="A981" s="98" t="s">
         <v>3140</v>
       </c>
       <c r="B981" s="21" t="s">
@@ -58514,7 +58520,7 @@
       <c r="R981" s="38"/>
     </row>
     <row r="982" ht="14.25" customHeight="1">
-      <c r="A982" s="96" t="s">
+      <c r="A982" s="98" t="s">
         <v>3143</v>
       </c>
       <c r="B982" s="21" t="s">
@@ -58562,7 +58568,7 @@
       <c r="R982" s="38"/>
     </row>
     <row r="983" ht="14.25" customHeight="1">
-      <c r="A983" s="96" t="s">
+      <c r="A983" s="98" t="s">
         <v>3146</v>
       </c>
       <c r="B983" s="21" t="s">
@@ -58608,7 +58614,7 @@
       <c r="R983" s="38"/>
     </row>
     <row r="984" ht="14.25" customHeight="1">
-      <c r="A984" s="96" t="s">
+      <c r="A984" s="98" t="s">
         <v>3149</v>
       </c>
       <c r="B984" s="21" t="s">
@@ -58704,7 +58710,7 @@
       <c r="R985" s="18"/>
     </row>
     <row r="986" ht="14.25" customHeight="1">
-      <c r="A986" s="96" t="s">
+      <c r="A986" s="98" t="s">
         <v>3155</v>
       </c>
       <c r="B986" s="21" t="s">
@@ -58750,7 +58756,7 @@
       <c r="R986" s="38"/>
     </row>
     <row r="987" ht="14.25" customHeight="1">
-      <c r="A987" s="96" t="s">
+      <c r="A987" s="98" t="s">
         <v>3158</v>
       </c>
       <c r="B987" s="21" t="s">
@@ -58892,7 +58898,7 @@
       <c r="R989" s="18"/>
     </row>
     <row r="990" ht="14.25" customHeight="1">
-      <c r="A990" s="96" t="s">
+      <c r="A990" s="98" t="s">
         <v>3167</v>
       </c>
       <c r="B990" s="21" t="s">
@@ -58938,7 +58944,7 @@
       <c r="R990" s="38"/>
     </row>
     <row r="991" ht="14.25" customHeight="1">
-      <c r="A991" s="96" t="s">
+      <c r="A991" s="98" t="s">
         <v>3170</v>
       </c>
       <c r="B991" s="21" t="s">
@@ -58986,7 +58992,7 @@
       <c r="R991" s="38"/>
     </row>
     <row r="992" ht="14.25" customHeight="1">
-      <c r="A992" s="96" t="s">
+      <c r="A992" s="98" t="s">
         <v>3173</v>
       </c>
       <c r="B992" s="21" t="s">
@@ -59082,7 +59088,7 @@
       <c r="R993" s="18"/>
     </row>
     <row r="994" ht="14.25" customHeight="1">
-      <c r="A994" s="96" t="s">
+      <c r="A994" s="98" t="s">
         <v>3179</v>
       </c>
       <c r="B994" s="21" t="s">
@@ -59130,7 +59136,7 @@
       <c r="R994" s="38"/>
     </row>
     <row r="995" ht="14.25" customHeight="1">
-      <c r="A995" s="96" t="s">
+      <c r="A995" s="98" t="s">
         <v>3182</v>
       </c>
       <c r="B995" s="21" t="s">
@@ -59178,7 +59184,7 @@
       <c r="R995" s="38"/>
     </row>
     <row r="996" ht="14.25" customHeight="1">
-      <c r="A996" s="96" t="s">
+      <c r="A996" s="98" t="s">
         <v>3185</v>
       </c>
       <c r="B996" s="21" t="s">
@@ -59226,7 +59232,7 @@
       <c r="R996" s="38"/>
     </row>
     <row r="997" ht="14.25" customHeight="1">
-      <c r="A997" s="96" t="s">
+      <c r="A997" s="98" t="s">
         <v>3188</v>
       </c>
       <c r="B997" s="21" t="s">
@@ -59414,7 +59420,7 @@
       <c r="R1000" s="18"/>
     </row>
     <row r="1001" ht="14.25" customHeight="1">
-      <c r="A1001" s="96" t="s">
+      <c r="A1001" s="98" t="s">
         <v>3200</v>
       </c>
       <c r="B1001" s="21" t="s">
@@ -59462,7 +59468,7 @@
       <c r="R1001" s="38"/>
     </row>
     <row r="1002" ht="14.25" customHeight="1">
-      <c r="A1002" s="96" t="s">
+      <c r="A1002" s="98" t="s">
         <v>3202</v>
       </c>
       <c r="B1002" s="21" t="s">
@@ -59508,7 +59514,7 @@
       <c r="R1002" s="38"/>
     </row>
     <row r="1003" ht="14.25" customHeight="1">
-      <c r="A1003" s="96" t="s">
+      <c r="A1003" s="98" t="s">
         <v>3204</v>
       </c>
       <c r="B1003" s="21" t="s">
@@ -59556,7 +59562,7 @@
       <c r="R1003" s="38"/>
     </row>
     <row r="1004" ht="14.25" customHeight="1">
-      <c r="A1004" s="96" t="s">
+      <c r="A1004" s="98" t="s">
         <v>3210</v>
       </c>
       <c r="B1004" s="21" t="s">
@@ -59604,7 +59610,7 @@
       <c r="R1004" s="18"/>
     </row>
     <row r="1005" ht="14.25" customHeight="1">
-      <c r="A1005" s="96" t="s">
+      <c r="A1005" s="98" t="s">
         <v>3213</v>
       </c>
       <c r="B1005" s="21" t="s">
@@ -59652,7 +59658,7 @@
       <c r="R1005" s="38"/>
     </row>
     <row r="1006" ht="14.25" customHeight="1">
-      <c r="A1006" s="96" t="s">
+      <c r="A1006" s="98" t="s">
         <v>3218</v>
       </c>
       <c r="B1006" s="21" t="s">
@@ -61415,7 +61421,7 @@
       </c>
       <c r="L1043" s="12"/>
       <c r="M1043" s="12"/>
-      <c r="N1043" s="102" t="s">
+      <c r="N1043" s="103" t="s">
         <v>3329</v>
       </c>
       <c r="O1043" s="15" t="s">
@@ -63824,7 +63830,7 @@
       <c r="R1095" s="9"/>
     </row>
     <row r="1096" ht="14.25" customHeight="1">
-      <c r="A1096" s="96" t="s">
+      <c r="A1096" s="98" t="s">
         <v>3481</v>
       </c>
       <c r="B1096" s="21" t="s">
@@ -63836,10 +63842,10 @@
       <c r="D1096" s="87" t="s">
         <v>3484</v>
       </c>
-      <c r="E1096" s="103" t="s">
+      <c r="E1096" s="104" t="s">
         <v>1310</v>
       </c>
-      <c r="F1096" s="103" t="s">
+      <c r="F1096" s="104" t="s">
         <v>1311</v>
       </c>
       <c r="G1096" s="12" t="s">
@@ -63855,9 +63861,9 @@
       <c r="K1096" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="L1096" s="104"/>
-      <c r="M1096" s="104"/>
-      <c r="N1096" s="105" t="s">
+      <c r="L1096" s="105"/>
+      <c r="M1096" s="105"/>
+      <c r="N1096" s="106" t="s">
         <v>3485</v>
       </c>
       <c r="O1096" s="15" t="s">
@@ -64124,10 +64130,10 @@
       <c r="F1102" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1102" s="106" t="s">
+      <c r="G1102" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1102" s="106" t="s">
+      <c r="H1102" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1102" s="43"/>
@@ -64170,10 +64176,10 @@
       <c r="F1103" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1103" s="106" t="s">
+      <c r="G1103" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1103" s="106" t="s">
+      <c r="H1103" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1103" s="43"/>
@@ -64216,10 +64222,10 @@
       <c r="F1104" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1104" s="106" t="s">
+      <c r="G1104" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1104" s="106" t="s">
+      <c r="H1104" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1104" s="43"/>
@@ -64262,10 +64268,10 @@
       <c r="F1105" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1105" s="106" t="s">
+      <c r="G1105" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1105" s="106" t="s">
+      <c r="H1105" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1105" s="43"/>
@@ -64308,10 +64314,10 @@
       <c r="F1106" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1106" s="106" t="s">
+      <c r="G1106" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1106" s="106" t="s">
+      <c r="H1106" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1106" s="43"/>
@@ -64446,10 +64452,10 @@
       <c r="F1109" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1109" s="106" t="s">
+      <c r="G1109" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1109" s="106" t="s">
+      <c r="H1109" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1109" s="43"/>
@@ -64492,10 +64498,10 @@
       <c r="F1110" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1110" s="106" t="s">
+      <c r="G1110" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1110" s="106" t="s">
+      <c r="H1110" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1110" s="43"/>
@@ -64538,10 +64544,10 @@
       <c r="F1111" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1111" s="106" t="s">
+      <c r="G1111" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1111" s="106" t="s">
+      <c r="H1111" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1111" s="43"/>
@@ -64630,10 +64636,10 @@
       <c r="F1113" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1113" s="106" t="s">
+      <c r="G1113" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1113" s="106" t="s">
+      <c r="H1113" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1113" s="43"/>
@@ -64676,10 +64682,10 @@
       <c r="F1114" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1114" s="106" t="s">
+      <c r="G1114" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1114" s="106" t="s">
+      <c r="H1114" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1114" s="43"/>
@@ -64722,10 +64728,10 @@
       <c r="F1115" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1115" s="106" t="s">
+      <c r="G1115" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1115" s="106" t="s">
+      <c r="H1115" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1115" s="43"/>
@@ -64768,10 +64774,10 @@
       <c r="F1116" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1116" s="106" t="s">
+      <c r="G1116" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1116" s="106" t="s">
+      <c r="H1116" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1116" s="43"/>
@@ -64814,10 +64820,10 @@
       <c r="F1117" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1117" s="106" t="s">
+      <c r="G1117" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1117" s="106" t="s">
+      <c r="H1117" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1117" s="43"/>
@@ -64860,10 +64866,10 @@
       <c r="F1118" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1118" s="106" t="s">
+      <c r="G1118" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1118" s="106" t="s">
+      <c r="H1118" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1118" s="43"/>
@@ -64906,10 +64912,10 @@
       <c r="F1119" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1119" s="106" t="s">
+      <c r="G1119" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1119" s="106" t="s">
+      <c r="H1119" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1119" s="43"/>
@@ -64952,10 +64958,10 @@
       <c r="F1120" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1120" s="106" t="s">
+      <c r="G1120" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1120" s="106" t="s">
+      <c r="H1120" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1120" s="43"/>
@@ -65044,10 +65050,10 @@
       <c r="F1122" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1122" s="106" t="s">
+      <c r="G1122" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1122" s="106" t="s">
+      <c r="H1122" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1122" s="43"/>
@@ -65090,10 +65096,10 @@
       <c r="F1123" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1123" s="106" t="s">
+      <c r="G1123" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1123" s="106" t="s">
+      <c r="H1123" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1123" s="43"/>
@@ -65136,10 +65142,10 @@
       <c r="F1124" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1124" s="106" t="s">
+      <c r="G1124" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1124" s="106" t="s">
+      <c r="H1124" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1124" s="43"/>
@@ -65182,10 +65188,10 @@
       <c r="F1125" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1125" s="106" t="s">
+      <c r="G1125" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1125" s="106" t="s">
+      <c r="H1125" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1125" s="43"/>
@@ -65228,10 +65234,10 @@
       <c r="F1126" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1126" s="106" t="s">
+      <c r="G1126" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1126" s="106" t="s">
+      <c r="H1126" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1126" s="43"/>
@@ -65274,10 +65280,10 @@
       <c r="F1127" s="86" t="s">
         <v>1311</v>
       </c>
-      <c r="G1127" s="106" t="s">
+      <c r="G1127" s="107" t="s">
         <v>1362</v>
       </c>
-      <c r="H1127" s="106" t="s">
+      <c r="H1127" s="107" t="s">
         <v>3493</v>
       </c>
       <c r="I1127" s="43"/>
@@ -65316,9 +65322,9 @@
       <c r="L1128" s="67"/>
       <c r="M1128" s="67"/>
       <c r="N1128" s="67"/>
-      <c r="O1128" s="107"/>
-      <c r="P1128" s="107"/>
-      <c r="Q1128" s="107"/>
+      <c r="O1128" s="108"/>
+      <c r="P1128" s="108"/>
+      <c r="Q1128" s="108"/>
       <c r="R1128" s="18"/>
     </row>
     <row r="1129" ht="14.25" customHeight="1">
@@ -65336,9 +65342,9 @@
       <c r="L1129" s="67"/>
       <c r="M1129" s="67"/>
       <c r="N1129" s="67"/>
-      <c r="O1129" s="107"/>
-      <c r="P1129" s="107"/>
-      <c r="Q1129" s="107"/>
+      <c r="O1129" s="108"/>
+      <c r="P1129" s="108"/>
+      <c r="Q1129" s="108"/>
       <c r="R1129" s="18"/>
     </row>
     <row r="1130" ht="14.25" customHeight="1">
@@ -65356,9 +65362,9 @@
       <c r="L1130" s="67"/>
       <c r="M1130" s="67"/>
       <c r="N1130" s="67"/>
-      <c r="O1130" s="107"/>
-      <c r="P1130" s="107"/>
-      <c r="Q1130" s="107"/>
+      <c r="O1130" s="108"/>
+      <c r="P1130" s="108"/>
+      <c r="Q1130" s="108"/>
       <c r="R1130" s="18"/>
     </row>
     <row r="1131" ht="14.25" customHeight="1">
@@ -65376,9 +65382,9 @@
       <c r="L1131" s="67"/>
       <c r="M1131" s="67"/>
       <c r="N1131" s="67"/>
-      <c r="O1131" s="107"/>
-      <c r="P1131" s="107"/>
-      <c r="Q1131" s="107"/>
+      <c r="O1131" s="108"/>
+      <c r="P1131" s="108"/>
+      <c r="Q1131" s="108"/>
       <c r="R1131" s="18"/>
     </row>
     <row r="1132" ht="14.25" customHeight="1">
@@ -65396,9 +65402,9 @@
       <c r="L1132" s="67"/>
       <c r="M1132" s="67"/>
       <c r="N1132" s="67"/>
-      <c r="O1132" s="107"/>
-      <c r="P1132" s="107"/>
-      <c r="Q1132" s="107"/>
+      <c r="O1132" s="108"/>
+      <c r="P1132" s="108"/>
+      <c r="Q1132" s="108"/>
       <c r="R1132" s="18"/>
     </row>
     <row r="1133" ht="14.25" customHeight="1">
@@ -65416,9 +65422,9 @@
       <c r="L1133" s="67"/>
       <c r="M1133" s="67"/>
       <c r="N1133" s="67"/>
-      <c r="O1133" s="107"/>
-      <c r="P1133" s="107"/>
-      <c r="Q1133" s="107"/>
+      <c r="O1133" s="108"/>
+      <c r="P1133" s="108"/>
+      <c r="Q1133" s="108"/>
       <c r="R1133" s="18"/>
     </row>
     <row r="1134" ht="14.25" customHeight="1">
@@ -65436,9 +65442,9 @@
       <c r="L1134" s="67"/>
       <c r="M1134" s="67"/>
       <c r="N1134" s="67"/>
-      <c r="O1134" s="107"/>
-      <c r="P1134" s="107"/>
-      <c r="Q1134" s="107"/>
+      <c r="O1134" s="108"/>
+      <c r="P1134" s="108"/>
+      <c r="Q1134" s="108"/>
       <c r="R1134" s="18"/>
     </row>
     <row r="1135" ht="14.25" customHeight="1">
@@ -65456,9 +65462,9 @@
       <c r="L1135" s="67"/>
       <c r="M1135" s="67"/>
       <c r="N1135" s="67"/>
-      <c r="O1135" s="107"/>
-      <c r="P1135" s="107"/>
-      <c r="Q1135" s="107"/>
+      <c r="O1135" s="108"/>
+      <c r="P1135" s="108"/>
+      <c r="Q1135" s="108"/>
       <c r="R1135" s="18"/>
     </row>
     <row r="1136" ht="14.25" customHeight="1">
@@ -65476,9 +65482,9 @@
       <c r="L1136" s="67"/>
       <c r="M1136" s="67"/>
       <c r="N1136" s="67"/>
-      <c r="O1136" s="107"/>
-      <c r="P1136" s="107"/>
-      <c r="Q1136" s="107"/>
+      <c r="O1136" s="108"/>
+      <c r="P1136" s="108"/>
+      <c r="Q1136" s="108"/>
       <c r="R1136" s="18"/>
     </row>
     <row r="1137" ht="14.25" customHeight="1">
@@ -65496,9 +65502,9 @@
       <c r="L1137" s="67"/>
       <c r="M1137" s="67"/>
       <c r="N1137" s="67"/>
-      <c r="O1137" s="107"/>
-      <c r="P1137" s="107"/>
-      <c r="Q1137" s="107"/>
+      <c r="O1137" s="108"/>
+      <c r="P1137" s="108"/>
+      <c r="Q1137" s="108"/>
       <c r="R1137" s="18"/>
     </row>
     <row r="1138" ht="14.25" customHeight="1">
@@ -65516,9 +65522,9 @@
       <c r="L1138" s="67"/>
       <c r="M1138" s="67"/>
       <c r="N1138" s="67"/>
-      <c r="O1138" s="107"/>
-      <c r="P1138" s="107"/>
-      <c r="Q1138" s="107"/>
+      <c r="O1138" s="108"/>
+      <c r="P1138" s="108"/>
+      <c r="Q1138" s="108"/>
       <c r="R1138" s="18"/>
     </row>
     <row r="1139" ht="14.25" customHeight="1">
@@ -65536,9 +65542,9 @@
       <c r="L1139" s="67"/>
       <c r="M1139" s="67"/>
       <c r="N1139" s="67"/>
-      <c r="O1139" s="107"/>
-      <c r="P1139" s="107"/>
-      <c r="Q1139" s="107"/>
+      <c r="O1139" s="108"/>
+      <c r="P1139" s="108"/>
+      <c r="Q1139" s="108"/>
       <c r="R1139" s="18"/>
     </row>
     <row r="1140" ht="14.25" customHeight="1">
@@ -65556,9 +65562,9 @@
       <c r="L1140" s="67"/>
       <c r="M1140" s="67"/>
       <c r="N1140" s="67"/>
-      <c r="O1140" s="107"/>
-      <c r="P1140" s="107"/>
-      <c r="Q1140" s="107"/>
+      <c r="O1140" s="108"/>
+      <c r="P1140" s="108"/>
+      <c r="Q1140" s="108"/>
       <c r="R1140" s="18"/>
     </row>
     <row r="1141" ht="14.25" customHeight="1">
@@ -65576,9 +65582,9 @@
       <c r="L1141" s="67"/>
       <c r="M1141" s="67"/>
       <c r="N1141" s="67"/>
-      <c r="O1141" s="107"/>
-      <c r="P1141" s="107"/>
-      <c r="Q1141" s="107"/>
+      <c r="O1141" s="108"/>
+      <c r="P1141" s="108"/>
+      <c r="Q1141" s="108"/>
       <c r="R1141" s="18"/>
     </row>
     <row r="1142" ht="14.25" customHeight="1">
@@ -65596,9 +65602,9 @@
       <c r="L1142" s="67"/>
       <c r="M1142" s="67"/>
       <c r="N1142" s="67"/>
-      <c r="O1142" s="107"/>
-      <c r="P1142" s="107"/>
-      <c r="Q1142" s="107"/>
+      <c r="O1142" s="108"/>
+      <c r="P1142" s="108"/>
+      <c r="Q1142" s="108"/>
       <c r="R1142" s="18"/>
     </row>
     <row r="1143" ht="14.25" customHeight="1">
@@ -65616,9 +65622,9 @@
       <c r="L1143" s="67"/>
       <c r="M1143" s="67"/>
       <c r="N1143" s="67"/>
-      <c r="O1143" s="107"/>
-      <c r="P1143" s="107"/>
-      <c r="Q1143" s="107"/>
+      <c r="O1143" s="108"/>
+      <c r="P1143" s="108"/>
+      <c r="Q1143" s="108"/>
       <c r="R1143" s="18"/>
     </row>
     <row r="1144" ht="14.25" customHeight="1">
@@ -65636,9 +65642,9 @@
       <c r="L1144" s="67"/>
       <c r="M1144" s="67"/>
       <c r="N1144" s="67"/>
-      <c r="O1144" s="107"/>
-      <c r="P1144" s="107"/>
-      <c r="Q1144" s="107"/>
+      <c r="O1144" s="108"/>
+      <c r="P1144" s="108"/>
+      <c r="Q1144" s="108"/>
       <c r="R1144" s="18"/>
     </row>
     <row r="1145" ht="14.25" customHeight="1">
@@ -65656,9 +65662,9 @@
       <c r="L1145" s="67"/>
       <c r="M1145" s="67"/>
       <c r="N1145" s="67"/>
-      <c r="O1145" s="107"/>
-      <c r="P1145" s="107"/>
-      <c r="Q1145" s="107"/>
+      <c r="O1145" s="108"/>
+      <c r="P1145" s="108"/>
+      <c r="Q1145" s="108"/>
       <c r="R1145" s="18"/>
     </row>
     <row r="1146" ht="14.25" customHeight="1">
@@ -65676,9 +65682,9 @@
       <c r="L1146" s="67"/>
       <c r="M1146" s="67"/>
       <c r="N1146" s="67"/>
-      <c r="O1146" s="107"/>
-      <c r="P1146" s="107"/>
-      <c r="Q1146" s="107"/>
+      <c r="O1146" s="108"/>
+      <c r="P1146" s="108"/>
+      <c r="Q1146" s="108"/>
       <c r="R1146" s="18"/>
     </row>
     <row r="1147" ht="14.25" customHeight="1">
@@ -65696,9 +65702,9 @@
       <c r="L1147" s="67"/>
       <c r="M1147" s="67"/>
       <c r="N1147" s="67"/>
-      <c r="O1147" s="107"/>
-      <c r="P1147" s="107"/>
-      <c r="Q1147" s="107"/>
+      <c r="O1147" s="108"/>
+      <c r="P1147" s="108"/>
+      <c r="Q1147" s="108"/>
       <c r="R1147" s="18"/>
     </row>
     <row r="1148" ht="14.25" customHeight="1">
@@ -65716,9 +65722,9 @@
       <c r="L1148" s="67"/>
       <c r="M1148" s="67"/>
       <c r="N1148" s="67"/>
-      <c r="O1148" s="107"/>
-      <c r="P1148" s="107"/>
-      <c r="Q1148" s="107"/>
+      <c r="O1148" s="108"/>
+      <c r="P1148" s="108"/>
+      <c r="Q1148" s="108"/>
       <c r="R1148" s="18"/>
     </row>
     <row r="1149" ht="14.25" customHeight="1">
@@ -65736,9 +65742,9 @@
       <c r="L1149" s="67"/>
       <c r="M1149" s="67"/>
       <c r="N1149" s="67"/>
-      <c r="O1149" s="107"/>
-      <c r="P1149" s="107"/>
-      <c r="Q1149" s="107"/>
+      <c r="O1149" s="108"/>
+      <c r="P1149" s="108"/>
+      <c r="Q1149" s="108"/>
       <c r="R1149" s="18"/>
     </row>
     <row r="1150" ht="14.25" customHeight="1">
@@ -65756,9 +65762,9 @@
       <c r="L1150" s="67"/>
       <c r="M1150" s="67"/>
       <c r="N1150" s="67"/>
-      <c r="O1150" s="107"/>
-      <c r="P1150" s="107"/>
-      <c r="Q1150" s="107"/>
+      <c r="O1150" s="108"/>
+      <c r="P1150" s="108"/>
+      <c r="Q1150" s="108"/>
       <c r="R1150" s="18"/>
     </row>
     <row r="1151" ht="14.25" customHeight="1">
@@ -65776,9 +65782,9 @@
       <c r="L1151" s="67"/>
       <c r="M1151" s="67"/>
       <c r="N1151" s="67"/>
-      <c r="O1151" s="107"/>
-      <c r="P1151" s="107"/>
-      <c r="Q1151" s="107"/>
+      <c r="O1151" s="108"/>
+      <c r="P1151" s="108"/>
+      <c r="Q1151" s="108"/>
       <c r="R1151" s="18"/>
     </row>
     <row r="1152" ht="14.25" customHeight="1">
@@ -65796,9 +65802,9 @@
       <c r="L1152" s="67"/>
       <c r="M1152" s="67"/>
       <c r="N1152" s="67"/>
-      <c r="O1152" s="107"/>
-      <c r="P1152" s="107"/>
-      <c r="Q1152" s="107"/>
+      <c r="O1152" s="108"/>
+      <c r="P1152" s="108"/>
+      <c r="Q1152" s="108"/>
       <c r="R1152" s="18"/>
     </row>
     <row r="1153" ht="14.25" customHeight="1">
@@ -65816,9 +65822,9 @@
       <c r="L1153" s="67"/>
       <c r="M1153" s="67"/>
       <c r="N1153" s="67"/>
-      <c r="O1153" s="107"/>
-      <c r="P1153" s="107"/>
-      <c r="Q1153" s="107"/>
+      <c r="O1153" s="108"/>
+      <c r="P1153" s="108"/>
+      <c r="Q1153" s="108"/>
       <c r="R1153" s="18"/>
     </row>
     <row r="1154" ht="14.25" customHeight="1">
@@ -65836,9 +65842,9 @@
       <c r="L1154" s="67"/>
       <c r="M1154" s="67"/>
       <c r="N1154" s="67"/>
-      <c r="O1154" s="107"/>
-      <c r="P1154" s="107"/>
-      <c r="Q1154" s="107"/>
+      <c r="O1154" s="108"/>
+      <c r="P1154" s="108"/>
+      <c r="Q1154" s="108"/>
       <c r="R1154" s="18"/>
     </row>
     <row r="1155" ht="14.25" customHeight="1">
@@ -65856,9 +65862,9 @@
       <c r="L1155" s="67"/>
       <c r="M1155" s="67"/>
       <c r="N1155" s="67"/>
-      <c r="O1155" s="107"/>
-      <c r="P1155" s="107"/>
-      <c r="Q1155" s="107"/>
+      <c r="O1155" s="108"/>
+      <c r="P1155" s="108"/>
+      <c r="Q1155" s="108"/>
       <c r="R1155" s="18"/>
     </row>
     <row r="1156" ht="14.25" customHeight="1">
@@ -65876,9 +65882,9 @@
       <c r="L1156" s="67"/>
       <c r="M1156" s="67"/>
       <c r="N1156" s="67"/>
-      <c r="O1156" s="107"/>
-      <c r="P1156" s="107"/>
-      <c r="Q1156" s="107"/>
+      <c r="O1156" s="108"/>
+      <c r="P1156" s="108"/>
+      <c r="Q1156" s="108"/>
       <c r="R1156" s="18"/>
     </row>
     <row r="1157" ht="14.25" customHeight="1">
@@ -65896,9 +65902,9 @@
       <c r="L1157" s="67"/>
       <c r="M1157" s="67"/>
       <c r="N1157" s="67"/>
-      <c r="O1157" s="107"/>
-      <c r="P1157" s="107"/>
-      <c r="Q1157" s="107"/>
+      <c r="O1157" s="108"/>
+      <c r="P1157" s="108"/>
+      <c r="Q1157" s="108"/>
       <c r="R1157" s="18"/>
     </row>
     <row r="1158" ht="14.25" customHeight="1">
@@ -65916,9 +65922,9 @@
       <c r="L1158" s="67"/>
       <c r="M1158" s="67"/>
       <c r="N1158" s="67"/>
-      <c r="O1158" s="107"/>
-      <c r="P1158" s="107"/>
-      <c r="Q1158" s="107"/>
+      <c r="O1158" s="108"/>
+      <c r="P1158" s="108"/>
+      <c r="Q1158" s="108"/>
       <c r="R1158" s="18"/>
     </row>
     <row r="1159" ht="14.25" customHeight="1">
@@ -65936,9 +65942,9 @@
       <c r="L1159" s="67"/>
       <c r="M1159" s="67"/>
       <c r="N1159" s="67"/>
-      <c r="O1159" s="107"/>
-      <c r="P1159" s="107"/>
-      <c r="Q1159" s="107"/>
+      <c r="O1159" s="108"/>
+      <c r="P1159" s="108"/>
+      <c r="Q1159" s="108"/>
       <c r="R1159" s="18"/>
     </row>
     <row r="1160" ht="14.25" customHeight="1">
@@ -65956,9 +65962,9 @@
       <c r="L1160" s="67"/>
       <c r="M1160" s="67"/>
       <c r="N1160" s="67"/>
-      <c r="O1160" s="107"/>
-      <c r="P1160" s="107"/>
-      <c r="Q1160" s="107"/>
+      <c r="O1160" s="108"/>
+      <c r="P1160" s="108"/>
+      <c r="Q1160" s="108"/>
       <c r="R1160" s="18"/>
     </row>
     <row r="1161" ht="14.25" customHeight="1">
@@ -65976,9 +65982,9 @@
       <c r="L1161" s="67"/>
       <c r="M1161" s="67"/>
       <c r="N1161" s="67"/>
-      <c r="O1161" s="107"/>
-      <c r="P1161" s="107"/>
-      <c r="Q1161" s="107"/>
+      <c r="O1161" s="108"/>
+      <c r="P1161" s="108"/>
+      <c r="Q1161" s="108"/>
       <c r="R1161" s="18"/>
     </row>
     <row r="1162" ht="14.25" customHeight="1">
@@ -65996,9 +66002,9 @@
       <c r="L1162" s="67"/>
       <c r="M1162" s="67"/>
       <c r="N1162" s="67"/>
-      <c r="O1162" s="107"/>
-      <c r="P1162" s="107"/>
-      <c r="Q1162" s="107"/>
+      <c r="O1162" s="108"/>
+      <c r="P1162" s="108"/>
+      <c r="Q1162" s="108"/>
       <c r="R1162" s="18"/>
     </row>
     <row r="1163" ht="14.25" customHeight="1">
@@ -66016,9 +66022,9 @@
       <c r="L1163" s="67"/>
       <c r="M1163" s="67"/>
       <c r="N1163" s="67"/>
-      <c r="O1163" s="107"/>
-      <c r="P1163" s="107"/>
-      <c r="Q1163" s="107"/>
+      <c r="O1163" s="108"/>
+      <c r="P1163" s="108"/>
+      <c r="Q1163" s="108"/>
       <c r="R1163" s="18"/>
     </row>
     <row r="1164" ht="14.25" customHeight="1">
@@ -66036,9 +66042,9 @@
       <c r="L1164" s="67"/>
       <c r="M1164" s="67"/>
       <c r="N1164" s="67"/>
-      <c r="O1164" s="107"/>
-      <c r="P1164" s="107"/>
-      <c r="Q1164" s="107"/>
+      <c r="O1164" s="108"/>
+      <c r="P1164" s="108"/>
+      <c r="Q1164" s="108"/>
       <c r="R1164" s="18"/>
     </row>
     <row r="1165" ht="14.25" customHeight="1">
@@ -66056,9 +66062,9 @@
       <c r="L1165" s="67"/>
       <c r="M1165" s="67"/>
       <c r="N1165" s="67"/>
-      <c r="O1165" s="107"/>
-      <c r="P1165" s="107"/>
-      <c r="Q1165" s="107"/>
+      <c r="O1165" s="108"/>
+      <c r="P1165" s="108"/>
+      <c r="Q1165" s="108"/>
       <c r="R1165" s="18"/>
     </row>
     <row r="1166" ht="14.25" customHeight="1">
@@ -66076,9 +66082,9 @@
       <c r="L1166" s="67"/>
       <c r="M1166" s="67"/>
       <c r="N1166" s="67"/>
-      <c r="O1166" s="107"/>
-      <c r="P1166" s="107"/>
-      <c r="Q1166" s="107"/>
+      <c r="O1166" s="108"/>
+      <c r="P1166" s="108"/>
+      <c r="Q1166" s="108"/>
       <c r="R1166" s="18"/>
     </row>
     <row r="1167" ht="14.25" customHeight="1">
@@ -66096,9 +66102,9 @@
       <c r="L1167" s="67"/>
       <c r="M1167" s="67"/>
       <c r="N1167" s="67"/>
-      <c r="O1167" s="107"/>
-      <c r="P1167" s="107"/>
-      <c r="Q1167" s="107"/>
+      <c r="O1167" s="108"/>
+      <c r="P1167" s="108"/>
+      <c r="Q1167" s="108"/>
       <c r="R1167" s="18"/>
     </row>
     <row r="1168" ht="14.25" customHeight="1">
@@ -66116,9 +66122,9 @@
       <c r="L1168" s="67"/>
       <c r="M1168" s="67"/>
       <c r="N1168" s="67"/>
-      <c r="O1168" s="107"/>
-      <c r="P1168" s="107"/>
-      <c r="Q1168" s="107"/>
+      <c r="O1168" s="108"/>
+      <c r="P1168" s="108"/>
+      <c r="Q1168" s="108"/>
       <c r="R1168" s="18"/>
     </row>
     <row r="1169" ht="14.25" customHeight="1">
@@ -66136,9 +66142,9 @@
       <c r="L1169" s="67"/>
       <c r="M1169" s="67"/>
       <c r="N1169" s="67"/>
-      <c r="O1169" s="107"/>
-      <c r="P1169" s="107"/>
-      <c r="Q1169" s="107"/>
+      <c r="O1169" s="108"/>
+      <c r="P1169" s="108"/>
+      <c r="Q1169" s="108"/>
       <c r="R1169" s="18"/>
     </row>
     <row r="1170" ht="14.25" customHeight="1">
@@ -66156,9 +66162,9 @@
       <c r="L1170" s="67"/>
       <c r="M1170" s="67"/>
       <c r="N1170" s="67"/>
-      <c r="O1170" s="107"/>
-      <c r="P1170" s="107"/>
-      <c r="Q1170" s="107"/>
+      <c r="O1170" s="108"/>
+      <c r="P1170" s="108"/>
+      <c r="Q1170" s="108"/>
       <c r="R1170" s="18"/>
     </row>
     <row r="1171" ht="14.25" customHeight="1">
@@ -66176,9 +66182,9 @@
       <c r="L1171" s="67"/>
       <c r="M1171" s="67"/>
       <c r="N1171" s="67"/>
-      <c r="O1171" s="107"/>
-      <c r="P1171" s="107"/>
-      <c r="Q1171" s="107"/>
+      <c r="O1171" s="108"/>
+      <c r="P1171" s="108"/>
+      <c r="Q1171" s="108"/>
       <c r="R1171" s="18"/>
     </row>
     <row r="1172" ht="14.25" customHeight="1">
@@ -66196,9 +66202,9 @@
       <c r="L1172" s="67"/>
       <c r="M1172" s="67"/>
       <c r="N1172" s="67"/>
-      <c r="O1172" s="107"/>
-      <c r="P1172" s="107"/>
-      <c r="Q1172" s="107"/>
+      <c r="O1172" s="108"/>
+      <c r="P1172" s="108"/>
+      <c r="Q1172" s="108"/>
       <c r="R1172" s="18"/>
     </row>
     <row r="1173" ht="14.25" customHeight="1">
@@ -66216,9 +66222,9 @@
       <c r="L1173" s="67"/>
       <c r="M1173" s="67"/>
       <c r="N1173" s="67"/>
-      <c r="O1173" s="107"/>
-      <c r="P1173" s="107"/>
-      <c r="Q1173" s="107"/>
+      <c r="O1173" s="108"/>
+      <c r="P1173" s="108"/>
+      <c r="Q1173" s="108"/>
       <c r="R1173" s="18"/>
     </row>
     <row r="1174" ht="14.25" customHeight="1">
@@ -66236,9 +66242,9 @@
       <c r="L1174" s="67"/>
       <c r="M1174" s="67"/>
       <c r="N1174" s="67"/>
-      <c r="O1174" s="107"/>
-      <c r="P1174" s="107"/>
-      <c r="Q1174" s="107"/>
+      <c r="O1174" s="108"/>
+      <c r="P1174" s="108"/>
+      <c r="Q1174" s="108"/>
       <c r="R1174" s="18"/>
     </row>
     <row r="1175" ht="14.25" customHeight="1">
@@ -66256,9 +66262,9 @@
       <c r="L1175" s="67"/>
       <c r="M1175" s="67"/>
       <c r="N1175" s="67"/>
-      <c r="O1175" s="107"/>
-      <c r="P1175" s="107"/>
-      <c r="Q1175" s="107"/>
+      <c r="O1175" s="108"/>
+      <c r="P1175" s="108"/>
+      <c r="Q1175" s="108"/>
       <c r="R1175" s="18"/>
     </row>
     <row r="1176" ht="14.25" customHeight="1">
@@ -66276,9 +66282,9 @@
       <c r="L1176" s="67"/>
       <c r="M1176" s="67"/>
       <c r="N1176" s="67"/>
-      <c r="O1176" s="107"/>
-      <c r="P1176" s="107"/>
-      <c r="Q1176" s="107"/>
+      <c r="O1176" s="108"/>
+      <c r="P1176" s="108"/>
+      <c r="Q1176" s="108"/>
       <c r="R1176" s="18"/>
     </row>
     <row r="1177" ht="14.25" customHeight="1">
@@ -66296,9 +66302,9 @@
       <c r="L1177" s="67"/>
       <c r="M1177" s="67"/>
       <c r="N1177" s="67"/>
-      <c r="O1177" s="107"/>
-      <c r="P1177" s="107"/>
-      <c r="Q1177" s="107"/>
+      <c r="O1177" s="108"/>
+      <c r="P1177" s="108"/>
+      <c r="Q1177" s="108"/>
       <c r="R1177" s="18"/>
     </row>
     <row r="1178" ht="14.25" customHeight="1">
@@ -66316,9 +66322,9 @@
       <c r="L1178" s="67"/>
       <c r="M1178" s="67"/>
       <c r="N1178" s="67"/>
-      <c r="O1178" s="107"/>
-      <c r="P1178" s="107"/>
-      <c r="Q1178" s="107"/>
+      <c r="O1178" s="108"/>
+      <c r="P1178" s="108"/>
+      <c r="Q1178" s="108"/>
       <c r="R1178" s="18"/>
     </row>
     <row r="1179" ht="14.25" customHeight="1">
@@ -66336,9 +66342,9 @@
       <c r="L1179" s="67"/>
       <c r="M1179" s="67"/>
       <c r="N1179" s="67"/>
-      <c r="O1179" s="107"/>
-      <c r="P1179" s="107"/>
-      <c r="Q1179" s="107"/>
+      <c r="O1179" s="108"/>
+      <c r="P1179" s="108"/>
+      <c r="Q1179" s="108"/>
       <c r="R1179" s="18"/>
     </row>
     <row r="1180" ht="14.25" customHeight="1">
@@ -66356,9 +66362,9 @@
       <c r="L1180" s="67"/>
       <c r="M1180" s="67"/>
       <c r="N1180" s="67"/>
-      <c r="O1180" s="107"/>
-      <c r="P1180" s="107"/>
-      <c r="Q1180" s="107"/>
+      <c r="O1180" s="108"/>
+      <c r="P1180" s="108"/>
+      <c r="Q1180" s="108"/>
       <c r="R1180" s="18"/>
     </row>
     <row r="1181" ht="14.25" customHeight="1">
@@ -66376,9 +66382,9 @@
       <c r="L1181" s="67"/>
       <c r="M1181" s="67"/>
       <c r="N1181" s="67"/>
-      <c r="O1181" s="107"/>
-      <c r="P1181" s="107"/>
-      <c r="Q1181" s="107"/>
+      <c r="O1181" s="108"/>
+      <c r="P1181" s="108"/>
+      <c r="Q1181" s="108"/>
       <c r="R1181" s="18"/>
     </row>
     <row r="1182" ht="14.25" customHeight="1">
@@ -66396,9 +66402,9 @@
       <c r="L1182" s="67"/>
       <c r="M1182" s="67"/>
       <c r="N1182" s="67"/>
-      <c r="O1182" s="107"/>
-      <c r="P1182" s="107"/>
-      <c r="Q1182" s="107"/>
+      <c r="O1182" s="108"/>
+      <c r="P1182" s="108"/>
+      <c r="Q1182" s="108"/>
       <c r="R1182" s="18"/>
     </row>
     <row r="1183" ht="14.25" customHeight="1">
@@ -66416,9 +66422,9 @@
       <c r="L1183" s="67"/>
       <c r="M1183" s="67"/>
       <c r="N1183" s="67"/>
-      <c r="O1183" s="107"/>
-      <c r="P1183" s="107"/>
-      <c r="Q1183" s="107"/>
+      <c r="O1183" s="108"/>
+      <c r="P1183" s="108"/>
+      <c r="Q1183" s="108"/>
       <c r="R1183" s="18"/>
     </row>
     <row r="1184" ht="14.25" customHeight="1">
@@ -66436,9 +66442,9 @@
       <c r="L1184" s="67"/>
       <c r="M1184" s="67"/>
       <c r="N1184" s="67"/>
-      <c r="O1184" s="107"/>
-      <c r="P1184" s="107"/>
-      <c r="Q1184" s="107"/>
+      <c r="O1184" s="108"/>
+      <c r="P1184" s="108"/>
+      <c r="Q1184" s="108"/>
       <c r="R1184" s="18"/>
     </row>
     <row r="1185" ht="14.25" customHeight="1">
@@ -66456,9 +66462,9 @@
       <c r="L1185" s="67"/>
       <c r="M1185" s="67"/>
       <c r="N1185" s="67"/>
-      <c r="O1185" s="107"/>
-      <c r="P1185" s="107"/>
-      <c r="Q1185" s="107"/>
+      <c r="O1185" s="108"/>
+      <c r="P1185" s="108"/>
+      <c r="Q1185" s="108"/>
       <c r="R1185" s="18"/>
     </row>
     <row r="1186" ht="14.25" customHeight="1">
@@ -66476,9 +66482,9 @@
       <c r="L1186" s="67"/>
       <c r="M1186" s="67"/>
       <c r="N1186" s="67"/>
-      <c r="O1186" s="107"/>
-      <c r="P1186" s="107"/>
-      <c r="Q1186" s="107"/>
+      <c r="O1186" s="108"/>
+      <c r="P1186" s="108"/>
+      <c r="Q1186" s="108"/>
       <c r="R1186" s="18"/>
     </row>
     <row r="1187" ht="14.25" customHeight="1">
@@ -66496,9 +66502,9 @@
       <c r="L1187" s="67"/>
       <c r="M1187" s="67"/>
       <c r="N1187" s="67"/>
-      <c r="O1187" s="107"/>
-      <c r="P1187" s="107"/>
-      <c r="Q1187" s="107"/>
+      <c r="O1187" s="108"/>
+      <c r="P1187" s="108"/>
+      <c r="Q1187" s="108"/>
       <c r="R1187" s="18"/>
     </row>
     <row r="1188" ht="14.25" customHeight="1">
@@ -66516,9 +66522,9 @@
       <c r="L1188" s="67"/>
       <c r="M1188" s="67"/>
       <c r="N1188" s="67"/>
-      <c r="O1188" s="107"/>
-      <c r="P1188" s="107"/>
-      <c r="Q1188" s="107"/>
+      <c r="O1188" s="108"/>
+      <c r="P1188" s="108"/>
+      <c r="Q1188" s="108"/>
       <c r="R1188" s="18"/>
     </row>
     <row r="1189" ht="14.25" customHeight="1">
@@ -66536,9 +66542,9 @@
       <c r="L1189" s="67"/>
       <c r="M1189" s="67"/>
       <c r="N1189" s="67"/>
-      <c r="O1189" s="107"/>
-      <c r="P1189" s="107"/>
-      <c r="Q1189" s="107"/>
+      <c r="O1189" s="108"/>
+      <c r="P1189" s="108"/>
+      <c r="Q1189" s="108"/>
       <c r="R1189" s="18"/>
     </row>
     <row r="1190" ht="14.25" customHeight="1">
@@ -66556,9 +66562,9 @@
       <c r="L1190" s="67"/>
       <c r="M1190" s="67"/>
       <c r="N1190" s="67"/>
-      <c r="O1190" s="107"/>
-      <c r="P1190" s="107"/>
-      <c r="Q1190" s="107"/>
+      <c r="O1190" s="108"/>
+      <c r="P1190" s="108"/>
+      <c r="Q1190" s="108"/>
       <c r="R1190" s="18"/>
     </row>
     <row r="1191" ht="14.25" customHeight="1">
@@ -66576,9 +66582,9 @@
       <c r="L1191" s="67"/>
       <c r="M1191" s="67"/>
       <c r="N1191" s="67"/>
-      <c r="O1191" s="107"/>
-      <c r="P1191" s="107"/>
-      <c r="Q1191" s="107"/>
+      <c r="O1191" s="108"/>
+      <c r="P1191" s="108"/>
+      <c r="Q1191" s="108"/>
       <c r="R1191" s="18"/>
     </row>
     <row r="1192" ht="14.25" customHeight="1">
@@ -66596,9 +66602,9 @@
       <c r="L1192" s="67"/>
       <c r="M1192" s="67"/>
       <c r="N1192" s="67"/>
-      <c r="O1192" s="107"/>
-      <c r="P1192" s="107"/>
-      <c r="Q1192" s="107"/>
+      <c r="O1192" s="108"/>
+      <c r="P1192" s="108"/>
+      <c r="Q1192" s="108"/>
       <c r="R1192" s="18"/>
     </row>
     <row r="1193" ht="14.25" customHeight="1">
@@ -66616,9 +66622,9 @@
       <c r="L1193" s="67"/>
       <c r="M1193" s="67"/>
       <c r="N1193" s="67"/>
-      <c r="O1193" s="107"/>
-      <c r="P1193" s="107"/>
-      <c r="Q1193" s="107"/>
+      <c r="O1193" s="108"/>
+      <c r="P1193" s="108"/>
+      <c r="Q1193" s="108"/>
       <c r="R1193" s="18"/>
     </row>
     <row r="1194" ht="14.25" customHeight="1">
@@ -66636,9 +66642,9 @@
       <c r="L1194" s="67"/>
       <c r="M1194" s="67"/>
       <c r="N1194" s="67"/>
-      <c r="O1194" s="107"/>
-      <c r="P1194" s="107"/>
-      <c r="Q1194" s="107"/>
+      <c r="O1194" s="108"/>
+      <c r="P1194" s="108"/>
+      <c r="Q1194" s="108"/>
       <c r="R1194" s="18"/>
     </row>
     <row r="1195" ht="14.25" customHeight="1">
@@ -66656,9 +66662,9 @@
       <c r="L1195" s="67"/>
       <c r="M1195" s="67"/>
       <c r="N1195" s="67"/>
-      <c r="O1195" s="107"/>
-      <c r="P1195" s="107"/>
-      <c r="Q1195" s="107"/>
+      <c r="O1195" s="108"/>
+      <c r="P1195" s="108"/>
+      <c r="Q1195" s="108"/>
       <c r="R1195" s="18"/>
     </row>
     <row r="1196" ht="14.25" customHeight="1">
@@ -66676,9 +66682,9 @@
       <c r="L1196" s="67"/>
       <c r="M1196" s="67"/>
       <c r="N1196" s="67"/>
-      <c r="O1196" s="107"/>
-      <c r="P1196" s="107"/>
-      <c r="Q1196" s="107"/>
+      <c r="O1196" s="108"/>
+      <c r="P1196" s="108"/>
+      <c r="Q1196" s="108"/>
       <c r="R1196" s="18"/>
     </row>
     <row r="1197" ht="14.25" customHeight="1">
@@ -66696,9 +66702,9 @@
       <c r="L1197" s="67"/>
       <c r="M1197" s="67"/>
       <c r="N1197" s="67"/>
-      <c r="O1197" s="107"/>
-      <c r="P1197" s="107"/>
-      <c r="Q1197" s="107"/>
+      <c r="O1197" s="108"/>
+      <c r="P1197" s="108"/>
+      <c r="Q1197" s="108"/>
       <c r="R1197" s="18"/>
     </row>
     <row r="1198" ht="14.25" customHeight="1">
@@ -66716,9 +66722,9 @@
       <c r="L1198" s="67"/>
       <c r="M1198" s="67"/>
       <c r="N1198" s="67"/>
-      <c r="O1198" s="107"/>
-      <c r="P1198" s="107"/>
-      <c r="Q1198" s="107"/>
+      <c r="O1198" s="108"/>
+      <c r="P1198" s="108"/>
+      <c r="Q1198" s="108"/>
       <c r="R1198" s="18"/>
     </row>
     <row r="1199" ht="14.25" customHeight="1">
@@ -66736,9 +66742,9 @@
       <c r="L1199" s="67"/>
       <c r="M1199" s="67"/>
       <c r="N1199" s="67"/>
-      <c r="O1199" s="107"/>
-      <c r="P1199" s="107"/>
-      <c r="Q1199" s="107"/>
+      <c r="O1199" s="108"/>
+      <c r="P1199" s="108"/>
+      <c r="Q1199" s="108"/>
       <c r="R1199" s="18"/>
     </row>
     <row r="1200" ht="14.25" customHeight="1">
@@ -66756,9 +66762,9 @@
       <c r="L1200" s="67"/>
       <c r="M1200" s="67"/>
       <c r="N1200" s="67"/>
-      <c r="O1200" s="107"/>
-      <c r="P1200" s="107"/>
-      <c r="Q1200" s="107"/>
+      <c r="O1200" s="108"/>
+      <c r="P1200" s="108"/>
+      <c r="Q1200" s="108"/>
       <c r="R1200" s="18"/>
     </row>
     <row r="1201" ht="14.25" customHeight="1">
@@ -66776,9 +66782,9 @@
       <c r="L1201" s="67"/>
       <c r="M1201" s="67"/>
       <c r="N1201" s="67"/>
-      <c r="O1201" s="107"/>
-      <c r="P1201" s="107"/>
-      <c r="Q1201" s="107"/>
+      <c r="O1201" s="108"/>
+      <c r="P1201" s="108"/>
+      <c r="Q1201" s="108"/>
       <c r="R1201" s="18"/>
     </row>
     <row r="1202" ht="14.25" customHeight="1">
@@ -66796,9 +66802,9 @@
       <c r="L1202" s="67"/>
       <c r="M1202" s="67"/>
       <c r="N1202" s="67"/>
-      <c r="O1202" s="107"/>
-      <c r="P1202" s="107"/>
-      <c r="Q1202" s="107"/>
+      <c r="O1202" s="108"/>
+      <c r="P1202" s="108"/>
+      <c r="Q1202" s="108"/>
       <c r="R1202" s="18"/>
     </row>
     <row r="1203" ht="14.25" customHeight="1">
@@ -66816,9 +66822,9 @@
       <c r="L1203" s="67"/>
       <c r="M1203" s="67"/>
       <c r="N1203" s="67"/>
-      <c r="O1203" s="107"/>
-      <c r="P1203" s="107"/>
-      <c r="Q1203" s="107"/>
+      <c r="O1203" s="108"/>
+      <c r="P1203" s="108"/>
+      <c r="Q1203" s="108"/>
       <c r="R1203" s="18"/>
     </row>
     <row r="1204" ht="14.25" customHeight="1">
@@ -66836,9 +66842,9 @@
       <c r="L1204" s="67"/>
       <c r="M1204" s="67"/>
       <c r="N1204" s="67"/>
-      <c r="O1204" s="107"/>
-      <c r="P1204" s="107"/>
-      <c r="Q1204" s="107"/>
+      <c r="O1204" s="108"/>
+      <c r="P1204" s="108"/>
+      <c r="Q1204" s="108"/>
       <c r="R1204" s="18"/>
     </row>
     <row r="1205" ht="14.25" customHeight="1">
@@ -66856,9 +66862,9 @@
       <c r="L1205" s="67"/>
       <c r="M1205" s="67"/>
       <c r="N1205" s="67"/>
-      <c r="O1205" s="107"/>
-      <c r="P1205" s="107"/>
-      <c r="Q1205" s="107"/>
+      <c r="O1205" s="108"/>
+      <c r="P1205" s="108"/>
+      <c r="Q1205" s="108"/>
       <c r="R1205" s="18"/>
     </row>
     <row r="1206" ht="14.25" customHeight="1">
@@ -66876,9 +66882,9 @@
       <c r="L1206" s="67"/>
       <c r="M1206" s="67"/>
       <c r="N1206" s="67"/>
-      <c r="O1206" s="107"/>
-      <c r="P1206" s="107"/>
-      <c r="Q1206" s="107"/>
+      <c r="O1206" s="108"/>
+      <c r="P1206" s="108"/>
+      <c r="Q1206" s="108"/>
       <c r="R1206" s="18"/>
     </row>
     <row r="1207" ht="14.25" customHeight="1">
@@ -66896,9 +66902,9 @@
       <c r="L1207" s="67"/>
       <c r="M1207" s="67"/>
       <c r="N1207" s="67"/>
-      <c r="O1207" s="107"/>
-      <c r="P1207" s="107"/>
-      <c r="Q1207" s="107"/>
+      <c r="O1207" s="108"/>
+      <c r="P1207" s="108"/>
+      <c r="Q1207" s="108"/>
       <c r="R1207" s="18"/>
     </row>
     <row r="1208" ht="14.25" customHeight="1">
@@ -66916,9 +66922,9 @@
       <c r="L1208" s="67"/>
       <c r="M1208" s="67"/>
       <c r="N1208" s="67"/>
-      <c r="O1208" s="107"/>
-      <c r="P1208" s="107"/>
-      <c r="Q1208" s="107"/>
+      <c r="O1208" s="108"/>
+      <c r="P1208" s="108"/>
+      <c r="Q1208" s="108"/>
       <c r="R1208" s="18"/>
     </row>
     <row r="1209" ht="14.25" customHeight="1">
@@ -66936,9 +66942,9 @@
       <c r="L1209" s="67"/>
       <c r="M1209" s="67"/>
       <c r="N1209" s="67"/>
-      <c r="O1209" s="107"/>
-      <c r="P1209" s="107"/>
-      <c r="Q1209" s="107"/>
+      <c r="O1209" s="108"/>
+      <c r="P1209" s="108"/>
+      <c r="Q1209" s="108"/>
       <c r="R1209" s="18"/>
     </row>
     <row r="1210" ht="14.25" customHeight="1">
@@ -66956,9 +66962,9 @@
       <c r="L1210" s="67"/>
       <c r="M1210" s="67"/>
       <c r="N1210" s="67"/>
-      <c r="O1210" s="107"/>
-      <c r="P1210" s="107"/>
-      <c r="Q1210" s="107"/>
+      <c r="O1210" s="108"/>
+      <c r="P1210" s="108"/>
+      <c r="Q1210" s="108"/>
       <c r="R1210" s="18"/>
     </row>
     <row r="1211" ht="14.25" customHeight="1">
@@ -66976,9 +66982,9 @@
       <c r="L1211" s="67"/>
       <c r="M1211" s="67"/>
       <c r="N1211" s="67"/>
-      <c r="O1211" s="107"/>
-      <c r="P1211" s="107"/>
-      <c r="Q1211" s="107"/>
+      <c r="O1211" s="108"/>
+      <c r="P1211" s="108"/>
+      <c r="Q1211" s="108"/>
       <c r="R1211" s="18"/>
     </row>
     <row r="1212" ht="14.25" customHeight="1">
@@ -66996,9 +67002,9 @@
       <c r="L1212" s="67"/>
       <c r="M1212" s="67"/>
       <c r="N1212" s="67"/>
-      <c r="O1212" s="107"/>
-      <c r="P1212" s="107"/>
-      <c r="Q1212" s="107"/>
+      <c r="O1212" s="108"/>
+      <c r="P1212" s="108"/>
+      <c r="Q1212" s="108"/>
       <c r="R1212" s="18"/>
     </row>
     <row r="1213" ht="14.25" customHeight="1">
@@ -67016,9 +67022,9 @@
       <c r="L1213" s="67"/>
       <c r="M1213" s="67"/>
       <c r="N1213" s="67"/>
-      <c r="O1213" s="107"/>
-      <c r="P1213" s="107"/>
-      <c r="Q1213" s="107"/>
+      <c r="O1213" s="108"/>
+      <c r="P1213" s="108"/>
+      <c r="Q1213" s="108"/>
       <c r="R1213" s="18"/>
     </row>
     <row r="1214" ht="14.25" customHeight="1">
@@ -67036,9 +67042,9 @@
       <c r="L1214" s="67"/>
       <c r="M1214" s="67"/>
       <c r="N1214" s="67"/>
-      <c r="O1214" s="107"/>
-      <c r="P1214" s="107"/>
-      <c r="Q1214" s="107"/>
+      <c r="O1214" s="108"/>
+      <c r="P1214" s="108"/>
+      <c r="Q1214" s="108"/>
       <c r="R1214" s="18"/>
     </row>
     <row r="1215" ht="14.25" customHeight="1">
@@ -67056,9 +67062,9 @@
       <c r="L1215" s="67"/>
       <c r="M1215" s="67"/>
       <c r="N1215" s="67"/>
-      <c r="O1215" s="107"/>
-      <c r="P1215" s="107"/>
-      <c r="Q1215" s="107"/>
+      <c r="O1215" s="108"/>
+      <c r="P1215" s="108"/>
+      <c r="Q1215" s="108"/>
       <c r="R1215" s="18"/>
     </row>
     <row r="1216" ht="14.25" customHeight="1">
@@ -67076,9 +67082,9 @@
       <c r="L1216" s="67"/>
       <c r="M1216" s="67"/>
       <c r="N1216" s="67"/>
-      <c r="O1216" s="107"/>
-      <c r="P1216" s="107"/>
-      <c r="Q1216" s="107"/>
+      <c r="O1216" s="108"/>
+      <c r="P1216" s="108"/>
+      <c r="Q1216" s="108"/>
       <c r="R1216" s="18"/>
     </row>
     <row r="1217" ht="14.25" customHeight="1">
@@ -67096,9 +67102,9 @@
       <c r="L1217" s="67"/>
       <c r="M1217" s="67"/>
       <c r="N1217" s="67"/>
-      <c r="O1217" s="107"/>
-      <c r="P1217" s="107"/>
-      <c r="Q1217" s="107"/>
+      <c r="O1217" s="108"/>
+      <c r="P1217" s="108"/>
+      <c r="Q1217" s="108"/>
       <c r="R1217" s="18"/>
     </row>
     <row r="1218" ht="14.25" customHeight="1">
@@ -67116,9 +67122,9 @@
       <c r="L1218" s="67"/>
       <c r="M1218" s="67"/>
       <c r="N1218" s="67"/>
-      <c r="O1218" s="107"/>
-      <c r="P1218" s="107"/>
-      <c r="Q1218" s="107"/>
+      <c r="O1218" s="108"/>
+      <c r="P1218" s="108"/>
+      <c r="Q1218" s="108"/>
       <c r="R1218" s="18"/>
     </row>
     <row r="1219" ht="14.25" customHeight="1">
@@ -67136,9 +67142,9 @@
       <c r="L1219" s="67"/>
       <c r="M1219" s="67"/>
       <c r="N1219" s="67"/>
-      <c r="O1219" s="107"/>
-      <c r="P1219" s="107"/>
-      <c r="Q1219" s="107"/>
+      <c r="O1219" s="108"/>
+      <c r="P1219" s="108"/>
+      <c r="Q1219" s="108"/>
       <c r="R1219" s="18"/>
     </row>
     <row r="1220" ht="14.25" customHeight="1">
@@ -67156,9 +67162,9 @@
       <c r="L1220" s="67"/>
       <c r="M1220" s="67"/>
       <c r="N1220" s="67"/>
-      <c r="O1220" s="107"/>
-      <c r="P1220" s="107"/>
-      <c r="Q1220" s="107"/>
+      <c r="O1220" s="108"/>
+      <c r="P1220" s="108"/>
+      <c r="Q1220" s="108"/>
       <c r="R1220" s="18"/>
     </row>
     <row r="1221" ht="14.25" customHeight="1">
@@ -67176,9 +67182,9 @@
       <c r="L1221" s="67"/>
       <c r="M1221" s="67"/>
       <c r="N1221" s="67"/>
-      <c r="O1221" s="107"/>
-      <c r="P1221" s="107"/>
-      <c r="Q1221" s="107"/>
+      <c r="O1221" s="108"/>
+      <c r="P1221" s="108"/>
+      <c r="Q1221" s="108"/>
       <c r="R1221" s="18"/>
     </row>
     <row r="1222" ht="14.25" customHeight="1">
@@ -67196,9 +67202,9 @@
       <c r="L1222" s="67"/>
       <c r="M1222" s="67"/>
       <c r="N1222" s="67"/>
-      <c r="O1222" s="107"/>
-      <c r="P1222" s="107"/>
-      <c r="Q1222" s="107"/>
+      <c r="O1222" s="108"/>
+      <c r="P1222" s="108"/>
+      <c r="Q1222" s="108"/>
       <c r="R1222" s="18"/>
     </row>
     <row r="1223" ht="14.25" customHeight="1">
@@ -67216,9 +67222,9 @@
       <c r="L1223" s="67"/>
       <c r="M1223" s="67"/>
       <c r="N1223" s="67"/>
-      <c r="O1223" s="107"/>
-      <c r="P1223" s="107"/>
-      <c r="Q1223" s="107"/>
+      <c r="O1223" s="108"/>
+      <c r="P1223" s="108"/>
+      <c r="Q1223" s="108"/>
       <c r="R1223" s="18"/>
     </row>
     <row r="1224" ht="14.25" customHeight="1">
@@ -67236,9 +67242,9 @@
       <c r="L1224" s="67"/>
       <c r="M1224" s="67"/>
       <c r="N1224" s="67"/>
-      <c r="O1224" s="107"/>
-      <c r="P1224" s="107"/>
-      <c r="Q1224" s="107"/>
+      <c r="O1224" s="108"/>
+      <c r="P1224" s="108"/>
+      <c r="Q1224" s="108"/>
       <c r="R1224" s="18"/>
     </row>
     <row r="1225" ht="14.25" customHeight="1">
@@ -67256,9 +67262,9 @@
       <c r="L1225" s="67"/>
       <c r="M1225" s="67"/>
       <c r="N1225" s="67"/>
-      <c r="O1225" s="107"/>
-      <c r="P1225" s="107"/>
-      <c r="Q1225" s="107"/>
+      <c r="O1225" s="108"/>
+      <c r="P1225" s="108"/>
+      <c r="Q1225" s="108"/>
       <c r="R1225" s="18"/>
     </row>
     <row r="1226" ht="14.25" customHeight="1">
@@ -67276,9 +67282,9 @@
       <c r="L1226" s="67"/>
       <c r="M1226" s="67"/>
       <c r="N1226" s="67"/>
-      <c r="O1226" s="107"/>
-      <c r="P1226" s="107"/>
-      <c r="Q1226" s="107"/>
+      <c r="O1226" s="108"/>
+      <c r="P1226" s="108"/>
+      <c r="Q1226" s="108"/>
       <c r="R1226" s="18"/>
     </row>
     <row r="1227" ht="14.25" customHeight="1">
@@ -67296,9 +67302,9 @@
       <c r="L1227" s="67"/>
       <c r="M1227" s="67"/>
       <c r="N1227" s="67"/>
-      <c r="O1227" s="107"/>
-      <c r="P1227" s="107"/>
-      <c r="Q1227" s="107"/>
+      <c r="O1227" s="108"/>
+      <c r="P1227" s="108"/>
+      <c r="Q1227" s="108"/>
       <c r="R1227" s="18"/>
     </row>
     <row r="1228" ht="14.25" customHeight="1">
@@ -67316,9 +67322,9 @@
       <c r="L1228" s="67"/>
       <c r="M1228" s="67"/>
       <c r="N1228" s="67"/>
-      <c r="O1228" s="107"/>
-      <c r="P1228" s="107"/>
-      <c r="Q1228" s="107"/>
+      <c r="O1228" s="108"/>
+      <c r="P1228" s="108"/>
+      <c r="Q1228" s="108"/>
       <c r="R1228" s="18"/>
     </row>
     <row r="1229" ht="14.25" customHeight="1">
@@ -67336,9 +67342,9 @@
       <c r="L1229" s="67"/>
       <c r="M1229" s="67"/>
       <c r="N1229" s="67"/>
-      <c r="O1229" s="107"/>
-      <c r="P1229" s="107"/>
-      <c r="Q1229" s="107"/>
+      <c r="O1229" s="108"/>
+      <c r="P1229" s="108"/>
+      <c r="Q1229" s="108"/>
       <c r="R1229" s="18"/>
     </row>
     <row r="1230" ht="14.25" customHeight="1">
@@ -67356,9 +67362,9 @@
       <c r="L1230" s="67"/>
       <c r="M1230" s="67"/>
       <c r="N1230" s="67"/>
-      <c r="O1230" s="107"/>
-      <c r="P1230" s="107"/>
-      <c r="Q1230" s="107"/>
+      <c r="O1230" s="108"/>
+      <c r="P1230" s="108"/>
+      <c r="Q1230" s="108"/>
       <c r="R1230" s="18"/>
     </row>
     <row r="1231" ht="14.25" customHeight="1">
@@ -67376,9 +67382,9 @@
       <c r="L1231" s="67"/>
       <c r="M1231" s="67"/>
       <c r="N1231" s="67"/>
-      <c r="O1231" s="107"/>
-      <c r="P1231" s="107"/>
-      <c r="Q1231" s="107"/>
+      <c r="O1231" s="108"/>
+      <c r="P1231" s="108"/>
+      <c r="Q1231" s="108"/>
       <c r="R1231" s="18"/>
     </row>
     <row r="1232" ht="14.25" customHeight="1">
@@ -67396,9 +67402,9 @@
       <c r="L1232" s="67"/>
       <c r="M1232" s="67"/>
       <c r="N1232" s="67"/>
-      <c r="O1232" s="107"/>
-      <c r="P1232" s="107"/>
-      <c r="Q1232" s="107"/>
+      <c r="O1232" s="108"/>
+      <c r="P1232" s="108"/>
+      <c r="Q1232" s="108"/>
       <c r="R1232" s="18"/>
     </row>
     <row r="1233" ht="14.25" customHeight="1">
@@ -67416,9 +67422,9 @@
       <c r="L1233" s="67"/>
       <c r="M1233" s="67"/>
       <c r="N1233" s="67"/>
-      <c r="O1233" s="107"/>
-      <c r="P1233" s="107"/>
-      <c r="Q1233" s="107"/>
+      <c r="O1233" s="108"/>
+      <c r="P1233" s="108"/>
+      <c r="Q1233" s="108"/>
       <c r="R1233" s="18"/>
     </row>
     <row r="1234" ht="14.25" customHeight="1">
@@ -67436,9 +67442,9 @@
       <c r="L1234" s="67"/>
       <c r="M1234" s="67"/>
       <c r="N1234" s="67"/>
-      <c r="O1234" s="107"/>
-      <c r="P1234" s="107"/>
-      <c r="Q1234" s="107"/>
+      <c r="O1234" s="108"/>
+      <c r="P1234" s="108"/>
+      <c r="Q1234" s="108"/>
       <c r="R1234" s="18"/>
     </row>
     <row r="1235" ht="14.25" customHeight="1">
@@ -67456,9 +67462,9 @@
       <c r="L1235" s="67"/>
       <c r="M1235" s="67"/>
       <c r="N1235" s="67"/>
-      <c r="O1235" s="107"/>
-      <c r="P1235" s="107"/>
-      <c r="Q1235" s="107"/>
+      <c r="O1235" s="108"/>
+      <c r="P1235" s="108"/>
+      <c r="Q1235" s="108"/>
       <c r="R1235" s="18"/>
     </row>
     <row r="1236" ht="14.25" customHeight="1">
@@ -67476,9 +67482,9 @@
       <c r="L1236" s="67"/>
       <c r="M1236" s="67"/>
       <c r="N1236" s="67"/>
-      <c r="O1236" s="107"/>
-      <c r="P1236" s="107"/>
-      <c r="Q1236" s="107"/>
+      <c r="O1236" s="108"/>
+      <c r="P1236" s="108"/>
+      <c r="Q1236" s="108"/>
       <c r="R1236" s="18"/>
     </row>
     <row r="1237" ht="14.25" customHeight="1">
@@ -67496,9 +67502,9 @@
       <c r="L1237" s="67"/>
       <c r="M1237" s="67"/>
       <c r="N1237" s="67"/>
-      <c r="O1237" s="107"/>
-      <c r="P1237" s="107"/>
-      <c r="Q1237" s="107"/>
+      <c r="O1237" s="108"/>
+      <c r="P1237" s="108"/>
+      <c r="Q1237" s="108"/>
       <c r="R1237" s="18"/>
     </row>
     <row r="1238" ht="14.25" customHeight="1">
@@ -67516,9 +67522,9 @@
       <c r="L1238" s="67"/>
       <c r="M1238" s="67"/>
       <c r="N1238" s="67"/>
-      <c r="O1238" s="107"/>
-      <c r="P1238" s="107"/>
-      <c r="Q1238" s="107"/>
+      <c r="O1238" s="108"/>
+      <c r="P1238" s="108"/>
+      <c r="Q1238" s="108"/>
       <c r="R1238" s="18"/>
     </row>
     <row r="1239" ht="14.25" customHeight="1">
@@ -67536,9 +67542,9 @@
       <c r="L1239" s="67"/>
       <c r="M1239" s="67"/>
       <c r="N1239" s="67"/>
-      <c r="O1239" s="107"/>
-      <c r="P1239" s="107"/>
-      <c r="Q1239" s="107"/>
+      <c r="O1239" s="108"/>
+      <c r="P1239" s="108"/>
+      <c r="Q1239" s="108"/>
       <c r="R1239" s="18"/>
     </row>
     <row r="1240" ht="14.25" customHeight="1">
@@ -67556,9 +67562,9 @@
       <c r="L1240" s="67"/>
       <c r="M1240" s="67"/>
       <c r="N1240" s="67"/>
-      <c r="O1240" s="107"/>
-      <c r="P1240" s="107"/>
-      <c r="Q1240" s="107"/>
+      <c r="O1240" s="108"/>
+      <c r="P1240" s="108"/>
+      <c r="Q1240" s="108"/>
       <c r="R1240" s="18"/>
     </row>
     <row r="1241" ht="14.25" customHeight="1">
@@ -67576,9 +67582,9 @@
       <c r="L1241" s="67"/>
       <c r="M1241" s="67"/>
       <c r="N1241" s="67"/>
-      <c r="O1241" s="107"/>
-      <c r="P1241" s="107"/>
-      <c r="Q1241" s="107"/>
+      <c r="O1241" s="108"/>
+      <c r="P1241" s="108"/>
+      <c r="Q1241" s="108"/>
       <c r="R1241" s="18"/>
     </row>
     <row r="1242" ht="14.25" customHeight="1">
@@ -67596,9 +67602,9 @@
       <c r="L1242" s="67"/>
       <c r="M1242" s="67"/>
       <c r="N1242" s="67"/>
-      <c r="O1242" s="107"/>
-      <c r="P1242" s="107"/>
-      <c r="Q1242" s="107"/>
+      <c r="O1242" s="108"/>
+      <c r="P1242" s="108"/>
+      <c r="Q1242" s="108"/>
       <c r="R1242" s="18"/>
     </row>
     <row r="1243" ht="14.25" customHeight="1">
@@ -67616,9 +67622,9 @@
       <c r="L1243" s="67"/>
       <c r="M1243" s="67"/>
       <c r="N1243" s="67"/>
-      <c r="O1243" s="107"/>
-      <c r="P1243" s="107"/>
-      <c r="Q1243" s="107"/>
+      <c r="O1243" s="108"/>
+      <c r="P1243" s="108"/>
+      <c r="Q1243" s="108"/>
       <c r="R1243" s="18"/>
     </row>
     <row r="1244" ht="14.25" customHeight="1">
@@ -67636,9 +67642,9 @@
       <c r="L1244" s="67"/>
       <c r="M1244" s="67"/>
       <c r="N1244" s="67"/>
-      <c r="O1244" s="107"/>
-      <c r="P1244" s="107"/>
-      <c r="Q1244" s="107"/>
+      <c r="O1244" s="108"/>
+      <c r="P1244" s="108"/>
+      <c r="Q1244" s="108"/>
       <c r="R1244" s="18"/>
     </row>
     <row r="1245" ht="14.25" customHeight="1">
@@ -67656,9 +67662,9 @@
       <c r="L1245" s="67"/>
       <c r="M1245" s="67"/>
       <c r="N1245" s="67"/>
-      <c r="O1245" s="107"/>
-      <c r="P1245" s="107"/>
-      <c r="Q1245" s="107"/>
+      <c r="O1245" s="108"/>
+      <c r="P1245" s="108"/>
+      <c r="Q1245" s="108"/>
       <c r="R1245" s="18"/>
     </row>
     <row r="1246" ht="14.25" customHeight="1">
@@ -67676,9 +67682,9 @@
       <c r="L1246" s="67"/>
       <c r="M1246" s="67"/>
       <c r="N1246" s="67"/>
-      <c r="O1246" s="107"/>
-      <c r="P1246" s="107"/>
-      <c r="Q1246" s="107"/>
+      <c r="O1246" s="108"/>
+      <c r="P1246" s="108"/>
+      <c r="Q1246" s="108"/>
       <c r="R1246" s="18"/>
     </row>
     <row r="1247" ht="14.25" customHeight="1">
@@ -67696,9 +67702,9 @@
       <c r="L1247" s="67"/>
       <c r="M1247" s="67"/>
       <c r="N1247" s="67"/>
-      <c r="O1247" s="107"/>
-      <c r="P1247" s="107"/>
-      <c r="Q1247" s="107"/>
+      <c r="O1247" s="108"/>
+      <c r="P1247" s="108"/>
+      <c r="Q1247" s="108"/>
       <c r="R1247" s="18"/>
     </row>
     <row r="1248" ht="14.25" customHeight="1">
@@ -67716,9 +67722,9 @@
       <c r="L1248" s="67"/>
       <c r="M1248" s="67"/>
       <c r="N1248" s="67"/>
-      <c r="O1248" s="107"/>
-      <c r="P1248" s="107"/>
-      <c r="Q1248" s="107"/>
+      <c r="O1248" s="108"/>
+      <c r="P1248" s="108"/>
+      <c r="Q1248" s="108"/>
       <c r="R1248" s="18"/>
     </row>
     <row r="1249" ht="14.25" customHeight="1">
@@ -67736,9 +67742,9 @@
       <c r="L1249" s="67"/>
       <c r="M1249" s="67"/>
       <c r="N1249" s="67"/>
-      <c r="O1249" s="107"/>
-      <c r="P1249" s="107"/>
-      <c r="Q1249" s="107"/>
+      <c r="O1249" s="108"/>
+      <c r="P1249" s="108"/>
+      <c r="Q1249" s="108"/>
       <c r="R1249" s="18"/>
     </row>
     <row r="1250" ht="14.25" customHeight="1">
@@ -67756,9 +67762,9 @@
       <c r="L1250" s="67"/>
       <c r="M1250" s="67"/>
       <c r="N1250" s="67"/>
-      <c r="O1250" s="107"/>
-      <c r="P1250" s="107"/>
-      <c r="Q1250" s="107"/>
+      <c r="O1250" s="108"/>
+      <c r="P1250" s="108"/>
+      <c r="Q1250" s="108"/>
       <c r="R1250" s="18"/>
     </row>
     <row r="1251" ht="14.25" customHeight="1">
@@ -67776,9 +67782,9 @@
       <c r="L1251" s="67"/>
       <c r="M1251" s="67"/>
       <c r="N1251" s="67"/>
-      <c r="O1251" s="107"/>
-      <c r="P1251" s="107"/>
-      <c r="Q1251" s="107"/>
+      <c r="O1251" s="108"/>
+      <c r="P1251" s="108"/>
+      <c r="Q1251" s="108"/>
       <c r="R1251" s="18"/>
     </row>
     <row r="1252" ht="14.25" customHeight="1">
@@ -67796,9 +67802,9 @@
       <c r="L1252" s="67"/>
       <c r="M1252" s="67"/>
       <c r="N1252" s="67"/>
-      <c r="O1252" s="107"/>
-      <c r="P1252" s="107"/>
-      <c r="Q1252" s="107"/>
+      <c r="O1252" s="108"/>
+      <c r="P1252" s="108"/>
+      <c r="Q1252" s="108"/>
       <c r="R1252" s="18"/>
     </row>
     <row r="1253" ht="14.25" customHeight="1">
@@ -67816,9 +67822,9 @@
       <c r="L1253" s="67"/>
       <c r="M1253" s="67"/>
       <c r="N1253" s="67"/>
-      <c r="O1253" s="107"/>
-      <c r="P1253" s="107"/>
-      <c r="Q1253" s="107"/>
+      <c r="O1253" s="108"/>
+      <c r="P1253" s="108"/>
+      <c r="Q1253" s="108"/>
       <c r="R1253" s="18"/>
     </row>
     <row r="1254" ht="14.25" customHeight="1">
@@ -67836,9 +67842,9 @@
       <c r="L1254" s="67"/>
       <c r="M1254" s="67"/>
       <c r="N1254" s="67"/>
-      <c r="O1254" s="107"/>
-      <c r="P1254" s="107"/>
-      <c r="Q1254" s="107"/>
+      <c r="O1254" s="108"/>
+      <c r="P1254" s="108"/>
+      <c r="Q1254" s="108"/>
       <c r="R1254" s="18"/>
     </row>
     <row r="1255" ht="14.25" customHeight="1">
@@ -67856,9 +67862,9 @@
       <c r="L1255" s="67"/>
       <c r="M1255" s="67"/>
       <c r="N1255" s="67"/>
-      <c r="O1255" s="107"/>
-      <c r="P1255" s="107"/>
-      <c r="Q1255" s="107"/>
+      <c r="O1255" s="108"/>
+      <c r="P1255" s="108"/>
+      <c r="Q1255" s="108"/>
       <c r="R1255" s="18"/>
     </row>
     <row r="1256" ht="14.25" customHeight="1">
@@ -67876,9 +67882,9 @@
       <c r="L1256" s="67"/>
       <c r="M1256" s="67"/>
       <c r="N1256" s="67"/>
-      <c r="O1256" s="107"/>
-      <c r="P1256" s="107"/>
-      <c r="Q1256" s="107"/>
+      <c r="O1256" s="108"/>
+      <c r="P1256" s="108"/>
+      <c r="Q1256" s="108"/>
       <c r="R1256" s="18"/>
     </row>
     <row r="1257" ht="14.25" customHeight="1">
@@ -67896,9 +67902,9 @@
       <c r="L1257" s="67"/>
       <c r="M1257" s="67"/>
       <c r="N1257" s="67"/>
-      <c r="O1257" s="107"/>
-      <c r="P1257" s="107"/>
-      <c r="Q1257" s="107"/>
+      <c r="O1257" s="108"/>
+      <c r="P1257" s="108"/>
+      <c r="Q1257" s="108"/>
       <c r="R1257" s="18"/>
     </row>
     <row r="1258" ht="14.25" customHeight="1">
@@ -67916,9 +67922,9 @@
       <c r="L1258" s="67"/>
       <c r="M1258" s="67"/>
       <c r="N1258" s="67"/>
-      <c r="O1258" s="107"/>
-      <c r="P1258" s="107"/>
-      <c r="Q1258" s="107"/>
+      <c r="O1258" s="108"/>
+      <c r="P1258" s="108"/>
+      <c r="Q1258" s="108"/>
       <c r="R1258" s="18"/>
     </row>
     <row r="1259" ht="14.25" customHeight="1">
@@ -67936,9 +67942,9 @@
       <c r="L1259" s="67"/>
       <c r="M1259" s="67"/>
       <c r="N1259" s="67"/>
-      <c r="O1259" s="107"/>
-      <c r="P1259" s="107"/>
-      <c r="Q1259" s="107"/>
+      <c r="O1259" s="108"/>
+      <c r="P1259" s="108"/>
+      <c r="Q1259" s="108"/>
       <c r="R1259" s="18"/>
     </row>
     <row r="1260" ht="14.25" customHeight="1">
@@ -67956,9 +67962,9 @@
       <c r="L1260" s="67"/>
       <c r="M1260" s="67"/>
       <c r="N1260" s="67"/>
-      <c r="O1260" s="107"/>
-      <c r="P1260" s="107"/>
-      <c r="Q1260" s="107"/>
+      <c r="O1260" s="108"/>
+      <c r="P1260" s="108"/>
+      <c r="Q1260" s="108"/>
       <c r="R1260" s="18"/>
     </row>
     <row r="1261" ht="14.25" customHeight="1">
@@ -67976,9 +67982,9 @@
       <c r="L1261" s="67"/>
       <c r="M1261" s="67"/>
       <c r="N1261" s="67"/>
-      <c r="O1261" s="107"/>
-      <c r="P1261" s="107"/>
-      <c r="Q1261" s="107"/>
+      <c r="O1261" s="108"/>
+      <c r="P1261" s="108"/>
+      <c r="Q1261" s="108"/>
       <c r="R1261" s="18"/>
     </row>
     <row r="1262" ht="14.25" customHeight="1">
@@ -67996,9 +68002,9 @@
       <c r="L1262" s="67"/>
       <c r="M1262" s="67"/>
       <c r="N1262" s="67"/>
-      <c r="O1262" s="107"/>
-      <c r="P1262" s="107"/>
-      <c r="Q1262" s="107"/>
+      <c r="O1262" s="108"/>
+      <c r="P1262" s="108"/>
+      <c r="Q1262" s="108"/>
       <c r="R1262" s="18"/>
     </row>
     <row r="1263" ht="14.25" customHeight="1">
@@ -68016,9 +68022,9 @@
       <c r="L1263" s="67"/>
       <c r="M1263" s="67"/>
       <c r="N1263" s="67"/>
-      <c r="O1263" s="107"/>
-      <c r="P1263" s="107"/>
-      <c r="Q1263" s="107"/>
+      <c r="O1263" s="108"/>
+      <c r="P1263" s="108"/>
+      <c r="Q1263" s="108"/>
       <c r="R1263" s="18"/>
     </row>
     <row r="1264" ht="14.25" customHeight="1">
@@ -68036,9 +68042,9 @@
       <c r="L1264" s="67"/>
       <c r="M1264" s="67"/>
       <c r="N1264" s="67"/>
-      <c r="O1264" s="107"/>
-      <c r="P1264" s="107"/>
-      <c r="Q1264" s="107"/>
+      <c r="O1264" s="108"/>
+      <c r="P1264" s="108"/>
+      <c r="Q1264" s="108"/>
       <c r="R1264" s="18"/>
     </row>
     <row r="1265" ht="14.25" customHeight="1">
@@ -68056,9 +68062,9 @@
       <c r="L1265" s="67"/>
       <c r="M1265" s="67"/>
       <c r="N1265" s="67"/>
-      <c r="O1265" s="107"/>
-      <c r="P1265" s="107"/>
-      <c r="Q1265" s="107"/>
+      <c r="O1265" s="108"/>
+      <c r="P1265" s="108"/>
+      <c r="Q1265" s="108"/>
       <c r="R1265" s="18"/>
     </row>
     <row r="1266" ht="14.25" customHeight="1">
@@ -68076,9 +68082,9 @@
       <c r="L1266" s="67"/>
       <c r="M1266" s="67"/>
       <c r="N1266" s="67"/>
-      <c r="O1266" s="107"/>
-      <c r="P1266" s="107"/>
-      <c r="Q1266" s="107"/>
+      <c r="O1266" s="108"/>
+      <c r="P1266" s="108"/>
+      <c r="Q1266" s="108"/>
       <c r="R1266" s="18"/>
     </row>
     <row r="1267" ht="14.25" customHeight="1">
@@ -68096,9 +68102,9 @@
       <c r="L1267" s="67"/>
       <c r="M1267" s="67"/>
       <c r="N1267" s="67"/>
-      <c r="O1267" s="107"/>
-      <c r="P1267" s="107"/>
-      <c r="Q1267" s="107"/>
+      <c r="O1267" s="108"/>
+      <c r="P1267" s="108"/>
+      <c r="Q1267" s="108"/>
       <c r="R1267" s="18"/>
     </row>
     <row r="1268" ht="14.25" customHeight="1">
@@ -68116,9 +68122,9 @@
       <c r="L1268" s="67"/>
       <c r="M1268" s="67"/>
       <c r="N1268" s="67"/>
-      <c r="O1268" s="107"/>
-      <c r="P1268" s="107"/>
-      <c r="Q1268" s="107"/>
+      <c r="O1268" s="108"/>
+      <c r="P1268" s="108"/>
+      <c r="Q1268" s="108"/>
       <c r="R1268" s="18"/>
     </row>
     <row r="1269" ht="14.25" customHeight="1">
@@ -68136,9 +68142,9 @@
       <c r="L1269" s="67"/>
       <c r="M1269" s="67"/>
       <c r="N1269" s="67"/>
-      <c r="O1269" s="107"/>
-      <c r="P1269" s="107"/>
-      <c r="Q1269" s="107"/>
+      <c r="O1269" s="108"/>
+      <c r="P1269" s="108"/>
+      <c r="Q1269" s="108"/>
       <c r="R1269" s="18"/>
     </row>
     <row r="1270" ht="14.25" customHeight="1">
@@ -68156,9 +68162,9 @@
       <c r="L1270" s="67"/>
       <c r="M1270" s="67"/>
       <c r="N1270" s="67"/>
-      <c r="O1270" s="107"/>
-      <c r="P1270" s="107"/>
-      <c r="Q1270" s="107"/>
+      <c r="O1270" s="108"/>
+      <c r="P1270" s="108"/>
+      <c r="Q1270" s="108"/>
       <c r="R1270" s="18"/>
     </row>
     <row r="1271" ht="14.25" customHeight="1">
@@ -68176,9 +68182,9 @@
       <c r="L1271" s="67"/>
       <c r="M1271" s="67"/>
       <c r="N1271" s="67"/>
-      <c r="O1271" s="107"/>
-      <c r="P1271" s="107"/>
-      <c r="Q1271" s="107"/>
+      <c r="O1271" s="108"/>
+      <c r="P1271" s="108"/>
+      <c r="Q1271" s="108"/>
       <c r="R1271" s="18"/>
     </row>
     <row r="1272" ht="14.25" customHeight="1">
@@ -68196,9 +68202,9 @@
       <c r="L1272" s="67"/>
       <c r="M1272" s="67"/>
       <c r="N1272" s="67"/>
-      <c r="O1272" s="107"/>
-      <c r="P1272" s="107"/>
-      <c r="Q1272" s="107"/>
+      <c r="O1272" s="108"/>
+      <c r="P1272" s="108"/>
+      <c r="Q1272" s="108"/>
       <c r="R1272" s="18"/>
     </row>
     <row r="1273" ht="14.25" customHeight="1">
@@ -68216,9 +68222,9 @@
       <c r="L1273" s="67"/>
       <c r="M1273" s="67"/>
       <c r="N1273" s="67"/>
-      <c r="O1273" s="107"/>
-      <c r="P1273" s="107"/>
-      <c r="Q1273" s="107"/>
+      <c r="O1273" s="108"/>
+      <c r="P1273" s="108"/>
+      <c r="Q1273" s="108"/>
       <c r="R1273" s="18"/>
     </row>
     <row r="1274" ht="14.25" customHeight="1">
@@ -68236,9 +68242,9 @@
       <c r="L1274" s="67"/>
       <c r="M1274" s="67"/>
       <c r="N1274" s="67"/>
-      <c r="O1274" s="107"/>
-      <c r="P1274" s="107"/>
-      <c r="Q1274" s="107"/>
+      <c r="O1274" s="108"/>
+      <c r="P1274" s="108"/>
+      <c r="Q1274" s="108"/>
       <c r="R1274" s="18"/>
     </row>
     <row r="1275" ht="14.25" customHeight="1">
@@ -68256,9 +68262,9 @@
       <c r="L1275" s="67"/>
       <c r="M1275" s="67"/>
       <c r="N1275" s="67"/>
-      <c r="O1275" s="107"/>
-      <c r="P1275" s="107"/>
-      <c r="Q1275" s="107"/>
+      <c r="O1275" s="108"/>
+      <c r="P1275" s="108"/>
+      <c r="Q1275" s="108"/>
       <c r="R1275" s="18"/>
     </row>
     <row r="1276" ht="14.25" customHeight="1">
@@ -68276,9 +68282,9 @@
       <c r="L1276" s="67"/>
       <c r="M1276" s="67"/>
       <c r="N1276" s="67"/>
-      <c r="O1276" s="107"/>
-      <c r="P1276" s="107"/>
-      <c r="Q1276" s="107"/>
+      <c r="O1276" s="108"/>
+      <c r="P1276" s="108"/>
+      <c r="Q1276" s="108"/>
       <c r="R1276" s="18"/>
     </row>
     <row r="1277" ht="14.25" customHeight="1">
@@ -68296,9 +68302,9 @@
       <c r="L1277" s="67"/>
       <c r="M1277" s="67"/>
       <c r="N1277" s="67"/>
-      <c r="O1277" s="107"/>
-      <c r="P1277" s="107"/>
-      <c r="Q1277" s="107"/>
+      <c r="O1277" s="108"/>
+      <c r="P1277" s="108"/>
+      <c r="Q1277" s="108"/>
       <c r="R1277" s="18"/>
     </row>
     <row r="1278" ht="14.25" customHeight="1">
@@ -68316,9 +68322,9 @@
       <c r="L1278" s="67"/>
       <c r="M1278" s="67"/>
       <c r="N1278" s="67"/>
-      <c r="O1278" s="107"/>
-      <c r="P1278" s="107"/>
-      <c r="Q1278" s="107"/>
+      <c r="O1278" s="108"/>
+      <c r="P1278" s="108"/>
+      <c r="Q1278" s="108"/>
       <c r="R1278" s="18"/>
     </row>
     <row r="1279" ht="14.25" customHeight="1">
@@ -68336,9 +68342,9 @@
       <c r="L1279" s="67"/>
       <c r="M1279" s="67"/>
       <c r="N1279" s="67"/>
-      <c r="O1279" s="107"/>
-      <c r="P1279" s="107"/>
-      <c r="Q1279" s="107"/>
+      <c r="O1279" s="108"/>
+      <c r="P1279" s="108"/>
+      <c r="Q1279" s="108"/>
       <c r="R1279" s="18"/>
     </row>
     <row r="1280" ht="14.25" customHeight="1">
@@ -68356,9 +68362,9 @@
       <c r="L1280" s="67"/>
       <c r="M1280" s="67"/>
       <c r="N1280" s="67"/>
-      <c r="O1280" s="107"/>
-      <c r="P1280" s="107"/>
-      <c r="Q1280" s="107"/>
+      <c r="O1280" s="108"/>
+      <c r="P1280" s="108"/>
+      <c r="Q1280" s="108"/>
       <c r="R1280" s="18"/>
     </row>
     <row r="1281" ht="14.25" customHeight="1">
@@ -68376,9 +68382,9 @@
       <c r="L1281" s="67"/>
       <c r="M1281" s="67"/>
       <c r="N1281" s="67"/>
-      <c r="O1281" s="107"/>
-      <c r="P1281" s="107"/>
-      <c r="Q1281" s="107"/>
+      <c r="O1281" s="108"/>
+      <c r="P1281" s="108"/>
+      <c r="Q1281" s="108"/>
       <c r="R1281" s="18"/>
     </row>
     <row r="1282" ht="14.25" customHeight="1">
@@ -68396,9 +68402,9 @@
       <c r="L1282" s="67"/>
       <c r="M1282" s="67"/>
       <c r="N1282" s="67"/>
-      <c r="O1282" s="107"/>
-      <c r="P1282" s="107"/>
-      <c r="Q1282" s="107"/>
+      <c r="O1282" s="108"/>
+      <c r="P1282" s="108"/>
+      <c r="Q1282" s="108"/>
       <c r="R1282" s="18"/>
     </row>
     <row r="1283" ht="14.25" customHeight="1">
@@ -68416,9 +68422,9 @@
       <c r="L1283" s="67"/>
       <c r="M1283" s="67"/>
       <c r="N1283" s="67"/>
-      <c r="O1283" s="107"/>
-      <c r="P1283" s="107"/>
-      <c r="Q1283" s="107"/>
+      <c r="O1283" s="108"/>
+      <c r="P1283" s="108"/>
+      <c r="Q1283" s="108"/>
       <c r="R1283" s="18"/>
     </row>
     <row r="1284" ht="14.25" customHeight="1">
@@ -68436,9 +68442,9 @@
       <c r="L1284" s="67"/>
       <c r="M1284" s="67"/>
       <c r="N1284" s="67"/>
-      <c r="O1284" s="107"/>
-      <c r="P1284" s="107"/>
-      <c r="Q1284" s="107"/>
+      <c r="O1284" s="108"/>
+      <c r="P1284" s="108"/>
+      <c r="Q1284" s="108"/>
       <c r="R1284" s="18"/>
     </row>
     <row r="1285" ht="14.25" customHeight="1">
@@ -68456,9 +68462,9 @@
       <c r="L1285" s="67"/>
       <c r="M1285" s="67"/>
       <c r="N1285" s="67"/>
-      <c r="O1285" s="107"/>
-      <c r="P1285" s="107"/>
-      <c r="Q1285" s="107"/>
+      <c r="O1285" s="108"/>
+      <c r="P1285" s="108"/>
+      <c r="Q1285" s="108"/>
       <c r="R1285" s="18"/>
     </row>
     <row r="1286" ht="14.25" customHeight="1">
@@ -68476,9 +68482,9 @@
       <c r="L1286" s="67"/>
       <c r="M1286" s="67"/>
       <c r="N1286" s="67"/>
-      <c r="O1286" s="107"/>
-      <c r="P1286" s="107"/>
-      <c r="Q1286" s="107"/>
+      <c r="O1286" s="108"/>
+      <c r="P1286" s="108"/>
+      <c r="Q1286" s="108"/>
       <c r="R1286" s="18"/>
     </row>
     <row r="1287" ht="14.25" customHeight="1">
@@ -68496,9 +68502,9 @@
       <c r="L1287" s="67"/>
       <c r="M1287" s="67"/>
       <c r="N1287" s="67"/>
-      <c r="O1287" s="107"/>
-      <c r="P1287" s="107"/>
-      <c r="Q1287" s="107"/>
+      <c r="O1287" s="108"/>
+      <c r="P1287" s="108"/>
+      <c r="Q1287" s="108"/>
       <c r="R1287" s="18"/>
     </row>
     <row r="1288" ht="14.25" customHeight="1">
@@ -68516,9 +68522,9 @@
       <c r="L1288" s="67"/>
       <c r="M1288" s="67"/>
       <c r="N1288" s="67"/>
-      <c r="O1288" s="107"/>
-      <c r="P1288" s="107"/>
-      <c r="Q1288" s="107"/>
+      <c r="O1288" s="108"/>
+      <c r="P1288" s="108"/>
+      <c r="Q1288" s="108"/>
       <c r="R1288" s="18"/>
     </row>
     <row r="1289" ht="14.25" customHeight="1">
@@ -68536,9 +68542,9 @@
       <c r="L1289" s="67"/>
       <c r="M1289" s="67"/>
       <c r="N1289" s="67"/>
-      <c r="O1289" s="107"/>
-      <c r="P1289" s="107"/>
-      <c r="Q1289" s="107"/>
+      <c r="O1289" s="108"/>
+      <c r="P1289" s="108"/>
+      <c r="Q1289" s="108"/>
       <c r="R1289" s="18"/>
     </row>
     <row r="1290" ht="14.25" customHeight="1">
@@ -68556,9 +68562,9 @@
       <c r="L1290" s="67"/>
       <c r="M1290" s="67"/>
       <c r="N1290" s="67"/>
-      <c r="O1290" s="107"/>
-      <c r="P1290" s="107"/>
-      <c r="Q1290" s="107"/>
+      <c r="O1290" s="108"/>
+      <c r="P1290" s="108"/>
+      <c r="Q1290" s="108"/>
       <c r="R1290" s="18"/>
     </row>
     <row r="1291" ht="14.25" customHeight="1">
@@ -68576,9 +68582,9 @@
       <c r="L1291" s="67"/>
       <c r="M1291" s="67"/>
       <c r="N1291" s="67"/>
-      <c r="O1291" s="107"/>
-      <c r="P1291" s="107"/>
-      <c r="Q1291" s="107"/>
+      <c r="O1291" s="108"/>
+      <c r="P1291" s="108"/>
+      <c r="Q1291" s="108"/>
       <c r="R1291" s="18"/>
     </row>
     <row r="1292" ht="14.25" customHeight="1">
@@ -68596,9 +68602,9 @@
       <c r="L1292" s="67"/>
       <c r="M1292" s="67"/>
       <c r="N1292" s="67"/>
-      <c r="O1292" s="107"/>
-      <c r="P1292" s="107"/>
-      <c r="Q1292" s="107"/>
+      <c r="O1292" s="108"/>
+      <c r="P1292" s="108"/>
+      <c r="Q1292" s="108"/>
       <c r="R1292" s="18"/>
     </row>
     <row r="1293" ht="14.25" customHeight="1">
@@ -68616,9 +68622,9 @@
       <c r="L1293" s="67"/>
       <c r="M1293" s="67"/>
       <c r="N1293" s="67"/>
-      <c r="O1293" s="107"/>
-      <c r="P1293" s="107"/>
-      <c r="Q1293" s="107"/>
+      <c r="O1293" s="108"/>
+      <c r="P1293" s="108"/>
+      <c r="Q1293" s="108"/>
       <c r="R1293" s="18"/>
     </row>
     <row r="1294" ht="14.25" customHeight="1">
@@ -68636,9 +68642,9 @@
       <c r="L1294" s="67"/>
       <c r="M1294" s="67"/>
       <c r="N1294" s="67"/>
-      <c r="O1294" s="107"/>
-      <c r="P1294" s="107"/>
-      <c r="Q1294" s="107"/>
+      <c r="O1294" s="108"/>
+      <c r="P1294" s="108"/>
+      <c r="Q1294" s="108"/>
       <c r="R1294" s="18"/>
     </row>
     <row r="1295" ht="14.25" customHeight="1">
@@ -68656,9 +68662,9 @@
       <c r="L1295" s="67"/>
       <c r="M1295" s="67"/>
       <c r="N1295" s="67"/>
-      <c r="O1295" s="107"/>
-      <c r="P1295" s="107"/>
-      <c r="Q1295" s="107"/>
+      <c r="O1295" s="108"/>
+      <c r="P1295" s="108"/>
+      <c r="Q1295" s="108"/>
       <c r="R1295" s="18"/>
     </row>
     <row r="1296" ht="14.25" customHeight="1">
@@ -68676,9 +68682,9 @@
       <c r="L1296" s="67"/>
       <c r="M1296" s="67"/>
       <c r="N1296" s="67"/>
-      <c r="O1296" s="107"/>
-      <c r="P1296" s="107"/>
-      <c r="Q1296" s="107"/>
+      <c r="O1296" s="108"/>
+      <c r="P1296" s="108"/>
+      <c r="Q1296" s="108"/>
       <c r="R1296" s="18"/>
     </row>
     <row r="1297" ht="14.25" customHeight="1">
@@ -68696,9 +68702,9 @@
       <c r="L1297" s="67"/>
       <c r="M1297" s="67"/>
       <c r="N1297" s="67"/>
-      <c r="O1297" s="107"/>
-      <c r="P1297" s="107"/>
-      <c r="Q1297" s="107"/>
+      <c r="O1297" s="108"/>
+      <c r="P1297" s="108"/>
+      <c r="Q1297" s="108"/>
       <c r="R1297" s="18"/>
     </row>
     <row r="1298" ht="14.25" customHeight="1">
@@ -68716,9 +68722,9 @@
       <c r="L1298" s="67"/>
       <c r="M1298" s="67"/>
       <c r="N1298" s="67"/>
-      <c r="O1298" s="107"/>
-      <c r="P1298" s="107"/>
-      <c r="Q1298" s="107"/>
+      <c r="O1298" s="108"/>
+      <c r="P1298" s="108"/>
+      <c r="Q1298" s="108"/>
       <c r="R1298" s="18"/>
     </row>
     <row r="1299" ht="14.25" customHeight="1">
@@ -68736,9 +68742,9 @@
       <c r="L1299" s="67"/>
       <c r="M1299" s="67"/>
       <c r="N1299" s="67"/>
-      <c r="O1299" s="107"/>
-      <c r="P1299" s="107"/>
-      <c r="Q1299" s="107"/>
+      <c r="O1299" s="108"/>
+      <c r="P1299" s="108"/>
+      <c r="Q1299" s="108"/>
       <c r="R1299" s="18"/>
     </row>
     <row r="1300" ht="14.25" customHeight="1">
@@ -68756,9 +68762,9 @@
       <c r="L1300" s="67"/>
       <c r="M1300" s="67"/>
       <c r="N1300" s="67"/>
-      <c r="O1300" s="107"/>
-      <c r="P1300" s="107"/>
-      <c r="Q1300" s="107"/>
+      <c r="O1300" s="108"/>
+      <c r="P1300" s="108"/>
+      <c r="Q1300" s="108"/>
       <c r="R1300" s="18"/>
     </row>
     <row r="1301" ht="14.25" customHeight="1">
@@ -68776,9 +68782,9 @@
       <c r="L1301" s="67"/>
       <c r="M1301" s="67"/>
       <c r="N1301" s="67"/>
-      <c r="O1301" s="107"/>
-      <c r="P1301" s="107"/>
-      <c r="Q1301" s="107"/>
+      <c r="O1301" s="108"/>
+      <c r="P1301" s="108"/>
+      <c r="Q1301" s="108"/>
       <c r="R1301" s="18"/>
     </row>
     <row r="1302" ht="14.25" customHeight="1">
@@ -68796,9 +68802,9 @@
       <c r="L1302" s="67"/>
       <c r="M1302" s="67"/>
       <c r="N1302" s="67"/>
-      <c r="O1302" s="107"/>
-      <c r="P1302" s="107"/>
-      <c r="Q1302" s="107"/>
+      <c r="O1302" s="108"/>
+      <c r="P1302" s="108"/>
+      <c r="Q1302" s="108"/>
       <c r="R1302" s="18"/>
     </row>
     <row r="1303" ht="14.25" customHeight="1">
@@ -68816,9 +68822,9 @@
       <c r="L1303" s="67"/>
       <c r="M1303" s="67"/>
       <c r="N1303" s="67"/>
-      <c r="O1303" s="107"/>
-      <c r="P1303" s="107"/>
-      <c r="Q1303" s="107"/>
+      <c r="O1303" s="108"/>
+      <c r="P1303" s="108"/>
+      <c r="Q1303" s="108"/>
       <c r="R1303" s="18"/>
     </row>
     <row r="1304" ht="14.25" customHeight="1">
@@ -68836,9 +68842,9 @@
       <c r="L1304" s="67"/>
       <c r="M1304" s="67"/>
       <c r="N1304" s="67"/>
-      <c r="O1304" s="107"/>
-      <c r="P1304" s="107"/>
-      <c r="Q1304" s="107"/>
+      <c r="O1304" s="108"/>
+      <c r="P1304" s="108"/>
+      <c r="Q1304" s="108"/>
       <c r="R1304" s="18"/>
     </row>
     <row r="1305" ht="14.25" customHeight="1">
@@ -68856,9 +68862,9 @@
       <c r="L1305" s="67"/>
       <c r="M1305" s="67"/>
       <c r="N1305" s="67"/>
-      <c r="O1305" s="107"/>
-      <c r="P1305" s="107"/>
-      <c r="Q1305" s="107"/>
+      <c r="O1305" s="108"/>
+      <c r="P1305" s="108"/>
+      <c r="Q1305" s="108"/>
       <c r="R1305" s="18"/>
     </row>
     <row r="1306" ht="14.25" customHeight="1">
@@ -68876,9 +68882,9 @@
       <c r="L1306" s="67"/>
       <c r="M1306" s="67"/>
       <c r="N1306" s="67"/>
-      <c r="O1306" s="107"/>
-      <c r="P1306" s="107"/>
-      <c r="Q1306" s="107"/>
+      <c r="O1306" s="108"/>
+      <c r="P1306" s="108"/>
+      <c r="Q1306" s="108"/>
       <c r="R1306" s="18"/>
     </row>
     <row r="1307" ht="14.25" customHeight="1">
@@ -68896,9 +68902,9 @@
       <c r="L1307" s="67"/>
       <c r="M1307" s="67"/>
       <c r="N1307" s="67"/>
-      <c r="O1307" s="107"/>
-      <c r="P1307" s="107"/>
-      <c r="Q1307" s="107"/>
+      <c r="O1307" s="108"/>
+      <c r="P1307" s="108"/>
+      <c r="Q1307" s="108"/>
       <c r="R1307" s="18"/>
     </row>
     <row r="1308" ht="14.25" customHeight="1">
@@ -68916,9 +68922,9 @@
       <c r="L1308" s="67"/>
       <c r="M1308" s="67"/>
       <c r="N1308" s="67"/>
-      <c r="O1308" s="107"/>
-      <c r="P1308" s="107"/>
-      <c r="Q1308" s="107"/>
+      <c r="O1308" s="108"/>
+      <c r="P1308" s="108"/>
+      <c r="Q1308" s="108"/>
       <c r="R1308" s="18"/>
     </row>
     <row r="1309" ht="14.25" customHeight="1">
@@ -68936,9 +68942,9 @@
       <c r="L1309" s="67"/>
       <c r="M1309" s="67"/>
       <c r="N1309" s="67"/>
-      <c r="O1309" s="107"/>
-      <c r="P1309" s="107"/>
-      <c r="Q1309" s="107"/>
+      <c r="O1309" s="108"/>
+      <c r="P1309" s="108"/>
+      <c r="Q1309" s="108"/>
       <c r="R1309" s="18"/>
     </row>
     <row r="1310" ht="14.25" customHeight="1">
@@ -68956,9 +68962,9 @@
       <c r="L1310" s="67"/>
       <c r="M1310" s="67"/>
       <c r="N1310" s="67"/>
-      <c r="O1310" s="107"/>
-      <c r="P1310" s="107"/>
-      <c r="Q1310" s="107"/>
+      <c r="O1310" s="108"/>
+      <c r="P1310" s="108"/>
+      <c r="Q1310" s="108"/>
       <c r="R1310" s="18"/>
     </row>
     <row r="1311" ht="14.25" customHeight="1">
@@ -68976,9 +68982,9 @@
       <c r="L1311" s="67"/>
       <c r="M1311" s="67"/>
       <c r="N1311" s="67"/>
-      <c r="O1311" s="107"/>
-      <c r="P1311" s="107"/>
-      <c r="Q1311" s="107"/>
+      <c r="O1311" s="108"/>
+      <c r="P1311" s="108"/>
+      <c r="Q1311" s="108"/>
       <c r="R1311" s="18"/>
     </row>
     <row r="1312" ht="14.25" customHeight="1">
@@ -68996,9 +69002,9 @@
       <c r="L1312" s="67"/>
       <c r="M1312" s="67"/>
       <c r="N1312" s="67"/>
-      <c r="O1312" s="107"/>
-      <c r="P1312" s="107"/>
-      <c r="Q1312" s="107"/>
+      <c r="O1312" s="108"/>
+      <c r="P1312" s="108"/>
+      <c r="Q1312" s="108"/>
       <c r="R1312" s="18"/>
     </row>
     <row r="1313" ht="14.25" customHeight="1">
@@ -69016,9 +69022,9 @@
       <c r="L1313" s="67"/>
       <c r="M1313" s="67"/>
       <c r="N1313" s="67"/>
-      <c r="O1313" s="107"/>
-      <c r="P1313" s="107"/>
-      <c r="Q1313" s="107"/>
+      <c r="O1313" s="108"/>
+      <c r="P1313" s="108"/>
+      <c r="Q1313" s="108"/>
       <c r="R1313" s="18"/>
     </row>
     <row r="1314" ht="14.25" customHeight="1">
@@ -69036,9 +69042,9 @@
       <c r="L1314" s="67"/>
       <c r="M1314" s="67"/>
       <c r="N1314" s="67"/>
-      <c r="O1314" s="107"/>
-      <c r="P1314" s="107"/>
-      <c r="Q1314" s="107"/>
+      <c r="O1314" s="108"/>
+      <c r="P1314" s="108"/>
+      <c r="Q1314" s="108"/>
       <c r="R1314" s="18"/>
     </row>
     <row r="1315" ht="14.25" customHeight="1">
@@ -69056,9 +69062,9 @@
       <c r="L1315" s="67"/>
       <c r="M1315" s="67"/>
       <c r="N1315" s="67"/>
-      <c r="O1315" s="107"/>
-      <c r="P1315" s="107"/>
-      <c r="Q1315" s="107"/>
+      <c r="O1315" s="108"/>
+      <c r="P1315" s="108"/>
+      <c r="Q1315" s="108"/>
       <c r="R1315" s="18"/>
     </row>
     <row r="1316" ht="14.25" customHeight="1">
@@ -69076,9 +69082,9 @@
       <c r="L1316" s="67"/>
       <c r="M1316" s="67"/>
       <c r="N1316" s="67"/>
-      <c r="O1316" s="107"/>
-      <c r="P1316" s="107"/>
-      <c r="Q1316" s="107"/>
+      <c r="O1316" s="108"/>
+      <c r="P1316" s="108"/>
+      <c r="Q1316" s="108"/>
       <c r="R1316" s="18"/>
     </row>
     <row r="1317" ht="14.25" customHeight="1">
@@ -69096,9 +69102,9 @@
       <c r="L1317" s="67"/>
       <c r="M1317" s="67"/>
       <c r="N1317" s="67"/>
-      <c r="O1317" s="107"/>
-      <c r="P1317" s="107"/>
-      <c r="Q1317" s="107"/>
+      <c r="O1317" s="108"/>
+      <c r="P1317" s="108"/>
+      <c r="Q1317" s="108"/>
       <c r="R1317" s="18"/>
     </row>
     <row r="1318" ht="14.25" customHeight="1">
@@ -69116,9 +69122,9 @@
       <c r="L1318" s="67"/>
       <c r="M1318" s="67"/>
       <c r="N1318" s="67"/>
-      <c r="O1318" s="107"/>
-      <c r="P1318" s="107"/>
-      <c r="Q1318" s="107"/>
+      <c r="O1318" s="108"/>
+      <c r="P1318" s="108"/>
+      <c r="Q1318" s="108"/>
       <c r="R1318" s="18"/>
     </row>
     <row r="1319" ht="14.25" customHeight="1">
@@ -69136,9 +69142,9 @@
       <c r="L1319" s="67"/>
       <c r="M1319" s="67"/>
       <c r="N1319" s="67"/>
-      <c r="O1319" s="107"/>
-      <c r="P1319" s="107"/>
-      <c r="Q1319" s="107"/>
+      <c r="O1319" s="108"/>
+      <c r="P1319" s="108"/>
+      <c r="Q1319" s="108"/>
       <c r="R1319" s="18"/>
     </row>
     <row r="1320" ht="14.25" customHeight="1">
@@ -69156,9 +69162,9 @@
       <c r="L1320" s="67"/>
       <c r="M1320" s="67"/>
       <c r="N1320" s="67"/>
-      <c r="O1320" s="107"/>
-      <c r="P1320" s="107"/>
-      <c r="Q1320" s="107"/>
+      <c r="O1320" s="108"/>
+      <c r="P1320" s="108"/>
+      <c r="Q1320" s="108"/>
       <c r="R1320" s="18"/>
     </row>
     <row r="1321" ht="14.25" customHeight="1">
@@ -69176,9 +69182,9 @@
       <c r="L1321" s="67"/>
       <c r="M1321" s="67"/>
       <c r="N1321" s="67"/>
-      <c r="O1321" s="107"/>
-      <c r="P1321" s="107"/>
-      <c r="Q1321" s="107"/>
+      <c r="O1321" s="108"/>
+      <c r="P1321" s="108"/>
+      <c r="Q1321" s="108"/>
       <c r="R1321" s="18"/>
     </row>
     <row r="1322" ht="14.25" customHeight="1">
@@ -69196,9 +69202,9 @@
       <c r="L1322" s="67"/>
       <c r="M1322" s="67"/>
       <c r="N1322" s="67"/>
-      <c r="O1322" s="107"/>
-      <c r="P1322" s="107"/>
-      <c r="Q1322" s="107"/>
+      <c r="O1322" s="108"/>
+      <c r="P1322" s="108"/>
+      <c r="Q1322" s="108"/>
       <c r="R1322" s="18"/>
     </row>
     <row r="1323" ht="14.25" customHeight="1">
@@ -69216,9 +69222,9 @@
       <c r="L1323" s="67"/>
       <c r="M1323" s="67"/>
       <c r="N1323" s="67"/>
-      <c r="O1323" s="107"/>
-      <c r="P1323" s="107"/>
-      <c r="Q1323" s="107"/>
+      <c r="O1323" s="108"/>
+      <c r="P1323" s="108"/>
+      <c r="Q1323" s="108"/>
       <c r="R1323" s="18"/>
     </row>
     <row r="1324" ht="14.25" customHeight="1">
@@ -69236,9 +69242,9 @@
       <c r="L1324" s="67"/>
       <c r="M1324" s="67"/>
       <c r="N1324" s="67"/>
-      <c r="O1324" s="107"/>
-      <c r="P1324" s="107"/>
-      <c r="Q1324" s="107"/>
+      <c r="O1324" s="108"/>
+      <c r="P1324" s="108"/>
+      <c r="Q1324" s="108"/>
       <c r="R1324" s="18"/>
     </row>
     <row r="1325" ht="14.25" customHeight="1">
@@ -69256,9 +69262,9 @@
       <c r="L1325" s="67"/>
       <c r="M1325" s="67"/>
       <c r="N1325" s="67"/>
-      <c r="O1325" s="107"/>
-      <c r="P1325" s="107"/>
-      <c r="Q1325" s="107"/>
+      <c r="O1325" s="108"/>
+      <c r="P1325" s="108"/>
+      <c r="Q1325" s="108"/>
       <c r="R1325" s="18"/>
     </row>
     <row r="1326" ht="14.25" customHeight="1">
@@ -69276,9 +69282,9 @@
       <c r="L1326" s="67"/>
       <c r="M1326" s="67"/>
       <c r="N1326" s="67"/>
-      <c r="O1326" s="107"/>
-      <c r="P1326" s="107"/>
-      <c r="Q1326" s="107"/>
+      <c r="O1326" s="108"/>
+      <c r="P1326" s="108"/>
+      <c r="Q1326" s="108"/>
       <c r="R1326" s="18"/>
     </row>
     <row r="1327" ht="14.25" customHeight="1">
@@ -69296,9 +69302,9 @@
       <c r="L1327" s="67"/>
       <c r="M1327" s="67"/>
       <c r="N1327" s="67"/>
-      <c r="O1327" s="107"/>
-      <c r="P1327" s="107"/>
-      <c r="Q1327" s="107"/>
+      <c r="O1327" s="108"/>
+      <c r="P1327" s="108"/>
+      <c r="Q1327" s="108"/>
       <c r="R1327" s="18"/>
     </row>
     <row r="1328" ht="14.25" customHeight="1">
@@ -69316,9 +69322,9 @@
       <c r="L1328" s="67"/>
       <c r="M1328" s="67"/>
       <c r="N1328" s="67"/>
-      <c r="O1328" s="107"/>
-      <c r="P1328" s="107"/>
-      <c r="Q1328" s="107"/>
+      <c r="O1328" s="108"/>
+      <c r="P1328" s="108"/>
+      <c r="Q1328" s="108"/>
       <c r="R1328" s="18"/>
     </row>
     <row r="1329" ht="14.25" customHeight="1">
@@ -69336,9 +69342,9 @@
       <c r="L1329" s="67"/>
       <c r="M1329" s="67"/>
       <c r="N1329" s="67"/>
-      <c r="O1329" s="107"/>
-      <c r="P1329" s="107"/>
-      <c r="Q1329" s="107"/>
+      <c r="O1329" s="108"/>
+      <c r="P1329" s="108"/>
+      <c r="Q1329" s="108"/>
       <c r="R1329" s="18"/>
     </row>
     <row r="1330" ht="14.25" customHeight="1">
@@ -69356,9 +69362,9 @@
       <c r="L1330" s="67"/>
       <c r="M1330" s="67"/>
       <c r="N1330" s="67"/>
-      <c r="O1330" s="107"/>
-      <c r="P1330" s="107"/>
-      <c r="Q1330" s="107"/>
+      <c r="O1330" s="108"/>
+      <c r="P1330" s="108"/>
+      <c r="Q1330" s="108"/>
       <c r="R1330" s="18"/>
     </row>
     <row r="1331" ht="14.25" customHeight="1">
@@ -69376,9 +69382,9 @@
       <c r="L1331" s="67"/>
       <c r="M1331" s="67"/>
       <c r="N1331" s="67"/>
-      <c r="O1331" s="107"/>
-      <c r="P1331" s="107"/>
-      <c r="Q1331" s="107"/>
+      <c r="O1331" s="108"/>
+      <c r="P1331" s="108"/>
+      <c r="Q1331" s="108"/>
       <c r="R1331" s="18"/>
     </row>
     <row r="1332" ht="14.25" customHeight="1">
@@ -69396,9 +69402,9 @@
       <c r="L1332" s="67"/>
       <c r="M1332" s="67"/>
       <c r="N1332" s="67"/>
-      <c r="O1332" s="107"/>
-      <c r="P1332" s="107"/>
-      <c r="Q1332" s="107"/>
+      <c r="O1332" s="108"/>
+      <c r="P1332" s="108"/>
+      <c r="Q1332" s="108"/>
       <c r="R1332" s="18"/>
     </row>
     <row r="1333" ht="14.25" customHeight="1">
@@ -69416,9 +69422,9 @@
       <c r="L1333" s="67"/>
       <c r="M1333" s="67"/>
       <c r="N1333" s="67"/>
-      <c r="O1333" s="107"/>
-      <c r="P1333" s="107"/>
-      <c r="Q1333" s="107"/>
+      <c r="O1333" s="108"/>
+      <c r="P1333" s="108"/>
+      <c r="Q1333" s="108"/>
       <c r="R1333" s="18"/>
     </row>
     <row r="1334" ht="14.25" customHeight="1">
@@ -69436,9 +69442,9 @@
       <c r="L1334" s="67"/>
       <c r="M1334" s="67"/>
       <c r="N1334" s="67"/>
-      <c r="O1334" s="107"/>
-      <c r="P1334" s="107"/>
-      <c r="Q1334" s="107"/>
+      <c r="O1334" s="108"/>
+      <c r="P1334" s="108"/>
+      <c r="Q1334" s="108"/>
       <c r="R1334" s="18"/>
     </row>
     <row r="1335" ht="14.25" customHeight="1">
@@ -69456,9 +69462,9 @@
       <c r="L1335" s="67"/>
       <c r="M1335" s="67"/>
       <c r="N1335" s="67"/>
-      <c r="O1335" s="107"/>
-      <c r="P1335" s="107"/>
-      <c r="Q1335" s="107"/>
+      <c r="O1335" s="108"/>
+      <c r="P1335" s="108"/>
+      <c r="Q1335" s="108"/>
       <c r="R1335" s="18"/>
     </row>
     <row r="1336" ht="14.25" customHeight="1">
@@ -69476,9 +69482,9 @@
       <c r="L1336" s="67"/>
       <c r="M1336" s="67"/>
       <c r="N1336" s="67"/>
-      <c r="O1336" s="107"/>
-      <c r="P1336" s="107"/>
-      <c r="Q1336" s="107"/>
+      <c r="O1336" s="108"/>
+      <c r="P1336" s="108"/>
+      <c r="Q1336" s="108"/>
       <c r="R1336" s="18"/>
     </row>
     <row r="1337" ht="14.25" customHeight="1">
@@ -69496,9 +69502,9 @@
       <c r="L1337" s="67"/>
       <c r="M1337" s="67"/>
       <c r="N1337" s="67"/>
-      <c r="O1337" s="107"/>
-      <c r="P1337" s="107"/>
-      <c r="Q1337" s="107"/>
+      <c r="O1337" s="108"/>
+      <c r="P1337" s="108"/>
+      <c r="Q1337" s="108"/>
       <c r="R1337" s="18"/>
     </row>
     <row r="1338" ht="14.25" customHeight="1">
@@ -69516,9 +69522,9 @@
       <c r="L1338" s="67"/>
       <c r="M1338" s="67"/>
       <c r="N1338" s="67"/>
-      <c r="O1338" s="107"/>
-      <c r="P1338" s="107"/>
-      <c r="Q1338" s="107"/>
+      <c r="O1338" s="108"/>
+      <c r="P1338" s="108"/>
+      <c r="Q1338" s="108"/>
       <c r="R1338" s="18"/>
     </row>
     <row r="1339" ht="14.25" customHeight="1">
@@ -69536,9 +69542,9 @@
       <c r="L1339" s="67"/>
       <c r="M1339" s="67"/>
       <c r="N1339" s="67"/>
-      <c r="O1339" s="107"/>
-      <c r="P1339" s="107"/>
-      <c r="Q1339" s="107"/>
+      <c r="O1339" s="108"/>
+      <c r="P1339" s="108"/>
+      <c r="Q1339" s="108"/>
       <c r="R1339" s="18"/>
     </row>
     <row r="1340" ht="14.25" customHeight="1">
@@ -69556,9 +69562,9 @@
       <c r="L1340" s="67"/>
       <c r="M1340" s="67"/>
       <c r="N1340" s="67"/>
-      <c r="O1340" s="107"/>
-      <c r="P1340" s="107"/>
-      <c r="Q1340" s="107"/>
+      <c r="O1340" s="108"/>
+      <c r="P1340" s="108"/>
+      <c r="Q1340" s="108"/>
       <c r="R1340" s="18"/>
     </row>
     <row r="1341" ht="14.25" customHeight="1">
@@ -69576,9 +69582,9 @@
       <c r="L1341" s="67"/>
       <c r="M1341" s="67"/>
       <c r="N1341" s="67"/>
-      <c r="O1341" s="107"/>
-      <c r="P1341" s="107"/>
-      <c r="Q1341" s="107"/>
+      <c r="O1341" s="108"/>
+      <c r="P1341" s="108"/>
+      <c r="Q1341" s="108"/>
       <c r="R1341" s="18"/>
     </row>
     <row r="1342" ht="14.25" customHeight="1">
@@ -69596,9 +69602,9 @@
       <c r="L1342" s="67"/>
       <c r="M1342" s="67"/>
       <c r="N1342" s="67"/>
-      <c r="O1342" s="107"/>
-      <c r="P1342" s="107"/>
-      <c r="Q1342" s="107"/>
+      <c r="O1342" s="108"/>
+      <c r="P1342" s="108"/>
+      <c r="Q1342" s="108"/>
       <c r="R1342" s="18"/>
     </row>
     <row r="1343" ht="14.25" customHeight="1">
@@ -69616,9 +69622,9 @@
       <c r="L1343" s="67"/>
       <c r="M1343" s="67"/>
       <c r="N1343" s="67"/>
-      <c r="O1343" s="107"/>
-      <c r="P1343" s="107"/>
-      <c r="Q1343" s="107"/>
+      <c r="O1343" s="108"/>
+      <c r="P1343" s="108"/>
+      <c r="Q1343" s="108"/>
       <c r="R1343" s="18"/>
     </row>
     <row r="1344" ht="14.25" customHeight="1">
@@ -69636,9 +69642,9 @@
       <c r="L1344" s="67"/>
       <c r="M1344" s="67"/>
       <c r="N1344" s="67"/>
-      <c r="O1344" s="107"/>
-      <c r="P1344" s="107"/>
-      <c r="Q1344" s="107"/>
+      <c r="O1344" s="108"/>
+      <c r="P1344" s="108"/>
+      <c r="Q1344" s="108"/>
       <c r="R1344" s="18"/>
     </row>
     <row r="1345" ht="14.25" customHeight="1">
@@ -69656,9 +69662,9 @@
       <c r="L1345" s="67"/>
       <c r="M1345" s="67"/>
       <c r="N1345" s="67"/>
-      <c r="O1345" s="107"/>
-      <c r="P1345" s="107"/>
-      <c r="Q1345" s="107"/>
+      <c r="O1345" s="108"/>
+      <c r="P1345" s="108"/>
+      <c r="Q1345" s="108"/>
       <c r="R1345" s="18"/>
     </row>
     <row r="1346" ht="14.25" customHeight="1">
@@ -69676,9 +69682,9 @@
       <c r="L1346" s="67"/>
       <c r="M1346" s="67"/>
       <c r="N1346" s="67"/>
-      <c r="O1346" s="107"/>
-      <c r="P1346" s="107"/>
-      <c r="Q1346" s="107"/>
+      <c r="O1346" s="108"/>
+      <c r="P1346" s="108"/>
+      <c r="Q1346" s="108"/>
       <c r="R1346" s="18"/>
     </row>
     <row r="1347" ht="14.25" customHeight="1">
@@ -69696,9 +69702,9 @@
       <c r="L1347" s="67"/>
       <c r="M1347" s="67"/>
       <c r="N1347" s="67"/>
-      <c r="O1347" s="107"/>
-      <c r="P1347" s="107"/>
-      <c r="Q1347" s="107"/>
+      <c r="O1347" s="108"/>
+      <c r="P1347" s="108"/>
+      <c r="Q1347" s="108"/>
       <c r="R1347" s="18"/>
     </row>
     <row r="1348" ht="14.25" customHeight="1">
@@ -69716,9 +69722,9 @@
       <c r="L1348" s="67"/>
       <c r="M1348" s="67"/>
       <c r="N1348" s="67"/>
-      <c r="O1348" s="107"/>
-      <c r="P1348" s="107"/>
-      <c r="Q1348" s="107"/>
+      <c r="O1348" s="108"/>
+      <c r="P1348" s="108"/>
+      <c r="Q1348" s="108"/>
       <c r="R1348" s="18"/>
     </row>
     <row r="1349" ht="14.25" customHeight="1">
@@ -69736,9 +69742,9 @@
       <c r="L1349" s="67"/>
       <c r="M1349" s="67"/>
       <c r="N1349" s="67"/>
-      <c r="O1349" s="107"/>
-      <c r="P1349" s="107"/>
-      <c r="Q1349" s="107"/>
+      <c r="O1349" s="108"/>
+      <c r="P1349" s="108"/>
+      <c r="Q1349" s="108"/>
       <c r="R1349" s="18"/>
     </row>
     <row r="1350" ht="14.25" customHeight="1">
@@ -69756,9 +69762,9 @@
       <c r="L1350" s="67"/>
       <c r="M1350" s="67"/>
       <c r="N1350" s="67"/>
-      <c r="O1350" s="107"/>
-      <c r="P1350" s="107"/>
-      <c r="Q1350" s="107"/>
+      <c r="O1350" s="108"/>
+      <c r="P1350" s="108"/>
+      <c r="Q1350" s="108"/>
       <c r="R1350" s="18"/>
     </row>
     <row r="1351" ht="14.25" customHeight="1">
@@ -69776,9 +69782,9 @@
       <c r="L1351" s="67"/>
       <c r="M1351" s="67"/>
       <c r="N1351" s="67"/>
-      <c r="O1351" s="107"/>
-      <c r="P1351" s="107"/>
-      <c r="Q1351" s="107"/>
+      <c r="O1351" s="108"/>
+      <c r="P1351" s="108"/>
+      <c r="Q1351" s="108"/>
       <c r="R1351" s="18"/>
     </row>
     <row r="1352" ht="14.25" customHeight="1">
@@ -69796,9 +69802,9 @@
       <c r="L1352" s="67"/>
       <c r="M1352" s="67"/>
       <c r="N1352" s="67"/>
-      <c r="O1352" s="107"/>
-      <c r="P1352" s="107"/>
-      <c r="Q1352" s="107"/>
+      <c r="O1352" s="108"/>
+      <c r="P1352" s="108"/>
+      <c r="Q1352" s="108"/>
       <c r="R1352" s="18"/>
     </row>
     <row r="1353" ht="14.25" customHeight="1">
@@ -69816,9 +69822,9 @@
       <c r="L1353" s="67"/>
       <c r="M1353" s="67"/>
       <c r="N1353" s="67"/>
-      <c r="O1353" s="107"/>
-      <c r="P1353" s="107"/>
-      <c r="Q1353" s="107"/>
+      <c r="O1353" s="108"/>
+      <c r="P1353" s="108"/>
+      <c r="Q1353" s="108"/>
       <c r="R1353" s="18"/>
     </row>
     <row r="1354" ht="14.25" customHeight="1">
@@ -69836,9 +69842,9 @@
       <c r="L1354" s="67"/>
       <c r="M1354" s="67"/>
       <c r="N1354" s="67"/>
-      <c r="O1354" s="107"/>
-      <c r="P1354" s="107"/>
-      <c r="Q1354" s="107"/>
+      <c r="O1354" s="108"/>
+      <c r="P1354" s="108"/>
+      <c r="Q1354" s="108"/>
       <c r="R1354" s="18"/>
     </row>
     <row r="1355" ht="14.25" customHeight="1">
@@ -69856,9 +69862,9 @@
       <c r="L1355" s="67"/>
       <c r="M1355" s="67"/>
       <c r="N1355" s="67"/>
-      <c r="O1355" s="107"/>
-      <c r="P1355" s="107"/>
-      <c r="Q1355" s="107"/>
+      <c r="O1355" s="108"/>
+      <c r="P1355" s="108"/>
+      <c r="Q1355" s="108"/>
       <c r="R1355" s="18"/>
     </row>
     <row r="1356" ht="14.25" customHeight="1">
@@ -69876,9 +69882,9 @@
       <c r="L1356" s="67"/>
       <c r="M1356" s="67"/>
       <c r="N1356" s="67"/>
-      <c r="O1356" s="107"/>
-      <c r="P1356" s="107"/>
-      <c r="Q1356" s="107"/>
+      <c r="O1356" s="108"/>
+      <c r="P1356" s="108"/>
+      <c r="Q1356" s="108"/>
       <c r="R1356" s="18"/>
     </row>
     <row r="1357" ht="14.25" customHeight="1">
@@ -69896,9 +69902,9 @@
       <c r="L1357" s="67"/>
       <c r="M1357" s="67"/>
       <c r="N1357" s="67"/>
-      <c r="O1357" s="107"/>
-      <c r="P1357" s="107"/>
-      <c r="Q1357" s="107"/>
+      <c r="O1357" s="108"/>
+      <c r="P1357" s="108"/>
+      <c r="Q1357" s="108"/>
       <c r="R1357" s="18"/>
     </row>
     <row r="1358" ht="14.25" customHeight="1">
@@ -69916,9 +69922,9 @@
       <c r="L1358" s="67"/>
       <c r="M1358" s="67"/>
       <c r="N1358" s="67"/>
-      <c r="O1358" s="107"/>
-      <c r="P1358" s="107"/>
-      <c r="Q1358" s="107"/>
+      <c r="O1358" s="108"/>
+      <c r="P1358" s="108"/>
+      <c r="Q1358" s="108"/>
       <c r="R1358" s="18"/>
     </row>
     <row r="1359" ht="14.25" customHeight="1">
@@ -69936,9 +69942,9 @@
       <c r="L1359" s="67"/>
       <c r="M1359" s="67"/>
       <c r="N1359" s="67"/>
-      <c r="O1359" s="107"/>
-      <c r="P1359" s="107"/>
-      <c r="Q1359" s="107"/>
+      <c r="O1359" s="108"/>
+      <c r="P1359" s="108"/>
+      <c r="Q1359" s="108"/>
       <c r="R1359" s="18"/>
     </row>
     <row r="1360" ht="14.25" customHeight="1">
@@ -69956,9 +69962,9 @@
       <c r="L1360" s="67"/>
       <c r="M1360" s="67"/>
       <c r="N1360" s="67"/>
-      <c r="O1360" s="107"/>
-      <c r="P1360" s="107"/>
-      <c r="Q1360" s="107"/>
+      <c r="O1360" s="108"/>
+      <c r="P1360" s="108"/>
+      <c r="Q1360" s="108"/>
       <c r="R1360" s="18"/>
     </row>
     <row r="1361" ht="14.25" customHeight="1">
@@ -69976,9 +69982,9 @@
       <c r="L1361" s="67"/>
       <c r="M1361" s="67"/>
       <c r="N1361" s="67"/>
-      <c r="O1361" s="107"/>
-      <c r="P1361" s="107"/>
-      <c r="Q1361" s="107"/>
+      <c r="O1361" s="108"/>
+      <c r="P1361" s="108"/>
+      <c r="Q1361" s="108"/>
       <c r="R1361" s="18"/>
     </row>
     <row r="1362" ht="14.25" customHeight="1">
@@ -69996,9 +70002,9 @@
       <c r="L1362" s="67"/>
       <c r="M1362" s="67"/>
       <c r="N1362" s="67"/>
-      <c r="O1362" s="107"/>
-      <c r="P1362" s="107"/>
-      <c r="Q1362" s="107"/>
+      <c r="O1362" s="108"/>
+      <c r="P1362" s="108"/>
+      <c r="Q1362" s="108"/>
       <c r="R1362" s="18"/>
     </row>
     <row r="1363" ht="14.25" customHeight="1">
@@ -70016,9 +70022,9 @@
       <c r="L1363" s="67"/>
       <c r="M1363" s="67"/>
       <c r="N1363" s="67"/>
-      <c r="O1363" s="107"/>
-      <c r="P1363" s="107"/>
-      <c r="Q1363" s="107"/>
+      <c r="O1363" s="108"/>
+      <c r="P1363" s="108"/>
+      <c r="Q1363" s="108"/>
       <c r="R1363" s="18"/>
     </row>
     <row r="1364" ht="14.25" customHeight="1">
@@ -70036,9 +70042,9 @@
       <c r="L1364" s="67"/>
       <c r="M1364" s="67"/>
       <c r="N1364" s="67"/>
-      <c r="O1364" s="107"/>
-      <c r="P1364" s="107"/>
-      <c r="Q1364" s="107"/>
+      <c r="O1364" s="108"/>
+      <c r="P1364" s="108"/>
+      <c r="Q1364" s="108"/>
       <c r="R1364" s="18"/>
     </row>
     <row r="1365" ht="14.25" customHeight="1">
@@ -70056,9 +70062,9 @@
       <c r="L1365" s="67"/>
       <c r="M1365" s="67"/>
       <c r="N1365" s="67"/>
-      <c r="O1365" s="107"/>
-      <c r="P1365" s="107"/>
-      <c r="Q1365" s="107"/>
+      <c r="O1365" s="108"/>
+      <c r="P1365" s="108"/>
+      <c r="Q1365" s="108"/>
       <c r="R1365" s="18"/>
     </row>
     <row r="1366" ht="14.25" customHeight="1">
@@ -70076,9 +70082,9 @@
       <c r="L1366" s="67"/>
       <c r="M1366" s="67"/>
       <c r="N1366" s="67"/>
-      <c r="O1366" s="107"/>
-      <c r="P1366" s="107"/>
-      <c r="Q1366" s="107"/>
+      <c r="O1366" s="108"/>
+      <c r="P1366" s="108"/>
+      <c r="Q1366" s="108"/>
       <c r="R1366" s="18"/>
     </row>
     <row r="1367" ht="14.25" customHeight="1">
@@ -70096,9 +70102,9 @@
       <c r="L1367" s="67"/>
       <c r="M1367" s="67"/>
       <c r="N1367" s="67"/>
-      <c r="O1367" s="107"/>
-      <c r="P1367" s="107"/>
-      <c r="Q1367" s="107"/>
+      <c r="O1367" s="108"/>
+      <c r="P1367" s="108"/>
+      <c r="Q1367" s="108"/>
       <c r="R1367" s="18"/>
     </row>
     <row r="1368" ht="14.25" customHeight="1">
@@ -70116,9 +70122,9 @@
       <c r="L1368" s="67"/>
       <c r="M1368" s="67"/>
       <c r="N1368" s="67"/>
-      <c r="O1368" s="107"/>
-      <c r="P1368" s="107"/>
-      <c r="Q1368" s="107"/>
+      <c r="O1368" s="108"/>
+      <c r="P1368" s="108"/>
+      <c r="Q1368" s="108"/>
       <c r="R1368" s="18"/>
     </row>
     <row r="1369" ht="14.25" customHeight="1">
@@ -70136,9 +70142,9 @@
       <c r="L1369" s="67"/>
       <c r="M1369" s="67"/>
       <c r="N1369" s="67"/>
-      <c r="O1369" s="107"/>
-      <c r="P1369" s="107"/>
-      <c r="Q1369" s="107"/>
+      <c r="O1369" s="108"/>
+      <c r="P1369" s="108"/>
+      <c r="Q1369" s="108"/>
       <c r="R1369" s="18"/>
     </row>
     <row r="1370" ht="14.25" customHeight="1">
@@ -70156,9 +70162,9 @@
       <c r="L1370" s="67"/>
       <c r="M1370" s="67"/>
       <c r="N1370" s="67"/>
-      <c r="O1370" s="107"/>
-      <c r="P1370" s="107"/>
-      <c r="Q1370" s="107"/>
+      <c r="O1370" s="108"/>
+      <c r="P1370" s="108"/>
+      <c r="Q1370" s="108"/>
       <c r="R1370" s="18"/>
     </row>
     <row r="1371" ht="14.25" customHeight="1">
@@ -70176,9 +70182,9 @@
       <c r="L1371" s="67"/>
       <c r="M1371" s="67"/>
       <c r="N1371" s="67"/>
-      <c r="O1371" s="107"/>
-      <c r="P1371" s="107"/>
-      <c r="Q1371" s="107"/>
+      <c r="O1371" s="108"/>
+      <c r="P1371" s="108"/>
+      <c r="Q1371" s="108"/>
       <c r="R1371" s="18"/>
     </row>
     <row r="1372" ht="14.25" customHeight="1">
@@ -70196,9 +70202,9 @@
       <c r="L1372" s="67"/>
       <c r="M1372" s="67"/>
       <c r="N1372" s="67"/>
-      <c r="O1372" s="107"/>
-      <c r="P1372" s="107"/>
-      <c r="Q1372" s="107"/>
+      <c r="O1372" s="108"/>
+      <c r="P1372" s="108"/>
+      <c r="Q1372" s="108"/>
       <c r="R1372" s="18"/>
     </row>
     <row r="1373" ht="14.25" customHeight="1">
@@ -70216,9 +70222,9 @@
       <c r="L1373" s="67"/>
       <c r="M1373" s="67"/>
       <c r="N1373" s="67"/>
-      <c r="O1373" s="107"/>
-      <c r="P1373" s="107"/>
-      <c r="Q1373" s="107"/>
+      <c r="O1373" s="108"/>
+      <c r="P1373" s="108"/>
+      <c r="Q1373" s="108"/>
       <c r="R1373" s="18"/>
     </row>
     <row r="1374" ht="14.25" customHeight="1">
@@ -70236,9 +70242,9 @@
       <c r="L1374" s="67"/>
       <c r="M1374" s="67"/>
       <c r="N1374" s="67"/>
-      <c r="O1374" s="107"/>
-      <c r="P1374" s="107"/>
-      <c r="Q1374" s="107"/>
+      <c r="O1374" s="108"/>
+      <c r="P1374" s="108"/>
+      <c r="Q1374" s="108"/>
       <c r="R1374" s="18"/>
     </row>
     <row r="1375" ht="14.25" customHeight="1">
@@ -70256,9 +70262,9 @@
       <c r="L1375" s="67"/>
       <c r="M1375" s="67"/>
       <c r="N1375" s="67"/>
-      <c r="O1375" s="107"/>
-      <c r="P1375" s="107"/>
-      <c r="Q1375" s="107"/>
+      <c r="O1375" s="108"/>
+      <c r="P1375" s="108"/>
+      <c r="Q1375" s="108"/>
       <c r="R1375" s="18"/>
     </row>
     <row r="1376" ht="14.25" customHeight="1">
@@ -70276,9 +70282,9 @@
       <c r="L1376" s="67"/>
       <c r="M1376" s="67"/>
       <c r="N1376" s="67"/>
-      <c r="O1376" s="107"/>
-      <c r="P1376" s="107"/>
-      <c r="Q1376" s="107"/>
+      <c r="O1376" s="108"/>
+      <c r="P1376" s="108"/>
+      <c r="Q1376" s="108"/>
       <c r="R1376" s="18"/>
     </row>
     <row r="1377" ht="14.25" customHeight="1">
@@ -70296,9 +70302,9 @@
       <c r="L1377" s="67"/>
       <c r="M1377" s="67"/>
       <c r="N1377" s="67"/>
-      <c r="O1377" s="107"/>
-      <c r="P1377" s="107"/>
-      <c r="Q1377" s="107"/>
+      <c r="O1377" s="108"/>
+      <c r="P1377" s="108"/>
+      <c r="Q1377" s="108"/>
       <c r="R1377" s="18"/>
     </row>
     <row r="1378" ht="14.25" customHeight="1">
@@ -70316,9 +70322,9 @@
       <c r="L1378" s="67"/>
       <c r="M1378" s="67"/>
       <c r="N1378" s="67"/>
-      <c r="O1378" s="107"/>
-      <c r="P1378" s="107"/>
-      <c r="Q1378" s="107"/>
+      <c r="O1378" s="108"/>
+      <c r="P1378" s="108"/>
+      <c r="Q1378" s="108"/>
       <c r="R1378" s="18"/>
     </row>
     <row r="1379" ht="14.25" customHeight="1">
@@ -70336,9 +70342,9 @@
       <c r="L1379" s="67"/>
       <c r="M1379" s="67"/>
       <c r="N1379" s="67"/>
-      <c r="O1379" s="107"/>
-      <c r="P1379" s="107"/>
-      <c r="Q1379" s="107"/>
+      <c r="O1379" s="108"/>
+      <c r="P1379" s="108"/>
+      <c r="Q1379" s="108"/>
       <c r="R1379" s="18"/>
     </row>
     <row r="1380" ht="14.25" customHeight="1">
@@ -70356,9 +70362,9 @@
       <c r="L1380" s="67"/>
       <c r="M1380" s="67"/>
       <c r="N1380" s="67"/>
-      <c r="O1380" s="107"/>
-      <c r="P1380" s="107"/>
-      <c r="Q1380" s="107"/>
+      <c r="O1380" s="108"/>
+      <c r="P1380" s="108"/>
+      <c r="Q1380" s="108"/>
       <c r="R1380" s="18"/>
     </row>
     <row r="1381" ht="14.25" customHeight="1">
@@ -70376,9 +70382,9 @@
       <c r="L1381" s="67"/>
       <c r="M1381" s="67"/>
       <c r="N1381" s="67"/>
-      <c r="O1381" s="107"/>
-      <c r="P1381" s="107"/>
-      <c r="Q1381" s="107"/>
+      <c r="O1381" s="108"/>
+      <c r="P1381" s="108"/>
+      <c r="Q1381" s="108"/>
       <c r="R1381" s="18"/>
     </row>
     <row r="1382" ht="14.25" customHeight="1">
@@ -70396,9 +70402,9 @@
       <c r="L1382" s="67"/>
       <c r="M1382" s="67"/>
       <c r="N1382" s="67"/>
-      <c r="O1382" s="107"/>
-      <c r="P1382" s="107"/>
-      <c r="Q1382" s="107"/>
+      <c r="O1382" s="108"/>
+      <c r="P1382" s="108"/>
+      <c r="Q1382" s="108"/>
       <c r="R1382" s="18"/>
     </row>
     <row r="1383" ht="14.25" customHeight="1">
@@ -70416,9 +70422,9 @@
       <c r="L1383" s="67"/>
       <c r="M1383" s="67"/>
       <c r="N1383" s="67"/>
-      <c r="O1383" s="107"/>
-      <c r="P1383" s="107"/>
-      <c r="Q1383" s="107"/>
+      <c r="O1383" s="108"/>
+      <c r="P1383" s="108"/>
+      <c r="Q1383" s="108"/>
       <c r="R1383" s="18"/>
     </row>
     <row r="1384" ht="14.25" customHeight="1">
@@ -70436,9 +70442,9 @@
       <c r="L1384" s="67"/>
       <c r="M1384" s="67"/>
       <c r="N1384" s="67"/>
-      <c r="O1384" s="107"/>
-      <c r="P1384" s="107"/>
-      <c r="Q1384" s="107"/>
+      <c r="O1384" s="108"/>
+      <c r="P1384" s="108"/>
+      <c r="Q1384" s="108"/>
       <c r="R1384" s="18"/>
     </row>
     <row r="1385" ht="14.25" customHeight="1">
@@ -70456,9 +70462,9 @@
       <c r="L1385" s="67"/>
       <c r="M1385" s="67"/>
       <c r="N1385" s="67"/>
-      <c r="O1385" s="107"/>
-      <c r="P1385" s="107"/>
-      <c r="Q1385" s="107"/>
+      <c r="O1385" s="108"/>
+      <c r="P1385" s="108"/>
+      <c r="Q1385" s="108"/>
       <c r="R1385" s="18"/>
     </row>
     <row r="1386" ht="14.25" customHeight="1">
@@ -70476,9 +70482,9 @@
       <c r="L1386" s="67"/>
       <c r="M1386" s="67"/>
       <c r="N1386" s="67"/>
-      <c r="O1386" s="107"/>
-      <c r="P1386" s="107"/>
-      <c r="Q1386" s="107"/>
+      <c r="O1386" s="108"/>
+      <c r="P1386" s="108"/>
+      <c r="Q1386" s="108"/>
       <c r="R1386" s="18"/>
     </row>
     <row r="1387" ht="14.25" customHeight="1">
@@ -70496,9 +70502,9 @@
       <c r="L1387" s="67"/>
       <c r="M1387" s="67"/>
       <c r="N1387" s="67"/>
-      <c r="O1387" s="107"/>
-      <c r="P1387" s="107"/>
-      <c r="Q1387" s="107"/>
+      <c r="O1387" s="108"/>
+      <c r="P1387" s="108"/>
+      <c r="Q1387" s="108"/>
       <c r="R1387" s="18"/>
     </row>
     <row r="1388" ht="14.25" customHeight="1">
@@ -70516,9 +70522,9 @@
       <c r="L1388" s="67"/>
       <c r="M1388" s="67"/>
       <c r="N1388" s="67"/>
-      <c r="O1388" s="107"/>
-      <c r="P1388" s="107"/>
-      <c r="Q1388" s="107"/>
+      <c r="O1388" s="108"/>
+      <c r="P1388" s="108"/>
+      <c r="Q1388" s="108"/>
       <c r="R1388" s="18"/>
     </row>
     <row r="1389" ht="14.25" customHeight="1">
@@ -70536,9 +70542,9 @@
       <c r="L1389" s="67"/>
       <c r="M1389" s="67"/>
       <c r="N1389" s="67"/>
-      <c r="O1389" s="107"/>
-      <c r="P1389" s="107"/>
-      <c r="Q1389" s="107"/>
+      <c r="O1389" s="108"/>
+      <c r="P1389" s="108"/>
+      <c r="Q1389" s="108"/>
       <c r="R1389" s="18"/>
     </row>
     <row r="1390" ht="14.25" customHeight="1">
@@ -70556,9 +70562,9 @@
       <c r="L1390" s="67"/>
       <c r="M1390" s="67"/>
       <c r="N1390" s="67"/>
-      <c r="O1390" s="107"/>
-      <c r="P1390" s="107"/>
-      <c r="Q1390" s="107"/>
+      <c r="O1390" s="108"/>
+      <c r="P1390" s="108"/>
+      <c r="Q1390" s="108"/>
       <c r="R1390" s="18"/>
     </row>
     <row r="1391" ht="14.25" customHeight="1">
@@ -70576,9 +70582,9 @@
       <c r="L1391" s="67"/>
       <c r="M1391" s="67"/>
       <c r="N1391" s="67"/>
-      <c r="O1391" s="107"/>
-      <c r="P1391" s="107"/>
-      <c r="Q1391" s="107"/>
+      <c r="O1391" s="108"/>
+      <c r="P1391" s="108"/>
+      <c r="Q1391" s="108"/>
       <c r="R1391" s="18"/>
     </row>
     <row r="1392" ht="14.25" customHeight="1">
@@ -70596,9 +70602,9 @@
       <c r="L1392" s="67"/>
       <c r="M1392" s="67"/>
       <c r="N1392" s="67"/>
-      <c r="O1392" s="107"/>
-      <c r="P1392" s="107"/>
-      <c r="Q1392" s="107"/>
+      <c r="O1392" s="108"/>
+      <c r="P1392" s="108"/>
+      <c r="Q1392" s="108"/>
       <c r="R1392" s="18"/>
     </row>
     <row r="1393" ht="14.25" customHeight="1">
@@ -70616,9 +70622,9 @@
       <c r="L1393" s="67"/>
       <c r="M1393" s="67"/>
       <c r="N1393" s="67"/>
-      <c r="O1393" s="107"/>
-      <c r="P1393" s="107"/>
-      <c r="Q1393" s="107"/>
+      <c r="O1393" s="108"/>
+      <c r="P1393" s="108"/>
+      <c r="Q1393" s="108"/>
       <c r="R1393" s="18"/>
     </row>
     <row r="1394" ht="14.25" customHeight="1">
@@ -70636,9 +70642,9 @@
       <c r="L1394" s="67"/>
       <c r="M1394" s="67"/>
       <c r="N1394" s="67"/>
-      <c r="O1394" s="107"/>
-      <c r="P1394" s="107"/>
-      <c r="Q1394" s="107"/>
+      <c r="O1394" s="108"/>
+      <c r="P1394" s="108"/>
+      <c r="Q1394" s="108"/>
       <c r="R1394" s="18"/>
     </row>
     <row r="1395" ht="14.25" customHeight="1">
@@ -70656,9 +70662,9 @@
       <c r="L1395" s="67"/>
       <c r="M1395" s="67"/>
       <c r="N1395" s="67"/>
-      <c r="O1395" s="107"/>
-      <c r="P1395" s="107"/>
-      <c r="Q1395" s="107"/>
+      <c r="O1395" s="108"/>
+      <c r="P1395" s="108"/>
+      <c r="Q1395" s="108"/>
       <c r="R1395" s="18"/>
     </row>
     <row r="1396" ht="14.25" customHeight="1">
@@ -70676,9 +70682,9 @@
       <c r="L1396" s="67"/>
       <c r="M1396" s="67"/>
       <c r="N1396" s="67"/>
-      <c r="O1396" s="107"/>
-      <c r="P1396" s="107"/>
-      <c r="Q1396" s="107"/>
+      <c r="O1396" s="108"/>
+      <c r="P1396" s="108"/>
+      <c r="Q1396" s="108"/>
       <c r="R1396" s="18"/>
     </row>
     <row r="1397" ht="14.25" customHeight="1">
@@ -70696,9 +70702,9 @@
       <c r="L1397" s="67"/>
       <c r="M1397" s="67"/>
       <c r="N1397" s="67"/>
-      <c r="O1397" s="107"/>
-      <c r="P1397" s="107"/>
-      <c r="Q1397" s="107"/>
+      <c r="O1397" s="108"/>
+      <c r="P1397" s="108"/>
+      <c r="Q1397" s="108"/>
       <c r="R1397" s="18"/>
     </row>
     <row r="1398" ht="14.25" customHeight="1">
@@ -70716,9 +70722,9 @@
       <c r="L1398" s="67"/>
       <c r="M1398" s="67"/>
       <c r="N1398" s="67"/>
-      <c r="O1398" s="107"/>
-      <c r="P1398" s="107"/>
-      <c r="Q1398" s="107"/>
+      <c r="O1398" s="108"/>
+      <c r="P1398" s="108"/>
+      <c r="Q1398" s="108"/>
       <c r="R1398" s="18"/>
     </row>
     <row r="1399" ht="14.25" customHeight="1">
@@ -70736,9 +70742,9 @@
       <c r="L1399" s="67"/>
       <c r="M1399" s="67"/>
       <c r="N1399" s="67"/>
-      <c r="O1399" s="107"/>
-      <c r="P1399" s="107"/>
-      <c r="Q1399" s="107"/>
+      <c r="O1399" s="108"/>
+      <c r="P1399" s="108"/>
+      <c r="Q1399" s="108"/>
       <c r="R1399" s="18"/>
     </row>
     <row r="1400" ht="14.25" customHeight="1">
@@ -70756,9 +70762,9 @@
       <c r="L1400" s="67"/>
       <c r="M1400" s="67"/>
       <c r="N1400" s="67"/>
-      <c r="O1400" s="107"/>
-      <c r="P1400" s="107"/>
-      <c r="Q1400" s="107"/>
+      <c r="O1400" s="108"/>
+      <c r="P1400" s="108"/>
+      <c r="Q1400" s="108"/>
       <c r="R1400" s="18"/>
     </row>
     <row r="1401" ht="14.25" customHeight="1">
@@ -70776,9 +70782,9 @@
       <c r="L1401" s="67"/>
       <c r="M1401" s="67"/>
       <c r="N1401" s="67"/>
-      <c r="O1401" s="107"/>
-      <c r="P1401" s="107"/>
-      <c r="Q1401" s="107"/>
+      <c r="O1401" s="108"/>
+      <c r="P1401" s="108"/>
+      <c r="Q1401" s="108"/>
       <c r="R1401" s="18"/>
     </row>
     <row r="1402" ht="14.25" customHeight="1">
@@ -70796,9 +70802,9 @@
       <c r="L1402" s="67"/>
       <c r="M1402" s="67"/>
       <c r="N1402" s="67"/>
-      <c r="O1402" s="107"/>
-      <c r="P1402" s="107"/>
-      <c r="Q1402" s="107"/>
+      <c r="O1402" s="108"/>
+      <c r="P1402" s="108"/>
+      <c r="Q1402" s="108"/>
       <c r="R1402" s="18"/>
     </row>
     <row r="1403" ht="14.25" customHeight="1">
@@ -70816,9 +70822,9 @@
       <c r="L1403" s="67"/>
       <c r="M1403" s="67"/>
       <c r="N1403" s="67"/>
-      <c r="O1403" s="107"/>
-      <c r="P1403" s="107"/>
-      <c r="Q1403" s="107"/>
+      <c r="O1403" s="108"/>
+      <c r="P1403" s="108"/>
+      <c r="Q1403" s="108"/>
       <c r="R1403" s="18"/>
     </row>
     <row r="1404" ht="14.25" customHeight="1">
@@ -70836,9 +70842,9 @@
       <c r="L1404" s="67"/>
       <c r="M1404" s="67"/>
       <c r="N1404" s="67"/>
-      <c r="O1404" s="107"/>
-      <c r="P1404" s="107"/>
-      <c r="Q1404" s="107"/>
+      <c r="O1404" s="108"/>
+      <c r="P1404" s="108"/>
+      <c r="Q1404" s="108"/>
       <c r="R1404" s="18"/>
     </row>
     <row r="1405" ht="14.25" customHeight="1">
@@ -70856,9 +70862,9 @@
       <c r="L1405" s="67"/>
       <c r="M1405" s="67"/>
       <c r="N1405" s="67"/>
-      <c r="O1405" s="107"/>
-      <c r="P1405" s="107"/>
-      <c r="Q1405" s="107"/>
+      <c r="O1405" s="108"/>
+      <c r="P1405" s="108"/>
+      <c r="Q1405" s="108"/>
       <c r="R1405" s="18"/>
     </row>
     <row r="1406" ht="14.25" customHeight="1">
@@ -70876,9 +70882,9 @@
       <c r="L1406" s="67"/>
       <c r="M1406" s="67"/>
       <c r="N1406" s="67"/>
-      <c r="O1406" s="107"/>
-      <c r="P1406" s="107"/>
-      <c r="Q1406" s="107"/>
+      <c r="O1406" s="108"/>
+      <c r="P1406" s="108"/>
+      <c r="Q1406" s="108"/>
       <c r="R1406" s="18"/>
     </row>
     <row r="1407" ht="14.25" customHeight="1">
@@ -70896,9 +70902,9 @@
       <c r="L1407" s="67"/>
       <c r="M1407" s="67"/>
       <c r="N1407" s="67"/>
-      <c r="O1407" s="107"/>
-      <c r="P1407" s="107"/>
-      <c r="Q1407" s="107"/>
+      <c r="O1407" s="108"/>
+      <c r="P1407" s="108"/>
+      <c r="Q1407" s="108"/>
       <c r="R1407" s="18"/>
     </row>
     <row r="1408" ht="14.25" customHeight="1">
@@ -70916,9 +70922,9 @@
       <c r="L1408" s="67"/>
       <c r="M1408" s="67"/>
       <c r="N1408" s="67"/>
-      <c r="O1408" s="107"/>
-      <c r="P1408" s="107"/>
-      <c r="Q1408" s="107"/>
+      <c r="O1408" s="108"/>
+      <c r="P1408" s="108"/>
+      <c r="Q1408" s="108"/>
       <c r="R1408" s="18"/>
     </row>
     <row r="1409" ht="14.25" customHeight="1">
@@ -70936,9 +70942,9 @@
       <c r="L1409" s="67"/>
       <c r="M1409" s="67"/>
       <c r="N1409" s="67"/>
-      <c r="O1409" s="107"/>
-      <c r="P1409" s="107"/>
-      <c r="Q1409" s="107"/>
+      <c r="O1409" s="108"/>
+      <c r="P1409" s="108"/>
+      <c r="Q1409" s="108"/>
       <c r="R1409" s="18"/>
     </row>
     <row r="1410" ht="14.25" customHeight="1">
@@ -70956,9 +70962,9 @@
       <c r="L1410" s="67"/>
       <c r="M1410" s="67"/>
       <c r="N1410" s="67"/>
-      <c r="O1410" s="107"/>
-      <c r="P1410" s="107"/>
-      <c r="Q1410" s="107"/>
+      <c r="O1410" s="108"/>
+      <c r="P1410" s="108"/>
+      <c r="Q1410" s="108"/>
       <c r="R1410" s="18"/>
     </row>
     <row r="1411" ht="14.25" customHeight="1">
@@ -70976,9 +70982,9 @@
       <c r="L1411" s="67"/>
       <c r="M1411" s="67"/>
       <c r="N1411" s="67"/>
-      <c r="O1411" s="107"/>
-      <c r="P1411" s="107"/>
-      <c r="Q1411" s="107"/>
+      <c r="O1411" s="108"/>
+      <c r="P1411" s="108"/>
+      <c r="Q1411" s="108"/>
       <c r="R1411" s="18"/>
     </row>
     <row r="1412" ht="14.25" customHeight="1">
@@ -70996,9 +71002,9 @@
       <c r="L1412" s="67"/>
       <c r="M1412" s="67"/>
       <c r="N1412" s="67"/>
-      <c r="O1412" s="107"/>
-      <c r="P1412" s="107"/>
-      <c r="Q1412" s="107"/>
+      <c r="O1412" s="108"/>
+      <c r="P1412" s="108"/>
+      <c r="Q1412" s="108"/>
       <c r="R1412" s="18"/>
     </row>
     <row r="1413" ht="14.25" customHeight="1">
@@ -71016,9 +71022,9 @@
       <c r="L1413" s="67"/>
       <c r="M1413" s="67"/>
       <c r="N1413" s="67"/>
-      <c r="O1413" s="107"/>
-      <c r="P1413" s="107"/>
-      <c r="Q1413" s="107"/>
+      <c r="O1413" s="108"/>
+      <c r="P1413" s="108"/>
+      <c r="Q1413" s="108"/>
       <c r="R1413" s="18"/>
     </row>
     <row r="1414" ht="14.25" customHeight="1">
@@ -71036,9 +71042,9 @@
       <c r="L1414" s="67"/>
       <c r="M1414" s="67"/>
       <c r="N1414" s="67"/>
-      <c r="O1414" s="107"/>
-      <c r="P1414" s="107"/>
-      <c r="Q1414" s="107"/>
+      <c r="O1414" s="108"/>
+      <c r="P1414" s="108"/>
+      <c r="Q1414" s="108"/>
       <c r="R1414" s="18"/>
     </row>
     <row r="1415" ht="14.25" customHeight="1">
@@ -71056,9 +71062,9 @@
       <c r="L1415" s="67"/>
       <c r="M1415" s="67"/>
       <c r="N1415" s="67"/>
-      <c r="O1415" s="107"/>
-      <c r="P1415" s="107"/>
-      <c r="Q1415" s="107"/>
+      <c r="O1415" s="108"/>
+      <c r="P1415" s="108"/>
+      <c r="Q1415" s="108"/>
       <c r="R1415" s="18"/>
     </row>
     <row r="1416" ht="14.25" customHeight="1">
@@ -71076,9 +71082,9 @@
       <c r="L1416" s="67"/>
       <c r="M1416" s="67"/>
       <c r="N1416" s="67"/>
-      <c r="O1416" s="107"/>
-      <c r="P1416" s="107"/>
-      <c r="Q1416" s="107"/>
+      <c r="O1416" s="108"/>
+      <c r="P1416" s="108"/>
+      <c r="Q1416" s="108"/>
       <c r="R1416" s="18"/>
     </row>
     <row r="1417" ht="14.25" customHeight="1">
@@ -71096,9 +71102,9 @@
       <c r="L1417" s="67"/>
       <c r="M1417" s="67"/>
       <c r="N1417" s="67"/>
-      <c r="O1417" s="107"/>
-      <c r="P1417" s="107"/>
-      <c r="Q1417" s="107"/>
+      <c r="O1417" s="108"/>
+      <c r="P1417" s="108"/>
+      <c r="Q1417" s="108"/>
       <c r="R1417" s="18"/>
     </row>
     <row r="1418" ht="14.25" customHeight="1">
@@ -71116,9 +71122,9 @@
       <c r="L1418" s="67"/>
       <c r="M1418" s="67"/>
       <c r="N1418" s="67"/>
-      <c r="O1418" s="107"/>
-      <c r="P1418" s="107"/>
-      <c r="Q1418" s="107"/>
+      <c r="O1418" s="108"/>
+      <c r="P1418" s="108"/>
+      <c r="Q1418" s="108"/>
       <c r="R1418" s="18"/>
     </row>
     <row r="1419" ht="14.25" customHeight="1">
@@ -71136,9 +71142,9 @@
       <c r="L1419" s="67"/>
       <c r="M1419" s="67"/>
       <c r="N1419" s="67"/>
-      <c r="O1419" s="107"/>
-      <c r="P1419" s="107"/>
-      <c r="Q1419" s="107"/>
+      <c r="O1419" s="108"/>
+      <c r="P1419" s="108"/>
+      <c r="Q1419" s="108"/>
       <c r="R1419" s="18"/>
     </row>
     <row r="1420" ht="14.25" customHeight="1">
@@ -71156,9 +71162,9 @@
       <c r="L1420" s="67"/>
       <c r="M1420" s="67"/>
       <c r="N1420" s="67"/>
-      <c r="O1420" s="107"/>
-      <c r="P1420" s="107"/>
-      <c r="Q1420" s="107"/>
+      <c r="O1420" s="108"/>
+      <c r="P1420" s="108"/>
+      <c r="Q1420" s="108"/>
       <c r="R1420" s="18"/>
     </row>
     <row r="1421" ht="14.25" customHeight="1">
@@ -71176,9 +71182,9 @@
       <c r="L1421" s="67"/>
       <c r="M1421" s="67"/>
       <c r="N1421" s="67"/>
-      <c r="O1421" s="107"/>
-      <c r="P1421" s="107"/>
-      <c r="Q1421" s="107"/>
+      <c r="O1421" s="108"/>
+      <c r="P1421" s="108"/>
+      <c r="Q1421" s="108"/>
       <c r="R1421" s="18"/>
     </row>
     <row r="1422" ht="14.25" customHeight="1">
@@ -71196,9 +71202,9 @@
       <c r="L1422" s="67"/>
       <c r="M1422" s="67"/>
       <c r="N1422" s="67"/>
-      <c r="O1422" s="107"/>
-      <c r="P1422" s="107"/>
-      <c r="Q1422" s="107"/>
+      <c r="O1422" s="108"/>
+      <c r="P1422" s="108"/>
+      <c r="Q1422" s="108"/>
       <c r="R1422" s="18"/>
     </row>
     <row r="1423" ht="14.25" customHeight="1">
@@ -71216,9 +71222,9 @@
       <c r="L1423" s="67"/>
       <c r="M1423" s="67"/>
       <c r="N1423" s="67"/>
-      <c r="O1423" s="107"/>
-      <c r="P1423" s="107"/>
-      <c r="Q1423" s="107"/>
+      <c r="O1423" s="108"/>
+      <c r="P1423" s="108"/>
+      <c r="Q1423" s="108"/>
       <c r="R1423" s="18"/>
     </row>
     <row r="1424" ht="14.25" customHeight="1">
@@ -71236,9 +71242,9 @@
       <c r="L1424" s="67"/>
       <c r="M1424" s="67"/>
       <c r="N1424" s="67"/>
-      <c r="O1424" s="107"/>
-      <c r="P1424" s="107"/>
-      <c r="Q1424" s="107"/>
+      <c r="O1424" s="108"/>
+      <c r="P1424" s="108"/>
+      <c r="Q1424" s="108"/>
       <c r="R1424" s="18"/>
     </row>
     <row r="1425" ht="14.25" customHeight="1">
@@ -71256,9 +71262,9 @@
       <c r="L1425" s="67"/>
       <c r="M1425" s="67"/>
       <c r="N1425" s="67"/>
-      <c r="O1425" s="107"/>
-      <c r="P1425" s="107"/>
-      <c r="Q1425" s="107"/>
+      <c r="O1425" s="108"/>
+      <c r="P1425" s="108"/>
+      <c r="Q1425" s="108"/>
       <c r="R1425" s="18"/>
     </row>
     <row r="1426" ht="14.25" customHeight="1">
@@ -71276,9 +71282,9 @@
       <c r="L1426" s="67"/>
       <c r="M1426" s="67"/>
       <c r="N1426" s="67"/>
-      <c r="O1426" s="107"/>
-      <c r="P1426" s="107"/>
-      <c r="Q1426" s="107"/>
+      <c r="O1426" s="108"/>
+      <c r="P1426" s="108"/>
+      <c r="Q1426" s="108"/>
       <c r="R1426" s="18"/>
     </row>
     <row r="1427" ht="14.25" customHeight="1">
@@ -71296,9 +71302,9 @@
       <c r="L1427" s="67"/>
       <c r="M1427" s="67"/>
       <c r="N1427" s="67"/>
-      <c r="O1427" s="107"/>
-      <c r="P1427" s="107"/>
-      <c r="Q1427" s="107"/>
+      <c r="O1427" s="108"/>
+      <c r="P1427" s="108"/>
+      <c r="Q1427" s="108"/>
       <c r="R1427" s="18"/>
     </row>
     <row r="1428" ht="14.25" customHeight="1">
@@ -71316,9 +71322,9 @@
       <c r="L1428" s="67"/>
       <c r="M1428" s="67"/>
       <c r="N1428" s="67"/>
-      <c r="O1428" s="107"/>
-      <c r="P1428" s="107"/>
-      <c r="Q1428" s="107"/>
+      <c r="O1428" s="108"/>
+      <c r="P1428" s="108"/>
+      <c r="Q1428" s="108"/>
       <c r="R1428" s="18"/>
     </row>
     <row r="1429" ht="14.25" customHeight="1">
@@ -71336,9 +71342,9 @@
       <c r="L1429" s="67"/>
       <c r="M1429" s="67"/>
       <c r="N1429" s="67"/>
-      <c r="O1429" s="107"/>
-      <c r="P1429" s="107"/>
-      <c r="Q1429" s="107"/>
+      <c r="O1429" s="108"/>
+      <c r="P1429" s="108"/>
+      <c r="Q1429" s="108"/>
       <c r="R1429" s="18"/>
     </row>
     <row r="1430" ht="14.25" customHeight="1">
@@ -71356,9 +71362,9 @@
       <c r="L1430" s="67"/>
       <c r="M1430" s="67"/>
       <c r="N1430" s="67"/>
-      <c r="O1430" s="107"/>
-      <c r="P1430" s="107"/>
-      <c r="Q1430" s="107"/>
+      <c r="O1430" s="108"/>
+      <c r="P1430" s="108"/>
+      <c r="Q1430" s="108"/>
       <c r="R1430" s="18"/>
     </row>
     <row r="1431" ht="14.25" customHeight="1">
@@ -71376,9 +71382,9 @@
       <c r="L1431" s="67"/>
       <c r="M1431" s="67"/>
       <c r="N1431" s="67"/>
-      <c r="O1431" s="107"/>
-      <c r="P1431" s="107"/>
-      <c r="Q1431" s="107"/>
+      <c r="O1431" s="108"/>
+      <c r="P1431" s="108"/>
+      <c r="Q1431" s="108"/>
       <c r="R1431" s="18"/>
     </row>
     <row r="1432" ht="14.25" customHeight="1">
@@ -71396,9 +71402,9 @@
       <c r="L1432" s="67"/>
       <c r="M1432" s="67"/>
       <c r="N1432" s="67"/>
-      <c r="O1432" s="107"/>
-      <c r="P1432" s="107"/>
-      <c r="Q1432" s="107"/>
+      <c r="O1432" s="108"/>
+      <c r="P1432" s="108"/>
+      <c r="Q1432" s="108"/>
       <c r="R1432" s="18"/>
     </row>
     <row r="1433" ht="14.25" customHeight="1">
@@ -71416,9 +71422,9 @@
       <c r="L1433" s="67"/>
       <c r="M1433" s="67"/>
       <c r="N1433" s="67"/>
-      <c r="O1433" s="107"/>
-      <c r="P1433" s="107"/>
-      <c r="Q1433" s="107"/>
+      <c r="O1433" s="108"/>
+      <c r="P1433" s="108"/>
+      <c r="Q1433" s="108"/>
       <c r="R1433" s="18"/>
     </row>
     <row r="1434" ht="14.25" customHeight="1">
@@ -71436,9 +71442,9 @@
       <c r="L1434" s="67"/>
       <c r="M1434" s="67"/>
       <c r="N1434" s="67"/>
-      <c r="O1434" s="107"/>
-      <c r="P1434" s="107"/>
-      <c r="Q1434" s="107"/>
+      <c r="O1434" s="108"/>
+      <c r="P1434" s="108"/>
+      <c r="Q1434" s="108"/>
       <c r="R1434" s="18"/>
     </row>
     <row r="1435" ht="14.25" customHeight="1">
@@ -71456,9 +71462,9 @@
       <c r="L1435" s="67"/>
       <c r="M1435" s="67"/>
       <c r="N1435" s="67"/>
-      <c r="O1435" s="107"/>
-      <c r="P1435" s="107"/>
-      <c r="Q1435" s="107"/>
+      <c r="O1435" s="108"/>
+      <c r="P1435" s="108"/>
+      <c r="Q1435" s="108"/>
       <c r="R1435" s="18"/>
     </row>
     <row r="1436" ht="14.25" customHeight="1">
@@ -71476,9 +71482,9 @@
       <c r="L1436" s="67"/>
       <c r="M1436" s="67"/>
       <c r="N1436" s="67"/>
-      <c r="O1436" s="107"/>
-      <c r="P1436" s="107"/>
-      <c r="Q1436" s="107"/>
+      <c r="O1436" s="108"/>
+      <c r="P1436" s="108"/>
+      <c r="Q1436" s="108"/>
       <c r="R1436" s="18"/>
     </row>
     <row r="1437" ht="14.25" customHeight="1">
@@ -71496,9 +71502,9 @@
       <c r="L1437" s="67"/>
       <c r="M1437" s="67"/>
       <c r="N1437" s="67"/>
-      <c r="O1437" s="107"/>
-      <c r="P1437" s="107"/>
-      <c r="Q1437" s="107"/>
+      <c r="O1437" s="108"/>
+      <c r="P1437" s="108"/>
+      <c r="Q1437" s="108"/>
       <c r="R1437" s="18"/>
     </row>
     <row r="1438" ht="14.25" customHeight="1">
@@ -71516,9 +71522,9 @@
       <c r="L1438" s="67"/>
       <c r="M1438" s="67"/>
       <c r="N1438" s="67"/>
-      <c r="O1438" s="107"/>
-      <c r="P1438" s="107"/>
-      <c r="Q1438" s="107"/>
+      <c r="O1438" s="108"/>
+      <c r="P1438" s="108"/>
+      <c r="Q1438" s="108"/>
       <c r="R1438" s="18"/>
     </row>
     <row r="1439" ht="14.25" customHeight="1">
@@ -71536,9 +71542,9 @@
       <c r="L1439" s="67"/>
       <c r="M1439" s="67"/>
       <c r="N1439" s="67"/>
-      <c r="O1439" s="107"/>
-      <c r="P1439" s="107"/>
-      <c r="Q1439" s="107"/>
+      <c r="O1439" s="108"/>
+      <c r="P1439" s="108"/>
+      <c r="Q1439" s="108"/>
       <c r="R1439" s="18"/>
     </row>
     <row r="1440" ht="14.25" customHeight="1">
@@ -71556,9 +71562,9 @@
       <c r="L1440" s="67"/>
       <c r="M1440" s="67"/>
       <c r="N1440" s="67"/>
-      <c r="O1440" s="107"/>
-      <c r="P1440" s="107"/>
-      <c r="Q1440" s="107"/>
+      <c r="O1440" s="108"/>
+      <c r="P1440" s="108"/>
+      <c r="Q1440" s="108"/>
       <c r="R1440" s="18"/>
     </row>
     <row r="1441" ht="14.25" customHeight="1">
@@ -71576,9 +71582,9 @@
       <c r="L1441" s="67"/>
       <c r="M1441" s="67"/>
       <c r="N1441" s="67"/>
-      <c r="O1441" s="107"/>
-      <c r="P1441" s="107"/>
-      <c r="Q1441" s="107"/>
+      <c r="O1441" s="108"/>
+      <c r="P1441" s="108"/>
+      <c r="Q1441" s="108"/>
       <c r="R1441" s="18"/>
     </row>
     <row r="1442" ht="14.25" customHeight="1">
@@ -71596,9 +71602,9 @@
       <c r="L1442" s="67"/>
       <c r="M1442" s="67"/>
       <c r="N1442" s="67"/>
-      <c r="O1442" s="107"/>
-      <c r="P1442" s="107"/>
-      <c r="Q1442" s="107"/>
+      <c r="O1442" s="108"/>
+      <c r="P1442" s="108"/>
+      <c r="Q1442" s="108"/>
       <c r="R1442" s="18"/>
     </row>
     <row r="1443" ht="14.25" customHeight="1">
@@ -71616,9 +71622,9 @@
       <c r="L1443" s="67"/>
       <c r="M1443" s="67"/>
       <c r="N1443" s="67"/>
-      <c r="O1443" s="107"/>
-      <c r="P1443" s="107"/>
-      <c r="Q1443" s="107"/>
+      <c r="O1443" s="108"/>
+      <c r="P1443" s="108"/>
+      <c r="Q1443" s="108"/>
       <c r="R1443" s="18"/>
     </row>
     <row r="1444" ht="14.25" customHeight="1">
@@ -71636,9 +71642,9 @@
       <c r="L1444" s="67"/>
       <c r="M1444" s="67"/>
       <c r="N1444" s="67"/>
-      <c r="O1444" s="107"/>
-      <c r="P1444" s="107"/>
-      <c r="Q1444" s="107"/>
+      <c r="O1444" s="108"/>
+      <c r="P1444" s="108"/>
+      <c r="Q1444" s="108"/>
       <c r="R1444" s="18"/>
     </row>
     <row r="1445" ht="14.25" customHeight="1">
@@ -71656,9 +71662,9 @@
       <c r="L1445" s="67"/>
       <c r="M1445" s="67"/>
       <c r="N1445" s="67"/>
-      <c r="O1445" s="107"/>
-      <c r="P1445" s="107"/>
-      <c r="Q1445" s="107"/>
+      <c r="O1445" s="108"/>
+      <c r="P1445" s="108"/>
+      <c r="Q1445" s="108"/>
       <c r="R1445" s="18"/>
     </row>
     <row r="1446" ht="14.25" customHeight="1">
@@ -71676,9 +71682,9 @@
       <c r="L1446" s="67"/>
       <c r="M1446" s="67"/>
       <c r="N1446" s="67"/>
-      <c r="O1446" s="107"/>
-      <c r="P1446" s="107"/>
-      <c r="Q1446" s="107"/>
+      <c r="O1446" s="108"/>
+      <c r="P1446" s="108"/>
+      <c r="Q1446" s="108"/>
       <c r="R1446" s="18"/>
     </row>
     <row r="1447" ht="14.25" customHeight="1">
@@ -71696,9 +71702,9 @@
       <c r="L1447" s="67"/>
       <c r="M1447" s="67"/>
       <c r="N1447" s="67"/>
-      <c r="O1447" s="107"/>
-      <c r="P1447" s="107"/>
-      <c r="Q1447" s="107"/>
+      <c r="O1447" s="108"/>
+      <c r="P1447" s="108"/>
+      <c r="Q1447" s="108"/>
       <c r="R1447" s="18"/>
     </row>
     <row r="1448" ht="14.25" customHeight="1">
@@ -71716,9 +71722,9 @@
       <c r="L1448" s="67"/>
       <c r="M1448" s="67"/>
       <c r="N1448" s="67"/>
-      <c r="O1448" s="107"/>
-      <c r="P1448" s="107"/>
-      <c r="Q1448" s="107"/>
+      <c r="O1448" s="108"/>
+      <c r="P1448" s="108"/>
+      <c r="Q1448" s="108"/>
       <c r="R1448" s="18"/>
     </row>
     <row r="1449" ht="14.25" customHeight="1">
@@ -71736,9 +71742,9 @@
       <c r="L1449" s="67"/>
       <c r="M1449" s="67"/>
       <c r="N1449" s="67"/>
-      <c r="O1449" s="107"/>
-      <c r="P1449" s="107"/>
-      <c r="Q1449" s="107"/>
+      <c r="O1449" s="108"/>
+      <c r="P1449" s="108"/>
+      <c r="Q1449" s="108"/>
       <c r="R1449" s="18"/>
     </row>
     <row r="1450" ht="14.25" customHeight="1">
@@ -71756,9 +71762,9 @@
       <c r="L1450" s="67"/>
       <c r="M1450" s="67"/>
       <c r="N1450" s="67"/>
-      <c r="O1450" s="107"/>
-      <c r="P1450" s="107"/>
-      <c r="Q1450" s="107"/>
+      <c r="O1450" s="108"/>
+      <c r="P1450" s="108"/>
+      <c r="Q1450" s="108"/>
       <c r="R1450" s="18"/>
     </row>
     <row r="1451" ht="14.25" customHeight="1">
@@ -71776,9 +71782,9 @@
       <c r="L1451" s="67"/>
       <c r="M1451" s="67"/>
       <c r="N1451" s="67"/>
-      <c r="O1451" s="107"/>
-      <c r="P1451" s="107"/>
-      <c r="Q1451" s="107"/>
+      <c r="O1451" s="108"/>
+      <c r="P1451" s="108"/>
+      <c r="Q1451" s="108"/>
       <c r="R1451" s="18"/>
     </row>
     <row r="1452" ht="14.25" customHeight="1">
@@ -71796,9 +71802,9 @@
       <c r="L1452" s="67"/>
       <c r="M1452" s="67"/>
       <c r="N1452" s="67"/>
-      <c r="O1452" s="107"/>
-      <c r="P1452" s="107"/>
-      <c r="Q1452" s="107"/>
+      <c r="O1452" s="108"/>
+      <c r="P1452" s="108"/>
+      <c r="Q1452" s="108"/>
       <c r="R1452" s="18"/>
     </row>
     <row r="1453" ht="14.25" customHeight="1">
@@ -71816,9 +71822,9 @@
       <c r="L1453" s="67"/>
       <c r="M1453" s="67"/>
       <c r="N1453" s="67"/>
-      <c r="O1453" s="107"/>
-      <c r="P1453" s="107"/>
-      <c r="Q1453" s="107"/>
+      <c r="O1453" s="108"/>
+      <c r="P1453" s="108"/>
+      <c r="Q1453" s="108"/>
       <c r="R1453" s="18"/>
     </row>
     <row r="1454" ht="14.25" customHeight="1">
@@ -71836,9 +71842,9 @@
       <c r="L1454" s="67"/>
       <c r="M1454" s="67"/>
       <c r="N1454" s="67"/>
-      <c r="O1454" s="107"/>
-      <c r="P1454" s="107"/>
-      <c r="Q1454" s="107"/>
+      <c r="O1454" s="108"/>
+      <c r="P1454" s="108"/>
+      <c r="Q1454" s="108"/>
       <c r="R1454" s="18"/>
     </row>
     <row r="1455" ht="14.25" customHeight="1">
@@ -71856,9 +71862,9 @@
       <c r="L1455" s="67"/>
       <c r="M1455" s="67"/>
       <c r="N1455" s="67"/>
-      <c r="O1455" s="107"/>
-      <c r="P1455" s="107"/>
-      <c r="Q1455" s="107"/>
+      <c r="O1455" s="108"/>
+      <c r="P1455" s="108"/>
+      <c r="Q1455" s="108"/>
       <c r="R1455" s="18"/>
     </row>
     <row r="1456" ht="14.25" customHeight="1">
@@ -71876,9 +71882,9 @@
       <c r="L1456" s="67"/>
       <c r="M1456" s="67"/>
       <c r="N1456" s="67"/>
-      <c r="O1456" s="107"/>
-      <c r="P1456" s="107"/>
-      <c r="Q1456" s="107"/>
+      <c r="O1456" s="108"/>
+      <c r="P1456" s="108"/>
+      <c r="Q1456" s="108"/>
       <c r="R1456" s="18"/>
     </row>
     <row r="1457" ht="14.25" customHeight="1">
@@ -71896,9 +71902,9 @@
       <c r="L1457" s="67"/>
       <c r="M1457" s="67"/>
       <c r="N1457" s="67"/>
-      <c r="O1457" s="107"/>
-      <c r="P1457" s="107"/>
-      <c r="Q1457" s="107"/>
+      <c r="O1457" s="108"/>
+      <c r="P1457" s="108"/>
+      <c r="Q1457" s="108"/>
       <c r="R1457" s="18"/>
     </row>
     <row r="1458" ht="14.25" customHeight="1">
@@ -71916,9 +71922,9 @@
       <c r="L1458" s="67"/>
       <c r="M1458" s="67"/>
       <c r="N1458" s="67"/>
-      <c r="O1458" s="107"/>
-      <c r="P1458" s="107"/>
-      <c r="Q1458" s="107"/>
+      <c r="O1458" s="108"/>
+      <c r="P1458" s="108"/>
+      <c r="Q1458" s="108"/>
       <c r="R1458" s="18"/>
     </row>
     <row r="1459" ht="14.25" customHeight="1">
@@ -71936,9 +71942,9 @@
       <c r="L1459" s="67"/>
       <c r="M1459" s="67"/>
       <c r="N1459" s="67"/>
-      <c r="O1459" s="107"/>
-      <c r="P1459" s="107"/>
-      <c r="Q1459" s="107"/>
+      <c r="O1459" s="108"/>
+      <c r="P1459" s="108"/>
+      <c r="Q1459" s="108"/>
       <c r="R1459" s="18"/>
     </row>
     <row r="1460" ht="14.25" customHeight="1">
@@ -71956,9 +71962,9 @@
       <c r="L1460" s="67"/>
       <c r="M1460" s="67"/>
       <c r="N1460" s="67"/>
-      <c r="O1460" s="107"/>
-      <c r="P1460" s="107"/>
-      <c r="Q1460" s="107"/>
+      <c r="O1460" s="108"/>
+      <c r="P1460" s="108"/>
+      <c r="Q1460" s="108"/>
       <c r="R1460" s="18"/>
     </row>
     <row r="1461" ht="14.25" customHeight="1">
@@ -71976,9 +71982,9 @@
       <c r="L1461" s="67"/>
       <c r="M1461" s="67"/>
       <c r="N1461" s="67"/>
-      <c r="O1461" s="107"/>
-      <c r="P1461" s="107"/>
-      <c r="Q1461" s="107"/>
+      <c r="O1461" s="108"/>
+      <c r="P1461" s="108"/>
+      <c r="Q1461" s="108"/>
       <c r="R1461" s="18"/>
     </row>
     <row r="1462" ht="14.25" customHeight="1">
@@ -71996,9 +72002,9 @@
       <c r="L1462" s="67"/>
       <c r="M1462" s="67"/>
       <c r="N1462" s="67"/>
-      <c r="O1462" s="107"/>
-      <c r="P1462" s="107"/>
-      <c r="Q1462" s="107"/>
+      <c r="O1462" s="108"/>
+      <c r="P1462" s="108"/>
+      <c r="Q1462" s="108"/>
       <c r="R1462" s="18"/>
     </row>
     <row r="1463" ht="14.25" customHeight="1">
@@ -72016,9 +72022,9 @@
       <c r="L1463" s="67"/>
       <c r="M1463" s="67"/>
       <c r="N1463" s="67"/>
-      <c r="O1463" s="107"/>
-      <c r="P1463" s="107"/>
-      <c r="Q1463" s="107"/>
+      <c r="O1463" s="108"/>
+      <c r="P1463" s="108"/>
+      <c r="Q1463" s="108"/>
       <c r="R1463" s="18"/>
     </row>
     <row r="1464" ht="14.25" customHeight="1">
@@ -72036,9 +72042,9 @@
       <c r="L1464" s="67"/>
       <c r="M1464" s="67"/>
       <c r="N1464" s="67"/>
-      <c r="O1464" s="107"/>
-      <c r="P1464" s="107"/>
-      <c r="Q1464" s="107"/>
+      <c r="O1464" s="108"/>
+      <c r="P1464" s="108"/>
+      <c r="Q1464" s="108"/>
       <c r="R1464" s="18"/>
     </row>
     <row r="1465" ht="14.25" customHeight="1">
@@ -72056,9 +72062,9 @@
       <c r="L1465" s="67"/>
       <c r="M1465" s="67"/>
       <c r="N1465" s="67"/>
-      <c r="O1465" s="107"/>
-      <c r="P1465" s="107"/>
-      <c r="Q1465" s="107"/>
+      <c r="O1465" s="108"/>
+      <c r="P1465" s="108"/>
+      <c r="Q1465" s="108"/>
       <c r="R1465" s="18"/>
     </row>
     <row r="1466" ht="14.25" customHeight="1">
@@ -72076,9 +72082,9 @@
       <c r="L1466" s="67"/>
       <c r="M1466" s="67"/>
       <c r="N1466" s="67"/>
-      <c r="O1466" s="107"/>
-      <c r="P1466" s="107"/>
-      <c r="Q1466" s="107"/>
+      <c r="O1466" s="108"/>
+      <c r="P1466" s="108"/>
+      <c r="Q1466" s="108"/>
       <c r="R1466" s="18"/>
     </row>
     <row r="1467" ht="14.25" customHeight="1">
@@ -72096,9 +72102,9 @@
       <c r="L1467" s="67"/>
       <c r="M1467" s="67"/>
       <c r="N1467" s="67"/>
-      <c r="O1467" s="107"/>
-      <c r="P1467" s="107"/>
-      <c r="Q1467" s="107"/>
+      <c r="O1467" s="108"/>
+      <c r="P1467" s="108"/>
+      <c r="Q1467" s="108"/>
       <c r="R1467" s="18"/>
     </row>
     <row r="1468" ht="14.25" customHeight="1">
@@ -72116,9 +72122,9 @@
       <c r="L1468" s="67"/>
       <c r="M1468" s="67"/>
       <c r="N1468" s="67"/>
-      <c r="O1468" s="107"/>
-      <c r="P1468" s="107"/>
-      <c r="Q1468" s="107"/>
+      <c r="O1468" s="108"/>
+      <c r="P1468" s="108"/>
+      <c r="Q1468" s="108"/>
       <c r="R1468" s="18"/>
     </row>
     <row r="1469" ht="14.25" customHeight="1">
@@ -72136,9 +72142,9 @@
       <c r="L1469" s="67"/>
       <c r="M1469" s="67"/>
       <c r="N1469" s="67"/>
-      <c r="O1469" s="107"/>
-      <c r="P1469" s="107"/>
-      <c r="Q1469" s="107"/>
+      <c r="O1469" s="108"/>
+      <c r="P1469" s="108"/>
+      <c r="Q1469" s="108"/>
       <c r="R1469" s="18"/>
     </row>
     <row r="1470" ht="14.25" customHeight="1">
@@ -72156,9 +72162,9 @@
       <c r="L1470" s="67"/>
       <c r="M1470" s="67"/>
       <c r="N1470" s="67"/>
-      <c r="O1470" s="107"/>
-      <c r="P1470" s="107"/>
-      <c r="Q1470" s="107"/>
+      <c r="O1470" s="108"/>
+      <c r="P1470" s="108"/>
+      <c r="Q1470" s="108"/>
       <c r="R1470" s="18"/>
     </row>
     <row r="1471" ht="14.25" customHeight="1">
@@ -72176,9 +72182,9 @@
       <c r="L1471" s="67"/>
       <c r="M1471" s="67"/>
       <c r="N1471" s="67"/>
-      <c r="O1471" s="107"/>
-      <c r="P1471" s="107"/>
-      <c r="Q1471" s="107"/>
+      <c r="O1471" s="108"/>
+      <c r="P1471" s="108"/>
+      <c r="Q1471" s="108"/>
       <c r="R1471" s="18"/>
     </row>
     <row r="1472" ht="14.25" customHeight="1">
@@ -72196,9 +72202,9 @@
       <c r="L1472" s="67"/>
       <c r="M1472" s="67"/>
       <c r="N1472" s="67"/>
-      <c r="O1472" s="107"/>
-      <c r="P1472" s="107"/>
-      <c r="Q1472" s="107"/>
+      <c r="O1472" s="108"/>
+      <c r="P1472" s="108"/>
+      <c r="Q1472" s="108"/>
       <c r="R1472" s="18"/>
     </row>
     <row r="1473" ht="14.25" customHeight="1">
@@ -72216,9 +72222,9 @@
       <c r="L1473" s="67"/>
       <c r="M1473" s="67"/>
       <c r="N1473" s="67"/>
-      <c r="O1473" s="107"/>
-      <c r="P1473" s="107"/>
-      <c r="Q1473" s="107"/>
+      <c r="O1473" s="108"/>
+      <c r="P1473" s="108"/>
+      <c r="Q1473" s="108"/>
       <c r="R1473" s="18"/>
     </row>
     <row r="1474" ht="14.25" customHeight="1">
@@ -72236,9 +72242,9 @@
       <c r="L1474" s="67"/>
       <c r="M1474" s="67"/>
       <c r="N1474" s="67"/>
-      <c r="O1474" s="107"/>
-      <c r="P1474" s="107"/>
-      <c r="Q1474" s="107"/>
+      <c r="O1474" s="108"/>
+      <c r="P1474" s="108"/>
+      <c r="Q1474" s="108"/>
       <c r="R1474" s="18"/>
     </row>
     <row r="1475" ht="14.25" customHeight="1">
@@ -72256,9 +72262,9 @@
       <c r="L1475" s="67"/>
       <c r="M1475" s="67"/>
       <c r="N1475" s="67"/>
-      <c r="O1475" s="107"/>
-      <c r="P1475" s="107"/>
-      <c r="Q1475" s="107"/>
+      <c r="O1475" s="108"/>
+      <c r="P1475" s="108"/>
+      <c r="Q1475" s="108"/>
       <c r="R1475" s="18"/>
     </row>
     <row r="1476" ht="14.25" customHeight="1">
@@ -72276,9 +72282,9 @@
       <c r="L1476" s="67"/>
       <c r="M1476" s="67"/>
       <c r="N1476" s="67"/>
-      <c r="O1476" s="107"/>
-      <c r="P1476" s="107"/>
-      <c r="Q1476" s="107"/>
+      <c r="O1476" s="108"/>
+      <c r="P1476" s="108"/>
+      <c r="Q1476" s="108"/>
       <c r="R1476" s="18"/>
     </row>
     <row r="1477" ht="14.25" customHeight="1">
@@ -72296,9 +72302,9 @@
       <c r="L1477" s="67"/>
       <c r="M1477" s="67"/>
       <c r="N1477" s="67"/>
-      <c r="O1477" s="107"/>
-      <c r="P1477" s="107"/>
-      <c r="Q1477" s="107"/>
+      <c r="O1477" s="108"/>
+      <c r="P1477" s="108"/>
+      <c r="Q1477" s="108"/>
       <c r="R1477" s="18"/>
     </row>
     <row r="1478" ht="14.25" customHeight="1">
@@ -72316,9 +72322,9 @@
       <c r="L1478" s="67"/>
       <c r="M1478" s="67"/>
       <c r="N1478" s="67"/>
-      <c r="O1478" s="107"/>
-      <c r="P1478" s="107"/>
-      <c r="Q1478" s="107"/>
+      <c r="O1478" s="108"/>
+      <c r="P1478" s="108"/>
+      <c r="Q1478" s="108"/>
       <c r="R1478" s="18"/>
     </row>
     <row r="1479" ht="14.25" customHeight="1">
@@ -72336,9 +72342,9 @@
       <c r="L1479" s="67"/>
       <c r="M1479" s="67"/>
       <c r="N1479" s="67"/>
-      <c r="O1479" s="107"/>
-      <c r="P1479" s="107"/>
-      <c r="Q1479" s="107"/>
+      <c r="O1479" s="108"/>
+      <c r="P1479" s="108"/>
+      <c r="Q1479" s="108"/>
       <c r="R1479" s="18"/>
     </row>
     <row r="1480" ht="14.25" customHeight="1">
@@ -72356,9 +72362,9 @@
       <c r="L1480" s="67"/>
       <c r="M1480" s="67"/>
       <c r="N1480" s="67"/>
-      <c r="O1480" s="107"/>
-      <c r="P1480" s="107"/>
-      <c r="Q1480" s="107"/>
+      <c r="O1480" s="108"/>
+      <c r="P1480" s="108"/>
+      <c r="Q1480" s="108"/>
       <c r="R1480" s="18"/>
     </row>
     <row r="1481" ht="14.25" customHeight="1">
@@ -72376,9 +72382,9 @@
       <c r="L1481" s="67"/>
       <c r="M1481" s="67"/>
       <c r="N1481" s="67"/>
-      <c r="O1481" s="107"/>
-      <c r="P1481" s="107"/>
-      <c r="Q1481" s="107"/>
+      <c r="O1481" s="108"/>
+      <c r="P1481" s="108"/>
+      <c r="Q1481" s="108"/>
       <c r="R1481" s="18"/>
     </row>
     <row r="1482" ht="14.25" customHeight="1">
@@ -72396,9 +72402,9 @@
       <c r="L1482" s="67"/>
       <c r="M1482" s="67"/>
       <c r="N1482" s="67"/>
-      <c r="O1482" s="107"/>
-      <c r="P1482" s="107"/>
-      <c r="Q1482" s="107"/>
+      <c r="O1482" s="108"/>
+      <c r="P1482" s="108"/>
+      <c r="Q1482" s="108"/>
       <c r="R1482" s="18"/>
     </row>
     <row r="1483" ht="14.25" customHeight="1">
@@ -72416,9 +72422,9 @@
       <c r="L1483" s="67"/>
       <c r="M1483" s="67"/>
       <c r="N1483" s="67"/>
-      <c r="O1483" s="107"/>
-      <c r="P1483" s="107"/>
-      <c r="Q1483" s="107"/>
+      <c r="O1483" s="108"/>
+      <c r="P1483" s="108"/>
+      <c r="Q1483" s="108"/>
       <c r="R1483" s="18"/>
     </row>
     <row r="1484" ht="14.25" customHeight="1">
@@ -72436,9 +72442,9 @@
       <c r="L1484" s="67"/>
       <c r="M1484" s="67"/>
       <c r="N1484" s="67"/>
-      <c r="O1484" s="107"/>
-      <c r="P1484" s="107"/>
-      <c r="Q1484" s="107"/>
+      <c r="O1484" s="108"/>
+      <c r="P1484" s="108"/>
+      <c r="Q1484" s="108"/>
       <c r="R1484" s="18"/>
     </row>
     <row r="1485" ht="14.25" customHeight="1">
@@ -72456,9 +72462,9 @@
       <c r="L1485" s="67"/>
       <c r="M1485" s="67"/>
       <c r="N1485" s="67"/>
-      <c r="O1485" s="107"/>
-      <c r="P1485" s="107"/>
-      <c r="Q1485" s="107"/>
+      <c r="O1485" s="108"/>
+      <c r="P1485" s="108"/>
+      <c r="Q1485" s="108"/>
       <c r="R1485" s="18"/>
     </row>
     <row r="1486" ht="14.25" customHeight="1">
@@ -72476,9 +72482,9 @@
       <c r="L1486" s="67"/>
       <c r="M1486" s="67"/>
       <c r="N1486" s="67"/>
-      <c r="O1486" s="107"/>
-      <c r="P1486" s="107"/>
-      <c r="Q1486" s="107"/>
+      <c r="O1486" s="108"/>
+      <c r="P1486" s="108"/>
+      <c r="Q1486" s="108"/>
       <c r="R1486" s="18"/>
     </row>
     <row r="1487" ht="14.25" customHeight="1">
@@ -72496,9 +72502,9 @@
       <c r="L1487" s="67"/>
       <c r="M1487" s="67"/>
       <c r="N1487" s="67"/>
-      <c r="O1487" s="107"/>
-      <c r="P1487" s="107"/>
-      <c r="Q1487" s="107"/>
+      <c r="O1487" s="108"/>
+      <c r="P1487" s="108"/>
+      <c r="Q1487" s="108"/>
       <c r="R1487" s="18"/>
     </row>
     <row r="1488" ht="14.25" customHeight="1">
@@ -72516,9 +72522,9 @@
       <c r="L1488" s="67"/>
       <c r="M1488" s="67"/>
       <c r="N1488" s="67"/>
-      <c r="O1488" s="107"/>
-      <c r="P1488" s="107"/>
-      <c r="Q1488" s="107"/>
+      <c r="O1488" s="108"/>
+      <c r="P1488" s="108"/>
+      <c r="Q1488" s="108"/>
       <c r="R1488" s="18"/>
     </row>
     <row r="1489" ht="14.25" customHeight="1">
@@ -72536,9 +72542,9 @@
       <c r="L1489" s="67"/>
       <c r="M1489" s="67"/>
       <c r="N1489" s="67"/>
-      <c r="O1489" s="107"/>
-      <c r="P1489" s="107"/>
-      <c r="Q1489" s="107"/>
+      <c r="O1489" s="108"/>
+      <c r="P1489" s="108"/>
+      <c r="Q1489" s="108"/>
       <c r="R1489" s="18"/>
     </row>
     <row r="1490" ht="14.25" customHeight="1">
@@ -72556,9 +72562,9 @@
       <c r="L1490" s="67"/>
       <c r="M1490" s="67"/>
       <c r="N1490" s="67"/>
-      <c r="O1490" s="107"/>
-      <c r="P1490" s="107"/>
-      <c r="Q1490" s="107"/>
+      <c r="O1490" s="108"/>
+      <c r="P1490" s="108"/>
+      <c r="Q1490" s="108"/>
       <c r="R1490" s="18"/>
     </row>
     <row r="1491" ht="14.25" customHeight="1">
@@ -72576,9 +72582,9 @@
       <c r="L1491" s="67"/>
       <c r="M1491" s="67"/>
       <c r="N1491" s="67"/>
-      <c r="O1491" s="107"/>
-      <c r="P1491" s="107"/>
-      <c r="Q1491" s="107"/>
+      <c r="O1491" s="108"/>
+      <c r="P1491" s="108"/>
+      <c r="Q1491" s="108"/>
       <c r="R1491" s="18"/>
     </row>
     <row r="1492" ht="14.25" customHeight="1">
@@ -72596,9 +72602,9 @@
       <c r="L1492" s="67"/>
       <c r="M1492" s="67"/>
       <c r="N1492" s="67"/>
-      <c r="O1492" s="107"/>
-      <c r="P1492" s="107"/>
-      <c r="Q1492" s="107"/>
+      <c r="O1492" s="108"/>
+      <c r="P1492" s="108"/>
+      <c r="Q1492" s="108"/>
       <c r="R1492" s="18"/>
     </row>
     <row r="1493" ht="14.25" customHeight="1">
@@ -72616,9 +72622,9 @@
       <c r="L1493" s="67"/>
       <c r="M1493" s="67"/>
       <c r="N1493" s="67"/>
-      <c r="O1493" s="107"/>
-      <c r="P1493" s="107"/>
-      <c r="Q1493" s="107"/>
+      <c r="O1493" s="108"/>
+      <c r="P1493" s="108"/>
+      <c r="Q1493" s="108"/>
       <c r="R1493" s="18"/>
     </row>
     <row r="1494" ht="14.25" customHeight="1">
@@ -72636,9 +72642,9 @@
       <c r="L1494" s="67"/>
       <c r="M1494" s="67"/>
       <c r="N1494" s="67"/>
-      <c r="O1494" s="107"/>
-      <c r="P1494" s="107"/>
-      <c r="Q1494" s="107"/>
+      <c r="O1494" s="108"/>
+      <c r="P1494" s="108"/>
+      <c r="Q1494" s="108"/>
       <c r="R1494" s="18"/>
     </row>
     <row r="1495" ht="14.25" customHeight="1">
@@ -72656,9 +72662,9 @@
       <c r="L1495" s="67"/>
       <c r="M1495" s="67"/>
       <c r="N1495" s="67"/>
-      <c r="O1495" s="107"/>
-      <c r="P1495" s="107"/>
-      <c r="Q1495" s="107"/>
+      <c r="O1495" s="108"/>
+      <c r="P1495" s="108"/>
+      <c r="Q1495" s="108"/>
       <c r="R1495" s="18"/>
     </row>
     <row r="1496" ht="14.25" customHeight="1">
@@ -72676,9 +72682,9 @@
       <c r="L1496" s="67"/>
       <c r="M1496" s="67"/>
       <c r="N1496" s="67"/>
-      <c r="O1496" s="107"/>
-      <c r="P1496" s="107"/>
-      <c r="Q1496" s="107"/>
+      <c r="O1496" s="108"/>
+      <c r="P1496" s="108"/>
+      <c r="Q1496" s="108"/>
       <c r="R1496" s="18"/>
     </row>
     <row r="1497" ht="14.25" customHeight="1">
@@ -72696,9 +72702,9 @@
       <c r="L1497" s="67"/>
       <c r="M1497" s="67"/>
       <c r="N1497" s="67"/>
-      <c r="O1497" s="107"/>
-      <c r="P1497" s="107"/>
-      <c r="Q1497" s="107"/>
+      <c r="O1497" s="108"/>
+      <c r="P1497" s="108"/>
+      <c r="Q1497" s="108"/>
       <c r="R1497" s="18"/>
     </row>
     <row r="1498" ht="14.25" customHeight="1">
@@ -72716,9 +72722,9 @@
       <c r="L1498" s="67"/>
       <c r="M1498" s="67"/>
       <c r="N1498" s="67"/>
-      <c r="O1498" s="107"/>
-      <c r="P1498" s="107"/>
-      <c r="Q1498" s="107"/>
+      <c r="O1498" s="108"/>
+      <c r="P1498" s="108"/>
+      <c r="Q1498" s="108"/>
       <c r="R1498" s="18"/>
     </row>
     <row r="1499" ht="14.25" customHeight="1">
@@ -72736,9 +72742,9 @@
       <c r="L1499" s="67"/>
       <c r="M1499" s="67"/>
       <c r="N1499" s="67"/>
-      <c r="O1499" s="107"/>
-      <c r="P1499" s="107"/>
-      <c r="Q1499" s="107"/>
+      <c r="O1499" s="108"/>
+      <c r="P1499" s="108"/>
+      <c r="Q1499" s="108"/>
       <c r="R1499" s="18"/>
     </row>
     <row r="1500" ht="14.25" customHeight="1">
@@ -72756,9 +72762,9 @@
       <c r="L1500" s="67"/>
       <c r="M1500" s="67"/>
       <c r="N1500" s="67"/>
-      <c r="O1500" s="107"/>
-      <c r="P1500" s="107"/>
-      <c r="Q1500" s="107"/>
+      <c r="O1500" s="108"/>
+      <c r="P1500" s="108"/>
+      <c r="Q1500" s="108"/>
       <c r="R1500" s="18"/>
     </row>
     <row r="1501" ht="14.25" customHeight="1">
@@ -72776,9 +72782,9 @@
       <c r="L1501" s="67"/>
       <c r="M1501" s="67"/>
       <c r="N1501" s="67"/>
-      <c r="O1501" s="107"/>
-      <c r="P1501" s="107"/>
-      <c r="Q1501" s="107"/>
+      <c r="O1501" s="108"/>
+      <c r="P1501" s="108"/>
+      <c r="Q1501" s="108"/>
       <c r="R1501" s="18"/>
     </row>
     <row r="1502" ht="14.25" customHeight="1">
@@ -72796,9 +72802,9 @@
       <c r="L1502" s="67"/>
       <c r="M1502" s="67"/>
       <c r="N1502" s="67"/>
-      <c r="O1502" s="107"/>
-      <c r="P1502" s="107"/>
-      <c r="Q1502" s="107"/>
+      <c r="O1502" s="108"/>
+      <c r="P1502" s="108"/>
+      <c r="Q1502" s="108"/>
       <c r="R1502" s="18"/>
     </row>
     <row r="1503" ht="14.25" customHeight="1">
@@ -72816,9 +72822,9 @@
       <c r="L1503" s="67"/>
       <c r="M1503" s="67"/>
       <c r="N1503" s="67"/>
-      <c r="O1503" s="107"/>
-      <c r="P1503" s="107"/>
-      <c r="Q1503" s="107"/>
+      <c r="O1503" s="108"/>
+      <c r="P1503" s="108"/>
+      <c r="Q1503" s="108"/>
       <c r="R1503" s="18"/>
     </row>
     <row r="1504" ht="14.25" customHeight="1">
@@ -72836,9 +72842,9 @@
       <c r="L1504" s="67"/>
       <c r="M1504" s="67"/>
       <c r="N1504" s="67"/>
-      <c r="O1504" s="107"/>
-      <c r="P1504" s="107"/>
-      <c r="Q1504" s="107"/>
+      <c r="O1504" s="108"/>
+      <c r="P1504" s="108"/>
+      <c r="Q1504" s="108"/>
       <c r="R1504" s="18"/>
     </row>
     <row r="1505" ht="14.25" customHeight="1">
@@ -72856,9 +72862,9 @@
       <c r="L1505" s="67"/>
       <c r="M1505" s="67"/>
       <c r="N1505" s="67"/>
-      <c r="O1505" s="107"/>
-      <c r="P1505" s="107"/>
-      <c r="Q1505" s="107"/>
+      <c r="O1505" s="108"/>
+      <c r="P1505" s="108"/>
+      <c r="Q1505" s="108"/>
       <c r="R1505" s="18"/>
     </row>
     <row r="1506" ht="14.25" customHeight="1">
@@ -72876,9 +72882,9 @@
       <c r="L1506" s="67"/>
       <c r="M1506" s="67"/>
       <c r="N1506" s="67"/>
-      <c r="O1506" s="107"/>
-      <c r="P1506" s="107"/>
-      <c r="Q1506" s="107"/>
+      <c r="O1506" s="108"/>
+      <c r="P1506" s="108"/>
+      <c r="Q1506" s="108"/>
       <c r="R1506" s="18"/>
     </row>
     <row r="1507" ht="14.25" customHeight="1">
@@ -72896,9 +72902,9 @@
       <c r="L1507" s="67"/>
       <c r="M1507" s="67"/>
       <c r="N1507" s="67"/>
-      <c r="O1507" s="107"/>
-      <c r="P1507" s="107"/>
-      <c r="Q1507" s="107"/>
+      <c r="O1507" s="108"/>
+      <c r="P1507" s="108"/>
+      <c r="Q1507" s="108"/>
       <c r="R1507" s="18"/>
     </row>
     <row r="1508" ht="14.25" customHeight="1">
@@ -72916,9 +72922,9 @@
       <c r="L1508" s="67"/>
       <c r="M1508" s="67"/>
       <c r="N1508" s="67"/>
-      <c r="O1508" s="107"/>
-      <c r="P1508" s="107"/>
-      <c r="Q1508" s="107"/>
+      <c r="O1508" s="108"/>
+      <c r="P1508" s="108"/>
+      <c r="Q1508" s="108"/>
       <c r="R1508" s="18"/>
     </row>
     <row r="1509" ht="14.25" customHeight="1">
@@ -72936,9 +72942,9 @@
       <c r="L1509" s="67"/>
       <c r="M1509" s="67"/>
       <c r="N1509" s="67"/>
-      <c r="O1509" s="107"/>
-      <c r="P1509" s="107"/>
-      <c r="Q1509" s="107"/>
+      <c r="O1509" s="108"/>
+      <c r="P1509" s="108"/>
+      <c r="Q1509" s="108"/>
       <c r="R1509" s="18"/>
     </row>
     <row r="1510" ht="14.25" customHeight="1">
@@ -72956,9 +72962,9 @@
       <c r="L1510" s="67"/>
       <c r="M1510" s="67"/>
       <c r="N1510" s="67"/>
-      <c r="O1510" s="107"/>
-      <c r="P1510" s="107"/>
-      <c r="Q1510" s="107"/>
+      <c r="O1510" s="108"/>
+      <c r="P1510" s="108"/>
+      <c r="Q1510" s="108"/>
       <c r="R1510" s="18"/>
     </row>
     <row r="1511" ht="14.25" customHeight="1">
@@ -72976,9 +72982,9 @@
       <c r="L1511" s="67"/>
       <c r="M1511" s="67"/>
       <c r="N1511" s="67"/>
-      <c r="O1511" s="107"/>
-      <c r="P1511" s="107"/>
-      <c r="Q1511" s="107"/>
+      <c r="O1511" s="108"/>
+      <c r="P1511" s="108"/>
+      <c r="Q1511" s="108"/>
       <c r="R1511" s="18"/>
     </row>
     <row r="1512" ht="14.25" customHeight="1">
@@ -72996,9 +73002,9 @@
       <c r="L1512" s="67"/>
       <c r="M1512" s="67"/>
       <c r="N1512" s="67"/>
-      <c r="O1512" s="107"/>
-      <c r="P1512" s="107"/>
-      <c r="Q1512" s="107"/>
+      <c r="O1512" s="108"/>
+      <c r="P1512" s="108"/>
+      <c r="Q1512" s="108"/>
       <c r="R1512" s="18"/>
     </row>
     <row r="1513" ht="14.25" customHeight="1">
@@ -73016,9 +73022,9 @@
       <c r="L1513" s="67"/>
       <c r="M1513" s="67"/>
       <c r="N1513" s="67"/>
-      <c r="O1513" s="107"/>
-      <c r="P1513" s="107"/>
-      <c r="Q1513" s="107"/>
+      <c r="O1513" s="108"/>
+      <c r="P1513" s="108"/>
+      <c r="Q1513" s="108"/>
       <c r="R1513" s="18"/>
     </row>
     <row r="1514" ht="14.25" customHeight="1">
@@ -73036,9 +73042,9 @@
       <c r="L1514" s="67"/>
       <c r="M1514" s="67"/>
       <c r="N1514" s="67"/>
-      <c r="O1514" s="107"/>
-      <c r="P1514" s="107"/>
-      <c r="Q1514" s="107"/>
+      <c r="O1514" s="108"/>
+      <c r="P1514" s="108"/>
+      <c r="Q1514" s="108"/>
       <c r="R1514" s="18"/>
     </row>
     <row r="1515" ht="14.25" customHeight="1">
@@ -73056,9 +73062,9 @@
       <c r="L1515" s="67"/>
       <c r="M1515" s="67"/>
       <c r="N1515" s="67"/>
-      <c r="O1515" s="107"/>
-      <c r="P1515" s="107"/>
-      <c r="Q1515" s="107"/>
+      <c r="O1515" s="108"/>
+      <c r="P1515" s="108"/>
+      <c r="Q1515" s="108"/>
       <c r="R1515" s="18"/>
     </row>
     <row r="1516" ht="14.25" customHeight="1">
@@ -73076,9 +73082,9 @@
       <c r="L1516" s="67"/>
       <c r="M1516" s="67"/>
       <c r="N1516" s="67"/>
-      <c r="O1516" s="107"/>
-      <c r="P1516" s="107"/>
-      <c r="Q1516" s="107"/>
+      <c r="O1516" s="108"/>
+      <c r="P1516" s="108"/>
+      <c r="Q1516" s="108"/>
       <c r="R1516" s="18"/>
     </row>
     <row r="1517" ht="14.25" customHeight="1">
@@ -73096,9 +73102,9 @@
       <c r="L1517" s="67"/>
       <c r="M1517" s="67"/>
       <c r="N1517" s="67"/>
-      <c r="O1517" s="107"/>
-      <c r="P1517" s="107"/>
-      <c r="Q1517" s="107"/>
+      <c r="O1517" s="108"/>
+      <c r="P1517" s="108"/>
+      <c r="Q1517" s="108"/>
       <c r="R1517" s="18"/>
     </row>
     <row r="1518" ht="14.25" customHeight="1">
@@ -73116,9 +73122,9 @@
       <c r="L1518" s="67"/>
       <c r="M1518" s="67"/>
       <c r="N1518" s="67"/>
-      <c r="O1518" s="107"/>
-      <c r="P1518" s="107"/>
-      <c r="Q1518" s="107"/>
+      <c r="O1518" s="108"/>
+      <c r="P1518" s="108"/>
+      <c r="Q1518" s="108"/>
       <c r="R1518" s="18"/>
     </row>
     <row r="1519" ht="14.25" customHeight="1">
@@ -73136,9 +73142,9 @@
       <c r="L1519" s="67"/>
       <c r="M1519" s="67"/>
       <c r="N1519" s="67"/>
-      <c r="O1519" s="107"/>
-      <c r="P1519" s="107"/>
-      <c r="Q1519" s="107"/>
+      <c r="O1519" s="108"/>
+      <c r="P1519" s="108"/>
+      <c r="Q1519" s="108"/>
       <c r="R1519" s="18"/>
     </row>
     <row r="1520" ht="14.25" customHeight="1">
@@ -73156,9 +73162,9 @@
       <c r="L1520" s="67"/>
       <c r="M1520" s="67"/>
       <c r="N1520" s="67"/>
-      <c r="O1520" s="107"/>
-      <c r="P1520" s="107"/>
-      <c r="Q1520" s="107"/>
+      <c r="O1520" s="108"/>
+      <c r="P1520" s="108"/>
+      <c r="Q1520" s="108"/>
       <c r="R1520" s="18"/>
     </row>
     <row r="1521" ht="14.25" customHeight="1">
@@ -73176,9 +73182,9 @@
       <c r="L1521" s="67"/>
       <c r="M1521" s="67"/>
       <c r="N1521" s="67"/>
-      <c r="O1521" s="107"/>
-      <c r="P1521" s="107"/>
-      <c r="Q1521" s="107"/>
+      <c r="O1521" s="108"/>
+      <c r="P1521" s="108"/>
+      <c r="Q1521" s="108"/>
       <c r="R1521" s="18"/>
     </row>
     <row r="1522" ht="14.25" customHeight="1">
@@ -73196,9 +73202,9 @@
       <c r="L1522" s="67"/>
       <c r="M1522" s="67"/>
       <c r="N1522" s="67"/>
-      <c r="O1522" s="107"/>
-      <c r="P1522" s="107"/>
-      <c r="Q1522" s="107"/>
+      <c r="O1522" s="108"/>
+      <c r="P1522" s="108"/>
+      <c r="Q1522" s="108"/>
       <c r="R1522" s="18"/>
     </row>
     <row r="1523" ht="14.25" customHeight="1">
@@ -73216,9 +73222,9 @@
       <c r="L1523" s="67"/>
       <c r="M1523" s="67"/>
       <c r="N1523" s="67"/>
-      <c r="O1523" s="107"/>
-      <c r="P1523" s="107"/>
-      <c r="Q1523" s="107"/>
+      <c r="O1523" s="108"/>
+      <c r="P1523" s="108"/>
+      <c r="Q1523" s="108"/>
       <c r="R1523" s="18"/>
     </row>
     <row r="1524" ht="14.25" customHeight="1">
@@ -73236,9 +73242,9 @@
       <c r="L1524" s="67"/>
       <c r="M1524" s="67"/>
       <c r="N1524" s="67"/>
-      <c r="O1524" s="107"/>
-      <c r="P1524" s="107"/>
-      <c r="Q1524" s="107"/>
+      <c r="O1524" s="108"/>
+      <c r="P1524" s="108"/>
+      <c r="Q1524" s="108"/>
       <c r="R1524" s="18"/>
     </row>
     <row r="1525" ht="14.25" customHeight="1">
@@ -73256,9 +73262,9 @@
       <c r="L1525" s="67"/>
       <c r="M1525" s="67"/>
       <c r="N1525" s="67"/>
-      <c r="O1525" s="107"/>
-      <c r="P1525" s="107"/>
-      <c r="Q1525" s="107"/>
+      <c r="O1525" s="108"/>
+      <c r="P1525" s="108"/>
+      <c r="Q1525" s="108"/>
       <c r="R1525" s="18"/>
     </row>
     <row r="1526" ht="14.25" customHeight="1">
@@ -73276,9 +73282,9 @@
       <c r="L1526" s="67"/>
       <c r="M1526" s="67"/>
       <c r="N1526" s="67"/>
-      <c r="O1526" s="107"/>
-      <c r="P1526" s="107"/>
-      <c r="Q1526" s="107"/>
+      <c r="O1526" s="108"/>
+      <c r="P1526" s="108"/>
+      <c r="Q1526" s="108"/>
       <c r="R1526" s="18"/>
     </row>
     <row r="1527" ht="14.25" customHeight="1">
@@ -73296,9 +73302,9 @@
       <c r="L1527" s="67"/>
       <c r="M1527" s="67"/>
       <c r="N1527" s="67"/>
-      <c r="O1527" s="107"/>
-      <c r="P1527" s="107"/>
-      <c r="Q1527" s="107"/>
+      <c r="O1527" s="108"/>
+      <c r="P1527" s="108"/>
+      <c r="Q1527" s="108"/>
       <c r="R1527" s="18"/>
     </row>
     <row r="1528" ht="14.25" customHeight="1">
@@ -73316,9 +73322,9 @@
       <c r="L1528" s="67"/>
       <c r="M1528" s="67"/>
       <c r="N1528" s="67"/>
-      <c r="O1528" s="107"/>
-      <c r="P1528" s="107"/>
-      <c r="Q1528" s="107"/>
+      <c r="O1528" s="108"/>
+      <c r="P1528" s="108"/>
+      <c r="Q1528" s="108"/>
       <c r="R1528" s="18"/>
     </row>
     <row r="1529" ht="14.25" customHeight="1">
@@ -73336,9 +73342,9 @@
       <c r="L1529" s="67"/>
       <c r="M1529" s="67"/>
       <c r="N1529" s="67"/>
-      <c r="O1529" s="107"/>
-      <c r="P1529" s="107"/>
-      <c r="Q1529" s="107"/>
+      <c r="O1529" s="108"/>
+      <c r="P1529" s="108"/>
+      <c r="Q1529" s="108"/>
       <c r="R1529" s="18"/>
     </row>
     <row r="1530" ht="14.25" customHeight="1">
@@ -73356,9 +73362,9 @@
       <c r="L1530" s="67"/>
       <c r="M1530" s="67"/>
       <c r="N1530" s="67"/>
-      <c r="O1530" s="107"/>
-      <c r="P1530" s="107"/>
-      <c r="Q1530" s="107"/>
+      <c r="O1530" s="108"/>
+      <c r="P1530" s="108"/>
+      <c r="Q1530" s="108"/>
       <c r="R1530" s="18"/>
     </row>
     <row r="1531" ht="14.25" customHeight="1">
@@ -73376,9 +73382,9 @@
       <c r="L1531" s="67"/>
       <c r="M1531" s="67"/>
       <c r="N1531" s="67"/>
-      <c r="O1531" s="107"/>
-      <c r="P1531" s="107"/>
-      <c r="Q1531" s="107"/>
+      <c r="O1531" s="108"/>
+      <c r="P1531" s="108"/>
+      <c r="Q1531" s="108"/>
       <c r="R1531" s="18"/>
     </row>
     <row r="1532" ht="14.25" customHeight="1">
@@ -73396,9 +73402,9 @@
       <c r="L1532" s="67"/>
       <c r="M1532" s="67"/>
       <c r="N1532" s="67"/>
-      <c r="O1532" s="107"/>
-      <c r="P1532" s="107"/>
-      <c r="Q1532" s="107"/>
+      <c r="O1532" s="108"/>
+      <c r="P1532" s="108"/>
+      <c r="Q1532" s="108"/>
       <c r="R1532" s="18"/>
     </row>
     <row r="1533" ht="14.25" customHeight="1">
@@ -73416,9 +73422,9 @@
       <c r="L1533" s="67"/>
       <c r="M1533" s="67"/>
       <c r="N1533" s="67"/>
-      <c r="O1533" s="107"/>
-      <c r="P1533" s="107"/>
-      <c r="Q1533" s="107"/>
+      <c r="O1533" s="108"/>
+      <c r="P1533" s="108"/>
+      <c r="Q1533" s="108"/>
       <c r="R1533" s="18"/>
     </row>
     <row r="1534" ht="14.25" customHeight="1">
@@ -73436,9 +73442,9 @@
       <c r="L1534" s="67"/>
       <c r="M1534" s="67"/>
       <c r="N1534" s="67"/>
-      <c r="O1534" s="107"/>
-      <c r="P1534" s="107"/>
-      <c r="Q1534" s="107"/>
+      <c r="O1534" s="108"/>
+      <c r="P1534" s="108"/>
+      <c r="Q1534" s="108"/>
       <c r="R1534" s="18"/>
     </row>
     <row r="1535" ht="14.25" customHeight="1">
@@ -73456,9 +73462,9 @@
       <c r="L1535" s="67"/>
       <c r="M1535" s="67"/>
       <c r="N1535" s="67"/>
-      <c r="O1535" s="107"/>
-      <c r="P1535" s="107"/>
-      <c r="Q1535" s="107"/>
+      <c r="O1535" s="108"/>
+      <c r="P1535" s="108"/>
+      <c r="Q1535" s="108"/>
       <c r="R1535" s="18"/>
     </row>
     <row r="1536" ht="14.25" customHeight="1">
@@ -73476,9 +73482,9 @@
       <c r="L1536" s="67"/>
       <c r="M1536" s="67"/>
       <c r="N1536" s="67"/>
-      <c r="O1536" s="107"/>
-      <c r="P1536" s="107"/>
-      <c r="Q1536" s="107"/>
+      <c r="O1536" s="108"/>
+      <c r="P1536" s="108"/>
+      <c r="Q1536" s="108"/>
       <c r="R1536" s="18"/>
     </row>
     <row r="1537" ht="14.25" customHeight="1">
@@ -73496,9 +73502,9 @@
       <c r="L1537" s="67"/>
       <c r="M1537" s="67"/>
       <c r="N1537" s="67"/>
-      <c r="O1537" s="107"/>
-      <c r="P1537" s="107"/>
-      <c r="Q1537" s="107"/>
+      <c r="O1537" s="108"/>
+      <c r="P1537" s="108"/>
+      <c r="Q1537" s="108"/>
       <c r="R1537" s="18"/>
     </row>
     <row r="1538" ht="14.25" customHeight="1">
@@ -73516,9 +73522,9 @@
       <c r="L1538" s="67"/>
       <c r="M1538" s="67"/>
       <c r="N1538" s="67"/>
-      <c r="O1538" s="107"/>
-      <c r="P1538" s="107"/>
-      <c r="Q1538" s="107"/>
+      <c r="O1538" s="108"/>
+      <c r="P1538" s="108"/>
+      <c r="Q1538" s="108"/>
       <c r="R1538" s="18"/>
     </row>
     <row r="1539" ht="14.25" customHeight="1">
@@ -73536,9 +73542,9 @@
       <c r="L1539" s="67"/>
       <c r="M1539" s="67"/>
       <c r="N1539" s="67"/>
-      <c r="O1539" s="107"/>
-      <c r="P1539" s="107"/>
-      <c r="Q1539" s="107"/>
+      <c r="O1539" s="108"/>
+      <c r="P1539" s="108"/>
+      <c r="Q1539" s="108"/>
       <c r="R1539" s="18"/>
     </row>
     <row r="1540" ht="14.25" customHeight="1">
@@ -73556,9 +73562,9 @@
       <c r="L1540" s="67"/>
       <c r="M1540" s="67"/>
       <c r="N1540" s="67"/>
-      <c r="O1540" s="107"/>
-      <c r="P1540" s="107"/>
-      <c r="Q1540" s="107"/>
+      <c r="O1540" s="108"/>
+      <c r="P1540" s="108"/>
+      <c r="Q1540" s="108"/>
       <c r="R1540" s="18"/>
     </row>
     <row r="1541" ht="14.25" customHeight="1">
@@ -73576,9 +73582,9 @@
       <c r="L1541" s="67"/>
       <c r="M1541" s="67"/>
       <c r="N1541" s="67"/>
-      <c r="O1541" s="107"/>
-      <c r="P1541" s="107"/>
-      <c r="Q1541" s="107"/>
+      <c r="O1541" s="108"/>
+      <c r="P1541" s="108"/>
+      <c r="Q1541" s="108"/>
       <c r="R1541" s="18"/>
     </row>
     <row r="1542" ht="14.25" customHeight="1">
@@ -73596,9 +73602,9 @@
       <c r="L1542" s="67"/>
       <c r="M1542" s="67"/>
       <c r="N1542" s="67"/>
-      <c r="O1542" s="107"/>
-      <c r="P1542" s="107"/>
-      <c r="Q1542" s="107"/>
+      <c r="O1542" s="108"/>
+      <c r="P1542" s="108"/>
+      <c r="Q1542" s="108"/>
       <c r="R1542" s="18"/>
     </row>
     <row r="1543" ht="14.25" customHeight="1">
@@ -73616,9 +73622,9 @@
       <c r="L1543" s="67"/>
       <c r="M1543" s="67"/>
       <c r="N1543" s="67"/>
-      <c r="O1543" s="107"/>
-      <c r="P1543" s="107"/>
-      <c r="Q1543" s="107"/>
+      <c r="O1543" s="108"/>
+      <c r="P1543" s="108"/>
+      <c r="Q1543" s="108"/>
       <c r="R1543" s="18"/>
     </row>
     <row r="1544" ht="14.25" customHeight="1">
@@ -73636,9 +73642,9 @@
       <c r="L1544" s="67"/>
       <c r="M1544" s="67"/>
       <c r="N1544" s="67"/>
-      <c r="O1544" s="107"/>
-      <c r="P1544" s="107"/>
-      <c r="Q1544" s="107"/>
+      <c r="O1544" s="108"/>
+      <c r="P1544" s="108"/>
+      <c r="Q1544" s="108"/>
       <c r="R1544" s="18"/>
     </row>
     <row r="1545" ht="14.25" customHeight="1">
@@ -73656,9 +73662,9 @@
       <c r="L1545" s="67"/>
       <c r="M1545" s="67"/>
       <c r="N1545" s="67"/>
-      <c r="O1545" s="107"/>
-      <c r="P1545" s="107"/>
-      <c r="Q1545" s="107"/>
+      <c r="O1545" s="108"/>
+      <c r="P1545" s="108"/>
+      <c r="Q1545" s="108"/>
       <c r="R1545" s="18"/>
     </row>
     <row r="1546" ht="14.25" customHeight="1">
@@ -73676,9 +73682,9 @@
       <c r="L1546" s="67"/>
       <c r="M1546" s="67"/>
       <c r="N1546" s="67"/>
-      <c r="O1546" s="107"/>
-      <c r="P1546" s="107"/>
-      <c r="Q1546" s="107"/>
+      <c r="O1546" s="108"/>
+      <c r="P1546" s="108"/>
+      <c r="Q1546" s="108"/>
       <c r="R1546" s="18"/>
     </row>
     <row r="1547" ht="14.25" customHeight="1">
@@ -73696,9 +73702,9 @@
       <c r="L1547" s="67"/>
       <c r="M1547" s="67"/>
       <c r="N1547" s="67"/>
-      <c r="O1547" s="107"/>
-      <c r="P1547" s="107"/>
-      <c r="Q1547" s="107"/>
+      <c r="O1547" s="108"/>
+      <c r="P1547" s="108"/>
+      <c r="Q1547" s="108"/>
       <c r="R1547" s="18"/>
     </row>
     <row r="1548" ht="14.25" customHeight="1">
@@ -73716,9 +73722,9 @@
       <c r="L1548" s="67"/>
       <c r="M1548" s="67"/>
       <c r="N1548" s="67"/>
-      <c r="O1548" s="107"/>
-      <c r="P1548" s="107"/>
-      <c r="Q1548" s="107"/>
+      <c r="O1548" s="108"/>
+      <c r="P1548" s="108"/>
+      <c r="Q1548" s="108"/>
       <c r="R1548" s="18"/>
     </row>
     <row r="1549" ht="14.25" customHeight="1">
@@ -73736,9 +73742,9 @@
       <c r="L1549" s="67"/>
       <c r="M1549" s="67"/>
       <c r="N1549" s="67"/>
-      <c r="O1549" s="107"/>
-      <c r="P1549" s="107"/>
-      <c r="Q1549" s="107"/>
+      <c r="O1549" s="108"/>
+      <c r="P1549" s="108"/>
+      <c r="Q1549" s="108"/>
       <c r="R1549" s="18"/>
     </row>
     <row r="1550" ht="14.25" customHeight="1">
@@ -73756,9 +73762,9 @@
       <c r="L1550" s="67"/>
       <c r="M1550" s="67"/>
       <c r="N1550" s="67"/>
-      <c r="O1550" s="107"/>
-      <c r="P1550" s="107"/>
-      <c r="Q1550" s="107"/>
+      <c r="O1550" s="108"/>
+      <c r="P1550" s="108"/>
+      <c r="Q1550" s="108"/>
       <c r="R1550" s="18"/>
     </row>
     <row r="1551" ht="14.25" customHeight="1">
@@ -73776,9 +73782,9 @@
       <c r="L1551" s="67"/>
       <c r="M1551" s="67"/>
       <c r="N1551" s="67"/>
-      <c r="O1551" s="107"/>
-      <c r="P1551" s="107"/>
-      <c r="Q1551" s="107"/>
+      <c r="O1551" s="108"/>
+      <c r="P1551" s="108"/>
+      <c r="Q1551" s="108"/>
       <c r="R1551" s="18"/>
     </row>
     <row r="1552" ht="14.25" customHeight="1">
@@ -73796,9 +73802,9 @@
       <c r="L1552" s="67"/>
       <c r="M1552" s="67"/>
       <c r="N1552" s="67"/>
-      <c r="O1552" s="107"/>
-      <c r="P1552" s="107"/>
-      <c r="Q1552" s="107"/>
+      <c r="O1552" s="108"/>
+      <c r="P1552" s="108"/>
+      <c r="Q1552" s="108"/>
       <c r="R1552" s="18"/>
     </row>
     <row r="1553" ht="14.25" customHeight="1">
@@ -73816,9 +73822,9 @@
       <c r="L1553" s="67"/>
       <c r="M1553" s="67"/>
       <c r="N1553" s="67"/>
-      <c r="O1553" s="107"/>
-      <c r="P1553" s="107"/>
-      <c r="Q1553" s="107"/>
+      <c r="O1553" s="108"/>
+      <c r="P1553" s="108"/>
+      <c r="Q1553" s="108"/>
       <c r="R1553" s="18"/>
     </row>
     <row r="1554" ht="14.25" customHeight="1">
@@ -73836,9 +73842,9 @@
       <c r="L1554" s="67"/>
       <c r="M1554" s="67"/>
       <c r="N1554" s="67"/>
-      <c r="O1554" s="107"/>
-      <c r="P1554" s="107"/>
-      <c r="Q1554" s="107"/>
+      <c r="O1554" s="108"/>
+      <c r="P1554" s="108"/>
+      <c r="Q1554" s="108"/>
       <c r="R1554" s="18"/>
     </row>
     <row r="1555" ht="14.25" customHeight="1">
@@ -73856,9 +73862,9 @@
       <c r="L1555" s="67"/>
       <c r="M1555" s="67"/>
       <c r="N1555" s="67"/>
-      <c r="O1555" s="107"/>
-      <c r="P1555" s="107"/>
-      <c r="Q1555" s="107"/>
+      <c r="O1555" s="108"/>
+      <c r="P1555" s="108"/>
+      <c r="Q1555" s="108"/>
       <c r="R1555" s="18"/>
     </row>
     <row r="1556" ht="14.25" customHeight="1">
@@ -73876,9 +73882,9 @@
       <c r="L1556" s="67"/>
       <c r="M1556" s="67"/>
       <c r="N1556" s="67"/>
-      <c r="O1556" s="107"/>
-      <c r="P1556" s="107"/>
-      <c r="Q1556" s="107"/>
+      <c r="O1556" s="108"/>
+      <c r="P1556" s="108"/>
+      <c r="Q1556" s="108"/>
       <c r="R1556" s="18"/>
     </row>
     <row r="1557" ht="14.25" customHeight="1">
@@ -73896,9 +73902,9 @@
       <c r="L1557" s="67"/>
       <c r="M1557" s="67"/>
       <c r="N1557" s="67"/>
-      <c r="O1557" s="107"/>
-      <c r="P1557" s="107"/>
-      <c r="Q1557" s="107"/>
+      <c r="O1557" s="108"/>
+      <c r="P1557" s="108"/>
+      <c r="Q1557" s="108"/>
       <c r="R1557" s="18"/>
     </row>
     <row r="1558" ht="14.25" customHeight="1">
@@ -73916,9 +73922,9 @@
       <c r="L1558" s="67"/>
       <c r="M1558" s="67"/>
       <c r="N1558" s="67"/>
-      <c r="O1558" s="107"/>
-      <c r="P1558" s="107"/>
-      <c r="Q1558" s="107"/>
+      <c r="O1558" s="108"/>
+      <c r="P1558" s="108"/>
+      <c r="Q1558" s="108"/>
       <c r="R1558" s="18"/>
     </row>
     <row r="1559" ht="14.25" customHeight="1">
@@ -73936,9 +73942,9 @@
       <c r="L1559" s="67"/>
       <c r="M1559" s="67"/>
       <c r="N1559" s="67"/>
-      <c r="O1559" s="107"/>
-      <c r="P1559" s="107"/>
-      <c r="Q1559" s="107"/>
+      <c r="O1559" s="108"/>
+      <c r="P1559" s="108"/>
+      <c r="Q1559" s="108"/>
       <c r="R1559" s="18"/>
     </row>
     <row r="1560" ht="14.25" customHeight="1">
@@ -73956,9 +73962,9 @@
       <c r="L1560" s="67"/>
       <c r="M1560" s="67"/>
       <c r="N1560" s="67"/>
-      <c r="O1560" s="107"/>
-      <c r="P1560" s="107"/>
-      <c r="Q1560" s="107"/>
+      <c r="O1560" s="108"/>
+      <c r="P1560" s="108"/>
+      <c r="Q1560" s="108"/>
       <c r="R1560" s="18"/>
     </row>
     <row r="1561" ht="14.25" customHeight="1">
@@ -73976,9 +73982,9 @@
       <c r="L1561" s="67"/>
       <c r="M1561" s="67"/>
       <c r="N1561" s="67"/>
-      <c r="O1561" s="107"/>
-      <c r="P1561" s="107"/>
-      <c r="Q1561" s="107"/>
+      <c r="O1561" s="108"/>
+      <c r="P1561" s="108"/>
+      <c r="Q1561" s="108"/>
       <c r="R1561" s="18"/>
     </row>
     <row r="1562" ht="14.25" customHeight="1">
@@ -73996,9 +74002,9 @@
       <c r="L1562" s="67"/>
       <c r="M1562" s="67"/>
       <c r="N1562" s="67"/>
-      <c r="O1562" s="107"/>
-      <c r="P1562" s="107"/>
-      <c r="Q1562" s="107"/>
+      <c r="O1562" s="108"/>
+      <c r="P1562" s="108"/>
+      <c r="Q1562" s="108"/>
       <c r="R1562" s="18"/>
     </row>
     <row r="1563" ht="14.25" customHeight="1">
@@ -74016,9 +74022,9 @@
       <c r="L1563" s="67"/>
       <c r="M1563" s="67"/>
       <c r="N1563" s="67"/>
-      <c r="O1563" s="107"/>
-      <c r="P1563" s="107"/>
-      <c r="Q1563" s="107"/>
+      <c r="O1563" s="108"/>
+      <c r="P1563" s="108"/>
+      <c r="Q1563" s="108"/>
       <c r="R1563" s="18"/>
     </row>
     <row r="1564" ht="14.25" customHeight="1">
@@ -74036,9 +74042,9 @@
       <c r="L1564" s="67"/>
       <c r="M1564" s="67"/>
       <c r="N1564" s="67"/>
-      <c r="O1564" s="107"/>
-      <c r="P1564" s="107"/>
-      <c r="Q1564" s="107"/>
+      <c r="O1564" s="108"/>
+      <c r="P1564" s="108"/>
+      <c r="Q1564" s="108"/>
       <c r="R1564" s="18"/>
     </row>
     <row r="1565" ht="14.25" customHeight="1">
@@ -74056,9 +74062,9 @@
       <c r="L1565" s="67"/>
       <c r="M1565" s="67"/>
       <c r="N1565" s="67"/>
-      <c r="O1565" s="107"/>
-      <c r="P1565" s="107"/>
-      <c r="Q1565" s="107"/>
+      <c r="O1565" s="108"/>
+      <c r="P1565" s="108"/>
+      <c r="Q1565" s="108"/>
       <c r="R1565" s="18"/>
     </row>
     <row r="1566" ht="14.25" customHeight="1">
@@ -74076,9 +74082,9 @@
       <c r="L1566" s="67"/>
       <c r="M1566" s="67"/>
       <c r="N1566" s="67"/>
-      <c r="O1566" s="107"/>
-      <c r="P1566" s="107"/>
-      <c r="Q1566" s="107"/>
+      <c r="O1566" s="108"/>
+      <c r="P1566" s="108"/>
+      <c r="Q1566" s="108"/>
       <c r="R1566" s="18"/>
     </row>
     <row r="1567" ht="14.25" customHeight="1">
@@ -74096,9 +74102,9 @@
       <c r="L1567" s="67"/>
       <c r="M1567" s="67"/>
       <c r="N1567" s="67"/>
-      <c r="O1567" s="107"/>
-      <c r="P1567" s="107"/>
-      <c r="Q1567" s="107"/>
+      <c r="O1567" s="108"/>
+      <c r="P1567" s="108"/>
+      <c r="Q1567" s="108"/>
       <c r="R1567" s="18"/>
     </row>
     <row r="1568" ht="14.25" customHeight="1">
@@ -74116,9 +74122,9 @@
       <c r="L1568" s="67"/>
       <c r="M1568" s="67"/>
       <c r="N1568" s="67"/>
-      <c r="O1568" s="107"/>
-      <c r="P1568" s="107"/>
-      <c r="Q1568" s="107"/>
+      <c r="O1568" s="108"/>
+      <c r="P1568" s="108"/>
+      <c r="Q1568" s="108"/>
       <c r="R1568" s="18"/>
     </row>
     <row r="1569" ht="14.25" customHeight="1">
@@ -74136,9 +74142,9 @@
       <c r="L1569" s="67"/>
       <c r="M1569" s="67"/>
       <c r="N1569" s="67"/>
-      <c r="O1569" s="107"/>
-      <c r="P1569" s="107"/>
-      <c r="Q1569" s="107"/>
+      <c r="O1569" s="108"/>
+      <c r="P1569" s="108"/>
+      <c r="Q1569" s="108"/>
       <c r="R1569" s="18"/>
     </row>
     <row r="1570" ht="14.25" customHeight="1">
@@ -74156,9 +74162,9 @@
       <c r="L1570" s="67"/>
       <c r="M1570" s="67"/>
       <c r="N1570" s="67"/>
-      <c r="O1570" s="107"/>
-      <c r="P1570" s="107"/>
-      <c r="Q1570" s="107"/>
+      <c r="O1570" s="108"/>
+      <c r="P1570" s="108"/>
+      <c r="Q1570" s="108"/>
       <c r="R1570" s="18"/>
     </row>
     <row r="1571" ht="14.25" customHeight="1">
@@ -74176,9 +74182,9 @@
       <c r="L1571" s="67"/>
       <c r="M1571" s="67"/>
       <c r="N1571" s="67"/>
-      <c r="O1571" s="107"/>
-      <c r="P1571" s="107"/>
-      <c r="Q1571" s="107"/>
+      <c r="O1571" s="108"/>
+      <c r="P1571" s="108"/>
+      <c r="Q1571" s="108"/>
       <c r="R1571" s="18"/>
     </row>
     <row r="1572" ht="14.25" customHeight="1">
@@ -74196,9 +74202,9 @@
       <c r="L1572" s="67"/>
       <c r="M1572" s="67"/>
       <c r="N1572" s="67"/>
-      <c r="O1572" s="107"/>
-      <c r="P1572" s="107"/>
-      <c r="Q1572" s="107"/>
+      <c r="O1572" s="108"/>
+      <c r="P1572" s="108"/>
+      <c r="Q1572" s="108"/>
       <c r="R1572" s="18"/>
     </row>
     <row r="1573" ht="14.25" customHeight="1">
@@ -74216,9 +74222,9 @@
       <c r="L1573" s="67"/>
       <c r="M1573" s="67"/>
       <c r="N1573" s="67"/>
-      <c r="O1573" s="107"/>
-      <c r="P1573" s="107"/>
-      <c r="Q1573" s="107"/>
+      <c r="O1573" s="108"/>
+      <c r="P1573" s="108"/>
+      <c r="Q1573" s="108"/>
       <c r="R1573" s="18"/>
     </row>
     <row r="1574" ht="14.25" customHeight="1">
@@ -74236,9 +74242,9 @@
       <c r="L1574" s="67"/>
       <c r="M1574" s="67"/>
       <c r="N1574" s="67"/>
-      <c r="O1574" s="107"/>
-      <c r="P1574" s="107"/>
-      <c r="Q1574" s="107"/>
+      <c r="O1574" s="108"/>
+      <c r="P1574" s="108"/>
+      <c r="Q1574" s="108"/>
       <c r="R1574" s="18"/>
     </row>
     <row r="1575" ht="14.25" customHeight="1">
@@ -74256,9 +74262,9 @@
       <c r="L1575" s="67"/>
       <c r="M1575" s="67"/>
       <c r="N1575" s="67"/>
-      <c r="O1575" s="107"/>
-      <c r="P1575" s="107"/>
-      <c r="Q1575" s="107"/>
+      <c r="O1575" s="108"/>
+      <c r="P1575" s="108"/>
+      <c r="Q1575" s="108"/>
       <c r="R1575" s="18"/>
     </row>
     <row r="1576" ht="14.25" customHeight="1">
@@ -74276,9 +74282,9 @@
       <c r="L1576" s="67"/>
       <c r="M1576" s="67"/>
       <c r="N1576" s="67"/>
-      <c r="O1576" s="107"/>
-      <c r="P1576" s="107"/>
-      <c r="Q1576" s="107"/>
+      <c r="O1576" s="108"/>
+      <c r="P1576" s="108"/>
+      <c r="Q1576" s="108"/>
       <c r="R1576" s="18"/>
     </row>
     <row r="1577" ht="14.25" customHeight="1">
@@ -74296,9 +74302,9 @@
       <c r="L1577" s="67"/>
       <c r="M1577" s="67"/>
       <c r="N1577" s="67"/>
-      <c r="O1577" s="107"/>
-      <c r="P1577" s="107"/>
-      <c r="Q1577" s="107"/>
+      <c r="O1577" s="108"/>
+      <c r="P1577" s="108"/>
+      <c r="Q1577" s="108"/>
       <c r="R1577" s="18"/>
     </row>
     <row r="1578" ht="14.25" customHeight="1">
@@ -74316,9 +74322,9 @@
       <c r="L1578" s="67"/>
       <c r="M1578" s="67"/>
       <c r="N1578" s="67"/>
-      <c r="O1578" s="107"/>
-      <c r="P1578" s="107"/>
-      <c r="Q1578" s="107"/>
+      <c r="O1578" s="108"/>
+      <c r="P1578" s="108"/>
+      <c r="Q1578" s="108"/>
       <c r="R1578" s="18"/>
     </row>
     <row r="1579" ht="14.25" customHeight="1">
@@ -74336,9 +74342,9 @@
       <c r="L1579" s="67"/>
       <c r="M1579" s="67"/>
       <c r="N1579" s="67"/>
-      <c r="O1579" s="107"/>
-      <c r="P1579" s="107"/>
-      <c r="Q1579" s="107"/>
+      <c r="O1579" s="108"/>
+      <c r="P1579" s="108"/>
+      <c r="Q1579" s="108"/>
       <c r="R1579" s="18"/>
     </row>
     <row r="1580" ht="14.25" customHeight="1">
@@ -74356,9 +74362,9 @@
       <c r="L1580" s="67"/>
       <c r="M1580" s="67"/>
       <c r="N1580" s="67"/>
-      <c r="O1580" s="107"/>
-      <c r="P1580" s="107"/>
-      <c r="Q1580" s="107"/>
+      <c r="O1580" s="108"/>
+      <c r="P1580" s="108"/>
+      <c r="Q1580" s="108"/>
       <c r="R1580" s="18"/>
     </row>
     <row r="1581" ht="14.25" customHeight="1">
@@ -74376,9 +74382,9 @@
       <c r="L1581" s="67"/>
       <c r="M1581" s="67"/>
       <c r="N1581" s="67"/>
-      <c r="O1581" s="107"/>
-      <c r="P1581" s="107"/>
-      <c r="Q1581" s="107"/>
+      <c r="O1581" s="108"/>
+      <c r="P1581" s="108"/>
+      <c r="Q1581" s="108"/>
       <c r="R1581" s="18"/>
     </row>
     <row r="1582" ht="14.25" customHeight="1">
@@ -74396,30 +74402,30 @@
       <c r="L1582" s="67"/>
       <c r="M1582" s="67"/>
       <c r="N1582" s="67"/>
-      <c r="O1582" s="107"/>
-      <c r="P1582" s="107"/>
-      <c r="Q1582" s="107"/>
+      <c r="O1582" s="108"/>
+      <c r="P1582" s="108"/>
+      <c r="Q1582" s="108"/>
       <c r="R1582" s="18"/>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AF3683B5-F8C1-4676-8875-DFF4E49244D8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{40FA5E1B-C5EB-455F-B203-E0F14D7EBB5E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$563:$O$573"/>
     </customSheetView>
-    <customSheetView guid="{AF08CE56-10A1-41B5-A629-98660D93CDBF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{BA6B6059-F5E0-4174-8CF1-FF6A314AB53A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$430:$O$463">
         <sortState ref="A430:O463">
           <sortCondition ref="A430:A463"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{F90FC4F1-4D79-4326-B74A-58DDBD1EE00A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{264B2680-D2AA-4DAF-844C-87FBF86A37AD}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$534:$O$566"/>
     </customSheetView>
-    <customSheetView guid="{672F1D54-48F7-447A-BECD-37319A8CB29D}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{61F99F44-018C-4D2A-BB19-9C5A3EB91A54}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$522:$O$532"/>
     </customSheetView>
-    <customSheetView guid="{8FB0DD3F-556A-489F-A2E6-4F4B5111C046}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E1AD44D7-17A4-40F7-A83B-20751DC62A07}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$552:$O$566">
         <filterColumn colId="6">
           <filters>
@@ -74431,30 +74437,30 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{0A7FB29B-A501-4D6C-8725-BFAA01E072CB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C14B6AC9-DFE9-4C4F-9611-4466C0AB1431}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$120:$O$150">
         <sortState ref="A120:O150">
           <sortCondition ref="A120:A150"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{96E144DE-E01E-454E-A486-C5A103E89625}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CB1C652D-28EA-40B5-B616-4D40B77EB7DE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$Q$1127"/>
     </customSheetView>
-    <customSheetView guid="{A55BA79B-10CF-46B6-BB5E-2894ED2CD78A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C5B558FD-607F-4593-9DED-5B507F1AE659}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$892:$O$1025"/>
     </customSheetView>
-    <customSheetView guid="{D31D0E54-2CBC-4F21-A305-8D9E3415E377}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{24E94623-F15F-41D3-B20D-8043384811F4}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$37:$O$69"/>
     </customSheetView>
-    <customSheetView guid="{33F724DB-E55D-4876-9FE3-E3C1F850924E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5BCEB546-CE14-4403-9E1D-44E4F254BDA1}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$75:$O$158">
         <sortState ref="A75:O158">
           <sortCondition ref="A75:A158"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E2E7E9F0-6DBB-4EEB-8F7D-E5BC792CAB98}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{619B0F4D-5F11-4A79-A468-9E9AF70094BE}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$2:$O$36">
         <filterColumn colId="6">
           <filters>
@@ -74463,13 +74469,13 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{9481296E-68BA-4F5C-BCCD-A8DB9D2569B2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{1DC419F2-ABC9-4934-8E9E-868D7746C613}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$972:$O$995"/>
     </customSheetView>
-    <customSheetView guid="{192247FB-FB11-4E2B-AEDF-46B45F1FD1BE}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DFA6D1E7-3C70-469D-A18F-23C7A2B65A79}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$336:$O$347"/>
     </customSheetView>
-    <customSheetView guid="{00D9435B-3777-4E36-BA85-27A2B8C68286}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{C5098DDC-EE23-4F19-A2FA-DDF95A44691D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$719:$O$770">
         <filterColumn colId="4">
           <filters>
@@ -74482,35 +74488,35 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{C38E51BD-4161-4570-BD5F-2D6C4667431A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{D40893D5-F37B-4E2A-A296-BF72F3556B2B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$771:$O$794"/>
     </customSheetView>
-    <customSheetView guid="{C14F1927-5DD6-4B0C-BA8E-AABB118DC604}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{E172CFE5-C5F6-496D-B060-428F37C5224D}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1011:$O$1033"/>
     </customSheetView>
-    <customSheetView guid="{0E393716-F5EF-49F8-8E19-7F465497811A}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{FD3EB3DD-34F1-46DD-9ED6-A2BD0B3B4C99}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$711:$O$725"/>
     </customSheetView>
-    <customSheetView guid="{5CD36889-088A-4FE1-ACB1-2703A52116D7}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{69E4B2E3-E948-4470-A9E1-962A05693F06}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1041:$O$1076"/>
     </customSheetView>
-    <customSheetView guid="{9AE25EA8-F472-46EB-A224-311B758FC5A9}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{F536759E-3603-4093-8C13-33FB294F176E}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$833:$O$864"/>
     </customSheetView>
-    <customSheetView guid="{79D53D04-EF3B-4536-BD5B-37AE15F22DD5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{160880BC-4B37-439A-A0E7-C50A20AF2455}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$776:$O$812">
         <sortState ref="A776:O812">
           <sortCondition ref="A776:A812"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{5F030F73-D766-4112-9BFB-02822CA1F7A4}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CEAF8D89-8901-46A0-9995-E76185D9B051}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$804:$O$875"/>
     </customSheetView>
-    <customSheetView guid="{E74FD813-0BAC-4114-8E35-44ECF406C0DF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{32FEF8B7-352B-4EA1-A59C-3288BFC18E2F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$574:$O$585"/>
     </customSheetView>
-    <customSheetView guid="{DF32B07E-CB76-49DC-B175-B8FD1457BD77}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{52138AF8-20C3-4CF2-8020-DBBA8D311C73}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$729:$O$775">
         <filterColumn colId="6">
           <filters>
@@ -74522,24 +74528,24 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{D85920DF-2BDD-403E-9470-73911BB61354}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8A88C6C7-D735-4354-800C-809B03B02925}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$268:$H$315">
         <sortState ref="A268:H315">
           <sortCondition ref="A268:A315"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{E3DBA228-63AF-49BA-865F-8CAF1CCFF9E0}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{09D651C6-6A50-41FA-9A4A-EE9984196BB7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$566:$O$575">
         <sortState ref="A566:O575">
           <sortCondition ref="A566:A575"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{49D08935-1F15-4F2A-A72A-6176A98D0C5E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{90FAD1CC-59EC-4DA8-A875-E4C4A8BB1123}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$876:$O$891"/>
     </customSheetView>
-    <customSheetView guid="{3F74834D-47B7-42BB-8E8D-E3E04AA742D6}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{07A01874-D4BF-4C22-9EE3-2332F23E754F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$145:$O$267">
         <filterColumn colId="14">
           <filters>
@@ -74551,10 +74557,10 @@
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{447FB09E-42A7-473D-9AC9-7E705616FCE1}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{527E461C-D126-495D-AAA5-42FBFFD034FA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$795:$O$803"/>
     </customSheetView>
-    <customSheetView guid="{E0CA2331-884C-43B6-806E-BEFAC10E4243}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{4962F794-37AE-426A-94B7-6EFF4D61DFE7}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1127">
         <filterColumn colId="2">
           <filters>
@@ -74571,7 +74577,7 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{904CED82-111B-4606-8FBE-B7AEB36EABF3}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2C3FA2C0-328A-410B-80F4-CD3A62DB43DB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1127">
         <filterColumn colId="16">
           <filters>
@@ -74580,36 +74586,36 @@
         </filterColumn>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A3A8BB78-F6E4-48B2-8F0E-7FD8E70AE862}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{5F726830-2E89-4ECB-80AD-FCE3A819B909}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$1127"/>
     </customSheetView>
-    <customSheetView guid="{5D6600A5-353F-4D40-96F9-9DA0C97A2BE2}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{DC44F18E-FDC7-4BCD-B3D8-D6C1BFD55E04}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$77:$O$129"/>
     </customSheetView>
-    <customSheetView guid="{FA1E700D-18AE-4335-B47F-A12FCC8E1220}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{185DA54E-E1C2-4C6F-BFE5-A86331F4D0D2}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$316:$O$335">
         <sortState ref="A316:O335">
           <sortCondition ref="A316:A335"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{28079407-71F3-45F7-B851-2505F128DCFA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{39A8221B-6CD7-4593-B578-77C22C00743F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$574:$O$592"/>
     </customSheetView>
-    <customSheetView guid="{51385F8D-4D3A-4003-BDEB-8EE6EEC7191E}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{590CB3D5-79B3-42E4-A691-9F9A9F30CF80}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$626:$O$659"/>
     </customSheetView>
-    <customSheetView guid="{56B3161D-69F7-42C8-9680-28BD309D5607}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{9BB733BE-C004-47EB-8B15-6E78A58CE167}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$925:$O$962">
         <sortState ref="A925:O962">
           <sortCondition ref="A925:A962"/>
         </sortState>
       </autoFilter>
     </customSheetView>
-    <customSheetView guid="{A20E0281-2D07-44E1-A15A-9BF4EEFCC725}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{CB8023B0-5EB8-40C9-B450-22AE1004262C}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$996:$O$1007"/>
     </customSheetView>
-    <customSheetView guid="{7C81A234-BAE7-40C0-8D74-01BB42F0888C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{B9FAE1A3-84C0-48D4-86F3-27B0290310E8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$268:$O$315"/>
     </customSheetView>
   </customSheetViews>
@@ -75801,476 +75807,476 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="109" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="109" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="110" t="s">
         <v>3577</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="110" t="s">
         <v>3578</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="110" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="111" t="s">
         <v>1387</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="111" t="s">
         <v>1388</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="111"/>
     </row>
     <row r="4">
-      <c r="A4" s="111" t="s">
+      <c r="A4" s="112" t="s">
         <v>1485</v>
       </c>
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="112" t="s">
         <v>1486</v>
       </c>
-      <c r="C4" s="111"/>
+      <c r="C4" s="112"/>
     </row>
     <row r="5">
-      <c r="A5" s="110" t="s">
+      <c r="A5" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="113" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="110" t="s">
+      <c r="C5" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="111" t="s">
+      <c r="A6" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="111" t="s">
+      <c r="C6" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="C7" s="110" t="s">
+      <c r="C7" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="112" t="s">
         <v>1683</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="112" t="s">
         <v>1684</v>
       </c>
-      <c r="C8" s="111"/>
+      <c r="C8" s="112"/>
     </row>
     <row r="9">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="111" t="s">
         <v>1910</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="113" t="s">
         <v>1911</v>
       </c>
-      <c r="C9" s="110"/>
+      <c r="C9" s="111"/>
     </row>
     <row r="10">
-      <c r="A10" s="111" t="s">
+      <c r="A10" s="112" t="s">
         <v>1945</v>
       </c>
-      <c r="B10" s="111" t="s">
+      <c r="B10" s="112" t="s">
         <v>1946</v>
       </c>
-      <c r="C10" s="111"/>
+      <c r="C10" s="112"/>
     </row>
     <row r="11">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="111" t="s">
         <v>2043</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="111" t="s">
         <v>2044</v>
       </c>
-      <c r="C11" s="110"/>
+      <c r="C11" s="111"/>
     </row>
     <row r="12">
-      <c r="A12" s="111" t="s">
+      <c r="A12" s="112" t="s">
         <v>2096</v>
       </c>
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="112" t="s">
         <v>2097</v>
       </c>
-      <c r="C12" s="111"/>
+      <c r="C12" s="112"/>
     </row>
     <row r="13">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="111" t="s">
         <v>2203</v>
       </c>
-      <c r="B13" s="110" t="s">
+      <c r="B13" s="111" t="s">
         <v>2204</v>
       </c>
-      <c r="C13" s="110"/>
+      <c r="C13" s="111"/>
     </row>
     <row r="14">
-      <c r="A14" s="111" t="s">
+      <c r="A14" s="112" t="s">
         <v>2251</v>
       </c>
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="112" t="s">
         <v>2252</v>
       </c>
-      <c r="C14" s="111"/>
+      <c r="C14" s="112"/>
     </row>
     <row r="15">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="111" t="s">
         <v>2362</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="111" t="s">
         <v>2363</v>
       </c>
-      <c r="C15" s="110" t="s">
+      <c r="C15" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="111" t="s">
+      <c r="A16" s="112" t="s">
         <v>2582</v>
       </c>
-      <c r="B16" s="111" t="s">
+      <c r="B16" s="112" t="s">
         <v>2583</v>
       </c>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="111" t="s">
         <v>2990</v>
       </c>
-      <c r="B17" s="110" t="s">
+      <c r="B17" s="111" t="s">
         <v>2991</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="B18" s="112" t="s">
         <v>237</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="111" t="s">
         <v>269</v>
       </c>
-      <c r="C19" s="110" t="s">
+      <c r="C19" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="111" t="s">
+      <c r="A20" s="112" t="s">
         <v>338</v>
       </c>
-      <c r="B20" s="109" t="s">
+      <c r="B20" s="110" t="s">
         <v>339</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="111" t="s">
         <v>3039</v>
       </c>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="111" t="s">
         <v>3040</v>
       </c>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="112" t="s">
         <v>439</v>
       </c>
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="112" t="s">
         <v>440</v>
       </c>
-      <c r="C22" s="111"/>
+      <c r="C22" s="112"/>
     </row>
     <row r="23">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="111" t="s">
         <v>3122</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="111" t="s">
         <v>3123</v>
       </c>
-      <c r="C23" s="110"/>
+      <c r="C23" s="111"/>
     </row>
     <row r="24">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="112" t="s">
         <v>3223</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="112" t="s">
         <v>3224</v>
       </c>
-      <c r="C24" s="111"/>
+      <c r="C24" s="112"/>
     </row>
     <row r="25">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="111" t="s">
         <v>496</v>
       </c>
-      <c r="B25" s="110" t="s">
+      <c r="B25" s="111" t="s">
         <v>497</v>
       </c>
-      <c r="C25" s="110"/>
+      <c r="C25" s="111"/>
     </row>
     <row r="26">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="112" t="s">
         <v>622</v>
       </c>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="112" t="s">
         <v>623</v>
       </c>
-      <c r="C26" s="111"/>
+      <c r="C26" s="112"/>
     </row>
     <row r="27">
-      <c r="A27" s="110" t="s">
+      <c r="A27" s="111" t="s">
         <v>597</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="111" t="s">
         <v>598</v>
       </c>
-      <c r="C27" s="110"/>
+      <c r="C27" s="111"/>
     </row>
     <row r="28">
-      <c r="A28" s="111" t="s">
+      <c r="A28" s="112" t="s">
         <v>690</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="112" t="s">
         <v>691</v>
       </c>
-      <c r="C28" s="111"/>
+      <c r="C28" s="112"/>
     </row>
     <row r="29">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="113" t="s">
         <v>775</v>
       </c>
-      <c r="B29" s="112" t="s">
+      <c r="B29" s="113" t="s">
         <v>776</v>
       </c>
-      <c r="C29" s="110"/>
+      <c r="C29" s="111"/>
     </row>
     <row r="30">
-      <c r="A30" s="111" t="s">
+      <c r="A30" s="112" t="s">
         <v>638</v>
       </c>
-      <c r="B30" s="111" t="s">
+      <c r="B30" s="112" t="s">
         <v>639</v>
       </c>
-      <c r="C30" s="111"/>
+      <c r="C30" s="112"/>
     </row>
     <row r="31">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="111" t="s">
         <v>803</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="111" t="s">
         <v>804</v>
       </c>
-      <c r="C31" s="110" t="s">
+      <c r="C31" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="111" t="s">
+      <c r="A32" s="112" t="s">
         <v>870</v>
       </c>
-      <c r="B32" s="111" t="s">
+      <c r="B32" s="112" t="s">
         <v>871</v>
       </c>
-      <c r="C32" s="111" t="s">
+      <c r="C32" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="111" t="s">
         <v>3291</v>
       </c>
-      <c r="B33" s="110" t="s">
+      <c r="B33" s="111" t="s">
         <v>3292</v>
       </c>
-      <c r="C33" s="110" t="s">
+      <c r="C33" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="111" t="s">
+      <c r="A34" s="112" t="s">
         <v>930</v>
       </c>
-      <c r="B34" s="111" t="s">
+      <c r="B34" s="112" t="s">
         <v>931</v>
       </c>
-      <c r="C34" s="111" t="s">
+      <c r="C34" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="111" t="s">
         <v>3312</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="111" t="s">
         <v>3313</v>
       </c>
-      <c r="C35" s="110" t="s">
+      <c r="C35" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="111" t="s">
+      <c r="A36" s="112" t="s">
         <v>1042</v>
       </c>
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="112" t="s">
         <v>1043</v>
       </c>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="110" t="s">
+      <c r="A37" s="111" t="s">
         <v>1143</v>
       </c>
-      <c r="B37" s="110" t="s">
+      <c r="B37" s="111" t="s">
         <v>1144</v>
       </c>
-      <c r="C37" s="110" t="s">
+      <c r="C37" s="111" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="111" t="s">
+      <c r="A38" s="112" t="s">
         <v>3357</v>
       </c>
-      <c r="B38" s="111" t="s">
+      <c r="B38" s="112" t="s">
         <v>3358</v>
       </c>
-      <c r="C38" s="111" t="s">
+      <c r="C38" s="112" t="s">
         <v>3579</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="111" t="s">
         <v>1164</v>
       </c>
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="111" t="s">
         <v>1165</v>
       </c>
-      <c r="C39" s="110"/>
+      <c r="C39" s="111"/>
     </row>
     <row r="40">
-      <c r="A40" s="111" t="s">
+      <c r="A40" s="112" t="s">
         <v>3386</v>
       </c>
-      <c r="B40" s="111" t="s">
+      <c r="B40" s="112" t="s">
         <v>3387</v>
       </c>
-      <c r="C40" s="111"/>
+      <c r="C40" s="112"/>
     </row>
     <row r="41">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="111" t="s">
         <v>1195</v>
       </c>
-      <c r="B41" s="110" t="s">
+      <c r="B41" s="111" t="s">
         <v>1196</v>
       </c>
-      <c r="C41" s="110"/>
+      <c r="C41" s="111"/>
     </row>
     <row r="42">
-      <c r="A42" s="111" t="s">
+      <c r="A42" s="112" t="s">
         <v>1234</v>
       </c>
-      <c r="B42" s="111" t="s">
+      <c r="B42" s="112" t="s">
         <v>1235</v>
       </c>
-      <c r="C42" s="111"/>
+      <c r="C42" s="112"/>
     </row>
     <row r="43">
-      <c r="A43" s="110" t="s">
+      <c r="A43" s="111" t="s">
         <v>1308</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="111" t="s">
         <v>1309</v>
       </c>
-      <c r="C43" s="110"/>
+      <c r="C43" s="111"/>
     </row>
     <row r="44">
-      <c r="A44" s="111" t="s">
+      <c r="A44" s="112" t="s">
         <v>3438</v>
       </c>
-      <c r="B44" s="111" t="s">
+      <c r="B44" s="112" t="s">
         <v>3439</v>
       </c>
-      <c r="C44" s="111"/>
+      <c r="C44" s="112"/>
     </row>
     <row r="45">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="111" t="s">
         <v>3580</v>
       </c>
-      <c r="B45" s="110" t="s">
+      <c r="B45" s="111" t="s">
         <v>3581</v>
       </c>
-      <c r="C45" s="110"/>
+      <c r="C45" s="111"/>
     </row>
     <row r="46">
-      <c r="A46" s="111" t="s">
+      <c r="A46" s="112" t="s">
         <v>3582</v>
       </c>
-      <c r="B46" s="111" t="s">
+      <c r="B46" s="112" t="s">
         <v>3583</v>
       </c>
-      <c r="C46" s="111"/>
+      <c r="C46" s="112"/>
     </row>
     <row r="47">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="111" t="s">
         <v>3584</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="111" t="s">
         <v>3585</v>
       </c>
-      <c r="C47" s="110"/>
+      <c r="C47" s="111"/>
     </row>
     <row r="48">
-      <c r="A48" s="111" t="s">
+      <c r="A48" s="112" t="s">
         <v>3491</v>
       </c>
-      <c r="B48" s="111" t="s">
+      <c r="B48" s="112" t="s">
         <v>3492</v>
       </c>
-      <c r="C48" s="111"/>
+      <c r="C48" s="112"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
